--- a/tests/integration_test_files/simple_1.xlsx
+++ b/tests/integration_test_files/simple_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C95D93-E3E2-D840-88BB-5551AF005948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3961CEB9-990C-014B-8EE6-8EE126B65A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35040" yWindow="3820" windowWidth="33260" windowHeight="19480" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="21900" yWindow="1240" windowWidth="41140" windowHeight="23360" firstSheet="3" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <sheet name="studyDesignProcedures" sheetId="11" r:id="rId12"/>
     <sheet name="studyDesignEncounters" sheetId="12" r:id="rId13"/>
     <sheet name="studyDesignElements" sheetId="13" r:id="rId14"/>
-    <sheet name="configuration" sheetId="10" r:id="rId15"/>
+    <sheet name="studyDesignContent" sheetId="17" r:id="rId15"/>
+    <sheet name="Sheet2" sheetId="18" r:id="rId16"/>
+    <sheet name="configuration" sheetId="10" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="629">
   <si>
     <t>Epoch</t>
   </si>
@@ -920,13 +922,1038 @@
   </si>
   <si>
     <t>Only do this if they have two heads</t>
+  </si>
+  <si>
+    <t>sectionTitle</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>PROTOCOL SUMMARY</t>
+  </si>
+  <si>
+    <t>INTRODUCTION</t>
+  </si>
+  <si>
+    <t>TRIAL OBJECTIVES, ENDPOINTS AND ESTIMANDS</t>
+  </si>
+  <si>
+    <t>TRIAL DESIGN</t>
+  </si>
+  <si>
+    <t>TRIAL POPULATION</t>
+  </si>
+  <si>
+    <t>Protocol Synopsis</t>
+  </si>
+  <si>
+    <t>Trial Schema</t>
+  </si>
+  <si>
+    <t>Schedule of Activities</t>
+  </si>
+  <si>
+    <t>Purpose of Trial</t>
+  </si>
+  <si>
+    <t>Summary of Benefits and Risks</t>
+  </si>
+  <si>
+    <t>Description of Trial Design</t>
+  </si>
+  <si>
+    <t>Participant Input into Design</t>
+  </si>
+  <si>
+    <t>Rationale for Trial Design</t>
+  </si>
+  <si>
+    <t>Rationale for Comparator</t>
+  </si>
+  <si>
+    <t>Rationale for Adaptive or Novel Trial Design</t>
+  </si>
+  <si>
+    <t>Other Trial Design Considerations</t>
+  </si>
+  <si>
+    <t>Access to Trial Intervention After End of Trial</t>
+  </si>
+  <si>
+    <t>Start of Trial and End of Trial</t>
+  </si>
+  <si>
+    <t>Selection of Trial Population</t>
+  </si>
+  <si>
+    <t>Rationale for Trial Population</t>
+  </si>
+  <si>
+    <t>Inclusion Criteria</t>
+  </si>
+  <si>
+    <t>Exclusion Criteria</t>
+  </si>
+  <si>
+    <t>Lifestyle Considerations</t>
+  </si>
+  <si>
+    <t>Meals and Dietary Restrictions</t>
+  </si>
+  <si>
+    <t>Caffeine, Alcohol, Tobacco, and Other Habits</t>
+  </si>
+  <si>
+    <t>Physical Activity</t>
+  </si>
+  <si>
+    <t>Other Activity</t>
+  </si>
+  <si>
+    <t>Screen Failures</t>
+  </si>
+  <si>
+    <t>TRIAL INTERVENTION AND CONCOMITANT THERAPY</t>
+  </si>
+  <si>
+    <t>Description of Trial Intervention</t>
+  </si>
+  <si>
+    <t>Rationale for Trial Intervention</t>
+  </si>
+  <si>
+    <t>Dosing and Administration</t>
+  </si>
+  <si>
+    <t>Trial Intervention Dose Modification</t>
+  </si>
+  <si>
+    <t>Treatment of Overdose</t>
+  </si>
+  <si>
+    <t>Preparation, Handling, Storage and Accountability</t>
+  </si>
+  <si>
+    <t>Preparation of Trial Intervention</t>
+  </si>
+  <si>
+    <t>Handling and Storage of Trial Intervention</t>
+  </si>
+  <si>
+    <t>Accountability of Trial Intervention</t>
+  </si>
+  <si>
+    <t>Participant Assignment, Randomisation and Blinding</t>
+  </si>
+  <si>
+    <t>Participant Assignment</t>
+  </si>
+  <si>
+    <t>Randomisation</t>
+  </si>
+  <si>
+    <t>Blinding and Unblinding</t>
+  </si>
+  <si>
+    <t>Trial Intervention Compliance</t>
+  </si>
+  <si>
+    <t>Concomitant Therapy</t>
+  </si>
+  <si>
+    <t>Prohibited Concomitant Therapy</t>
+  </si>
+  <si>
+    <t>Permitted Concomitant Therapy</t>
+  </si>
+  <si>
+    <t>Rescue Therapy</t>
+  </si>
+  <si>
+    <t>Other Therapy</t>
+  </si>
+  <si>
+    <t>DISCONTINUATION OF TRIAL INTERVENTION AND PARTICIP</t>
+  </si>
+  <si>
+    <t>WITHDRAWAL FROM TRIAL</t>
+  </si>
+  <si>
+    <t>Discontinuation of Trial Intervention</t>
+  </si>
+  <si>
+    <t>Criteria for Permanent Discontinuation of Trial Intervention</t>
+  </si>
+  <si>
+    <t>Temporary Discontinuation or Interruption of Trial Intervention</t>
+  </si>
+  <si>
+    <t>Rechallenge</t>
+  </si>
+  <si>
+    <t>Participant Withdrawal from the Trial</t>
+  </si>
+  <si>
+    <t>Lost to Follow-Up</t>
+  </si>
+  <si>
+    <t>Trial Stopping Rules</t>
+  </si>
+  <si>
+    <t>TRIAL ASSESSMENTS AND PROCEDURES</t>
+  </si>
+  <si>
+    <t>Screening/Baseline Assessments and Procedures</t>
+  </si>
+  <si>
+    <t>Efficacy Assessments and Procedures</t>
+  </si>
+  <si>
+    <t>Safety Assessments and Procedures</t>
+  </si>
+  <si>
+    <t>Physical Examination</t>
+  </si>
+  <si>
+    <t>Vital Signs</t>
+  </si>
+  <si>
+    <t>Electrocardiograms</t>
+  </si>
+  <si>
+    <t>Clinical Laboratory Assessments</t>
+  </si>
+  <si>
+    <t>Suicidal Ideation and Behaviour Risk Monitoring</t>
+  </si>
+  <si>
+    <t>Adverse Events and Serious Adverse Events</t>
+  </si>
+  <si>
+    <t>Definitions of AE and SAE</t>
+  </si>
+  <si>
+    <t>Time Period and Frequency for Collecting AE and SAE Information</t>
+  </si>
+  <si>
+    <t>Identifying AEs and SAEs</t>
+  </si>
+  <si>
+    <t>Recording of AEs and SAEs</t>
+  </si>
+  <si>
+    <t>Follow-up of AEs and SAEs</t>
+  </si>
+  <si>
+    <t>Reporting of SAEs</t>
+  </si>
+  <si>
+    <t>Regulatory Reporting Requirements for SAEs</t>
+  </si>
+  <si>
+    <t>Serious and Unexpected Adverse Reaction Reporting</t>
+  </si>
+  <si>
+    <t>Adverse Events of Special Interest</t>
+  </si>
+  <si>
+    <t>Disease-related Events or Outcomes Not Qualifying as AEs or SAEs</t>
+  </si>
+  <si>
+    <t>Pregnancy and Postpartum Information</t>
+  </si>
+  <si>
+    <t>Participants Who Become Pregnant During the Trial</t>
+  </si>
+  <si>
+    <t>Participants Whose Partners Become Pregnant</t>
+  </si>
+  <si>
+    <t>Medical Device Product Complaints for Drug/Device Combination Products</t>
+  </si>
+  <si>
+    <t>Definition of Medical Device Product Complaints</t>
+  </si>
+  <si>
+    <t>Recording of Medical Device Product Complaints</t>
+  </si>
+  <si>
+    <t>Time Period and Frequency for Collecting Medical Device Product Complaints .</t>
+  </si>
+  <si>
+    <t>Follow-Up of Medical Device Product Complaints</t>
+  </si>
+  <si>
+    <t>Regulatory Reporting Requirements for Medical Device Product Complaints</t>
+  </si>
+  <si>
+    <t>Pharmacokinetics</t>
+  </si>
+  <si>
+    <t>Genetics</t>
+  </si>
+  <si>
+    <t>Biomarkers</t>
+  </si>
+  <si>
+    <t>Immunogenicity Assessments</t>
+  </si>
+  <si>
+    <t>Medical Resource Utilisation and Health Economics</t>
+  </si>
+  <si>
+    <t>STATISTICAL CONSIDERATIONS</t>
+  </si>
+  <si>
+    <t>Analysis Sets</t>
+  </si>
+  <si>
+    <t>Analyses Supporting Primary Objective(s)</t>
+  </si>
+  <si>
+    <t>Statistical Model, Hypothesis, and Method of Analysis</t>
+  </si>
+  <si>
+    <t>Handling of Intercurrent Events of Primary Estimand(s)</t>
+  </si>
+  <si>
+    <t>Handling of Missing Data</t>
+  </si>
+  <si>
+    <t>Sensitivity Analysis</t>
+  </si>
+  <si>
+    <t>Supplementary Analysis</t>
+  </si>
+  <si>
+    <t>Analysis Supporting Secondary Objective(s)</t>
+  </si>
+  <si>
+    <t>Analysis of Exploratory Objective(s)</t>
+  </si>
+  <si>
+    <t>Safety Analyses</t>
+  </si>
+  <si>
+    <t>Other Analyses</t>
+  </si>
+  <si>
+    <t>Interim Analyses</t>
+  </si>
+  <si>
+    <t>Sample Size Determination</t>
+  </si>
+  <si>
+    <t>Protocol Deviations</t>
+  </si>
+  <si>
+    <t>GENERAL CONSIDERATIONS: REGULATORY, ETHICAL, AND TRIAL OVERSIGHT</t>
+  </si>
+  <si>
+    <t>Regulatory and Ethical Considerations</t>
+  </si>
+  <si>
+    <t>Committees</t>
+  </si>
+  <si>
+    <t>Informed Consent Process</t>
+  </si>
+  <si>
+    <t>Data Protection</t>
+  </si>
+  <si>
+    <t>Early Site Closure or Trial Termination</t>
+  </si>
+  <si>
+    <t>GENERAL CONSIDERATIONS: RISK MANAGEMENT AND QUALITY ASSURANCE</t>
+  </si>
+  <si>
+    <t>Quality Tolerance Limits</t>
+  </si>
+  <si>
+    <t>Data Quality Assurance</t>
+  </si>
+  <si>
+    <t>Source Data</t>
+  </si>
+  <si>
+    <t>APPENDIX: ADVERSE EVENTS AND SERIOUS ADVERSE EVENTS - DEFINITIONS, SEVERITY, AND CAUSALITY</t>
+  </si>
+  <si>
+    <t>Further Details and Clarifications on the AE Definition</t>
+  </si>
+  <si>
+    <t>Further Details and Clarifications on the SAE Definition</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Causality</t>
+  </si>
+  <si>
+    <t>APPENDIX: DEFINITIONS AND SUPPORTING OPERATIONAL DETAILS</t>
+  </si>
+  <si>
+    <t>Contraception and Pregnancy Testing</t>
+  </si>
+  <si>
+    <t>Definitions Related to Childbearing Potential</t>
+  </si>
+  <si>
+    <t>Contraception</t>
+  </si>
+  <si>
+    <t>Pregnancy Testing</t>
+  </si>
+  <si>
+    <t>Clinical Laboratory Tests</t>
+  </si>
+  <si>
+    <t>Country/Region-Specific Differences</t>
+  </si>
+  <si>
+    <t>Prior Protocol Amendments</t>
+  </si>
+  <si>
+    <t>APPENDIX: GLOSSARY OF TERMS</t>
+  </si>
+  <si>
+    <t>APPENDIX: REFERENCES</t>
+  </si>
+  <si>
+    <t>DISCONTINUATION OF TRIAL INTERVENTION AND PARTICIPANT WITHDRAWAL FROM TRIAL</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.2.1</t>
+  </si>
+  <si>
+    <t>4.2.2</t>
+  </si>
+  <si>
+    <t>4.2.3</t>
+  </si>
+  <si>
+    <t>5.3.1</t>
+  </si>
+  <si>
+    <t>5.3.2</t>
+  </si>
+  <si>
+    <t>5.3.3</t>
+  </si>
+  <si>
+    <t>5.3.4</t>
+  </si>
+  <si>
+    <t>6.3.1</t>
+  </si>
+  <si>
+    <t>6.5.1</t>
+  </si>
+  <si>
+    <t>6.5.2</t>
+  </si>
+  <si>
+    <t>6.5.3</t>
+  </si>
+  <si>
+    <t>6.6.1</t>
+  </si>
+  <si>
+    <t>6.6.2</t>
+  </si>
+  <si>
+    <t>6.6.3</t>
+  </si>
+  <si>
+    <t>6.8.1</t>
+  </si>
+  <si>
+    <t>6.8.2</t>
+  </si>
+  <si>
+    <t>6.8.3</t>
+  </si>
+  <si>
+    <t>6.8.4</t>
+  </si>
+  <si>
+    <t>7.1.1</t>
+  </si>
+  <si>
+    <t>7.1.2</t>
+  </si>
+  <si>
+    <t>7.1.3</t>
+  </si>
+  <si>
+    <t>8.3.1.</t>
+  </si>
+  <si>
+    <t>8.3.2</t>
+  </si>
+  <si>
+    <t>8.3.3</t>
+  </si>
+  <si>
+    <t>8.3.4</t>
+  </si>
+  <si>
+    <t>8.3.5</t>
+  </si>
+  <si>
+    <t>8.4.1.</t>
+  </si>
+  <si>
+    <t>8.4.2</t>
+  </si>
+  <si>
+    <t>8.4.3</t>
+  </si>
+  <si>
+    <t>8.4.4</t>
+  </si>
+  <si>
+    <t>8.4.5</t>
+  </si>
+  <si>
+    <t>8.4.6</t>
+  </si>
+  <si>
+    <t>8.4.7</t>
+  </si>
+  <si>
+    <t>8.4.8</t>
+  </si>
+  <si>
+    <t>8.4.9</t>
+  </si>
+  <si>
+    <t>8.4.10</t>
+  </si>
+  <si>
+    <t>8.5.1</t>
+  </si>
+  <si>
+    <t>8.5.2</t>
+  </si>
+  <si>
+    <t>8.6.1</t>
+  </si>
+  <si>
+    <t>8.6.2</t>
+  </si>
+  <si>
+    <t>8.6.3</t>
+  </si>
+  <si>
+    <t>8.6.4</t>
+  </si>
+  <si>
+    <t>8.6.5</t>
+  </si>
+  <si>
+    <t>9.2.1</t>
+  </si>
+  <si>
+    <t>9.2.2</t>
+  </si>
+  <si>
+    <t>9.2.3</t>
+  </si>
+  <si>
+    <t>9.2.4</t>
+  </si>
+  <si>
+    <t>9.2.5</t>
+  </si>
+  <si>
+    <t>13.1.1</t>
+  </si>
+  <si>
+    <t>13.1.2</t>
+  </si>
+  <si>
+    <t>13.1.3</t>
+  </si>
+  <si>
+    <t>NC1</t>
+  </si>
+  <si>
+    <t>NC2</t>
+  </si>
+  <si>
+    <t>NC3</t>
+  </si>
+  <si>
+    <t>NC4</t>
+  </si>
+  <si>
+    <t>NC5</t>
+  </si>
+  <si>
+    <t>NC6</t>
+  </si>
+  <si>
+    <t>NC7</t>
+  </si>
+  <si>
+    <t>NC8</t>
+  </si>
+  <si>
+    <t>NC9</t>
+  </si>
+  <si>
+    <t>NC10</t>
+  </si>
+  <si>
+    <t>NC11</t>
+  </si>
+  <si>
+    <t>NC12</t>
+  </si>
+  <si>
+    <t>NC13</t>
+  </si>
+  <si>
+    <t>NC14</t>
+  </si>
+  <si>
+    <t>NC15</t>
+  </si>
+  <si>
+    <t>NC16</t>
+  </si>
+  <si>
+    <t>NC17</t>
+  </si>
+  <si>
+    <t>NC18</t>
+  </si>
+  <si>
+    <t>NC19</t>
+  </si>
+  <si>
+    <t>NC20</t>
+  </si>
+  <si>
+    <t>NC21</t>
+  </si>
+  <si>
+    <t>NC22</t>
+  </si>
+  <si>
+    <t>NC23</t>
+  </si>
+  <si>
+    <t>NC24</t>
+  </si>
+  <si>
+    <t>NC25</t>
+  </si>
+  <si>
+    <t>NC26</t>
+  </si>
+  <si>
+    <t>NC27</t>
+  </si>
+  <si>
+    <t>NC28</t>
+  </si>
+  <si>
+    <t>NC29</t>
+  </si>
+  <si>
+    <t>NC30</t>
+  </si>
+  <si>
+    <t>NC31</t>
+  </si>
+  <si>
+    <t>NC32</t>
+  </si>
+  <si>
+    <t>NC33</t>
+  </si>
+  <si>
+    <t>NC34</t>
+  </si>
+  <si>
+    <t>NC35</t>
+  </si>
+  <si>
+    <t>NC36</t>
+  </si>
+  <si>
+    <t>NC37</t>
+  </si>
+  <si>
+    <t>NC38</t>
+  </si>
+  <si>
+    <t>NC39</t>
+  </si>
+  <si>
+    <t>NC40</t>
+  </si>
+  <si>
+    <t>NC41</t>
+  </si>
+  <si>
+    <t>NC42</t>
+  </si>
+  <si>
+    <t>NC43</t>
+  </si>
+  <si>
+    <t>NC44</t>
+  </si>
+  <si>
+    <t>NC45</t>
+  </si>
+  <si>
+    <t>NC46</t>
+  </si>
+  <si>
+    <t>NC47</t>
+  </si>
+  <si>
+    <t>NC48</t>
+  </si>
+  <si>
+    <t>NC49</t>
+  </si>
+  <si>
+    <t>NC50</t>
+  </si>
+  <si>
+    <t>NC51</t>
+  </si>
+  <si>
+    <t>NC52</t>
+  </si>
+  <si>
+    <t>NC53</t>
+  </si>
+  <si>
+    <t>NC54</t>
+  </si>
+  <si>
+    <t>NC55</t>
+  </si>
+  <si>
+    <t>NC56</t>
+  </si>
+  <si>
+    <t>NC57</t>
+  </si>
+  <si>
+    <t>NC58</t>
+  </si>
+  <si>
+    <t>NC59</t>
+  </si>
+  <si>
+    <t>NC60</t>
+  </si>
+  <si>
+    <t>NC61</t>
+  </si>
+  <si>
+    <t>NC62</t>
+  </si>
+  <si>
+    <t>NC63</t>
+  </si>
+  <si>
+    <t>NC64</t>
+  </si>
+  <si>
+    <t>NC65</t>
+  </si>
+  <si>
+    <t>NC66</t>
+  </si>
+  <si>
+    <t>NC67</t>
+  </si>
+  <si>
+    <t>NC68</t>
+  </si>
+  <si>
+    <t>NC69</t>
+  </si>
+  <si>
+    <t>NC70</t>
+  </si>
+  <si>
+    <t>NC71</t>
+  </si>
+  <si>
+    <t>NC72</t>
+  </si>
+  <si>
+    <t>NC73</t>
+  </si>
+  <si>
+    <t>NC74</t>
+  </si>
+  <si>
+    <t>NC75</t>
+  </si>
+  <si>
+    <t>NC76</t>
+  </si>
+  <si>
+    <t>NC77</t>
+  </si>
+  <si>
+    <t>NC78</t>
+  </si>
+  <si>
+    <t>NC79</t>
+  </si>
+  <si>
+    <t>NC80</t>
+  </si>
+  <si>
+    <t>NC81</t>
+  </si>
+  <si>
+    <t>NC82</t>
+  </si>
+  <si>
+    <t>NC83</t>
+  </si>
+  <si>
+    <t>NC84</t>
+  </si>
+  <si>
+    <t>NC85</t>
+  </si>
+  <si>
+    <t>NC86</t>
+  </si>
+  <si>
+    <t>NC87</t>
+  </si>
+  <si>
+    <t>NC88</t>
+  </si>
+  <si>
+    <t>NC89</t>
+  </si>
+  <si>
+    <t>NC90</t>
+  </si>
+  <si>
+    <t>NC91</t>
+  </si>
+  <si>
+    <t>NC92</t>
+  </si>
+  <si>
+    <t>NC93</t>
+  </si>
+  <si>
+    <t>NC94</t>
+  </si>
+  <si>
+    <t>NC95</t>
+  </si>
+  <si>
+    <t>NC96</t>
+  </si>
+  <si>
+    <t>NC97</t>
+  </si>
+  <si>
+    <t>NC98</t>
+  </si>
+  <si>
+    <t>NC99</t>
+  </si>
+  <si>
+    <t>NC100</t>
+  </si>
+  <si>
+    <t>NC101</t>
+  </si>
+  <si>
+    <t>NC102</t>
+  </si>
+  <si>
+    <t>NC103</t>
+  </si>
+  <si>
+    <t>NC104</t>
+  </si>
+  <si>
+    <t>NC105</t>
+  </si>
+  <si>
+    <t>NC106</t>
+  </si>
+  <si>
+    <t>NC107</t>
+  </si>
+  <si>
+    <t>NC108</t>
+  </si>
+  <si>
+    <t>NC109</t>
+  </si>
+  <si>
+    <t>NC110</t>
+  </si>
+  <si>
+    <t>NC111</t>
+  </si>
+  <si>
+    <t>NC112</t>
+  </si>
+  <si>
+    <t>NC113</t>
+  </si>
+  <si>
+    <t>NC114</t>
+  </si>
+  <si>
+    <t>NC115</t>
+  </si>
+  <si>
+    <t>NC116</t>
+  </si>
+  <si>
+    <t>NC117</t>
+  </si>
+  <si>
+    <t>NC118</t>
+  </si>
+  <si>
+    <t>NC119</t>
+  </si>
+  <si>
+    <t>NC120</t>
+  </si>
+  <si>
+    <t>NC121</t>
+  </si>
+  <si>
+    <t>NC122</t>
+  </si>
+  <si>
+    <t>NC123</t>
+  </si>
+  <si>
+    <t>NC124</t>
+  </si>
+  <si>
+    <t>NC125</t>
+  </si>
+  <si>
+    <t>NC126</t>
+  </si>
+  <si>
+    <t>NC127</t>
+  </si>
+  <si>
+    <t>NC128</t>
+  </si>
+  <si>
+    <t>NC129</t>
+  </si>
+  <si>
+    <t>NC130</t>
+  </si>
+  <si>
+    <t>5.5.1</t>
+  </si>
+  <si>
+    <t>5.5.2</t>
+  </si>
+  <si>
+    <t>5.5.3</t>
+  </si>
+  <si>
+    <t>5.5.4</t>
+  </si>
+  <si>
+    <t>8.3.1</t>
+  </si>
+  <si>
+    <t>8.4.1</t>
+  </si>
+  <si>
+    <t>8.1.1</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Inclusion criteria are:&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;1. Something&lt;/li&gt;
+  &lt;li&gt;2. Something else&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Exclusion criteria are:&lt;/p&gt;
+&lt;ul&gt;
+  &lt;li&gt;1. Dont do this&lt;/li&gt;
+  &lt;li&gt;2. And don't do that&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Blinding and unblinding text here please&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>sectionNumber1</t>
+  </si>
+  <si>
+    <t>sectionNumber2</t>
+  </si>
+  <si>
+    <t>sectionNumber3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -964,8 +1991,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -976,6 +2009,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -991,7 +2030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1059,13 +2098,24 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2284,7 +3334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -2564,6 +3614,3435 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
+  <dimension ref="A1:F131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" style="3" customWidth="1"/>
+    <col min="2" max="4" width="16" style="3" customWidth="1"/>
+    <col min="5" max="5" width="49.83203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="81.33203125" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>628</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="E6" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="E9" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="E10" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C17" s="32">
+        <v>4.3</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C18" s="32">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B19" s="32">
+        <v>5</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C20" s="32">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C21" s="32">
+        <v>5.2</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C22" s="32">
+        <v>5.3</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C23" s="32">
+        <v>5.4</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C24" s="32">
+        <v>5.5</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32" t="s">
+        <v>618</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32" t="s">
+        <v>619</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C29" s="32">
+        <v>5.6</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B30" s="32">
+        <v>6</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C31" s="32">
+        <v>6.1</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C32" s="32">
+        <v>6.2</v>
+      </c>
+      <c r="D32" s="32"/>
+      <c r="E32" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C33" s="32">
+        <v>6.3</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C35" s="32">
+        <v>6.4</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C36" s="32">
+        <v>6.5</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C40" s="32">
+        <v>6.6</v>
+      </c>
+      <c r="D40" s="32"/>
+      <c r="E40" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C44" s="32">
+        <v>6.7</v>
+      </c>
+      <c r="D44" s="32"/>
+      <c r="E44" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C45" s="32">
+        <v>6.8</v>
+      </c>
+      <c r="D45" s="32"/>
+      <c r="E45" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B50" s="32">
+        <v>7</v>
+      </c>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C51" s="32">
+        <v>7.1</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C55" s="32">
+        <v>7.2</v>
+      </c>
+      <c r="D55" s="32"/>
+      <c r="E55" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C56" s="32">
+        <v>7.3</v>
+      </c>
+      <c r="D56" s="32"/>
+      <c r="E56" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C57" s="32">
+        <v>7.4</v>
+      </c>
+      <c r="D57" s="32"/>
+      <c r="E57" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B58" s="32">
+        <v>8</v>
+      </c>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C59" s="32">
+        <v>8.1</v>
+      </c>
+      <c r="D59" s="32"/>
+      <c r="E59" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C60" s="32">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D60" s="32"/>
+      <c r="E60" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C61" s="32">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D61" s="32"/>
+      <c r="E61" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>620</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>457</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C67" s="32">
+        <v>8.4</v>
+      </c>
+      <c r="D67" s="32"/>
+      <c r="E67" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>621</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="D71" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D72" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D73" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D74" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D75" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D76" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D77" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C78" s="32">
+        <v>8.5</v>
+      </c>
+      <c r="D78" s="32"/>
+      <c r="E78" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D79" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D80" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C81" s="32">
+        <v>8.6</v>
+      </c>
+      <c r="D81" s="32"/>
+      <c r="E81" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D82" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D83" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D84" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D85" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D86" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C87" s="32">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D87" s="32"/>
+      <c r="E87" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C88" s="32">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D88" s="32"/>
+      <c r="E88" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C89" s="32">
+        <v>8.9</v>
+      </c>
+      <c r="D89" s="32"/>
+      <c r="E89" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C90" s="32">
+        <v>8.1</v>
+      </c>
+      <c r="D90" s="32"/>
+      <c r="E90" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D91" s="32" t="s">
+        <v>622</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B92" s="32">
+        <v>9</v>
+      </c>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C93" s="32">
+        <v>9.1</v>
+      </c>
+      <c r="D93" s="32"/>
+      <c r="E93" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C94" s="32">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D94" s="32"/>
+      <c r="E94" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D95" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="D96" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D97" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D98" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D99" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C100" s="32">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D100" s="32"/>
+      <c r="E100" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C101" s="32">
+        <v>9.4</v>
+      </c>
+      <c r="D101" s="32"/>
+      <c r="E101" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C102" s="32">
+        <v>9.5</v>
+      </c>
+      <c r="D102" s="32"/>
+      <c r="E102" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C103" s="32">
+        <v>9.6</v>
+      </c>
+      <c r="D103" s="32"/>
+      <c r="E103" s="10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C104" s="32">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D104" s="32"/>
+      <c r="E104" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C105" s="32">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D105" s="32"/>
+      <c r="E105" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C106" s="32">
+        <v>9.9</v>
+      </c>
+      <c r="D106" s="32"/>
+      <c r="E106" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B107" s="32">
+        <v>10</v>
+      </c>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C108" s="32">
+        <v>10.1</v>
+      </c>
+      <c r="D108" s="32"/>
+      <c r="E108" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C109" s="32">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D109" s="32"/>
+      <c r="E109" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C110" s="32">
+        <v>10.3</v>
+      </c>
+      <c r="D110" s="32"/>
+      <c r="E110" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C111" s="32">
+        <v>10.4</v>
+      </c>
+      <c r="D111" s="32"/>
+      <c r="E111" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C112" s="32">
+        <v>10.5</v>
+      </c>
+      <c r="D112" s="32"/>
+      <c r="E112" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B113" s="32">
+        <v>11</v>
+      </c>
+      <c r="C113" s="32"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C114" s="32">
+        <v>11.1</v>
+      </c>
+      <c r="D114" s="32"/>
+      <c r="E114" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C115" s="32">
+        <v>11.2</v>
+      </c>
+      <c r="D115" s="32"/>
+      <c r="E115" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C116" s="32">
+        <v>11.3</v>
+      </c>
+      <c r="D116" s="32"/>
+      <c r="E116" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B117" s="32">
+        <v>12</v>
+      </c>
+      <c r="C117" s="32"/>
+      <c r="D117" s="32"/>
+      <c r="E117" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C118" s="32">
+        <v>12.1</v>
+      </c>
+      <c r="D118" s="32"/>
+      <c r="E118" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C119" s="32">
+        <v>12.2</v>
+      </c>
+      <c r="D119" s="32"/>
+      <c r="E119" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C120" s="32">
+        <v>12.3</v>
+      </c>
+      <c r="D120" s="32"/>
+      <c r="E120" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C121" s="32">
+        <v>12.4</v>
+      </c>
+      <c r="D121" s="32"/>
+      <c r="E121" s="10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B122" s="32">
+        <v>13</v>
+      </c>
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C123" s="32">
+        <v>13.1</v>
+      </c>
+      <c r="D123" s="32"/>
+      <c r="E123" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="D124" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="D125" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D126" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C127" s="32">
+        <v>13.2</v>
+      </c>
+      <c r="D127" s="32"/>
+      <c r="E127" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C128" s="32">
+        <v>13.3</v>
+      </c>
+      <c r="D128" s="32"/>
+      <c r="E128" s="10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C129" s="32">
+        <v>13.4</v>
+      </c>
+      <c r="D129" s="32"/>
+      <c r="E129" s="10" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B130" s="32">
+        <v>14</v>
+      </c>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B131" s="32">
+        <v>15</v>
+      </c>
+      <c r="C131" s="32"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0003C67-3768-3A4E-9F90-6843014614B3}">
+  <dimension ref="A1:O131"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="29"/>
+    <col min="8" max="8" width="10.83203125" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="29">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>292</v>
+      </c>
+      <c r="O1" s="30" t="str">
+        <f>TEXT(H2,"0")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="I2" t="s">
+        <v>297</v>
+      </c>
+      <c r="O2" s="30" t="str">
+        <f>TEXT(H3,"0")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="29">
+        <v>1.2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="I3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O3" s="30" t="str">
+        <f>TEXT(H4,"0")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="29">
+        <v>1.3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="I4" t="s">
+        <v>299</v>
+      </c>
+      <c r="O4" s="30" t="str">
+        <f>TEXT(H5,"0")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="29">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="I5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="29">
+        <v>2.1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="I6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="I7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="29">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>294</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="I8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="29">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>295</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="I9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="29">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B10" t="s">
+        <v>302</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="I10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="29">
+        <v>0.16737268518518519</v>
+      </c>
+      <c r="B11" t="s">
+        <v>303</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="I11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="29">
+        <v>4.2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="I12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="29">
+        <v>0.16806712962962964</v>
+      </c>
+      <c r="B13" t="s">
+        <v>305</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="I13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="29">
+        <v>0.1680787037037037</v>
+      </c>
+      <c r="B14" t="s">
+        <v>306</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="I14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="29">
+        <v>0.16809027777777777</v>
+      </c>
+      <c r="B15" t="s">
+        <v>307</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="I15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="29">
+        <v>4.3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>308</v>
+      </c>
+      <c r="H16" s="29">
+        <v>4.3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B17" t="s">
+        <v>309</v>
+      </c>
+      <c r="H17" s="29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="29">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>296</v>
+      </c>
+      <c r="H18" s="29">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="29">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B19" t="s">
+        <v>310</v>
+      </c>
+      <c r="H19" s="29">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="29">
+        <v>5.2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>311</v>
+      </c>
+      <c r="H20" s="29">
+        <v>5.2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="29">
+        <v>5.3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>312</v>
+      </c>
+      <c r="H21" s="29">
+        <v>5.3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="29">
+        <v>5.4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>313</v>
+      </c>
+      <c r="H22" s="29">
+        <v>5.4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="29">
+        <v>5.5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>314</v>
+      </c>
+      <c r="H23" s="29">
+        <v>5.5</v>
+      </c>
+      <c r="I23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="29">
+        <v>0.21181712962962962</v>
+      </c>
+      <c r="B24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="I24" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="29">
+        <v>0.21182870370370369</v>
+      </c>
+      <c r="B25" t="s">
+        <v>316</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="I25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="29">
+        <v>0.21184027777777778</v>
+      </c>
+      <c r="B26" t="s">
+        <v>317</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="I26" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="29">
+        <v>0.21185185185185185</v>
+      </c>
+      <c r="B27" t="s">
+        <v>318</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="I27" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="29">
+        <v>5.6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>319</v>
+      </c>
+      <c r="H28" s="29">
+        <v>5.6</v>
+      </c>
+      <c r="I28" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="29">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>320</v>
+      </c>
+      <c r="H29" s="29">
+        <v>6</v>
+      </c>
+      <c r="I29" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="29">
+        <v>6.1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>321</v>
+      </c>
+      <c r="H30" s="29">
+        <v>6.1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="29">
+        <v>6.2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>322</v>
+      </c>
+      <c r="H31" s="29">
+        <v>6.2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="29">
+        <v>6.3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>323</v>
+      </c>
+      <c r="H32" s="29">
+        <v>6.3</v>
+      </c>
+      <c r="I32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="29">
+        <v>0.25209490740740742</v>
+      </c>
+      <c r="B33" t="s">
+        <v>324</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="I33" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="29">
+        <v>6.4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H34" s="29">
+        <v>6.4</v>
+      </c>
+      <c r="I34" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="29">
+        <v>6.5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>326</v>
+      </c>
+      <c r="H35" s="29">
+        <v>6.5</v>
+      </c>
+      <c r="I35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="29">
+        <v>0.2534837962962963</v>
+      </c>
+      <c r="B36" t="s">
+        <v>327</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="I36" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="29">
+        <v>0.25349537037037034</v>
+      </c>
+      <c r="B37" t="s">
+        <v>328</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="I37" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="29">
+        <v>0.25350694444444444</v>
+      </c>
+      <c r="B38" t="s">
+        <v>329</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="I38" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="29">
+        <v>6.6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>330</v>
+      </c>
+      <c r="H39" s="29">
+        <v>6.6</v>
+      </c>
+      <c r="I39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="29">
+        <v>0.25417824074074075</v>
+      </c>
+      <c r="B40" t="s">
+        <v>331</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="I40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="29">
+        <v>0.25418981481481479</v>
+      </c>
+      <c r="B41" t="s">
+        <v>332</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="I41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="29">
+        <v>0.25420138888888888</v>
+      </c>
+      <c r="B42" t="s">
+        <v>333</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="I42" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="29">
+        <v>6.7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>334</v>
+      </c>
+      <c r="H43" s="29">
+        <v>6.7</v>
+      </c>
+      <c r="I43" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="29">
+        <v>6.8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>335</v>
+      </c>
+      <c r="H44" s="29">
+        <v>6.8</v>
+      </c>
+      <c r="I44" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="29">
+        <v>0.25556712962962963</v>
+      </c>
+      <c r="B45" t="s">
+        <v>336</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="I45" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="29">
+        <v>0.25557870370370367</v>
+      </c>
+      <c r="B46" t="s">
+        <v>337</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="I46" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="29">
+        <v>0.25559027777777776</v>
+      </c>
+      <c r="B47" t="s">
+        <v>338</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="I47" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="29">
+        <v>0.25560185185185186</v>
+      </c>
+      <c r="B48" t="s">
+        <v>339</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="I48" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="29">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>340</v>
+      </c>
+      <c r="H49" s="29">
+        <v>7</v>
+      </c>
+      <c r="I49" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="H50" s="29">
+        <v>7.1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="29">
+        <v>7.1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>342</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="I51" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="29">
+        <v>0.29237268518518517</v>
+      </c>
+      <c r="B52" t="s">
+        <v>343</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="I52" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="29">
+        <v>0.29238425925925926</v>
+      </c>
+      <c r="B53" t="s">
+        <v>344</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="I53" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="29">
+        <v>0.29239583333333335</v>
+      </c>
+      <c r="B54" t="s">
+        <v>345</v>
+      </c>
+      <c r="H54" s="29">
+        <v>7.2</v>
+      </c>
+      <c r="I54" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="29">
+        <v>7.2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>346</v>
+      </c>
+      <c r="H55" s="29">
+        <v>7.3</v>
+      </c>
+      <c r="I55" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="29">
+        <v>7.3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>347</v>
+      </c>
+      <c r="H56" s="29">
+        <v>7.4</v>
+      </c>
+      <c r="I56" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="29">
+        <v>7.4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>348</v>
+      </c>
+      <c r="H57" s="29">
+        <v>8</v>
+      </c>
+      <c r="I57" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="29">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>349</v>
+      </c>
+      <c r="H58" s="29">
+        <v>8.1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="29">
+        <v>8.1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>350</v>
+      </c>
+      <c r="H59" s="29">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I59" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="29">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B60" t="s">
+        <v>351</v>
+      </c>
+      <c r="H60" s="29">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I60" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="29">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B61" t="s">
+        <v>352</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="I61" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="29">
+        <v>0.33542824074074074</v>
+      </c>
+      <c r="B62" t="s">
+        <v>353</v>
+      </c>
+      <c r="H62" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="I62" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="29">
+        <v>0.33543981481481483</v>
+      </c>
+      <c r="B63" t="s">
+        <v>354</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="I63" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="29">
+        <v>0.33545138888888887</v>
+      </c>
+      <c r="B64" t="s">
+        <v>355</v>
+      </c>
+      <c r="H64" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="I64" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="29">
+        <v>0.33546296296296302</v>
+      </c>
+      <c r="B65" t="s">
+        <v>356</v>
+      </c>
+      <c r="H65" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="I65" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="29">
+        <v>0.33547453703703706</v>
+      </c>
+      <c r="B66" t="s">
+        <v>357</v>
+      </c>
+      <c r="H66" s="29">
+        <v>8.4</v>
+      </c>
+      <c r="I66" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="29">
+        <v>8.4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>358</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="I67" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="29">
+        <v>0.33612268518518523</v>
+      </c>
+      <c r="B68" t="s">
+        <v>359</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="I68" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="29">
+        <v>0.33613425925925927</v>
+      </c>
+      <c r="B69" t="s">
+        <v>360</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="I69" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="29">
+        <v>0.33614583333333337</v>
+      </c>
+      <c r="B70" t="s">
+        <v>361</v>
+      </c>
+      <c r="H70" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="I70" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="29">
+        <v>0.3361574074074074</v>
+      </c>
+      <c r="B71" t="s">
+        <v>362</v>
+      </c>
+      <c r="H71" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="I71" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="29">
+        <v>0.3361689814814815</v>
+      </c>
+      <c r="B72" t="s">
+        <v>363</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="I72" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="29">
+        <v>0.33618055555555554</v>
+      </c>
+      <c r="B73" t="s">
+        <v>364</v>
+      </c>
+      <c r="H73" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="I73" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="29">
+        <v>0.33619212962962958</v>
+      </c>
+      <c r="B74" t="s">
+        <v>365</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="I74" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="29">
+        <v>0.33620370370370373</v>
+      </c>
+      <c r="B75" t="s">
+        <v>366</v>
+      </c>
+      <c r="H75" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="I75" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="29">
+        <v>0.33621527777777777</v>
+      </c>
+      <c r="B76" t="s">
+        <v>367</v>
+      </c>
+      <c r="H76" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="I76" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="29">
+        <v>0.33622685185185186</v>
+      </c>
+      <c r="B77" t="s">
+        <v>368</v>
+      </c>
+      <c r="H77" s="29">
+        <v>8.5</v>
+      </c>
+      <c r="I77" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="29">
+        <v>8.5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>369</v>
+      </c>
+      <c r="H78" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="I78" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="29">
+        <v>0.33681712962962962</v>
+      </c>
+      <c r="B79" t="s">
+        <v>370</v>
+      </c>
+      <c r="H79" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="I79" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="29">
+        <v>0.33682870370370371</v>
+      </c>
+      <c r="B80" t="s">
+        <v>371</v>
+      </c>
+      <c r="H80" s="29">
+        <v>8.6</v>
+      </c>
+      <c r="I80" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="29">
+        <v>8.6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>372</v>
+      </c>
+      <c r="H81" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="I81" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="29">
+        <v>0.33751157407407412</v>
+      </c>
+      <c r="B82" t="s">
+        <v>373</v>
+      </c>
+      <c r="H82" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="I82" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="29">
+        <v>0.33752314814814816</v>
+      </c>
+      <c r="B83" t="s">
+        <v>374</v>
+      </c>
+      <c r="H83" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="I83" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="29">
+        <v>0.33753472222222225</v>
+      </c>
+      <c r="B84" t="s">
+        <v>375</v>
+      </c>
+      <c r="H84" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="I84" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="29">
+        <v>0.33754629629629629</v>
+      </c>
+      <c r="B85" t="s">
+        <v>376</v>
+      </c>
+      <c r="H85" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="I85" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="29">
+        <v>0.33755787037037038</v>
+      </c>
+      <c r="B86" t="s">
+        <v>377</v>
+      </c>
+      <c r="H86" s="29">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I86" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="29">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B87" t="s">
+        <v>378</v>
+      </c>
+      <c r="H87" s="29">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I87" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="29">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B88" t="s">
+        <v>379</v>
+      </c>
+      <c r="H88" s="29">
+        <v>8.9</v>
+      </c>
+      <c r="I88" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="29">
+        <v>8.9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>380</v>
+      </c>
+      <c r="H89" s="29">
+        <v>8.1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="29">
+        <v>8.1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>381</v>
+      </c>
+      <c r="H90" s="29">
+        <v>8.11</v>
+      </c>
+      <c r="I90" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="29">
+        <v>8.11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>382</v>
+      </c>
+      <c r="H91" s="29">
+        <v>9</v>
+      </c>
+      <c r="I91" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="29">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>383</v>
+      </c>
+      <c r="H92" s="29">
+        <v>9.1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="29">
+        <v>9.1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>384</v>
+      </c>
+      <c r="H93" s="29">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I93" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="29">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B94" t="s">
+        <v>385</v>
+      </c>
+      <c r="H94" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="I94" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="29">
+        <v>0.37640046296296298</v>
+      </c>
+      <c r="B95" t="s">
+        <v>386</v>
+      </c>
+      <c r="H95" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="I95" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="29">
+        <v>0.37641203703703702</v>
+      </c>
+      <c r="B96" t="s">
+        <v>387</v>
+      </c>
+      <c r="H96" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="I96" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="29">
+        <v>0.37642361111111106</v>
+      </c>
+      <c r="B97" t="s">
+        <v>388</v>
+      </c>
+      <c r="H97" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="I97" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="29">
+        <v>0.37643518518518521</v>
+      </c>
+      <c r="B98" t="s">
+        <v>389</v>
+      </c>
+      <c r="H98" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="I98" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="29">
+        <v>0.37644675925925924</v>
+      </c>
+      <c r="B99" t="s">
+        <v>390</v>
+      </c>
+      <c r="H99" s="29">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I99" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="29">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B100" t="s">
+        <v>391</v>
+      </c>
+      <c r="H100" s="29">
+        <v>9.4</v>
+      </c>
+      <c r="I100" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="29">
+        <v>9.4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>392</v>
+      </c>
+      <c r="H101" s="29">
+        <v>9.5</v>
+      </c>
+      <c r="I101" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="29">
+        <v>9.5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>393</v>
+      </c>
+      <c r="H102" s="29">
+        <v>9.6</v>
+      </c>
+      <c r="I102" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="29">
+        <v>9.6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>394</v>
+      </c>
+      <c r="H103" s="29">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I103" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="29">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="B104" t="s">
+        <v>395</v>
+      </c>
+      <c r="H104" s="29">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I104" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="29">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B105" t="s">
+        <v>396</v>
+      </c>
+      <c r="H105" s="29">
+        <v>9.9</v>
+      </c>
+      <c r="I105" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="29">
+        <v>9.9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>397</v>
+      </c>
+      <c r="H106" s="29">
+        <v>10</v>
+      </c>
+      <c r="I106" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="29">
+        <v>10</v>
+      </c>
+      <c r="B107" t="s">
+        <v>398</v>
+      </c>
+      <c r="H107" s="29">
+        <v>10.1</v>
+      </c>
+      <c r="I107" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="29">
+        <v>10.1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>399</v>
+      </c>
+      <c r="H108" s="29">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I108" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="29">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B109" t="s">
+        <v>400</v>
+      </c>
+      <c r="H109" s="29">
+        <v>10.3</v>
+      </c>
+      <c r="I109" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="29">
+        <v>10.3</v>
+      </c>
+      <c r="B110" t="s">
+        <v>401</v>
+      </c>
+      <c r="H110" s="29">
+        <v>10.4</v>
+      </c>
+      <c r="I110" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="29">
+        <v>10.4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>402</v>
+      </c>
+      <c r="H111" s="29">
+        <v>10.5</v>
+      </c>
+      <c r="I111" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="29">
+        <v>10.5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>403</v>
+      </c>
+      <c r="H112" s="29">
+        <v>11</v>
+      </c>
+      <c r="I112" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="29">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>404</v>
+      </c>
+      <c r="H113" s="29">
+        <v>11.1</v>
+      </c>
+      <c r="I113" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="29">
+        <v>11.1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>405</v>
+      </c>
+      <c r="H114" s="29">
+        <v>11.2</v>
+      </c>
+      <c r="I114" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="29">
+        <v>11.2</v>
+      </c>
+      <c r="B115" t="s">
+        <v>406</v>
+      </c>
+      <c r="H115" s="29">
+        <v>11.3</v>
+      </c>
+      <c r="I115" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="29">
+        <v>11.3</v>
+      </c>
+      <c r="B116" t="s">
+        <v>407</v>
+      </c>
+      <c r="H116" s="29">
+        <v>12</v>
+      </c>
+      <c r="I116" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="29">
+        <v>12</v>
+      </c>
+      <c r="B117" t="s">
+        <v>408</v>
+      </c>
+      <c r="H117" s="29">
+        <v>12.1</v>
+      </c>
+      <c r="I117" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="29">
+        <v>12.1</v>
+      </c>
+      <c r="B118" t="s">
+        <v>409</v>
+      </c>
+      <c r="H118" s="29">
+        <v>12.2</v>
+      </c>
+      <c r="I118" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="29">
+        <v>12.2</v>
+      </c>
+      <c r="B119" t="s">
+        <v>410</v>
+      </c>
+      <c r="H119" s="29">
+        <v>12.3</v>
+      </c>
+      <c r="I119" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="29">
+        <v>12.3</v>
+      </c>
+      <c r="B120" t="s">
+        <v>411</v>
+      </c>
+      <c r="H120" s="29">
+        <v>12.4</v>
+      </c>
+      <c r="I120" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="29">
+        <v>12.4</v>
+      </c>
+      <c r="B121" t="s">
+        <v>412</v>
+      </c>
+      <c r="H121" s="29">
+        <v>13</v>
+      </c>
+      <c r="I121" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="29">
+        <v>13</v>
+      </c>
+      <c r="B122" t="s">
+        <v>413</v>
+      </c>
+      <c r="H122" s="29">
+        <v>13.1</v>
+      </c>
+      <c r="I122" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="29">
+        <v>13.1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>414</v>
+      </c>
+      <c r="H123" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="I123" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="29">
+        <v>0.54237268518518522</v>
+      </c>
+      <c r="B124" t="s">
+        <v>415</v>
+      </c>
+      <c r="H124" s="29" t="s">
+        <v>484</v>
+      </c>
+      <c r="I124" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="29">
+        <v>0.54238425925925926</v>
+      </c>
+      <c r="B125" t="s">
+        <v>416</v>
+      </c>
+      <c r="H125" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="I125" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="29">
+        <v>0.5423958333333333</v>
+      </c>
+      <c r="B126" t="s">
+        <v>417</v>
+      </c>
+      <c r="H126" s="29">
+        <v>13.2</v>
+      </c>
+      <c r="I126" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="29">
+        <v>13.2</v>
+      </c>
+      <c r="B127" t="s">
+        <v>418</v>
+      </c>
+      <c r="H127" s="29">
+        <v>13.3</v>
+      </c>
+      <c r="I127" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="29">
+        <v>13.3</v>
+      </c>
+      <c r="B128" t="s">
+        <v>419</v>
+      </c>
+      <c r="H128" s="29">
+        <v>13.4</v>
+      </c>
+      <c r="I128" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="29">
+        <v>13.4</v>
+      </c>
+      <c r="B129" t="s">
+        <v>420</v>
+      </c>
+      <c r="H129" s="29">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="29">
+        <v>14</v>
+      </c>
+      <c r="B130" t="s">
+        <v>421</v>
+      </c>
+      <c r="H130" s="29">
+        <v>15</v>
+      </c>
+      <c r="I130" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="29">
+        <v>15</v>
+      </c>
+      <c r="B131" t="s">
+        <v>422</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2720,34 +7199,34 @@
       <c r="A3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
@@ -2867,16 +7346,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3310,7 +7789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8389B3-D1BB-1047-BA06-7E793B938DBA}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/tests/integration_test_files/simple_1.xlsx
+++ b/tests/integration_test_files/simple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3961CEB9-990C-014B-8EE6-8EE126B65A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBFBC49-5B03-FB45-B958-CC0D024348C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21900" yWindow="1240" windowWidth="41140" windowHeight="23360" firstSheet="3" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="42140" yWindow="500" windowWidth="33000" windowHeight="22600" firstSheet="3" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="539">
   <si>
     <t>Epoch</t>
   </si>
@@ -1510,396 +1510,6 @@
   </si>
   <si>
     <t>13.1.3</t>
-  </si>
-  <si>
-    <t>NC1</t>
-  </si>
-  <si>
-    <t>NC2</t>
-  </si>
-  <si>
-    <t>NC3</t>
-  </si>
-  <si>
-    <t>NC4</t>
-  </si>
-  <si>
-    <t>NC5</t>
-  </si>
-  <si>
-    <t>NC6</t>
-  </si>
-  <si>
-    <t>NC7</t>
-  </si>
-  <si>
-    <t>NC8</t>
-  </si>
-  <si>
-    <t>NC9</t>
-  </si>
-  <si>
-    <t>NC10</t>
-  </si>
-  <si>
-    <t>NC11</t>
-  </si>
-  <si>
-    <t>NC12</t>
-  </si>
-  <si>
-    <t>NC13</t>
-  </si>
-  <si>
-    <t>NC14</t>
-  </si>
-  <si>
-    <t>NC15</t>
-  </si>
-  <si>
-    <t>NC16</t>
-  </si>
-  <si>
-    <t>NC17</t>
-  </si>
-  <si>
-    <t>NC18</t>
-  </si>
-  <si>
-    <t>NC19</t>
-  </si>
-  <si>
-    <t>NC20</t>
-  </si>
-  <si>
-    <t>NC21</t>
-  </si>
-  <si>
-    <t>NC22</t>
-  </si>
-  <si>
-    <t>NC23</t>
-  </si>
-  <si>
-    <t>NC24</t>
-  </si>
-  <si>
-    <t>NC25</t>
-  </si>
-  <si>
-    <t>NC26</t>
-  </si>
-  <si>
-    <t>NC27</t>
-  </si>
-  <si>
-    <t>NC28</t>
-  </si>
-  <si>
-    <t>NC29</t>
-  </si>
-  <si>
-    <t>NC30</t>
-  </si>
-  <si>
-    <t>NC31</t>
-  </si>
-  <si>
-    <t>NC32</t>
-  </si>
-  <si>
-    <t>NC33</t>
-  </si>
-  <si>
-    <t>NC34</t>
-  </si>
-  <si>
-    <t>NC35</t>
-  </si>
-  <si>
-    <t>NC36</t>
-  </si>
-  <si>
-    <t>NC37</t>
-  </si>
-  <si>
-    <t>NC38</t>
-  </si>
-  <si>
-    <t>NC39</t>
-  </si>
-  <si>
-    <t>NC40</t>
-  </si>
-  <si>
-    <t>NC41</t>
-  </si>
-  <si>
-    <t>NC42</t>
-  </si>
-  <si>
-    <t>NC43</t>
-  </si>
-  <si>
-    <t>NC44</t>
-  </si>
-  <si>
-    <t>NC45</t>
-  </si>
-  <si>
-    <t>NC46</t>
-  </si>
-  <si>
-    <t>NC47</t>
-  </si>
-  <si>
-    <t>NC48</t>
-  </si>
-  <si>
-    <t>NC49</t>
-  </si>
-  <si>
-    <t>NC50</t>
-  </si>
-  <si>
-    <t>NC51</t>
-  </si>
-  <si>
-    <t>NC52</t>
-  </si>
-  <si>
-    <t>NC53</t>
-  </si>
-  <si>
-    <t>NC54</t>
-  </si>
-  <si>
-    <t>NC55</t>
-  </si>
-  <si>
-    <t>NC56</t>
-  </si>
-  <si>
-    <t>NC57</t>
-  </si>
-  <si>
-    <t>NC58</t>
-  </si>
-  <si>
-    <t>NC59</t>
-  </si>
-  <si>
-    <t>NC60</t>
-  </si>
-  <si>
-    <t>NC61</t>
-  </si>
-  <si>
-    <t>NC62</t>
-  </si>
-  <si>
-    <t>NC63</t>
-  </si>
-  <si>
-    <t>NC64</t>
-  </si>
-  <si>
-    <t>NC65</t>
-  </si>
-  <si>
-    <t>NC66</t>
-  </si>
-  <si>
-    <t>NC67</t>
-  </si>
-  <si>
-    <t>NC68</t>
-  </si>
-  <si>
-    <t>NC69</t>
-  </si>
-  <si>
-    <t>NC70</t>
-  </si>
-  <si>
-    <t>NC71</t>
-  </si>
-  <si>
-    <t>NC72</t>
-  </si>
-  <si>
-    <t>NC73</t>
-  </si>
-  <si>
-    <t>NC74</t>
-  </si>
-  <si>
-    <t>NC75</t>
-  </si>
-  <si>
-    <t>NC76</t>
-  </si>
-  <si>
-    <t>NC77</t>
-  </si>
-  <si>
-    <t>NC78</t>
-  </si>
-  <si>
-    <t>NC79</t>
-  </si>
-  <si>
-    <t>NC80</t>
-  </si>
-  <si>
-    <t>NC81</t>
-  </si>
-  <si>
-    <t>NC82</t>
-  </si>
-  <si>
-    <t>NC83</t>
-  </si>
-  <si>
-    <t>NC84</t>
-  </si>
-  <si>
-    <t>NC85</t>
-  </si>
-  <si>
-    <t>NC86</t>
-  </si>
-  <si>
-    <t>NC87</t>
-  </si>
-  <si>
-    <t>NC88</t>
-  </si>
-  <si>
-    <t>NC89</t>
-  </si>
-  <si>
-    <t>NC90</t>
-  </si>
-  <si>
-    <t>NC91</t>
-  </si>
-  <si>
-    <t>NC92</t>
-  </si>
-  <si>
-    <t>NC93</t>
-  </si>
-  <si>
-    <t>NC94</t>
-  </si>
-  <si>
-    <t>NC95</t>
-  </si>
-  <si>
-    <t>NC96</t>
-  </si>
-  <si>
-    <t>NC97</t>
-  </si>
-  <si>
-    <t>NC98</t>
-  </si>
-  <si>
-    <t>NC99</t>
-  </si>
-  <si>
-    <t>NC100</t>
-  </si>
-  <si>
-    <t>NC101</t>
-  </si>
-  <si>
-    <t>NC102</t>
-  </si>
-  <si>
-    <t>NC103</t>
-  </si>
-  <si>
-    <t>NC104</t>
-  </si>
-  <si>
-    <t>NC105</t>
-  </si>
-  <si>
-    <t>NC106</t>
-  </si>
-  <si>
-    <t>NC107</t>
-  </si>
-  <si>
-    <t>NC108</t>
-  </si>
-  <si>
-    <t>NC109</t>
-  </si>
-  <si>
-    <t>NC110</t>
-  </si>
-  <si>
-    <t>NC111</t>
-  </si>
-  <si>
-    <t>NC112</t>
-  </si>
-  <si>
-    <t>NC113</t>
-  </si>
-  <si>
-    <t>NC114</t>
-  </si>
-  <si>
-    <t>NC115</t>
-  </si>
-  <si>
-    <t>NC116</t>
-  </si>
-  <si>
-    <t>NC117</t>
-  </si>
-  <si>
-    <t>NC118</t>
-  </si>
-  <si>
-    <t>NC119</t>
-  </si>
-  <si>
-    <t>NC120</t>
-  </si>
-  <si>
-    <t>NC121</t>
-  </si>
-  <si>
-    <t>NC122</t>
-  </si>
-  <si>
-    <t>NC123</t>
-  </si>
-  <si>
-    <t>NC124</t>
-  </si>
-  <si>
-    <t>NC125</t>
-  </si>
-  <si>
-    <t>NC126</t>
-  </si>
-  <si>
-    <t>NC127</t>
-  </si>
-  <si>
-    <t>NC128</t>
-  </si>
-  <si>
-    <t>NC129</t>
-  </si>
-  <si>
-    <t>NC130</t>
   </si>
   <si>
     <t>5.5.1</t>
@@ -1947,6 +1557,126 @@
   </si>
   <si>
     <t>sectionNumber3</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>13.4</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>13.1</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>7.1</t>
   </si>
 </sst>
 </file>
@@ -2030,7 +1760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2115,6 +1845,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3617,30 +3350,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="3" customWidth="1"/>
-    <col min="2" max="4" width="16" style="3" customWidth="1"/>
+    <col min="1" max="4" width="16" style="3" customWidth="1"/>
     <col min="5" max="5" width="49.83203125" style="10" customWidth="1"/>
     <col min="6" max="6" width="81.33203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>110</v>
+        <v>496</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>626</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>627</v>
+        <v>497</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>498</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>628</v>
+        <v>499</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>290</v>
@@ -3650,12 +3382,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>30</v>
       </c>
+      <c r="B2" s="32"/>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
       <c r="E2" s="10" t="s">
@@ -3663,10 +3393,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="32" t="s">
         <v>425</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -3674,10 +3401,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="32" t="s">
         <v>426</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -3685,10 +3409,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="32" t="s">
         <v>427</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -3696,22 +3417,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="C6" s="32"/>
+      <c r="B6" s="32"/>
       <c r="E6" s="10" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="32" t="s">
         <v>429</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -3719,10 +3434,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="32" t="s">
         <v>430</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -3730,34 +3442,25 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="34" t="s">
         <v>431</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="B9" s="32"/>
       <c r="E9" s="10" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="34" t="s">
         <v>432</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="B10" s="32"/>
       <c r="E10" s="10" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="C11" s="32" t="s">
+      <c r="B11" s="32" t="s">
         <v>433</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -3765,92 +3468,76 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="D12" s="32" t="s">
+      <c r="C12" s="34" t="s">
         <v>424</v>
       </c>
+      <c r="D12" s="32"/>
       <c r="E12" s="10" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="32" t="s">
         <v>434</v>
       </c>
+      <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="10" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="D14" s="32" t="s">
+      <c r="C14" s="34" t="s">
         <v>435</v>
       </c>
+      <c r="D14" s="32"/>
       <c r="E14" s="10" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="D15" s="32" t="s">
+      <c r="C15" s="34" t="s">
         <v>436</v>
       </c>
+      <c r="D15" s="32"/>
       <c r="E15" s="10" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="D16" s="32" t="s">
+      <c r="C16" s="34" t="s">
         <v>437</v>
       </c>
+      <c r="D16" s="32"/>
       <c r="E16" s="10" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C17" s="32">
-        <v>4.3</v>
-      </c>
+      <c r="B17" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="C17" s="34"/>
       <c r="D17" s="32"/>
       <c r="E17" s="10" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="C18" s="32">
-        <v>4.4000000000000004</v>
-      </c>
+      <c r="B18" s="34" t="s">
+        <v>523</v>
+      </c>
+      <c r="C18" s="32"/>
       <c r="D18" s="32"/>
       <c r="E18" s="10" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="B19" s="32">
-        <v>5</v>
-      </c>
+      <c r="A19" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="B19" s="32"/>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
       <c r="E19" s="10" t="s">
@@ -3858,138 +3545,116 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="C20" s="32">
-        <v>5.0999999999999996</v>
-      </c>
+      <c r="B20" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="C20" s="32"/>
       <c r="D20" s="32"/>
       <c r="E20" s="10" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="C21" s="32">
-        <v>5.2</v>
-      </c>
+      <c r="B21" s="34" t="s">
+        <v>525</v>
+      </c>
+      <c r="C21" s="32"/>
       <c r="D21" s="32"/>
       <c r="E21" s="10" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C22" s="32">
-        <v>5.3</v>
-      </c>
+      <c r="B22" s="34" t="s">
+        <v>526</v>
+      </c>
+      <c r="C22" s="32"/>
       <c r="D22" s="32"/>
       <c r="E22" s="10" t="s">
         <v>312</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>623</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="C23" s="32">
-        <v>5.4</v>
-      </c>
+      <c r="B23" s="34" t="s">
+        <v>527</v>
+      </c>
+      <c r="C23" s="32"/>
       <c r="D23" s="32"/>
       <c r="E23" s="10" t="s">
         <v>313</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>624</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C24" s="32">
-        <v>5.5</v>
-      </c>
+      <c r="B24" s="34" t="s">
+        <v>528</v>
+      </c>
+      <c r="C24" s="32"/>
       <c r="D24" s="32"/>
       <c r="E24" s="10" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32" t="s">
-        <v>616</v>
-      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="34" t="s">
+        <v>486</v>
+      </c>
+      <c r="D25" s="32"/>
       <c r="E25" s="10" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32" t="s">
-        <v>617</v>
-      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="34" t="s">
+        <v>487</v>
+      </c>
+      <c r="D26" s="32"/>
       <c r="E26" s="10" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32" t="s">
-        <v>618</v>
-      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="D27" s="32"/>
       <c r="E27" s="10" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32" t="s">
-        <v>619</v>
-      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="34" t="s">
+        <v>489</v>
+      </c>
+      <c r="D28" s="32"/>
       <c r="E28" s="10" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="C29" s="32">
-        <v>5.6</v>
-      </c>
+      <c r="B29" s="34" t="s">
+        <v>529</v>
+      </c>
+      <c r="C29" s="32"/>
       <c r="D29" s="32"/>
       <c r="E29" s="10" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="B30" s="32">
-        <v>6</v>
-      </c>
+      <c r="A30" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="B30" s="32"/>
       <c r="C30" s="32"/>
       <c r="D30" s="32"/>
       <c r="E30" s="10" t="s">
@@ -3997,232 +3662,192 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C31" s="32">
-        <v>6.1</v>
-      </c>
+      <c r="B31" s="34" t="s">
+        <v>530</v>
+      </c>
+      <c r="C31" s="32"/>
       <c r="D31" s="32"/>
       <c r="E31" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="C32" s="32">
-        <v>6.2</v>
-      </c>
+      <c r="B32" s="34" t="s">
+        <v>531</v>
+      </c>
+      <c r="C32" s="32"/>
       <c r="D32" s="32"/>
       <c r="E32" s="10" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="C33" s="32">
-        <v>6.3</v>
-      </c>
+    <row r="33" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B33" s="34" t="s">
+        <v>532</v>
+      </c>
+      <c r="C33" s="32"/>
       <c r="D33" s="32"/>
       <c r="E33" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="D34" s="32" t="s">
+    <row r="34" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="C34" s="34" t="s">
         <v>442</v>
       </c>
+      <c r="D34" s="32"/>
       <c r="E34" s="10" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="C35" s="32">
-        <v>6.4</v>
-      </c>
+    <row r="35" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35" s="34" t="s">
+        <v>533</v>
+      </c>
+      <c r="C35" s="32"/>
       <c r="D35" s="32"/>
       <c r="E35" s="10" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="C36" s="32">
-        <v>6.5</v>
-      </c>
+    <row r="36" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B36" s="34" t="s">
+        <v>534</v>
+      </c>
+      <c r="C36" s="32"/>
       <c r="D36" s="32"/>
       <c r="E36" s="10" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="D37" s="32" t="s">
+    <row r="37" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="C37" s="34" t="s">
         <v>443</v>
       </c>
+      <c r="D37" s="32"/>
       <c r="E37" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="D38" s="32" t="s">
+    <row r="38" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="C38" s="34" t="s">
         <v>444</v>
       </c>
+      <c r="D38" s="32"/>
       <c r="E38" s="10" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="D39" s="32" t="s">
+    <row r="39" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="C39" s="34" t="s">
         <v>445</v>
       </c>
+      <c r="D39" s="32"/>
       <c r="E39" s="10" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="C40" s="32">
-        <v>6.6</v>
-      </c>
+    <row r="40" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B40" s="34" t="s">
+        <v>535</v>
+      </c>
+      <c r="C40" s="32"/>
       <c r="D40" s="32"/>
       <c r="E40" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="D41" s="32" t="s">
+    <row r="41" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="C41" s="34" t="s">
         <v>446</v>
       </c>
+      <c r="D41" s="32"/>
       <c r="E41" s="10" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="D42" s="32" t="s">
+    <row r="42" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="C42" s="34" t="s">
         <v>447</v>
       </c>
+      <c r="D42" s="32"/>
       <c r="E42" s="10" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="D43" s="32" t="s">
+    <row r="43" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="C43" s="34" t="s">
         <v>448</v>
       </c>
+      <c r="D43" s="32"/>
       <c r="E43" s="10" t="s">
         <v>333</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="C44" s="32">
-        <v>6.7</v>
-      </c>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B44" s="34" t="s">
+        <v>536</v>
+      </c>
+      <c r="C44" s="32"/>
       <c r="D44" s="32"/>
       <c r="E44" s="10" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="C45" s="32">
-        <v>6.8</v>
-      </c>
+    <row r="45" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B45" s="34" t="s">
+        <v>537</v>
+      </c>
+      <c r="C45" s="32"/>
       <c r="D45" s="32"/>
       <c r="E45" s="10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="D46" s="32" t="s">
+    <row r="46" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="C46" s="34" t="s">
         <v>449</v>
       </c>
+      <c r="D46" s="32"/>
       <c r="E46" s="10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="D47" s="32" t="s">
+    <row r="47" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="C47" s="34" t="s">
         <v>450</v>
       </c>
+      <c r="D47" s="32"/>
       <c r="E47" s="10" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="D48" s="32" t="s">
+    <row r="48" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="C48" s="34" t="s">
         <v>451</v>
       </c>
+      <c r="D48" s="32"/>
       <c r="E48" s="10" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="D49" s="32" t="s">
+      <c r="C49" s="34" t="s">
         <v>452</v>
       </c>
+      <c r="D49" s="32"/>
       <c r="E49" s="10" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="B50" s="32">
-        <v>7</v>
-      </c>
+      <c r="A50" s="34" t="s">
+        <v>502</v>
+      </c>
+      <c r="B50" s="32"/>
       <c r="C50" s="32"/>
       <c r="D50" s="32"/>
       <c r="E50" s="10" t="s">
@@ -4230,93 +3855,77 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C51" s="32">
-        <v>7.1</v>
-      </c>
+      <c r="B51" s="34" t="s">
+        <v>538</v>
+      </c>
+      <c r="C51" s="32"/>
       <c r="D51" s="32"/>
       <c r="E51" s="10" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="D52" s="32" t="s">
+      <c r="C52" s="32" t="s">
         <v>453</v>
       </c>
+      <c r="D52" s="32"/>
       <c r="E52" s="10" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="D53" s="32" t="s">
+      <c r="C53" s="32" t="s">
         <v>454</v>
       </c>
+      <c r="D53" s="32"/>
       <c r="E53" s="10" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="D54" s="32" t="s">
+      <c r="C54" s="32" t="s">
         <v>455</v>
       </c>
+      <c r="D54" s="32"/>
       <c r="E54" s="10" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="C55" s="32">
+      <c r="B55" s="32">
         <v>7.2</v>
       </c>
+      <c r="C55" s="32"/>
       <c r="D55" s="32"/>
       <c r="E55" s="10" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="C56" s="32">
+      <c r="B56" s="32">
         <v>7.3</v>
       </c>
+      <c r="C56" s="32"/>
       <c r="D56" s="32"/>
       <c r="E56" s="10" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="C57" s="32">
+      <c r="B57" s="32">
         <v>7.4</v>
       </c>
+      <c r="C57" s="32"/>
       <c r="D57" s="32"/>
       <c r="E57" s="10" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="B58" s="32">
-        <v>8</v>
-      </c>
+      <c r="A58" s="34" t="s">
+        <v>503</v>
+      </c>
+      <c r="B58" s="32"/>
       <c r="C58" s="32"/>
       <c r="D58" s="32"/>
       <c r="E58" s="10" t="s">
@@ -4324,385 +3933,317 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="C59" s="32">
+      <c r="B59" s="32">
         <v>8.1</v>
       </c>
+      <c r="C59" s="32"/>
       <c r="D59" s="32"/>
       <c r="E59" s="10" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="C60" s="32">
+      <c r="B60" s="32">
         <v>8.1999999999999993</v>
       </c>
+      <c r="C60" s="32"/>
       <c r="D60" s="32"/>
       <c r="E60" s="10" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="C61" s="32">
+      <c r="B61" s="32">
         <v>8.3000000000000007</v>
       </c>
+      <c r="C61" s="32"/>
       <c r="D61" s="32"/>
       <c r="E61" s="10" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="D62" s="32" t="s">
-        <v>620</v>
-      </c>
+      <c r="C62" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="D62" s="32"/>
       <c r="E62" s="10" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="D63" s="32" t="s">
+      <c r="C63" s="32" t="s">
         <v>457</v>
       </c>
+      <c r="D63" s="32"/>
       <c r="E63" s="10" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="D64" s="32" t="s">
+      <c r="C64" s="32" t="s">
         <v>458</v>
       </c>
+      <c r="D64" s="32"/>
       <c r="E64" s="10" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="D65" s="32" t="s">
+    <row r="65" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C65" s="32" t="s">
         <v>459</v>
       </c>
+      <c r="D65" s="32"/>
       <c r="E65" s="10" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="D66" s="32" t="s">
+    <row r="66" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C66" s="32" t="s">
         <v>460</v>
       </c>
+      <c r="D66" s="32"/>
       <c r="E66" s="10" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="C67" s="32">
+    <row r="67" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B67" s="32">
         <v>8.4</v>
       </c>
+      <c r="C67" s="32"/>
       <c r="D67" s="32"/>
       <c r="E67" s="10" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="D68" s="32" t="s">
-        <v>621</v>
-      </c>
+    <row r="68" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C68" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="D68" s="32"/>
       <c r="E68" s="10" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="D69" s="32" t="s">
+    <row r="69" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="C69" s="32" t="s">
         <v>462</v>
       </c>
+      <c r="D69" s="32"/>
       <c r="E69" s="10" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="D70" s="32" t="s">
+    <row r="70" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C70" s="32" t="s">
         <v>463</v>
       </c>
+      <c r="D70" s="32"/>
       <c r="E70" s="10" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="D71" s="32" t="s">
+    <row r="71" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C71" s="32" t="s">
         <v>464</v>
       </c>
+      <c r="D71" s="32"/>
       <c r="E71" s="10" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="D72" s="32" t="s">
+    <row r="72" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C72" s="32" t="s">
         <v>465</v>
       </c>
+      <c r="D72" s="32"/>
       <c r="E72" s="10" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="D73" s="32" t="s">
+    <row r="73" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C73" s="32" t="s">
         <v>466</v>
       </c>
+      <c r="D73" s="32"/>
       <c r="E73" s="10" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="D74" s="32" t="s">
+    <row r="74" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C74" s="32" t="s">
         <v>467</v>
       </c>
+      <c r="D74" s="32"/>
       <c r="E74" s="10" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="D75" s="32" t="s">
+    <row r="75" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C75" s="32" t="s">
         <v>468</v>
       </c>
+      <c r="D75" s="32"/>
       <c r="E75" s="10" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="D76" s="32" t="s">
+    <row r="76" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C76" s="32" t="s">
         <v>469</v>
       </c>
+      <c r="D76" s="32"/>
       <c r="E76" s="10" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="D77" s="32" t="s">
+    <row r="77" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="C77" s="32" t="s">
         <v>470</v>
       </c>
+      <c r="D77" s="32"/>
       <c r="E77" s="10" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="C78" s="32">
+    <row r="78" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B78" s="32">
         <v>8.5</v>
       </c>
+      <c r="C78" s="32"/>
       <c r="D78" s="32"/>
       <c r="E78" s="10" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="D79" s="32" t="s">
+    <row r="79" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C79" s="32" t="s">
         <v>471</v>
       </c>
+      <c r="D79" s="32"/>
       <c r="E79" s="10" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="D80" s="32" t="s">
+    <row r="80" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C80" s="32" t="s">
         <v>472</v>
       </c>
+      <c r="D80" s="32"/>
       <c r="E80" s="10" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="C81" s="32">
+      <c r="B81" s="32">
         <v>8.6</v>
       </c>
+      <c r="C81" s="32"/>
       <c r="D81" s="32"/>
       <c r="E81" s="10" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="D82" s="32" t="s">
+      <c r="C82" s="32" t="s">
         <v>473</v>
       </c>
+      <c r="D82" s="32"/>
       <c r="E82" s="10" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="D83" s="32" t="s">
+      <c r="C83" s="32" t="s">
         <v>474</v>
       </c>
+      <c r="D83" s="32"/>
       <c r="E83" s="10" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D84" s="32" t="s">
+      <c r="C84" s="32" t="s">
         <v>475</v>
       </c>
+      <c r="D84" s="32"/>
       <c r="E84" s="10" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="D85" s="32" t="s">
+      <c r="C85" s="32" t="s">
         <v>476</v>
       </c>
+      <c r="D85" s="32"/>
       <c r="E85" s="10" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="D86" s="32" t="s">
+      <c r="C86" s="32" t="s">
         <v>477</v>
       </c>
+      <c r="D86" s="32"/>
       <c r="E86" s="10" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="C87" s="32">
+      <c r="B87" s="32">
         <v>8.6999999999999993</v>
       </c>
+      <c r="C87" s="32"/>
       <c r="D87" s="32"/>
       <c r="E87" s="10" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="C88" s="32">
+      <c r="B88" s="32">
         <v>8.8000000000000007</v>
       </c>
+      <c r="C88" s="32"/>
       <c r="D88" s="32"/>
       <c r="E88" s="10" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="C89" s="32">
+      <c r="B89" s="32">
         <v>8.9</v>
       </c>
+      <c r="C89" s="32"/>
       <c r="D89" s="32"/>
       <c r="E89" s="10" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C90" s="32">
+      <c r="B90" s="32">
         <v>8.1</v>
       </c>
+      <c r="C90" s="32"/>
       <c r="D90" s="32"/>
       <c r="E90" s="10" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="D91" s="32" t="s">
-        <v>622</v>
-      </c>
+      <c r="C91" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="D91" s="32"/>
       <c r="E91" s="10" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="B92" s="32">
-        <v>9</v>
-      </c>
+      <c r="A92" s="34" t="s">
+        <v>504</v>
+      </c>
+      <c r="B92" s="32"/>
       <c r="C92" s="32"/>
       <c r="D92" s="32"/>
       <c r="E92" s="10" t="s">
@@ -4710,175 +4251,145 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="C93" s="32">
+      <c r="B93" s="32">
         <v>9.1</v>
       </c>
+      <c r="C93" s="32"/>
       <c r="D93" s="32"/>
       <c r="E93" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="C94" s="32">
+      <c r="B94" s="32">
         <v>9.1999999999999993</v>
       </c>
+      <c r="C94" s="32"/>
       <c r="D94" s="32"/>
       <c r="E94" s="10" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="D95" s="32" t="s">
+      <c r="C95" s="32" t="s">
         <v>478</v>
       </c>
+      <c r="D95" s="32"/>
       <c r="E95" s="10" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="D96" s="32" t="s">
+      <c r="C96" s="32" t="s">
         <v>479</v>
       </c>
+      <c r="D96" s="32"/>
       <c r="E96" s="10" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="D97" s="32" t="s">
+      <c r="C97" s="32" t="s">
         <v>480</v>
       </c>
+      <c r="D97" s="32"/>
       <c r="E97" s="10" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="D98" s="32" t="s">
+      <c r="C98" s="32" t="s">
         <v>481</v>
       </c>
+      <c r="D98" s="32"/>
       <c r="E98" s="10" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D99" s="32" t="s">
+      <c r="C99" s="32" t="s">
         <v>482</v>
       </c>
+      <c r="D99" s="32"/>
       <c r="E99" s="10" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="C100" s="32">
+      <c r="B100" s="32">
         <v>9.3000000000000007</v>
       </c>
+      <c r="C100" s="32"/>
       <c r="D100" s="32"/>
       <c r="E100" s="10" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="C101" s="32">
+      <c r="B101" s="32">
         <v>9.4</v>
       </c>
+      <c r="C101" s="32"/>
       <c r="D101" s="32"/>
       <c r="E101" s="10" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="C102" s="32">
+      <c r="B102" s="32">
         <v>9.5</v>
       </c>
+      <c r="C102" s="32"/>
       <c r="D102" s="32"/>
       <c r="E102" s="10" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="C103" s="32">
+      <c r="B103" s="32">
         <v>9.6</v>
       </c>
+      <c r="C103" s="32"/>
       <c r="D103" s="32"/>
       <c r="E103" s="10" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="C104" s="32">
+      <c r="B104" s="32">
         <v>9.6999999999999993</v>
       </c>
+      <c r="C104" s="32"/>
       <c r="D104" s="32"/>
       <c r="E104" s="10" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="C105" s="32">
+      <c r="B105" s="32">
         <v>9.8000000000000007</v>
       </c>
+      <c r="C105" s="32"/>
       <c r="D105" s="32"/>
       <c r="E105" s="10" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="C106" s="32">
+      <c r="B106" s="32">
         <v>9.9</v>
       </c>
+      <c r="C106" s="32"/>
       <c r="D106" s="32"/>
       <c r="E106" s="10" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="B107" s="32">
-        <v>10</v>
-      </c>
+      <c r="A107" s="34" t="s">
+        <v>505</v>
+      </c>
+      <c r="B107" s="32"/>
       <c r="C107" s="32"/>
       <c r="D107" s="32"/>
       <c r="E107" s="10" t="s">
@@ -4886,72 +4397,60 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="C108" s="32">
+      <c r="B108" s="32">
         <v>10.1</v>
       </c>
+      <c r="C108" s="32"/>
       <c r="D108" s="32"/>
       <c r="E108" s="10" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="C109" s="32">
+      <c r="B109" s="32">
         <v>10.199999999999999</v>
       </c>
+      <c r="C109" s="32"/>
       <c r="D109" s="32"/>
       <c r="E109" s="10" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="C110" s="32">
+      <c r="B110" s="32">
         <v>10.3</v>
       </c>
+      <c r="C110" s="32"/>
       <c r="D110" s="32"/>
       <c r="E110" s="10" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="C111" s="32">
+      <c r="B111" s="32">
         <v>10.4</v>
       </c>
+      <c r="C111" s="32"/>
       <c r="D111" s="32"/>
       <c r="E111" s="10" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="C112" s="32">
+      <c r="B112" s="32">
         <v>10.5</v>
       </c>
+      <c r="C112" s="32"/>
       <c r="D112" s="32"/>
       <c r="E112" s="10" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="B113" s="32">
-        <v>11</v>
-      </c>
+      <c r="A113" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="B113" s="32"/>
       <c r="C113" s="32"/>
       <c r="D113" s="32"/>
       <c r="E113" s="10" t="s">
@@ -4959,48 +4458,40 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="C114" s="32">
-        <v>11.1</v>
-      </c>
+      <c r="B114" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="C114" s="32"/>
       <c r="D114" s="32"/>
       <c r="E114" s="10" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="C115" s="32">
-        <v>11.2</v>
-      </c>
+      <c r="B115" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="C115" s="32"/>
       <c r="D115" s="32"/>
       <c r="E115" s="10" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="C116" s="32">
-        <v>11.3</v>
-      </c>
+      <c r="B116" s="34" t="s">
+        <v>519</v>
+      </c>
+      <c r="C116" s="32"/>
       <c r="D116" s="32"/>
       <c r="E116" s="10" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="B117" s="32">
-        <v>12</v>
-      </c>
+      <c r="A117" s="34" t="s">
+        <v>507</v>
+      </c>
+      <c r="B117" s="32"/>
       <c r="C117" s="32"/>
       <c r="D117" s="32"/>
       <c r="E117" s="10" t="s">
@@ -5008,60 +4499,50 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="C118" s="32">
-        <v>12.1</v>
-      </c>
+      <c r="B118" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="C118" s="32"/>
       <c r="D118" s="32"/>
       <c r="E118" s="10" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="C119" s="32">
-        <v>12.2</v>
-      </c>
+      <c r="B119" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="C119" s="32"/>
       <c r="D119" s="32"/>
       <c r="E119" s="10" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="C120" s="32">
-        <v>12.3</v>
-      </c>
+      <c r="B120" s="34" t="s">
+        <v>516</v>
+      </c>
+      <c r="C120" s="32"/>
       <c r="D120" s="32"/>
       <c r="E120" s="10" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="C121" s="32">
-        <v>12.4</v>
-      </c>
+      <c r="B121" s="34" t="s">
+        <v>515</v>
+      </c>
+      <c r="C121" s="32"/>
       <c r="D121" s="32"/>
       <c r="E121" s="10" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="B122" s="32">
-        <v>13</v>
-      </c>
+      <c r="A122" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="B122" s="32"/>
       <c r="C122" s="32"/>
       <c r="D122" s="32"/>
       <c r="E122" s="10" t="s">
@@ -5069,93 +4550,77 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="C123" s="32">
-        <v>13.1</v>
-      </c>
+      <c r="B123" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="C123" s="32"/>
       <c r="D123" s="32"/>
       <c r="E123" s="10" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="D124" s="32" t="s">
+      <c r="C124" s="34" t="s">
         <v>483</v>
       </c>
+      <c r="D124" s="32"/>
       <c r="E124" s="10" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="D125" s="32" t="s">
+      <c r="C125" s="34" t="s">
         <v>484</v>
       </c>
+      <c r="D125" s="32"/>
       <c r="E125" s="10" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="D126" s="32" t="s">
+      <c r="C126" s="34" t="s">
         <v>485</v>
       </c>
+      <c r="D126" s="32"/>
       <c r="E126" s="10" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="C127" s="32">
-        <v>13.2</v>
-      </c>
+      <c r="B127" s="34" t="s">
+        <v>513</v>
+      </c>
+      <c r="C127" s="32"/>
       <c r="D127" s="32"/>
       <c r="E127" s="10" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="C128" s="32">
-        <v>13.3</v>
-      </c>
+      <c r="B128" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="C128" s="32"/>
       <c r="D128" s="32"/>
       <c r="E128" s="10" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="C129" s="32">
-        <v>13.4</v>
-      </c>
+      <c r="B129" s="34" t="s">
+        <v>511</v>
+      </c>
+      <c r="C129" s="32"/>
       <c r="D129" s="32"/>
       <c r="E129" s="10" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="B130" s="32">
-        <v>14</v>
-      </c>
+      <c r="A130" s="34" t="s">
+        <v>509</v>
+      </c>
+      <c r="B130" s="32"/>
       <c r="C130" s="32"/>
       <c r="D130" s="32"/>
       <c r="E130" s="10" t="s">
@@ -5163,12 +4628,10 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="B131" s="32">
-        <v>15</v>
-      </c>
+      <c r="A131" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="B131" s="32"/>
       <c r="C131" s="32"/>
       <c r="D131" s="32"/>
       <c r="E131" s="10" t="s">

--- a/tests/integration_test_files/simple_1.xlsx
+++ b/tests/integration_test_files/simple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBFBC49-5B03-FB45-B958-CC0D024348C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFCA920F-F1EA-114E-BF82-ADDBDDA1A99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42140" yWindow="500" windowWidth="33000" windowHeight="22600" firstSheet="3" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="42140" yWindow="500" windowWidth="33000" windowHeight="22600" firstSheet="5" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="564">
   <si>
     <t>Epoch</t>
   </si>
@@ -1550,15 +1550,6 @@
     <t>&lt;p&gt;Blinding and unblinding text here please&lt;/p&gt;</t>
   </si>
   <si>
-    <t>sectionNumber1</t>
-  </si>
-  <si>
-    <t>sectionNumber2</t>
-  </si>
-  <si>
-    <t>sectionNumber3</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -1677,6 +1668,90 @@
   </si>
   <si>
     <t>7.1</t>
+  </si>
+  <si>
+    <t>sectionNumber</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1760,7 +1835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1824,18 +1899,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1847,8 +1910,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3348,1294 +3420,1232 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="16" style="3" customWidth="1"/>
-    <col min="5" max="5" width="49.83203125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="81.33203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="81.33203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>536</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="B30" s="28"/>
+      <c r="C30" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="B38" s="28"/>
+      <c r="C38" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="B39" s="28"/>
+      <c r="C39" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="B40" s="28"/>
+      <c r="C40" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="B41" s="28"/>
+      <c r="C41" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B42" s="28"/>
+      <c r="C42" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B43" s="28"/>
+      <c r="C43" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="B44" s="28"/>
+      <c r="C44" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B45" s="28"/>
+      <c r="C45" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B46" s="28"/>
+      <c r="C46" s="10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="B47" s="28"/>
+      <c r="C47" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B48" s="28"/>
+      <c r="C48" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="B49" s="28"/>
+      <c r="C49" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="E1" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B3" s="32" t="s">
-        <v>425</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B4" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="E6" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="32" t="s">
-        <v>429</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="32" t="s">
-        <v>430</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
-        <v>431</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="E9" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="E10" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C12" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="32" t="s">
-        <v>434</v>
-      </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C14" s="34" t="s">
-        <v>435</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C15" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C16" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B17" s="34" t="s">
-        <v>522</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="34" t="s">
-        <v>523</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
+      <c r="B50" s="28"/>
+      <c r="C50" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="B51" s="28"/>
+      <c r="C51" s="10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B52" s="28"/>
+      <c r="C52" s="10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B53" s="28"/>
+      <c r="C53" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B54" s="28"/>
+      <c r="C54" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="B55" s="28"/>
+      <c r="C55" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="B56" s="28"/>
+      <c r="C56" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="B57" s="28"/>
+      <c r="C57" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B20" s="34" t="s">
-        <v>524</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B21" s="34" t="s">
-        <v>525</v>
-      </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="B22" s="34" t="s">
-        <v>526</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="B23" s="34" t="s">
-        <v>527</v>
-      </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B24" s="34" t="s">
-        <v>528</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B25" s="32"/>
-      <c r="C25" s="34" t="s">
-        <v>486</v>
-      </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B26" s="32"/>
-      <c r="C26" s="34" t="s">
-        <v>487</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B27" s="32"/>
-      <c r="C27" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B28" s="32"/>
-      <c r="C28" s="34" t="s">
-        <v>489</v>
-      </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B29" s="34" t="s">
-        <v>529</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="34" t="s">
+      <c r="B58" s="28"/>
+      <c r="C58" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="B59" s="28"/>
+      <c r="C59" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="B60" s="28"/>
+      <c r="C60" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="B61" s="28"/>
+      <c r="C61" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="B62" s="28"/>
+      <c r="C62" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B63" s="28"/>
+      <c r="C63" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="B64" s="28"/>
+      <c r="C64" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B65" s="28"/>
+      <c r="C65" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="B66" s="28"/>
+      <c r="C66" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="B67" s="28"/>
+      <c r="C67" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B68" s="28"/>
+      <c r="C68" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="B69" s="28"/>
+      <c r="C69" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B70" s="28"/>
+      <c r="C70" s="10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="B71" s="28"/>
+      <c r="C71" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B72" s="28"/>
+      <c r="C72" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B73" s="28"/>
+      <c r="C73" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="B74" s="28"/>
+      <c r="C74" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="B75" s="28"/>
+      <c r="C75" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B76" s="28"/>
+      <c r="C76" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A77" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="B77" s="28"/>
+      <c r="C77" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="B78" s="28"/>
+      <c r="C78" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="B79" s="28"/>
+      <c r="C79" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="B80" s="28"/>
+      <c r="C80" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A81" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="B81" s="28"/>
+      <c r="C81" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B82" s="28"/>
+      <c r="C82" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="B83" s="28"/>
+      <c r="C83" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="B84" s="28"/>
+      <c r="C84" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B85" s="28"/>
+      <c r="C85" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B86" s="28"/>
+      <c r="C86" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B87" s="28"/>
+      <c r="C87" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="B88" s="28"/>
+      <c r="C88" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="B89" s="28"/>
+      <c r="C89" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="B90" s="28"/>
+      <c r="C90" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B91" s="28"/>
+      <c r="C91" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B31" s="34" t="s">
-        <v>530</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B32" s="34" t="s">
-        <v>531</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B33" s="34" t="s">
-        <v>532</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C34" s="34" t="s">
-        <v>442</v>
-      </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B35" s="34" t="s">
-        <v>533</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B36" s="34" t="s">
-        <v>534</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C37" s="34" t="s">
-        <v>443</v>
-      </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C38" s="34" t="s">
-        <v>444</v>
-      </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C39" s="34" t="s">
-        <v>445</v>
-      </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B40" s="34" t="s">
-        <v>535</v>
-      </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C41" s="34" t="s">
-        <v>446</v>
-      </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C42" s="34" t="s">
-        <v>447</v>
-      </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C43" s="34" t="s">
-        <v>448</v>
-      </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B44" s="34" t="s">
-        <v>536</v>
-      </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B45" s="34" t="s">
-        <v>537</v>
-      </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C46" s="34" t="s">
-        <v>449</v>
-      </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C47" s="34" t="s">
-        <v>450</v>
-      </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C48" s="34" t="s">
-        <v>451</v>
-      </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C49" s="34" t="s">
-        <v>452</v>
-      </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="34" t="s">
+      <c r="B92" s="28"/>
+      <c r="C92" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="B93" s="28"/>
+      <c r="C93" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="B94" s="28"/>
+      <c r="C94" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="B95" s="28"/>
+      <c r="C95" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B96" s="28"/>
+      <c r="C96" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B97" s="28"/>
+      <c r="C97" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B98" s="28"/>
+      <c r="C98" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="B99" s="28"/>
+      <c r="C99" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B100" s="28"/>
+      <c r="C100" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="B101" s="28"/>
+      <c r="C101" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="B102" s="28"/>
+      <c r="C102" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="B103" s="28"/>
+      <c r="C103" s="10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="B104" s="28"/>
+      <c r="C104" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="B105" s="28"/>
+      <c r="C105" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="B106" s="28"/>
+      <c r="C106" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="10" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B51" s="34" t="s">
-        <v>538</v>
-      </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="C52" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="C53" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C54" s="32" t="s">
-        <v>455</v>
-      </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B55" s="32">
-        <v>7.2</v>
-      </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B56" s="32">
-        <v>7.3</v>
-      </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B57" s="32">
-        <v>7.4</v>
-      </c>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="34" t="s">
+      <c r="B107" s="28"/>
+      <c r="C107" s="10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="B108" s="28"/>
+      <c r="C108" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="B109" s="28"/>
+      <c r="C109" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="B110" s="28"/>
+      <c r="C110" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="B111" s="28"/>
+      <c r="C111" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="B112" s="28"/>
+      <c r="C112" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A113" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B59" s="32">
-        <v>8.1</v>
-      </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B60" s="32">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B61" s="32">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C62" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="D62" s="32"/>
-      <c r="E62" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C63" s="32" t="s">
-        <v>457</v>
-      </c>
-      <c r="D63" s="32"/>
-      <c r="E63" s="10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C64" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="D64" s="32"/>
-      <c r="E64" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C65" s="32" t="s">
-        <v>459</v>
-      </c>
-      <c r="D65" s="32"/>
-      <c r="E65" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C66" s="32" t="s">
-        <v>460</v>
-      </c>
-      <c r="D66" s="32"/>
-      <c r="E66" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B67" s="32">
-        <v>8.4</v>
-      </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C68" s="32" t="s">
-        <v>491</v>
-      </c>
-      <c r="D68" s="32"/>
-      <c r="E68" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="C69" s="32" t="s">
-        <v>462</v>
-      </c>
-      <c r="D69" s="32"/>
-      <c r="E69" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C70" s="32" t="s">
-        <v>463</v>
-      </c>
-      <c r="D70" s="32"/>
-      <c r="E70" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C71" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="D71" s="32"/>
-      <c r="E71" s="10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C72" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="D72" s="32"/>
-      <c r="E72" s="10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C73" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="D73" s="32"/>
-      <c r="E73" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C74" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="D74" s="32"/>
-      <c r="E74" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C75" s="32" t="s">
-        <v>468</v>
-      </c>
-      <c r="D75" s="32"/>
-      <c r="E75" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C76" s="32" t="s">
-        <v>469</v>
-      </c>
-      <c r="D76" s="32"/>
-      <c r="E76" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="C77" s="32" t="s">
-        <v>470</v>
-      </c>
-      <c r="D77" s="32"/>
-      <c r="E77" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B78" s="32">
-        <v>8.5</v>
-      </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C79" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="D79" s="32"/>
-      <c r="E79" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C80" s="32" t="s">
-        <v>472</v>
-      </c>
-      <c r="D80" s="32"/>
-      <c r="E80" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B81" s="32">
-        <v>8.6</v>
-      </c>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C82" s="32" t="s">
-        <v>473</v>
-      </c>
-      <c r="D82" s="32"/>
-      <c r="E82" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C83" s="32" t="s">
-        <v>474</v>
-      </c>
-      <c r="D83" s="32"/>
-      <c r="E83" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="C84" s="32" t="s">
-        <v>475</v>
-      </c>
-      <c r="D84" s="32"/>
-      <c r="E84" s="10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C85" s="32" t="s">
-        <v>476</v>
-      </c>
-      <c r="D85" s="32"/>
-      <c r="E85" s="10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="C86" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="D86" s="32"/>
-      <c r="E86" s="10" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B87" s="32">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B88" s="32">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B89" s="32">
-        <v>8.9</v>
-      </c>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B90" s="32">
-        <v>8.1</v>
-      </c>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="10" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C91" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="D91" s="32"/>
-      <c r="E91" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="34" t="s">
+      <c r="B113" s="28"/>
+      <c r="C113" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="B114" s="28"/>
+      <c r="C114" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="B115" s="28"/>
+      <c r="C115" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="B116" s="28"/>
+      <c r="C116" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A117" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="B92" s="32"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B93" s="32">
-        <v>9.1</v>
-      </c>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B94" s="32">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C95" s="32" t="s">
-        <v>478</v>
-      </c>
-      <c r="D95" s="32"/>
-      <c r="E95" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C96" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="D96" s="32"/>
-      <c r="E96" s="10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C97" s="32" t="s">
-        <v>480</v>
-      </c>
-      <c r="D97" s="32"/>
-      <c r="E97" s="10" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C98" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="D98" s="32"/>
-      <c r="E98" s="10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C99" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="D99" s="32"/>
-      <c r="E99" s="10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B100" s="32">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B101" s="32">
-        <v>9.4</v>
-      </c>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B102" s="32">
-        <v>9.5</v>
-      </c>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B103" s="32">
-        <v>9.6</v>
-      </c>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="10" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B104" s="32">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B105" s="32">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B106" s="32">
-        <v>9.9</v>
-      </c>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32"/>
-      <c r="E106" s="10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A107" s="34" t="s">
+      <c r="B117" s="28"/>
+      <c r="C117" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="B118" s="28"/>
+      <c r="C118" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="B119" s="28"/>
+      <c r="C119" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="B120" s="28"/>
+      <c r="C120" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="B121" s="28"/>
+      <c r="C121" s="10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A122" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="B107" s="32"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B108" s="32">
-        <v>10.1</v>
-      </c>
-      <c r="C108" s="32"/>
-      <c r="D108" s="32"/>
-      <c r="E108" s="10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B109" s="32">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C109" s="32"/>
-      <c r="D109" s="32"/>
-      <c r="E109" s="10" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B110" s="32">
-        <v>10.3</v>
-      </c>
-      <c r="C110" s="32"/>
-      <c r="D110" s="32"/>
-      <c r="E110" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B111" s="32">
-        <v>10.4</v>
-      </c>
-      <c r="C111" s="32"/>
-      <c r="D111" s="32"/>
-      <c r="E111" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B112" s="32">
-        <v>10.5</v>
-      </c>
-      <c r="C112" s="32"/>
-      <c r="D112" s="32"/>
-      <c r="E112" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A113" s="34" t="s">
+      <c r="B122" s="28"/>
+      <c r="C122" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="B123" s="28"/>
+      <c r="C123" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B124" s="28"/>
+      <c r="C124" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="B125" s="28"/>
+      <c r="C125" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B126" s="28"/>
+      <c r="C126" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B127" s="28"/>
+      <c r="C127" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="B128" s="28"/>
+      <c r="C128" s="10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B129" s="28"/>
+      <c r="C129" s="10" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="B113" s="32"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="32"/>
-      <c r="E113" s="10" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B114" s="34" t="s">
-        <v>521</v>
-      </c>
-      <c r="C114" s="32"/>
-      <c r="D114" s="32"/>
-      <c r="E114" s="10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B115" s="34" t="s">
-        <v>520</v>
-      </c>
-      <c r="C115" s="32"/>
-      <c r="D115" s="32"/>
-      <c r="E115" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B116" s="34" t="s">
-        <v>519</v>
-      </c>
-      <c r="C116" s="32"/>
-      <c r="D116" s="32"/>
-      <c r="E116" s="10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A117" s="34" t="s">
+      <c r="B130" s="28"/>
+      <c r="C130" s="10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="B117" s="32"/>
-      <c r="C117" s="32"/>
-      <c r="D117" s="32"/>
-      <c r="E117" s="10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B118" s="34" t="s">
-        <v>518</v>
-      </c>
-      <c r="C118" s="32"/>
-      <c r="D118" s="32"/>
-      <c r="E118" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B119" s="34" t="s">
-        <v>517</v>
-      </c>
-      <c r="C119" s="32"/>
-      <c r="D119" s="32"/>
-      <c r="E119" s="10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B120" s="34" t="s">
-        <v>516</v>
-      </c>
-      <c r="C120" s="32"/>
-      <c r="D120" s="32"/>
-      <c r="E120" s="10" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B121" s="34" t="s">
-        <v>515</v>
-      </c>
-      <c r="C121" s="32"/>
-      <c r="D121" s="32"/>
-      <c r="E121" s="10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A122" s="34" t="s">
-        <v>508</v>
-      </c>
-      <c r="B122" s="32"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="10" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B123" s="34" t="s">
-        <v>514</v>
-      </c>
-      <c r="C123" s="32"/>
-      <c r="D123" s="32"/>
-      <c r="E123" s="10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C124" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="D124" s="32"/>
-      <c r="E124" s="10" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C125" s="34" t="s">
-        <v>484</v>
-      </c>
-      <c r="D125" s="32"/>
-      <c r="E125" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C126" s="34" t="s">
-        <v>485</v>
-      </c>
-      <c r="D126" s="32"/>
-      <c r="E126" s="10" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B127" s="34" t="s">
-        <v>513</v>
-      </c>
-      <c r="C127" s="32"/>
-      <c r="D127" s="32"/>
-      <c r="E127" s="10" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B128" s="34" t="s">
-        <v>512</v>
-      </c>
-      <c r="C128" s="32"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="10" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B129" s="34" t="s">
-        <v>511</v>
-      </c>
-      <c r="C129" s="32"/>
-      <c r="D129" s="32"/>
-      <c r="E129" s="10" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="34" t="s">
-        <v>509</v>
-      </c>
-      <c r="B130" s="32"/>
-      <c r="C130" s="32"/>
-      <c r="D130" s="32"/>
-      <c r="E130" s="10" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="34" t="s">
-        <v>510</v>
-      </c>
-      <c r="B131" s="32"/>
-      <c r="C131" s="32"/>
-      <c r="D131" s="32"/>
-      <c r="E131" s="10" t="s">
+      <c r="B131" s="28"/>
+      <c r="C131" s="10" t="s">
         <v>422</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="11" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -4654,90 +4664,90 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="29"/>
-    <col min="8" max="8" width="10.83203125" style="29"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="8" max="8" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="29">
+      <c r="A1" s="25">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>292</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I1" t="s">
         <v>292</v>
       </c>
-      <c r="O1" s="30" t="str">
+      <c r="O1" s="26" t="str">
         <f>TEXT(H2,"0")</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="29">
+      <c r="A2" s="25">
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" t="s">
         <v>297</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="25" t="s">
         <v>425</v>
       </c>
       <c r="I2" t="s">
         <v>297</v>
       </c>
-      <c r="O2" s="30" t="str">
+      <c r="O2" s="26" t="str">
         <f>TEXT(H3,"0")</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="29">
+      <c r="A3" s="25">
         <v>1.2</v>
       </c>
       <c r="B3" t="s">
         <v>298</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="25" t="s">
         <v>426</v>
       </c>
       <c r="I3" t="s">
         <v>298</v>
       </c>
-      <c r="O3" s="30" t="str">
+      <c r="O3" s="26" t="str">
         <f>TEXT(H4,"0")</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="29">
+      <c r="A4" s="25">
         <v>1.3</v>
       </c>
       <c r="B4" t="s">
         <v>299</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="25" t="s">
         <v>427</v>
       </c>
       <c r="I4" t="s">
         <v>299</v>
       </c>
-      <c r="O4" s="30" t="str">
+      <c r="O4" s="26" t="str">
         <f>TEXT(H5,"0")</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
+      <c r="A5" s="25">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>293</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="25" t="s">
         <v>428</v>
       </c>
       <c r="I5" t="s">
@@ -4745,13 +4755,13 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="29">
+      <c r="A6" s="25">
         <v>2.1</v>
       </c>
       <c r="B6" t="s">
         <v>300</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="25" t="s">
         <v>429</v>
       </c>
       <c r="I6" t="s">
@@ -4759,13 +4769,13 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
+      <c r="A7" s="25">
         <v>2.2000000000000002</v>
       </c>
       <c r="B7" t="s">
         <v>301</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="25" t="s">
         <v>430</v>
       </c>
       <c r="I7" t="s">
@@ -4773,13 +4783,13 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="29">
+      <c r="A8" s="25">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>294</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="25" t="s">
         <v>431</v>
       </c>
       <c r="I8" t="s">
@@ -4787,13 +4797,13 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
+      <c r="A9" s="25">
         <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>295</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="25" t="s">
         <v>432</v>
       </c>
       <c r="I9" t="s">
@@ -4801,13 +4811,13 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="29">
+      <c r="A10" s="25">
         <v>4.0999999999999996</v>
       </c>
       <c r="B10" t="s">
         <v>302</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="25" t="s">
         <v>433</v>
       </c>
       <c r="I10" t="s">
@@ -4815,13 +4825,13 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="29">
+      <c r="A11" s="25">
         <v>0.16737268518518519</v>
       </c>
       <c r="B11" t="s">
         <v>303</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="25" t="s">
         <v>424</v>
       </c>
       <c r="I11" t="s">
@@ -4829,13 +4839,13 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
+      <c r="A12" s="25">
         <v>4.2</v>
       </c>
       <c r="B12" t="s">
         <v>304</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="25" t="s">
         <v>434</v>
       </c>
       <c r="I12" t="s">
@@ -4843,13 +4853,13 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="25">
         <v>0.16806712962962964</v>
       </c>
       <c r="B13" t="s">
         <v>305</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="25" t="s">
         <v>435</v>
       </c>
       <c r="I13" t="s">
@@ -4857,13 +4867,13 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
+      <c r="A14" s="25">
         <v>0.1680787037037037</v>
       </c>
       <c r="B14" t="s">
         <v>306</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="25" t="s">
         <v>436</v>
       </c>
       <c r="I14" t="s">
@@ -4871,13 +4881,13 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
+      <c r="A15" s="25">
         <v>0.16809027777777777</v>
       </c>
       <c r="B15" t="s">
         <v>307</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="25" t="s">
         <v>437</v>
       </c>
       <c r="I15" t="s">
@@ -4885,13 +4895,13 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="29">
+      <c r="A16" s="25">
         <v>4.3</v>
       </c>
       <c r="B16" t="s">
         <v>308</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="25">
         <v>4.3</v>
       </c>
       <c r="I16" t="s">
@@ -4899,13 +4909,13 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
+      <c r="A17" s="25">
         <v>4.4000000000000004</v>
       </c>
       <c r="B17" t="s">
         <v>309</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="25">
         <v>4.4000000000000004</v>
       </c>
       <c r="I17" t="s">
@@ -4913,13 +4923,13 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="29">
+      <c r="A18" s="25">
         <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>296</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="25">
         <v>5</v>
       </c>
       <c r="I18" t="s">
@@ -4927,13 +4937,13 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="29">
+      <c r="A19" s="25">
         <v>5.0999999999999996</v>
       </c>
       <c r="B19" t="s">
         <v>310</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="25">
         <v>5.0999999999999996</v>
       </c>
       <c r="I19" t="s">
@@ -4941,13 +4951,13 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
+      <c r="A20" s="25">
         <v>5.2</v>
       </c>
       <c r="B20" t="s">
         <v>311</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="25">
         <v>5.2</v>
       </c>
       <c r="I20" t="s">
@@ -4955,13 +4965,13 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="29">
+      <c r="A21" s="25">
         <v>5.3</v>
       </c>
       <c r="B21" t="s">
         <v>312</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="25">
         <v>5.3</v>
       </c>
       <c r="I21" t="s">
@@ -4969,13 +4979,13 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="29">
+      <c r="A22" s="25">
         <v>5.4</v>
       </c>
       <c r="B22" t="s">
         <v>313</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="25">
         <v>5.4</v>
       </c>
       <c r="I22" t="s">
@@ -4983,13 +4993,13 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="29">
+      <c r="A23" s="25">
         <v>5.5</v>
       </c>
       <c r="B23" t="s">
         <v>314</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="25">
         <v>5.5</v>
       </c>
       <c r="I23" t="s">
@@ -4997,13 +5007,13 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="29">
+      <c r="A24" s="25">
         <v>0.21181712962962962</v>
       </c>
       <c r="B24" t="s">
         <v>315</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="25" t="s">
         <v>438</v>
       </c>
       <c r="I24" t="s">
@@ -5011,13 +5021,13 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="29">
+      <c r="A25" s="25">
         <v>0.21182870370370369</v>
       </c>
       <c r="B25" t="s">
         <v>316</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="25" t="s">
         <v>439</v>
       </c>
       <c r="I25" t="s">
@@ -5025,13 +5035,13 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="29">
+      <c r="A26" s="25">
         <v>0.21184027777777778</v>
       </c>
       <c r="B26" t="s">
         <v>317</v>
       </c>
-      <c r="H26" s="29" t="s">
+      <c r="H26" s="25" t="s">
         <v>440</v>
       </c>
       <c r="I26" t="s">
@@ -5039,13 +5049,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="29">
+      <c r="A27" s="25">
         <v>0.21185185185185185</v>
       </c>
       <c r="B27" t="s">
         <v>318</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="H27" s="25" t="s">
         <v>441</v>
       </c>
       <c r="I27" t="s">
@@ -5053,13 +5063,13 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="29">
+      <c r="A28" s="25">
         <v>5.6</v>
       </c>
       <c r="B28" t="s">
         <v>319</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="25">
         <v>5.6</v>
       </c>
       <c r="I28" t="s">
@@ -5067,13 +5077,13 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="29">
+      <c r="A29" s="25">
         <v>6</v>
       </c>
       <c r="B29" t="s">
         <v>320</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H29" s="25">
         <v>6</v>
       </c>
       <c r="I29" t="s">
@@ -5081,13 +5091,13 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="29">
+      <c r="A30" s="25">
         <v>6.1</v>
       </c>
       <c r="B30" t="s">
         <v>321</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H30" s="25">
         <v>6.1</v>
       </c>
       <c r="I30" t="s">
@@ -5095,13 +5105,13 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="29">
+      <c r="A31" s="25">
         <v>6.2</v>
       </c>
       <c r="B31" t="s">
         <v>322</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="25">
         <v>6.2</v>
       </c>
       <c r="I31" t="s">
@@ -5109,13 +5119,13 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="29">
+      <c r="A32" s="25">
         <v>6.3</v>
       </c>
       <c r="B32" t="s">
         <v>323</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H32" s="25">
         <v>6.3</v>
       </c>
       <c r="I32" t="s">
@@ -5123,13 +5133,13 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="29">
+      <c r="A33" s="25">
         <v>0.25209490740740742</v>
       </c>
       <c r="B33" t="s">
         <v>324</v>
       </c>
-      <c r="H33" s="29" t="s">
+      <c r="H33" s="25" t="s">
         <v>442</v>
       </c>
       <c r="I33" t="s">
@@ -5137,13 +5147,13 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="29">
+      <c r="A34" s="25">
         <v>6.4</v>
       </c>
       <c r="B34" t="s">
         <v>325</v>
       </c>
-      <c r="H34" s="29">
+      <c r="H34" s="25">
         <v>6.4</v>
       </c>
       <c r="I34" t="s">
@@ -5151,13 +5161,13 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="29">
+      <c r="A35" s="25">
         <v>6.5</v>
       </c>
       <c r="B35" t="s">
         <v>326</v>
       </c>
-      <c r="H35" s="29">
+      <c r="H35" s="25">
         <v>6.5</v>
       </c>
       <c r="I35" t="s">
@@ -5165,13 +5175,13 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="29">
+      <c r="A36" s="25">
         <v>0.2534837962962963</v>
       </c>
       <c r="B36" t="s">
         <v>327</v>
       </c>
-      <c r="H36" s="29" t="s">
+      <c r="H36" s="25" t="s">
         <v>443</v>
       </c>
       <c r="I36" t="s">
@@ -5179,13 +5189,13 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="29">
+      <c r="A37" s="25">
         <v>0.25349537037037034</v>
       </c>
       <c r="B37" t="s">
         <v>328</v>
       </c>
-      <c r="H37" s="29" t="s">
+      <c r="H37" s="25" t="s">
         <v>444</v>
       </c>
       <c r="I37" t="s">
@@ -5193,13 +5203,13 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="29">
+      <c r="A38" s="25">
         <v>0.25350694444444444</v>
       </c>
       <c r="B38" t="s">
         <v>329</v>
       </c>
-      <c r="H38" s="29" t="s">
+      <c r="H38" s="25" t="s">
         <v>445</v>
       </c>
       <c r="I38" t="s">
@@ -5207,13 +5217,13 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="29">
+      <c r="A39" s="25">
         <v>6.6</v>
       </c>
       <c r="B39" t="s">
         <v>330</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="25">
         <v>6.6</v>
       </c>
       <c r="I39" t="s">
@@ -5221,13 +5231,13 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="29">
+      <c r="A40" s="25">
         <v>0.25417824074074075</v>
       </c>
       <c r="B40" t="s">
         <v>331</v>
       </c>
-      <c r="H40" s="29" t="s">
+      <c r="H40" s="25" t="s">
         <v>446</v>
       </c>
       <c r="I40" t="s">
@@ -5235,13 +5245,13 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="29">
+      <c r="A41" s="25">
         <v>0.25418981481481479</v>
       </c>
       <c r="B41" t="s">
         <v>332</v>
       </c>
-      <c r="H41" s="29" t="s">
+      <c r="H41" s="25" t="s">
         <v>447</v>
       </c>
       <c r="I41" t="s">
@@ -5249,13 +5259,13 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="29">
+      <c r="A42" s="25">
         <v>0.25420138888888888</v>
       </c>
       <c r="B42" t="s">
         <v>333</v>
       </c>
-      <c r="H42" s="29" t="s">
+      <c r="H42" s="25" t="s">
         <v>448</v>
       </c>
       <c r="I42" t="s">
@@ -5263,13 +5273,13 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="29">
+      <c r="A43" s="25">
         <v>6.7</v>
       </c>
       <c r="B43" t="s">
         <v>334</v>
       </c>
-      <c r="H43" s="29">
+      <c r="H43" s="25">
         <v>6.7</v>
       </c>
       <c r="I43" t="s">
@@ -5277,13 +5287,13 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="29">
+      <c r="A44" s="25">
         <v>6.8</v>
       </c>
       <c r="B44" t="s">
         <v>335</v>
       </c>
-      <c r="H44" s="29">
+      <c r="H44" s="25">
         <v>6.8</v>
       </c>
       <c r="I44" t="s">
@@ -5291,13 +5301,13 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="29">
+      <c r="A45" s="25">
         <v>0.25556712962962963</v>
       </c>
       <c r="B45" t="s">
         <v>336</v>
       </c>
-      <c r="H45" s="29" t="s">
+      <c r="H45" s="25" t="s">
         <v>449</v>
       </c>
       <c r="I45" t="s">
@@ -5305,13 +5315,13 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="29">
+      <c r="A46" s="25">
         <v>0.25557870370370367</v>
       </c>
       <c r="B46" t="s">
         <v>337</v>
       </c>
-      <c r="H46" s="29" t="s">
+      <c r="H46" s="25" t="s">
         <v>450</v>
       </c>
       <c r="I46" t="s">
@@ -5319,13 +5329,13 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="29">
+      <c r="A47" s="25">
         <v>0.25559027777777776</v>
       </c>
       <c r="B47" t="s">
         <v>338</v>
       </c>
-      <c r="H47" s="29" t="s">
+      <c r="H47" s="25" t="s">
         <v>451</v>
       </c>
       <c r="I47" t="s">
@@ -5333,13 +5343,13 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="29">
+      <c r="A48" s="25">
         <v>0.25560185185185186</v>
       </c>
       <c r="B48" t="s">
         <v>339</v>
       </c>
-      <c r="H48" s="29" t="s">
+      <c r="H48" s="25" t="s">
         <v>452</v>
       </c>
       <c r="I48" t="s">
@@ -5347,13 +5357,13 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="29">
+      <c r="A49" s="25">
         <v>7</v>
       </c>
       <c r="B49" t="s">
         <v>340</v>
       </c>
-      <c r="H49" s="29">
+      <c r="H49" s="25">
         <v>7</v>
       </c>
       <c r="I49" t="s">
@@ -5361,10 +5371,10 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="H50" s="29">
+      <c r="H50" s="25">
         <v>7.1</v>
       </c>
       <c r="I50" t="s">
@@ -5372,13 +5382,13 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="29">
+      <c r="A51" s="25">
         <v>7.1</v>
       </c>
       <c r="B51" t="s">
         <v>342</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H51" s="25" t="s">
         <v>453</v>
       </c>
       <c r="I51" t="s">
@@ -5386,13 +5396,13 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="29">
+      <c r="A52" s="25">
         <v>0.29237268518518517</v>
       </c>
       <c r="B52" t="s">
         <v>343</v>
       </c>
-      <c r="H52" s="29" t="s">
+      <c r="H52" s="25" t="s">
         <v>454</v>
       </c>
       <c r="I52" t="s">
@@ -5400,13 +5410,13 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="29">
+      <c r="A53" s="25">
         <v>0.29238425925925926</v>
       </c>
       <c r="B53" t="s">
         <v>344</v>
       </c>
-      <c r="H53" s="29" t="s">
+      <c r="H53" s="25" t="s">
         <v>455</v>
       </c>
       <c r="I53" t="s">
@@ -5414,13 +5424,13 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="29">
+      <c r="A54" s="25">
         <v>0.29239583333333335</v>
       </c>
       <c r="B54" t="s">
         <v>345</v>
       </c>
-      <c r="H54" s="29">
+      <c r="H54" s="25">
         <v>7.2</v>
       </c>
       <c r="I54" t="s">
@@ -5428,13 +5438,13 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="29">
+      <c r="A55" s="25">
         <v>7.2</v>
       </c>
       <c r="B55" t="s">
         <v>346</v>
       </c>
-      <c r="H55" s="29">
+      <c r="H55" s="25">
         <v>7.3</v>
       </c>
       <c r="I55" t="s">
@@ -5442,13 +5452,13 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="29">
+      <c r="A56" s="25">
         <v>7.3</v>
       </c>
       <c r="B56" t="s">
         <v>347</v>
       </c>
-      <c r="H56" s="29">
+      <c r="H56" s="25">
         <v>7.4</v>
       </c>
       <c r="I56" t="s">
@@ -5456,13 +5466,13 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="29">
+      <c r="A57" s="25">
         <v>7.4</v>
       </c>
       <c r="B57" t="s">
         <v>348</v>
       </c>
-      <c r="H57" s="29">
+      <c r="H57" s="25">
         <v>8</v>
       </c>
       <c r="I57" t="s">
@@ -5470,13 +5480,13 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="29">
+      <c r="A58" s="25">
         <v>8</v>
       </c>
       <c r="B58" t="s">
         <v>349</v>
       </c>
-      <c r="H58" s="29">
+      <c r="H58" s="25">
         <v>8.1</v>
       </c>
       <c r="I58" t="s">
@@ -5484,13 +5494,13 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="29">
+      <c r="A59" s="25">
         <v>8.1</v>
       </c>
       <c r="B59" t="s">
         <v>350</v>
       </c>
-      <c r="H59" s="29">
+      <c r="H59" s="25">
         <v>8.1999999999999993</v>
       </c>
       <c r="I59" t="s">
@@ -5498,13 +5508,13 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="29">
+      <c r="A60" s="25">
         <v>8.1999999999999993</v>
       </c>
       <c r="B60" t="s">
         <v>351</v>
       </c>
-      <c r="H60" s="29">
+      <c r="H60" s="25">
         <v>8.3000000000000007</v>
       </c>
       <c r="I60" t="s">
@@ -5512,13 +5522,13 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="29">
+      <c r="A61" s="25">
         <v>8.3000000000000007</v>
       </c>
       <c r="B61" t="s">
         <v>352</v>
       </c>
-      <c r="H61" s="29" t="s">
+      <c r="H61" s="25" t="s">
         <v>456</v>
       </c>
       <c r="I61" t="s">
@@ -5526,13 +5536,13 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="29">
+      <c r="A62" s="25">
         <v>0.33542824074074074</v>
       </c>
       <c r="B62" t="s">
         <v>353</v>
       </c>
-      <c r="H62" s="29" t="s">
+      <c r="H62" s="25" t="s">
         <v>457</v>
       </c>
       <c r="I62" t="s">
@@ -5540,13 +5550,13 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="29">
+      <c r="A63" s="25">
         <v>0.33543981481481483</v>
       </c>
       <c r="B63" t="s">
         <v>354</v>
       </c>
-      <c r="H63" s="29" t="s">
+      <c r="H63" s="25" t="s">
         <v>458</v>
       </c>
       <c r="I63" t="s">
@@ -5554,13 +5564,13 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="29">
+      <c r="A64" s="25">
         <v>0.33545138888888887</v>
       </c>
       <c r="B64" t="s">
         <v>355</v>
       </c>
-      <c r="H64" s="29" t="s">
+      <c r="H64" s="25" t="s">
         <v>459</v>
       </c>
       <c r="I64" t="s">
@@ -5568,13 +5578,13 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="29">
+      <c r="A65" s="25">
         <v>0.33546296296296302</v>
       </c>
       <c r="B65" t="s">
         <v>356</v>
       </c>
-      <c r="H65" s="29" t="s">
+      <c r="H65" s="25" t="s">
         <v>460</v>
       </c>
       <c r="I65" t="s">
@@ -5582,13 +5592,13 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="29">
+      <c r="A66" s="25">
         <v>0.33547453703703706</v>
       </c>
       <c r="B66" t="s">
         <v>357</v>
       </c>
-      <c r="H66" s="29">
+      <c r="H66" s="25">
         <v>8.4</v>
       </c>
       <c r="I66" t="s">
@@ -5596,13 +5606,13 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="29">
+      <c r="A67" s="25">
         <v>8.4</v>
       </c>
       <c r="B67" t="s">
         <v>358</v>
       </c>
-      <c r="H67" s="29" t="s">
+      <c r="H67" s="25" t="s">
         <v>461</v>
       </c>
       <c r="I67" t="s">
@@ -5610,13 +5620,13 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="29">
+      <c r="A68" s="25">
         <v>0.33612268518518523</v>
       </c>
       <c r="B68" t="s">
         <v>359</v>
       </c>
-      <c r="H68" s="29" t="s">
+      <c r="H68" s="25" t="s">
         <v>462</v>
       </c>
       <c r="I68" t="s">
@@ -5624,13 +5634,13 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="29">
+      <c r="A69" s="25">
         <v>0.33613425925925927</v>
       </c>
       <c r="B69" t="s">
         <v>360</v>
       </c>
-      <c r="H69" s="29" t="s">
+      <c r="H69" s="25" t="s">
         <v>463</v>
       </c>
       <c r="I69" t="s">
@@ -5638,13 +5648,13 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="29">
+      <c r="A70" s="25">
         <v>0.33614583333333337</v>
       </c>
       <c r="B70" t="s">
         <v>361</v>
       </c>
-      <c r="H70" s="29" t="s">
+      <c r="H70" s="25" t="s">
         <v>464</v>
       </c>
       <c r="I70" t="s">
@@ -5652,13 +5662,13 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="29">
+      <c r="A71" s="25">
         <v>0.3361574074074074</v>
       </c>
       <c r="B71" t="s">
         <v>362</v>
       </c>
-      <c r="H71" s="29" t="s">
+      <c r="H71" s="25" t="s">
         <v>465</v>
       </c>
       <c r="I71" t="s">
@@ -5666,13 +5676,13 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="29">
+      <c r="A72" s="25">
         <v>0.3361689814814815</v>
       </c>
       <c r="B72" t="s">
         <v>363</v>
       </c>
-      <c r="H72" s="29" t="s">
+      <c r="H72" s="25" t="s">
         <v>466</v>
       </c>
       <c r="I72" t="s">
@@ -5680,13 +5690,13 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="29">
+      <c r="A73" s="25">
         <v>0.33618055555555554</v>
       </c>
       <c r="B73" t="s">
         <v>364</v>
       </c>
-      <c r="H73" s="29" t="s">
+      <c r="H73" s="25" t="s">
         <v>467</v>
       </c>
       <c r="I73" t="s">
@@ -5694,13 +5704,13 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="29">
+      <c r="A74" s="25">
         <v>0.33619212962962958</v>
       </c>
       <c r="B74" t="s">
         <v>365</v>
       </c>
-      <c r="H74" s="29" t="s">
+      <c r="H74" s="25" t="s">
         <v>468</v>
       </c>
       <c r="I74" t="s">
@@ -5708,13 +5718,13 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="29">
+      <c r="A75" s="25">
         <v>0.33620370370370373</v>
       </c>
       <c r="B75" t="s">
         <v>366</v>
       </c>
-      <c r="H75" s="29" t="s">
+      <c r="H75" s="25" t="s">
         <v>469</v>
       </c>
       <c r="I75" t="s">
@@ -5722,13 +5732,13 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="29">
+      <c r="A76" s="25">
         <v>0.33621527777777777</v>
       </c>
       <c r="B76" t="s">
         <v>367</v>
       </c>
-      <c r="H76" s="29" t="s">
+      <c r="H76" s="25" t="s">
         <v>470</v>
       </c>
       <c r="I76" t="s">
@@ -5736,13 +5746,13 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="29">
+      <c r="A77" s="25">
         <v>0.33622685185185186</v>
       </c>
       <c r="B77" t="s">
         <v>368</v>
       </c>
-      <c r="H77" s="29">
+      <c r="H77" s="25">
         <v>8.5</v>
       </c>
       <c r="I77" t="s">
@@ -5750,13 +5760,13 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="29">
+      <c r="A78" s="25">
         <v>8.5</v>
       </c>
       <c r="B78" t="s">
         <v>369</v>
       </c>
-      <c r="H78" s="29" t="s">
+      <c r="H78" s="25" t="s">
         <v>471</v>
       </c>
       <c r="I78" t="s">
@@ -5764,13 +5774,13 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="29">
+      <c r="A79" s="25">
         <v>0.33681712962962962</v>
       </c>
       <c r="B79" t="s">
         <v>370</v>
       </c>
-      <c r="H79" s="29" t="s">
+      <c r="H79" s="25" t="s">
         <v>472</v>
       </c>
       <c r="I79" t="s">
@@ -5778,13 +5788,13 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="29">
+      <c r="A80" s="25">
         <v>0.33682870370370371</v>
       </c>
       <c r="B80" t="s">
         <v>371</v>
       </c>
-      <c r="H80" s="29">
+      <c r="H80" s="25">
         <v>8.6</v>
       </c>
       <c r="I80" t="s">
@@ -5792,13 +5802,13 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="29">
+      <c r="A81" s="25">
         <v>8.6</v>
       </c>
       <c r="B81" t="s">
         <v>372</v>
       </c>
-      <c r="H81" s="29" t="s">
+      <c r="H81" s="25" t="s">
         <v>473</v>
       </c>
       <c r="I81" t="s">
@@ -5806,13 +5816,13 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="29">
+      <c r="A82" s="25">
         <v>0.33751157407407412</v>
       </c>
       <c r="B82" t="s">
         <v>373</v>
       </c>
-      <c r="H82" s="29" t="s">
+      <c r="H82" s="25" t="s">
         <v>474</v>
       </c>
       <c r="I82" t="s">
@@ -5820,13 +5830,13 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="29">
+      <c r="A83" s="25">
         <v>0.33752314814814816</v>
       </c>
       <c r="B83" t="s">
         <v>374</v>
       </c>
-      <c r="H83" s="29" t="s">
+      <c r="H83" s="25" t="s">
         <v>475</v>
       </c>
       <c r="I83" t="s">
@@ -5834,13 +5844,13 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="29">
+      <c r="A84" s="25">
         <v>0.33753472222222225</v>
       </c>
       <c r="B84" t="s">
         <v>375</v>
       </c>
-      <c r="H84" s="29" t="s">
+      <c r="H84" s="25" t="s">
         <v>476</v>
       </c>
       <c r="I84" t="s">
@@ -5848,13 +5858,13 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="29">
+      <c r="A85" s="25">
         <v>0.33754629629629629</v>
       </c>
       <c r="B85" t="s">
         <v>376</v>
       </c>
-      <c r="H85" s="29" t="s">
+      <c r="H85" s="25" t="s">
         <v>477</v>
       </c>
       <c r="I85" t="s">
@@ -5862,13 +5872,13 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="29">
+      <c r="A86" s="25">
         <v>0.33755787037037038</v>
       </c>
       <c r="B86" t="s">
         <v>377</v>
       </c>
-      <c r="H86" s="29">
+      <c r="H86" s="25">
         <v>8.6999999999999993</v>
       </c>
       <c r="I86" t="s">
@@ -5876,13 +5886,13 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="29">
+      <c r="A87" s="25">
         <v>8.6999999999999993</v>
       </c>
       <c r="B87" t="s">
         <v>378</v>
       </c>
-      <c r="H87" s="29">
+      <c r="H87" s="25">
         <v>8.8000000000000007</v>
       </c>
       <c r="I87" t="s">
@@ -5890,13 +5900,13 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="29">
+      <c r="A88" s="25">
         <v>8.8000000000000007</v>
       </c>
       <c r="B88" t="s">
         <v>379</v>
       </c>
-      <c r="H88" s="29">
+      <c r="H88" s="25">
         <v>8.9</v>
       </c>
       <c r="I88" t="s">
@@ -5904,13 +5914,13 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="29">
+      <c r="A89" s="25">
         <v>8.9</v>
       </c>
       <c r="B89" t="s">
         <v>380</v>
       </c>
-      <c r="H89" s="29">
+      <c r="H89" s="25">
         <v>8.1</v>
       </c>
       <c r="I89" t="s">
@@ -5918,13 +5928,13 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="29">
+      <c r="A90" s="25">
         <v>8.1</v>
       </c>
       <c r="B90" t="s">
         <v>381</v>
       </c>
-      <c r="H90" s="29">
+      <c r="H90" s="25">
         <v>8.11</v>
       </c>
       <c r="I90" t="s">
@@ -5932,13 +5942,13 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="29">
+      <c r="A91" s="25">
         <v>8.11</v>
       </c>
       <c r="B91" t="s">
         <v>382</v>
       </c>
-      <c r="H91" s="29">
+      <c r="H91" s="25">
         <v>9</v>
       </c>
       <c r="I91" t="s">
@@ -5946,13 +5956,13 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="29">
+      <c r="A92" s="25">
         <v>9</v>
       </c>
       <c r="B92" t="s">
         <v>383</v>
       </c>
-      <c r="H92" s="29">
+      <c r="H92" s="25">
         <v>9.1</v>
       </c>
       <c r="I92" t="s">
@@ -5960,13 +5970,13 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="29">
+      <c r="A93" s="25">
         <v>9.1</v>
       </c>
       <c r="B93" t="s">
         <v>384</v>
       </c>
-      <c r="H93" s="29">
+      <c r="H93" s="25">
         <v>9.1999999999999993</v>
       </c>
       <c r="I93" t="s">
@@ -5974,13 +5984,13 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="29">
+      <c r="A94" s="25">
         <v>9.1999999999999993</v>
       </c>
       <c r="B94" t="s">
         <v>385</v>
       </c>
-      <c r="H94" s="29" t="s">
+      <c r="H94" s="25" t="s">
         <v>478</v>
       </c>
       <c r="I94" t="s">
@@ -5988,13 +5998,13 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="29">
+      <c r="A95" s="25">
         <v>0.37640046296296298</v>
       </c>
       <c r="B95" t="s">
         <v>386</v>
       </c>
-      <c r="H95" s="29" t="s">
+      <c r="H95" s="25" t="s">
         <v>479</v>
       </c>
       <c r="I95" t="s">
@@ -6002,13 +6012,13 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="29">
+      <c r="A96" s="25">
         <v>0.37641203703703702</v>
       </c>
       <c r="B96" t="s">
         <v>387</v>
       </c>
-      <c r="H96" s="29" t="s">
+      <c r="H96" s="25" t="s">
         <v>480</v>
       </c>
       <c r="I96" t="s">
@@ -6016,13 +6026,13 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="29">
+      <c r="A97" s="25">
         <v>0.37642361111111106</v>
       </c>
       <c r="B97" t="s">
         <v>388</v>
       </c>
-      <c r="H97" s="29" t="s">
+      <c r="H97" s="25" t="s">
         <v>481</v>
       </c>
       <c r="I97" t="s">
@@ -6030,13 +6040,13 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="29">
+      <c r="A98" s="25">
         <v>0.37643518518518521</v>
       </c>
       <c r="B98" t="s">
         <v>389</v>
       </c>
-      <c r="H98" s="29" t="s">
+      <c r="H98" s="25" t="s">
         <v>482</v>
       </c>
       <c r="I98" t="s">
@@ -6044,13 +6054,13 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="29">
+      <c r="A99" s="25">
         <v>0.37644675925925924</v>
       </c>
       <c r="B99" t="s">
         <v>390</v>
       </c>
-      <c r="H99" s="29">
+      <c r="H99" s="25">
         <v>9.3000000000000007</v>
       </c>
       <c r="I99" t="s">
@@ -6058,13 +6068,13 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="29">
+      <c r="A100" s="25">
         <v>9.3000000000000007</v>
       </c>
       <c r="B100" t="s">
         <v>391</v>
       </c>
-      <c r="H100" s="29">
+      <c r="H100" s="25">
         <v>9.4</v>
       </c>
       <c r="I100" t="s">
@@ -6072,13 +6082,13 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="29">
+      <c r="A101" s="25">
         <v>9.4</v>
       </c>
       <c r="B101" t="s">
         <v>392</v>
       </c>
-      <c r="H101" s="29">
+      <c r="H101" s="25">
         <v>9.5</v>
       </c>
       <c r="I101" t="s">
@@ -6086,13 +6096,13 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="29">
+      <c r="A102" s="25">
         <v>9.5</v>
       </c>
       <c r="B102" t="s">
         <v>393</v>
       </c>
-      <c r="H102" s="29">
+      <c r="H102" s="25">
         <v>9.6</v>
       </c>
       <c r="I102" t="s">
@@ -6100,13 +6110,13 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="29">
+      <c r="A103" s="25">
         <v>9.6</v>
       </c>
       <c r="B103" t="s">
         <v>394</v>
       </c>
-      <c r="H103" s="29">
+      <c r="H103" s="25">
         <v>9.6999999999999993</v>
       </c>
       <c r="I103" t="s">
@@ -6114,13 +6124,13 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="29">
+      <c r="A104" s="25">
         <v>9.6999999999999993</v>
       </c>
       <c r="B104" t="s">
         <v>395</v>
       </c>
-      <c r="H104" s="29">
+      <c r="H104" s="25">
         <v>9.8000000000000007</v>
       </c>
       <c r="I104" t="s">
@@ -6128,13 +6138,13 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="29">
+      <c r="A105" s="25">
         <v>9.8000000000000007</v>
       </c>
       <c r="B105" t="s">
         <v>396</v>
       </c>
-      <c r="H105" s="29">
+      <c r="H105" s="25">
         <v>9.9</v>
       </c>
       <c r="I105" t="s">
@@ -6142,13 +6152,13 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="29">
+      <c r="A106" s="25">
         <v>9.9</v>
       </c>
       <c r="B106" t="s">
         <v>397</v>
       </c>
-      <c r="H106" s="29">
+      <c r="H106" s="25">
         <v>10</v>
       </c>
       <c r="I106" t="s">
@@ -6156,13 +6166,13 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="29">
+      <c r="A107" s="25">
         <v>10</v>
       </c>
       <c r="B107" t="s">
         <v>398</v>
       </c>
-      <c r="H107" s="29">
+      <c r="H107" s="25">
         <v>10.1</v>
       </c>
       <c r="I107" t="s">
@@ -6170,13 +6180,13 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="29">
+      <c r="A108" s="25">
         <v>10.1</v>
       </c>
       <c r="B108" t="s">
         <v>399</v>
       </c>
-      <c r="H108" s="29">
+      <c r="H108" s="25">
         <v>10.199999999999999</v>
       </c>
       <c r="I108" t="s">
@@ -6184,13 +6194,13 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="29">
+      <c r="A109" s="25">
         <v>10.199999999999999</v>
       </c>
       <c r="B109" t="s">
         <v>400</v>
       </c>
-      <c r="H109" s="29">
+      <c r="H109" s="25">
         <v>10.3</v>
       </c>
       <c r="I109" t="s">
@@ -6198,13 +6208,13 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="29">
+      <c r="A110" s="25">
         <v>10.3</v>
       </c>
       <c r="B110" t="s">
         <v>401</v>
       </c>
-      <c r="H110" s="29">
+      <c r="H110" s="25">
         <v>10.4</v>
       </c>
       <c r="I110" t="s">
@@ -6212,13 +6222,13 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="29">
+      <c r="A111" s="25">
         <v>10.4</v>
       </c>
       <c r="B111" t="s">
         <v>402</v>
       </c>
-      <c r="H111" s="29">
+      <c r="H111" s="25">
         <v>10.5</v>
       </c>
       <c r="I111" t="s">
@@ -6226,13 +6236,13 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="29">
+      <c r="A112" s="25">
         <v>10.5</v>
       </c>
       <c r="B112" t="s">
         <v>403</v>
       </c>
-      <c r="H112" s="29">
+      <c r="H112" s="25">
         <v>11</v>
       </c>
       <c r="I112" t="s">
@@ -6240,13 +6250,13 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="29">
+      <c r="A113" s="25">
         <v>11</v>
       </c>
       <c r="B113" t="s">
         <v>404</v>
       </c>
-      <c r="H113" s="29">
+      <c r="H113" s="25">
         <v>11.1</v>
       </c>
       <c r="I113" t="s">
@@ -6254,13 +6264,13 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="29">
+      <c r="A114" s="25">
         <v>11.1</v>
       </c>
       <c r="B114" t="s">
         <v>405</v>
       </c>
-      <c r="H114" s="29">
+      <c r="H114" s="25">
         <v>11.2</v>
       </c>
       <c r="I114" t="s">
@@ -6268,13 +6278,13 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="29">
+      <c r="A115" s="25">
         <v>11.2</v>
       </c>
       <c r="B115" t="s">
         <v>406</v>
       </c>
-      <c r="H115" s="29">
+      <c r="H115" s="25">
         <v>11.3</v>
       </c>
       <c r="I115" t="s">
@@ -6282,13 +6292,13 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="29">
+      <c r="A116" s="25">
         <v>11.3</v>
       </c>
       <c r="B116" t="s">
         <v>407</v>
       </c>
-      <c r="H116" s="29">
+      <c r="H116" s="25">
         <v>12</v>
       </c>
       <c r="I116" t="s">
@@ -6296,13 +6306,13 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="29">
+      <c r="A117" s="25">
         <v>12</v>
       </c>
       <c r="B117" t="s">
         <v>408</v>
       </c>
-      <c r="H117" s="29">
+      <c r="H117" s="25">
         <v>12.1</v>
       </c>
       <c r="I117" t="s">
@@ -6310,13 +6320,13 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="29">
+      <c r="A118" s="25">
         <v>12.1</v>
       </c>
       <c r="B118" t="s">
         <v>409</v>
       </c>
-      <c r="H118" s="29">
+      <c r="H118" s="25">
         <v>12.2</v>
       </c>
       <c r="I118" t="s">
@@ -6324,13 +6334,13 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="29">
+      <c r="A119" s="25">
         <v>12.2</v>
       </c>
       <c r="B119" t="s">
         <v>410</v>
       </c>
-      <c r="H119" s="29">
+      <c r="H119" s="25">
         <v>12.3</v>
       </c>
       <c r="I119" t="s">
@@ -6338,13 +6348,13 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="29">
+      <c r="A120" s="25">
         <v>12.3</v>
       </c>
       <c r="B120" t="s">
         <v>411</v>
       </c>
-      <c r="H120" s="29">
+      <c r="H120" s="25">
         <v>12.4</v>
       </c>
       <c r="I120" t="s">
@@ -6352,13 +6362,13 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="29">
+      <c r="A121" s="25">
         <v>12.4</v>
       </c>
       <c r="B121" t="s">
         <v>412</v>
       </c>
-      <c r="H121" s="29">
+      <c r="H121" s="25">
         <v>13</v>
       </c>
       <c r="I121" t="s">
@@ -6366,13 +6376,13 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="29">
+      <c r="A122" s="25">
         <v>13</v>
       </c>
       <c r="B122" t="s">
         <v>413</v>
       </c>
-      <c r="H122" s="29">
+      <c r="H122" s="25">
         <v>13.1</v>
       </c>
       <c r="I122" t="s">
@@ -6380,13 +6390,13 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="29">
+      <c r="A123" s="25">
         <v>13.1</v>
       </c>
       <c r="B123" t="s">
         <v>414</v>
       </c>
-      <c r="H123" s="29" t="s">
+      <c r="H123" s="25" t="s">
         <v>483</v>
       </c>
       <c r="I123" t="s">
@@ -6394,13 +6404,13 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="29">
+      <c r="A124" s="25">
         <v>0.54237268518518522</v>
       </c>
       <c r="B124" t="s">
         <v>415</v>
       </c>
-      <c r="H124" s="29" t="s">
+      <c r="H124" s="25" t="s">
         <v>484</v>
       </c>
       <c r="I124" t="s">
@@ -6408,13 +6418,13 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="29">
+      <c r="A125" s="25">
         <v>0.54238425925925926</v>
       </c>
       <c r="B125" t="s">
         <v>416</v>
       </c>
-      <c r="H125" s="29" t="s">
+      <c r="H125" s="25" t="s">
         <v>485</v>
       </c>
       <c r="I125" t="s">
@@ -6422,13 +6432,13 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="29">
+      <c r="A126" s="25">
         <v>0.5423958333333333</v>
       </c>
       <c r="B126" t="s">
         <v>417</v>
       </c>
-      <c r="H126" s="29">
+      <c r="H126" s="25">
         <v>13.2</v>
       </c>
       <c r="I126" t="s">
@@ -6436,13 +6446,13 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="29">
+      <c r="A127" s="25">
         <v>13.2</v>
       </c>
       <c r="B127" t="s">
         <v>418</v>
       </c>
-      <c r="H127" s="29">
+      <c r="H127" s="25">
         <v>13.3</v>
       </c>
       <c r="I127" t="s">
@@ -6450,13 +6460,13 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="29">
+      <c r="A128" s="25">
         <v>13.3</v>
       </c>
       <c r="B128" t="s">
         <v>419</v>
       </c>
-      <c r="H128" s="29">
+      <c r="H128" s="25">
         <v>13.4</v>
       </c>
       <c r="I128" t="s">
@@ -6464,13 +6474,13 @@
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="29">
+      <c r="A129" s="25">
         <v>13.4</v>
       </c>
       <c r="B129" t="s">
         <v>420</v>
       </c>
-      <c r="H129" s="29">
+      <c r="H129" s="25">
         <v>14</v>
       </c>
       <c r="I129" t="s">
@@ -6478,13 +6488,13 @@
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="29">
+      <c r="A130" s="25">
         <v>14</v>
       </c>
       <c r="B130" t="s">
         <v>421</v>
       </c>
-      <c r="H130" s="29">
+      <c r="H130" s="25">
         <v>15</v>
       </c>
       <c r="I130" t="s">
@@ -6492,7 +6502,7 @@
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="29">
+      <c r="A131" s="25">
         <v>15</v>
       </c>
       <c r="B131" t="s">
@@ -6640,109 +6650,109 @@
       <c r="A1" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
@@ -6809,16 +6819,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7011,10 +7021,10 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="28"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>

--- a/tests/integration_test_files/simple_1.xlsx
+++ b/tests/integration_test_files/simple_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFCA920F-F1EA-114E-BF82-ADDBDDA1A99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A259DC14-E722-E34F-B590-9D3E47CDAC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42140" yWindow="500" windowWidth="33000" windowHeight="22600" firstSheet="5" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" firstSheet="6" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -28,8 +28,7 @@
     <sheet name="studyDesignEncounters" sheetId="12" r:id="rId13"/>
     <sheet name="studyDesignElements" sheetId="13" r:id="rId14"/>
     <sheet name="studyDesignContent" sheetId="17" r:id="rId15"/>
-    <sheet name="Sheet2" sheetId="18" r:id="rId16"/>
-    <sheet name="configuration" sheetId="10" r:id="rId17"/>
+    <sheet name="configuration" sheetId="10" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="557">
   <si>
     <t>Epoch</t>
   </si>
@@ -1074,12 +1073,6 @@
     <t>Other Therapy</t>
   </si>
   <si>
-    <t>DISCONTINUATION OF TRIAL INTERVENTION AND PARTICIP</t>
-  </si>
-  <si>
-    <t>WITHDRAWAL FROM TRIAL</t>
-  </si>
-  <si>
     <t>Discontinuation of Trial Intervention</t>
   </si>
   <si>
@@ -1368,18 +1361,6 @@
     <t>4.2.3</t>
   </si>
   <si>
-    <t>5.3.1</t>
-  </si>
-  <si>
-    <t>5.3.2</t>
-  </si>
-  <si>
-    <t>5.3.3</t>
-  </si>
-  <si>
-    <t>5.3.4</t>
-  </si>
-  <si>
     <t>6.3.1</t>
   </si>
   <si>
@@ -1422,9 +1403,6 @@
     <t>7.1.3</t>
   </si>
   <si>
-    <t>8.3.1.</t>
-  </si>
-  <si>
     <t>8.3.2</t>
   </si>
   <si>
@@ -1435,9 +1413,6 @@
   </si>
   <si>
     <t>8.3.5</t>
-  </si>
-  <si>
-    <t>8.4.1.</t>
   </si>
   <si>
     <t>8.4.2</t>
@@ -1752,6 +1727,20 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>usdm:ref klass="StudyIdentifier" id="StudyIdentifier_1" attribute="studyIdentifier"/&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1797,9 +1786,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1835,7 +1824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1899,8 +1888,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1914,10 +1901,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3139,7 +3126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -3423,7 +3410,7 @@
   <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3435,31 +3422,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>536</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>496</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="A1" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="10" t="s">
         <v>292</v>
       </c>
+      <c r="D2" s="10" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>297</v>
@@ -3467,7 +3457,7 @@
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>298</v>
@@ -3475,7 +3465,7 @@
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>299</v>
@@ -3483,7 +3473,7 @@
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>293</v>
@@ -3491,7 +3481,7 @@
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>300</v>
@@ -3499,7 +3489,7 @@
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>301</v>
@@ -3507,7 +3497,7 @@
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>294</v>
@@ -3515,7 +3505,7 @@
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>295</v>
@@ -3523,7 +3513,7 @@
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>302</v>
@@ -3531,1121 +3521,1121 @@
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="B12" s="28"/>
+        <v>422</v>
+      </c>
+      <c r="B12" s="26"/>
       <c r="C12" s="10" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="B13" s="28"/>
+        <v>432</v>
+      </c>
+      <c r="B13" s="26"/>
       <c r="C13" s="10" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="B14" s="28"/>
+        <v>433</v>
+      </c>
+      <c r="B14" s="26"/>
       <c r="C14" s="10" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B15" s="28"/>
+        <v>434</v>
+      </c>
+      <c r="B15" s="26"/>
       <c r="C15" s="10" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B16" s="28"/>
+        <v>435</v>
+      </c>
+      <c r="B16" s="26"/>
       <c r="C16" s="10" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="B17" s="28"/>
+        <v>511</v>
+      </c>
+      <c r="B17" s="26"/>
       <c r="C17" s="10" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="B18" s="28"/>
+        <v>512</v>
+      </c>
+      <c r="B18" s="26"/>
       <c r="C18" s="10" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="B19" s="28"/>
+        <v>489</v>
+      </c>
+      <c r="B19" s="26"/>
       <c r="C19" s="10" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="B20" s="28"/>
+        <v>513</v>
+      </c>
+      <c r="B20" s="26"/>
       <c r="C20" s="10" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="B21" s="28"/>
+        <v>514</v>
+      </c>
+      <c r="B21" s="26"/>
       <c r="C21" s="10" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="B22" s="28"/>
+        <v>515</v>
+      </c>
+      <c r="B22" s="26"/>
       <c r="C22" s="10" t="s">
         <v>312</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="B23" s="28"/>
+        <v>516</v>
+      </c>
+      <c r="B23" s="26"/>
       <c r="C23" s="10" t="s">
         <v>313</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="B24" s="28"/>
+        <v>517</v>
+      </c>
+      <c r="B24" s="26"/>
       <c r="C24" s="10" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="B25" s="28"/>
+        <v>478</v>
+      </c>
+      <c r="B25" s="26"/>
       <c r="C25" s="10" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B26" s="28"/>
+        <v>479</v>
+      </c>
+      <c r="B26" s="26"/>
       <c r="C26" s="10" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B27" s="28"/>
+        <v>480</v>
+      </c>
+      <c r="B27" s="26"/>
       <c r="C27" s="10" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="B28" s="28"/>
+        <v>481</v>
+      </c>
+      <c r="B28" s="26"/>
       <c r="C28" s="10" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="B29" s="28"/>
+        <v>518</v>
+      </c>
+      <c r="B29" s="26"/>
       <c r="C29" s="10" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="B30" s="28"/>
+        <v>490</v>
+      </c>
+      <c r="B30" s="26"/>
       <c r="C30" s="10" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="B31" s="28"/>
+        <v>519</v>
+      </c>
+      <c r="B31" s="26"/>
       <c r="C31" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="B32" s="28"/>
+        <v>520</v>
+      </c>
+      <c r="B32" s="26"/>
       <c r="C32" s="10" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B33" s="28"/>
+        <v>521</v>
+      </c>
+      <c r="B33" s="26"/>
       <c r="C33" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B34" s="28"/>
+        <v>436</v>
+      </c>
+      <c r="B34" s="26"/>
       <c r="C34" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="B35" s="28"/>
+        <v>522</v>
+      </c>
+      <c r="B35" s="26"/>
       <c r="C35" s="10" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="B36" s="28"/>
+        <v>523</v>
+      </c>
+      <c r="B36" s="26"/>
       <c r="C36" s="10" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B37" s="28"/>
+        <v>437</v>
+      </c>
+      <c r="B37" s="26"/>
       <c r="C37" s="10" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B38" s="28"/>
+        <v>438</v>
+      </c>
+      <c r="B38" s="26"/>
       <c r="C38" s="10" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="B39" s="28"/>
+        <v>439</v>
+      </c>
+      <c r="B39" s="26"/>
       <c r="C39" s="10" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="B40" s="28"/>
+        <v>524</v>
+      </c>
+      <c r="B40" s="26"/>
       <c r="C40" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="B41" s="28"/>
+        <v>440</v>
+      </c>
+      <c r="B41" s="26"/>
       <c r="C41" s="10" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="B42" s="28"/>
+        <v>441</v>
+      </c>
+      <c r="B42" s="26"/>
       <c r="C42" s="10" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B43" s="28"/>
+        <v>442</v>
+      </c>
+      <c r="B43" s="26"/>
       <c r="C43" s="10" t="s">
         <v>333</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="B44" s="28"/>
+        <v>525</v>
+      </c>
+      <c r="B44" s="26"/>
       <c r="C44" s="10" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="B45" s="28"/>
+        <v>526</v>
+      </c>
+      <c r="B45" s="26"/>
       <c r="C45" s="10" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="B46" s="28"/>
+        <v>443</v>
+      </c>
+      <c r="B46" s="26"/>
       <c r="C46" s="10" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B47" s="28"/>
+        <v>444</v>
+      </c>
+      <c r="B47" s="26"/>
       <c r="C47" s="10" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="B48" s="28"/>
+        <v>445</v>
+      </c>
+      <c r="B48" s="26"/>
       <c r="C48" s="10" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B49" s="28"/>
+        <v>446</v>
+      </c>
+      <c r="B49" s="26"/>
       <c r="C49" s="10" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="B50" s="28"/>
+        <v>491</v>
+      </c>
+      <c r="B50" s="26"/>
       <c r="C50" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B51" s="28"/>
+        <v>527</v>
+      </c>
+      <c r="B51" s="26"/>
       <c r="C51" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="B52" s="28"/>
+        <v>447</v>
+      </c>
+      <c r="B52" s="26"/>
       <c r="C52" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="B53" s="28"/>
+        <v>448</v>
+      </c>
+      <c r="B53" s="26"/>
       <c r="C53" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="B54" s="28"/>
+        <v>449</v>
+      </c>
+      <c r="B54" s="26"/>
       <c r="C54" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="B55" s="28"/>
+        <v>529</v>
+      </c>
+      <c r="B55" s="26"/>
       <c r="C55" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="B56" s="28"/>
+        <v>530</v>
+      </c>
+      <c r="B56" s="26"/>
       <c r="C56" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="B57" s="28"/>
+        <v>531</v>
+      </c>
+      <c r="B57" s="26"/>
       <c r="C57" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="B58" s="28"/>
+        <v>492</v>
+      </c>
+      <c r="B58" s="26"/>
       <c r="C58" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="B59" s="28"/>
+        <v>532</v>
+      </c>
+      <c r="B59" s="26"/>
       <c r="C59" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="B60" s="28"/>
+        <v>533</v>
+      </c>
+      <c r="B60" s="26"/>
       <c r="C60" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="B61" s="28"/>
+        <v>534</v>
+      </c>
+      <c r="B61" s="26"/>
       <c r="C61" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="B62" s="28"/>
+        <v>482</v>
+      </c>
+      <c r="B62" s="26"/>
       <c r="C62" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="B63" s="28"/>
+        <v>450</v>
+      </c>
+      <c r="B63" s="26"/>
       <c r="C63" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="B64" s="28"/>
+        <v>451</v>
+      </c>
+      <c r="B64" s="26"/>
       <c r="C64" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="B65" s="28"/>
+        <v>452</v>
+      </c>
+      <c r="B65" s="26"/>
       <c r="C65" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="B66" s="28"/>
+        <v>453</v>
+      </c>
+      <c r="B66" s="26"/>
       <c r="C66" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="B67" s="28"/>
+        <v>535</v>
+      </c>
+      <c r="B67" s="26"/>
       <c r="C67" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B68" s="28"/>
+        <v>483</v>
+      </c>
+      <c r="B68" s="26"/>
       <c r="C68" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="B69" s="28"/>
+        <v>454</v>
+      </c>
+      <c r="B69" s="26"/>
       <c r="C69" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B70" s="28"/>
+        <v>455</v>
+      </c>
+      <c r="B70" s="26"/>
       <c r="C70" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="B71" s="28"/>
+        <v>456</v>
+      </c>
+      <c r="B71" s="26"/>
       <c r="C71" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="B72" s="28"/>
+        <v>457</v>
+      </c>
+      <c r="B72" s="26"/>
       <c r="C72" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="B73" s="28"/>
+        <v>458</v>
+      </c>
+      <c r="B73" s="26"/>
       <c r="C73" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="B74" s="28"/>
+        <v>459</v>
+      </c>
+      <c r="B74" s="26"/>
       <c r="C74" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B75" s="28"/>
+        <v>460</v>
+      </c>
+      <c r="B75" s="26"/>
       <c r="C75" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="B76" s="28"/>
+        <v>461</v>
+      </c>
+      <c r="B76" s="26"/>
       <c r="C76" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="B77" s="28"/>
+        <v>462</v>
+      </c>
+      <c r="B77" s="26"/>
       <c r="C77" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="B78" s="28"/>
+        <v>536</v>
+      </c>
+      <c r="B78" s="26"/>
       <c r="C78" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="B79" s="28"/>
+        <v>463</v>
+      </c>
+      <c r="B79" s="26"/>
       <c r="C79" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B80" s="28"/>
+        <v>464</v>
+      </c>
+      <c r="B80" s="26"/>
       <c r="C80" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="B81" s="28"/>
+        <v>537</v>
+      </c>
+      <c r="B81" s="26"/>
       <c r="C81" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B82" s="28"/>
+        <v>465</v>
+      </c>
+      <c r="B82" s="26"/>
       <c r="C82" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B83" s="28"/>
+        <v>466</v>
+      </c>
+      <c r="B83" s="26"/>
       <c r="C83" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B84" s="28"/>
+        <v>467</v>
+      </c>
+      <c r="B84" s="26"/>
       <c r="C84" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B85" s="28"/>
+        <v>468</v>
+      </c>
+      <c r="B85" s="26"/>
       <c r="C85" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="B86" s="28"/>
+        <v>469</v>
+      </c>
+      <c r="B86" s="26"/>
       <c r="C86" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="B87" s="28"/>
+        <v>538</v>
+      </c>
+      <c r="B87" s="26"/>
       <c r="C87" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="B88" s="28"/>
+        <v>539</v>
+      </c>
+      <c r="B88" s="26"/>
       <c r="C88" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="B89" s="28"/>
+        <v>540</v>
+      </c>
+      <c r="B89" s="26"/>
       <c r="C89" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="B90" s="28"/>
+        <v>532</v>
+      </c>
+      <c r="B90" s="26"/>
       <c r="C90" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="B91" s="28"/>
+        <v>484</v>
+      </c>
+      <c r="B91" s="26"/>
       <c r="C91" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="B92" s="28"/>
+        <v>493</v>
+      </c>
+      <c r="B92" s="26"/>
       <c r="C92" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="B93" s="28"/>
+        <v>541</v>
+      </c>
+      <c r="B93" s="26"/>
       <c r="C93" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="B94" s="28"/>
+        <v>542</v>
+      </c>
+      <c r="B94" s="26"/>
       <c r="C94" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="B95" s="28"/>
+        <v>470</v>
+      </c>
+      <c r="B95" s="26"/>
       <c r="C95" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="B96" s="28"/>
+        <v>471</v>
+      </c>
+      <c r="B96" s="26"/>
       <c r="C96" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B97" s="28"/>
+        <v>472</v>
+      </c>
+      <c r="B97" s="26"/>
       <c r="C97" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="B98" s="28"/>
+        <v>473</v>
+      </c>
+      <c r="B98" s="26"/>
       <c r="C98" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="B99" s="28"/>
+        <v>474</v>
+      </c>
+      <c r="B99" s="26"/>
       <c r="C99" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="B100" s="28"/>
+        <v>543</v>
+      </c>
+      <c r="B100" s="26"/>
       <c r="C100" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="B101" s="28"/>
+        <v>544</v>
+      </c>
+      <c r="B101" s="26"/>
       <c r="C101" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="B102" s="28"/>
+        <v>545</v>
+      </c>
+      <c r="B102" s="26"/>
       <c r="C102" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="B103" s="28"/>
+        <v>546</v>
+      </c>
+      <c r="B103" s="26"/>
       <c r="C103" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="B104" s="28"/>
+        <v>547</v>
+      </c>
+      <c r="B104" s="26"/>
       <c r="C104" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="B105" s="28"/>
+        <v>548</v>
+      </c>
+      <c r="B105" s="26"/>
       <c r="C105" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="B106" s="28"/>
+        <v>549</v>
+      </c>
+      <c r="B106" s="26"/>
       <c r="C106" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B107" s="28"/>
+        <v>494</v>
+      </c>
+      <c r="B107" s="26"/>
       <c r="C107" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="B108" s="28"/>
+        <v>550</v>
+      </c>
+      <c r="B108" s="26"/>
       <c r="C108" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="B109" s="28"/>
+        <v>551</v>
+      </c>
+      <c r="B109" s="26"/>
       <c r="C109" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="B110" s="28"/>
+        <v>552</v>
+      </c>
+      <c r="B110" s="26"/>
       <c r="C110" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="B111" s="28"/>
+        <v>553</v>
+      </c>
+      <c r="B111" s="26"/>
       <c r="C111" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="B112" s="28"/>
+        <v>554</v>
+      </c>
+      <c r="B112" s="26"/>
       <c r="C112" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B113" s="28"/>
+        <v>495</v>
+      </c>
+      <c r="B113" s="26"/>
       <c r="C113" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="B114" s="28"/>
+        <v>510</v>
+      </c>
+      <c r="B114" s="26"/>
       <c r="C114" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="B115" s="28"/>
+        <v>509</v>
+      </c>
+      <c r="B115" s="26"/>
       <c r="C115" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="B116" s="28"/>
+        <v>508</v>
+      </c>
+      <c r="B116" s="26"/>
       <c r="C116" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="B117" s="28"/>
+        <v>496</v>
+      </c>
+      <c r="B117" s="26"/>
       <c r="C117" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="B118" s="28"/>
+        <v>507</v>
+      </c>
+      <c r="B118" s="26"/>
       <c r="C118" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="B119" s="28"/>
+        <v>506</v>
+      </c>
+      <c r="B119" s="26"/>
       <c r="C119" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="B120" s="28"/>
+        <v>505</v>
+      </c>
+      <c r="B120" s="26"/>
       <c r="C120" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="B121" s="28"/>
+        <v>504</v>
+      </c>
+      <c r="B121" s="26"/>
       <c r="C121" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="B122" s="28"/>
+        <v>497</v>
+      </c>
+      <c r="B122" s="26"/>
       <c r="C122" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="B123" s="28"/>
+        <v>503</v>
+      </c>
+      <c r="B123" s="26"/>
       <c r="C123" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="B124" s="28"/>
+        <v>475</v>
+      </c>
+      <c r="B124" s="26"/>
       <c r="C124" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="B125" s="28"/>
+        <v>476</v>
+      </c>
+      <c r="B125" s="26"/>
       <c r="C125" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="B126" s="28"/>
+        <v>477</v>
+      </c>
+      <c r="B126" s="26"/>
       <c r="C126" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B127" s="28"/>
+        <v>502</v>
+      </c>
+      <c r="B127" s="26"/>
       <c r="C127" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B128" s="28"/>
+        <v>501</v>
+      </c>
+      <c r="B128" s="26"/>
       <c r="C128" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="B129" s="28"/>
+        <v>500</v>
+      </c>
+      <c r="B129" s="26"/>
       <c r="C129" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="B130" s="28"/>
+        <v>498</v>
+      </c>
+      <c r="B130" s="26"/>
       <c r="C130" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="B131" s="28"/>
+        <v>499</v>
+      </c>
+      <c r="B131" s="26"/>
       <c r="C131" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -4655,1867 +4645,6 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0003C67-3768-3A4E-9F90-6843014614B3}">
-  <dimension ref="A1:O131"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I130"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="25"/>
-    <col min="8" max="8" width="10.83203125" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="25">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>292</v>
-      </c>
-      <c r="O1" s="26" t="str">
-        <f>TEXT(H2,"0")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="25">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>297</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="I2" t="s">
-        <v>297</v>
-      </c>
-      <c r="O2" s="26" t="str">
-        <f>TEXT(H3,"0")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="25">
-        <v>1.2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>298</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="I3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O3" s="26" t="str">
-        <f>TEXT(H4,"0")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="25">
-        <v>1.3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>299</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>427</v>
-      </c>
-      <c r="I4" t="s">
-        <v>299</v>
-      </c>
-      <c r="O4" s="26" t="str">
-        <f>TEXT(H5,"0")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="25">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>293</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="I5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="25">
-        <v>2.1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>300</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="I6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="25">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="I7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>294</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="I8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="25">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>295</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="I9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B10" t="s">
-        <v>302</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="I10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
-        <v>0.16737268518518519</v>
-      </c>
-      <c r="B11" t="s">
-        <v>303</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="I11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
-        <v>4.2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>434</v>
-      </c>
-      <c r="I12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="25">
-        <v>0.16806712962962964</v>
-      </c>
-      <c r="B13" t="s">
-        <v>305</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>435</v>
-      </c>
-      <c r="I13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
-        <v>0.1680787037037037</v>
-      </c>
-      <c r="B14" t="s">
-        <v>306</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="I14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="25">
-        <v>0.16809027777777777</v>
-      </c>
-      <c r="B15" t="s">
-        <v>307</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="I15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="25">
-        <v>4.3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>308</v>
-      </c>
-      <c r="H16" s="25">
-        <v>4.3</v>
-      </c>
-      <c r="I16" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="25">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B17" t="s">
-        <v>309</v>
-      </c>
-      <c r="H17" s="25">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I17" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="25">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>296</v>
-      </c>
-      <c r="H18" s="25">
-        <v>5</v>
-      </c>
-      <c r="I18" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="25">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B19" t="s">
-        <v>310</v>
-      </c>
-      <c r="H19" s="25">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I19" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="25">
-        <v>5.2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>311</v>
-      </c>
-      <c r="H20" s="25">
-        <v>5.2</v>
-      </c>
-      <c r="I20" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="25">
-        <v>5.3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>312</v>
-      </c>
-      <c r="H21" s="25">
-        <v>5.3</v>
-      </c>
-      <c r="I21" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="25">
-        <v>5.4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>313</v>
-      </c>
-      <c r="H22" s="25">
-        <v>5.4</v>
-      </c>
-      <c r="I22" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="25">
-        <v>5.5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>314</v>
-      </c>
-      <c r="H23" s="25">
-        <v>5.5</v>
-      </c>
-      <c r="I23" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="25">
-        <v>0.21181712962962962</v>
-      </c>
-      <c r="B24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="I24" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="25">
-        <v>0.21182870370370369</v>
-      </c>
-      <c r="B25" t="s">
-        <v>316</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>439</v>
-      </c>
-      <c r="I25" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="25">
-        <v>0.21184027777777778</v>
-      </c>
-      <c r="B26" t="s">
-        <v>317</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="I26" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="25">
-        <v>0.21185185185185185</v>
-      </c>
-      <c r="B27" t="s">
-        <v>318</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>441</v>
-      </c>
-      <c r="I27" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="25">
-        <v>5.6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>319</v>
-      </c>
-      <c r="H28" s="25">
-        <v>5.6</v>
-      </c>
-      <c r="I28" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="25">
-        <v>6</v>
-      </c>
-      <c r="B29" t="s">
-        <v>320</v>
-      </c>
-      <c r="H29" s="25">
-        <v>6</v>
-      </c>
-      <c r="I29" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="25">
-        <v>6.1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>321</v>
-      </c>
-      <c r="H30" s="25">
-        <v>6.1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="25">
-        <v>6.2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>322</v>
-      </c>
-      <c r="H31" s="25">
-        <v>6.2</v>
-      </c>
-      <c r="I31" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="25">
-        <v>6.3</v>
-      </c>
-      <c r="B32" t="s">
-        <v>323</v>
-      </c>
-      <c r="H32" s="25">
-        <v>6.3</v>
-      </c>
-      <c r="I32" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="25">
-        <v>0.25209490740740742</v>
-      </c>
-      <c r="B33" t="s">
-        <v>324</v>
-      </c>
-      <c r="H33" s="25" t="s">
-        <v>442</v>
-      </c>
-      <c r="I33" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="25">
-        <v>6.4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>325</v>
-      </c>
-      <c r="H34" s="25">
-        <v>6.4</v>
-      </c>
-      <c r="I34" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="25">
-        <v>6.5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>326</v>
-      </c>
-      <c r="H35" s="25">
-        <v>6.5</v>
-      </c>
-      <c r="I35" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="25">
-        <v>0.2534837962962963</v>
-      </c>
-      <c r="B36" t="s">
-        <v>327</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="I36" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="25">
-        <v>0.25349537037037034</v>
-      </c>
-      <c r="B37" t="s">
-        <v>328</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="I37" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="25">
-        <v>0.25350694444444444</v>
-      </c>
-      <c r="B38" t="s">
-        <v>329</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>445</v>
-      </c>
-      <c r="I38" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="25">
-        <v>6.6</v>
-      </c>
-      <c r="B39" t="s">
-        <v>330</v>
-      </c>
-      <c r="H39" s="25">
-        <v>6.6</v>
-      </c>
-      <c r="I39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="25">
-        <v>0.25417824074074075</v>
-      </c>
-      <c r="B40" t="s">
-        <v>331</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>446</v>
-      </c>
-      <c r="I40" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="25">
-        <v>0.25418981481481479</v>
-      </c>
-      <c r="B41" t="s">
-        <v>332</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="I41" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="25">
-        <v>0.25420138888888888</v>
-      </c>
-      <c r="B42" t="s">
-        <v>333</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>448</v>
-      </c>
-      <c r="I42" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="25">
-        <v>6.7</v>
-      </c>
-      <c r="B43" t="s">
-        <v>334</v>
-      </c>
-      <c r="H43" s="25">
-        <v>6.7</v>
-      </c>
-      <c r="I43" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="25">
-        <v>6.8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>335</v>
-      </c>
-      <c r="H44" s="25">
-        <v>6.8</v>
-      </c>
-      <c r="I44" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="25">
-        <v>0.25556712962962963</v>
-      </c>
-      <c r="B45" t="s">
-        <v>336</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>449</v>
-      </c>
-      <c r="I45" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="25">
-        <v>0.25557870370370367</v>
-      </c>
-      <c r="B46" t="s">
-        <v>337</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>450</v>
-      </c>
-      <c r="I46" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="25">
-        <v>0.25559027777777776</v>
-      </c>
-      <c r="B47" t="s">
-        <v>338</v>
-      </c>
-      <c r="H47" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="I47" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="25">
-        <v>0.25560185185185186</v>
-      </c>
-      <c r="B48" t="s">
-        <v>339</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>452</v>
-      </c>
-      <c r="I48" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="25">
-        <v>7</v>
-      </c>
-      <c r="B49" t="s">
-        <v>340</v>
-      </c>
-      <c r="H49" s="25">
-        <v>7</v>
-      </c>
-      <c r="I49" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="H50" s="25">
-        <v>7.1</v>
-      </c>
-      <c r="I50" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="25">
-        <v>7.1</v>
-      </c>
-      <c r="B51" t="s">
-        <v>342</v>
-      </c>
-      <c r="H51" s="25" t="s">
-        <v>453</v>
-      </c>
-      <c r="I51" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="25">
-        <v>0.29237268518518517</v>
-      </c>
-      <c r="B52" t="s">
-        <v>343</v>
-      </c>
-      <c r="H52" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="I52" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="25">
-        <v>0.29238425925925926</v>
-      </c>
-      <c r="B53" t="s">
-        <v>344</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="I53" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="25">
-        <v>0.29239583333333335</v>
-      </c>
-      <c r="B54" t="s">
-        <v>345</v>
-      </c>
-      <c r="H54" s="25">
-        <v>7.2</v>
-      </c>
-      <c r="I54" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="25">
-        <v>7.2</v>
-      </c>
-      <c r="B55" t="s">
-        <v>346</v>
-      </c>
-      <c r="H55" s="25">
-        <v>7.3</v>
-      </c>
-      <c r="I55" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="25">
-        <v>7.3</v>
-      </c>
-      <c r="B56" t="s">
-        <v>347</v>
-      </c>
-      <c r="H56" s="25">
-        <v>7.4</v>
-      </c>
-      <c r="I56" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="25">
-        <v>7.4</v>
-      </c>
-      <c r="B57" t="s">
-        <v>348</v>
-      </c>
-      <c r="H57" s="25">
-        <v>8</v>
-      </c>
-      <c r="I57" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="25">
-        <v>8</v>
-      </c>
-      <c r="B58" t="s">
-        <v>349</v>
-      </c>
-      <c r="H58" s="25">
-        <v>8.1</v>
-      </c>
-      <c r="I58" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="25">
-        <v>8.1</v>
-      </c>
-      <c r="B59" t="s">
-        <v>350</v>
-      </c>
-      <c r="H59" s="25">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I59" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="25">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B60" t="s">
-        <v>351</v>
-      </c>
-      <c r="H60" s="25">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I60" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="25">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="B61" t="s">
-        <v>352</v>
-      </c>
-      <c r="H61" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="I61" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="25">
-        <v>0.33542824074074074</v>
-      </c>
-      <c r="B62" t="s">
-        <v>353</v>
-      </c>
-      <c r="H62" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="I62" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="25">
-        <v>0.33543981481481483</v>
-      </c>
-      <c r="B63" t="s">
-        <v>354</v>
-      </c>
-      <c r="H63" s="25" t="s">
-        <v>458</v>
-      </c>
-      <c r="I63" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="25">
-        <v>0.33545138888888887</v>
-      </c>
-      <c r="B64" t="s">
-        <v>355</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="I64" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="25">
-        <v>0.33546296296296302</v>
-      </c>
-      <c r="B65" t="s">
-        <v>356</v>
-      </c>
-      <c r="H65" s="25" t="s">
-        <v>460</v>
-      </c>
-      <c r="I65" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="25">
-        <v>0.33547453703703706</v>
-      </c>
-      <c r="B66" t="s">
-        <v>357</v>
-      </c>
-      <c r="H66" s="25">
-        <v>8.4</v>
-      </c>
-      <c r="I66" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="25">
-        <v>8.4</v>
-      </c>
-      <c r="B67" t="s">
-        <v>358</v>
-      </c>
-      <c r="H67" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="I67" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="25">
-        <v>0.33612268518518523</v>
-      </c>
-      <c r="B68" t="s">
-        <v>359</v>
-      </c>
-      <c r="H68" s="25" t="s">
-        <v>462</v>
-      </c>
-      <c r="I68" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="25">
-        <v>0.33613425925925927</v>
-      </c>
-      <c r="B69" t="s">
-        <v>360</v>
-      </c>
-      <c r="H69" s="25" t="s">
-        <v>463</v>
-      </c>
-      <c r="I69" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="25">
-        <v>0.33614583333333337</v>
-      </c>
-      <c r="B70" t="s">
-        <v>361</v>
-      </c>
-      <c r="H70" s="25" t="s">
-        <v>464</v>
-      </c>
-      <c r="I70" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="25">
-        <v>0.3361574074074074</v>
-      </c>
-      <c r="B71" t="s">
-        <v>362</v>
-      </c>
-      <c r="H71" s="25" t="s">
-        <v>465</v>
-      </c>
-      <c r="I71" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="25">
-        <v>0.3361689814814815</v>
-      </c>
-      <c r="B72" t="s">
-        <v>363</v>
-      </c>
-      <c r="H72" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="I72" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="25">
-        <v>0.33618055555555554</v>
-      </c>
-      <c r="B73" t="s">
-        <v>364</v>
-      </c>
-      <c r="H73" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="I73" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="25">
-        <v>0.33619212962962958</v>
-      </c>
-      <c r="B74" t="s">
-        <v>365</v>
-      </c>
-      <c r="H74" s="25" t="s">
-        <v>468</v>
-      </c>
-      <c r="I74" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="25">
-        <v>0.33620370370370373</v>
-      </c>
-      <c r="B75" t="s">
-        <v>366</v>
-      </c>
-      <c r="H75" s="25" t="s">
-        <v>469</v>
-      </c>
-      <c r="I75" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="25">
-        <v>0.33621527777777777</v>
-      </c>
-      <c r="B76" t="s">
-        <v>367</v>
-      </c>
-      <c r="H76" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="I76" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="25">
-        <v>0.33622685185185186</v>
-      </c>
-      <c r="B77" t="s">
-        <v>368</v>
-      </c>
-      <c r="H77" s="25">
-        <v>8.5</v>
-      </c>
-      <c r="I77" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="25">
-        <v>8.5</v>
-      </c>
-      <c r="B78" t="s">
-        <v>369</v>
-      </c>
-      <c r="H78" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="I78" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="25">
-        <v>0.33681712962962962</v>
-      </c>
-      <c r="B79" t="s">
-        <v>370</v>
-      </c>
-      <c r="H79" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="I79" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="25">
-        <v>0.33682870370370371</v>
-      </c>
-      <c r="B80" t="s">
-        <v>371</v>
-      </c>
-      <c r="H80" s="25">
-        <v>8.6</v>
-      </c>
-      <c r="I80" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="25">
-        <v>8.6</v>
-      </c>
-      <c r="B81" t="s">
-        <v>372</v>
-      </c>
-      <c r="H81" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="I81" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="25">
-        <v>0.33751157407407412</v>
-      </c>
-      <c r="B82" t="s">
-        <v>373</v>
-      </c>
-      <c r="H82" s="25" t="s">
-        <v>474</v>
-      </c>
-      <c r="I82" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="25">
-        <v>0.33752314814814816</v>
-      </c>
-      <c r="B83" t="s">
-        <v>374</v>
-      </c>
-      <c r="H83" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="I83" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="25">
-        <v>0.33753472222222225</v>
-      </c>
-      <c r="B84" t="s">
-        <v>375</v>
-      </c>
-      <c r="H84" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="I84" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="25">
-        <v>0.33754629629629629</v>
-      </c>
-      <c r="B85" t="s">
-        <v>376</v>
-      </c>
-      <c r="H85" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="I85" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="25">
-        <v>0.33755787037037038</v>
-      </c>
-      <c r="B86" t="s">
-        <v>377</v>
-      </c>
-      <c r="H86" s="25">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I86" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="25">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="B87" t="s">
-        <v>378</v>
-      </c>
-      <c r="H87" s="25">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I87" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="25">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="B88" t="s">
-        <v>379</v>
-      </c>
-      <c r="H88" s="25">
-        <v>8.9</v>
-      </c>
-      <c r="I88" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="25">
-        <v>8.9</v>
-      </c>
-      <c r="B89" t="s">
-        <v>380</v>
-      </c>
-      <c r="H89" s="25">
-        <v>8.1</v>
-      </c>
-      <c r="I89" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="25">
-        <v>8.1</v>
-      </c>
-      <c r="B90" t="s">
-        <v>381</v>
-      </c>
-      <c r="H90" s="25">
-        <v>8.11</v>
-      </c>
-      <c r="I90" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="25">
-        <v>8.11</v>
-      </c>
-      <c r="B91" t="s">
-        <v>382</v>
-      </c>
-      <c r="H91" s="25">
-        <v>9</v>
-      </c>
-      <c r="I91" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="25">
-        <v>9</v>
-      </c>
-      <c r="B92" t="s">
-        <v>383</v>
-      </c>
-      <c r="H92" s="25">
-        <v>9.1</v>
-      </c>
-      <c r="I92" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="25">
-        <v>9.1</v>
-      </c>
-      <c r="B93" t="s">
-        <v>384</v>
-      </c>
-      <c r="H93" s="25">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I93" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="25">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="B94" t="s">
-        <v>385</v>
-      </c>
-      <c r="H94" s="25" t="s">
-        <v>478</v>
-      </c>
-      <c r="I94" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="25">
-        <v>0.37640046296296298</v>
-      </c>
-      <c r="B95" t="s">
-        <v>386</v>
-      </c>
-      <c r="H95" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="I95" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="25">
-        <v>0.37641203703703702</v>
-      </c>
-      <c r="B96" t="s">
-        <v>387</v>
-      </c>
-      <c r="H96" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="I96" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="25">
-        <v>0.37642361111111106</v>
-      </c>
-      <c r="B97" t="s">
-        <v>388</v>
-      </c>
-      <c r="H97" s="25" t="s">
-        <v>481</v>
-      </c>
-      <c r="I97" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="25">
-        <v>0.37643518518518521</v>
-      </c>
-      <c r="B98" t="s">
-        <v>389</v>
-      </c>
-      <c r="H98" s="25" t="s">
-        <v>482</v>
-      </c>
-      <c r="I98" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="25">
-        <v>0.37644675925925924</v>
-      </c>
-      <c r="B99" t="s">
-        <v>390</v>
-      </c>
-      <c r="H99" s="25">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="I99" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="25">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="B100" t="s">
-        <v>391</v>
-      </c>
-      <c r="H100" s="25">
-        <v>9.4</v>
-      </c>
-      <c r="I100" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="25">
-        <v>9.4</v>
-      </c>
-      <c r="B101" t="s">
-        <v>392</v>
-      </c>
-      <c r="H101" s="25">
-        <v>9.5</v>
-      </c>
-      <c r="I101" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="25">
-        <v>9.5</v>
-      </c>
-      <c r="B102" t="s">
-        <v>393</v>
-      </c>
-      <c r="H102" s="25">
-        <v>9.6</v>
-      </c>
-      <c r="I102" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="25">
-        <v>9.6</v>
-      </c>
-      <c r="B103" t="s">
-        <v>394</v>
-      </c>
-      <c r="H103" s="25">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="I103" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="25">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="B104" t="s">
-        <v>395</v>
-      </c>
-      <c r="H104" s="25">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I104" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="25">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="B105" t="s">
-        <v>396</v>
-      </c>
-      <c r="H105" s="25">
-        <v>9.9</v>
-      </c>
-      <c r="I105" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="25">
-        <v>9.9</v>
-      </c>
-      <c r="B106" t="s">
-        <v>397</v>
-      </c>
-      <c r="H106" s="25">
-        <v>10</v>
-      </c>
-      <c r="I106" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="25">
-        <v>10</v>
-      </c>
-      <c r="B107" t="s">
-        <v>398</v>
-      </c>
-      <c r="H107" s="25">
-        <v>10.1</v>
-      </c>
-      <c r="I107" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="25">
-        <v>10.1</v>
-      </c>
-      <c r="B108" t="s">
-        <v>399</v>
-      </c>
-      <c r="H108" s="25">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I108" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="25">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="B109" t="s">
-        <v>400</v>
-      </c>
-      <c r="H109" s="25">
-        <v>10.3</v>
-      </c>
-      <c r="I109" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="25">
-        <v>10.3</v>
-      </c>
-      <c r="B110" t="s">
-        <v>401</v>
-      </c>
-      <c r="H110" s="25">
-        <v>10.4</v>
-      </c>
-      <c r="I110" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="25">
-        <v>10.4</v>
-      </c>
-      <c r="B111" t="s">
-        <v>402</v>
-      </c>
-      <c r="H111" s="25">
-        <v>10.5</v>
-      </c>
-      <c r="I111" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="25">
-        <v>10.5</v>
-      </c>
-      <c r="B112" t="s">
-        <v>403</v>
-      </c>
-      <c r="H112" s="25">
-        <v>11</v>
-      </c>
-      <c r="I112" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="25">
-        <v>11</v>
-      </c>
-      <c r="B113" t="s">
-        <v>404</v>
-      </c>
-      <c r="H113" s="25">
-        <v>11.1</v>
-      </c>
-      <c r="I113" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="25">
-        <v>11.1</v>
-      </c>
-      <c r="B114" t="s">
-        <v>405</v>
-      </c>
-      <c r="H114" s="25">
-        <v>11.2</v>
-      </c>
-      <c r="I114" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="25">
-        <v>11.2</v>
-      </c>
-      <c r="B115" t="s">
-        <v>406</v>
-      </c>
-      <c r="H115" s="25">
-        <v>11.3</v>
-      </c>
-      <c r="I115" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="25">
-        <v>11.3</v>
-      </c>
-      <c r="B116" t="s">
-        <v>407</v>
-      </c>
-      <c r="H116" s="25">
-        <v>12</v>
-      </c>
-      <c r="I116" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="25">
-        <v>12</v>
-      </c>
-      <c r="B117" t="s">
-        <v>408</v>
-      </c>
-      <c r="H117" s="25">
-        <v>12.1</v>
-      </c>
-      <c r="I117" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="25">
-        <v>12.1</v>
-      </c>
-      <c r="B118" t="s">
-        <v>409</v>
-      </c>
-      <c r="H118" s="25">
-        <v>12.2</v>
-      </c>
-      <c r="I118" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="25">
-        <v>12.2</v>
-      </c>
-      <c r="B119" t="s">
-        <v>410</v>
-      </c>
-      <c r="H119" s="25">
-        <v>12.3</v>
-      </c>
-      <c r="I119" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="25">
-        <v>12.3</v>
-      </c>
-      <c r="B120" t="s">
-        <v>411</v>
-      </c>
-      <c r="H120" s="25">
-        <v>12.4</v>
-      </c>
-      <c r="I120" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="25">
-        <v>12.4</v>
-      </c>
-      <c r="B121" t="s">
-        <v>412</v>
-      </c>
-      <c r="H121" s="25">
-        <v>13</v>
-      </c>
-      <c r="I121" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="25">
-        <v>13</v>
-      </c>
-      <c r="B122" t="s">
-        <v>413</v>
-      </c>
-      <c r="H122" s="25">
-        <v>13.1</v>
-      </c>
-      <c r="I122" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="25">
-        <v>13.1</v>
-      </c>
-      <c r="B123" t="s">
-        <v>414</v>
-      </c>
-      <c r="H123" s="25" t="s">
-        <v>483</v>
-      </c>
-      <c r="I123" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="25">
-        <v>0.54237268518518522</v>
-      </c>
-      <c r="B124" t="s">
-        <v>415</v>
-      </c>
-      <c r="H124" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="I124" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="25">
-        <v>0.54238425925925926</v>
-      </c>
-      <c r="B125" t="s">
-        <v>416</v>
-      </c>
-      <c r="H125" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="I125" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="25">
-        <v>0.5423958333333333</v>
-      </c>
-      <c r="B126" t="s">
-        <v>417</v>
-      </c>
-      <c r="H126" s="25">
-        <v>13.2</v>
-      </c>
-      <c r="I126" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="25">
-        <v>13.2</v>
-      </c>
-      <c r="B127" t="s">
-        <v>418</v>
-      </c>
-      <c r="H127" s="25">
-        <v>13.3</v>
-      </c>
-      <c r="I127" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="25">
-        <v>13.3</v>
-      </c>
-      <c r="B128" t="s">
-        <v>419</v>
-      </c>
-      <c r="H128" s="25">
-        <v>13.4</v>
-      </c>
-      <c r="I128" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="25">
-        <v>13.4</v>
-      </c>
-      <c r="B129" t="s">
-        <v>420</v>
-      </c>
-      <c r="H129" s="25">
-        <v>14</v>
-      </c>
-      <c r="I129" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="25">
-        <v>14</v>
-      </c>
-      <c r="B130" t="s">
-        <v>421</v>
-      </c>
-      <c r="H130" s="25">
-        <v>15</v>
-      </c>
-      <c r="I130" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="25">
-        <v>15</v>
-      </c>
-      <c r="B131" t="s">
-        <v>422</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -6650,109 +4779,109 @@
       <c r="A1" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
@@ -6819,16 +4948,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7021,10 +5150,10 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>

--- a/tests/integration_test_files/simple_1.xlsx
+++ b/tests/integration_test_files/simple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A259DC14-E722-E34F-B590-9D3E47CDAC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C096CFE3-C5C0-E141-AC29-6B069CB6D18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" firstSheet="6" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" firstSheet="5" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="560">
   <si>
     <t>Epoch</t>
   </si>
@@ -1729,18 +1729,36 @@
     <t/>
   </si>
   <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>Primary Objectives</t>
+  </si>
+  <si>
     <r>
       <t>&lt;</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
       <t>usdm:ref klass="StudyIdentifier" id="StudyIdentifier_1" attribute="studyIdentifier"/&gt;</t>
     </r>
+  </si>
+  <si>
+    <t>&lt;table&gt;
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top"&gt;Primary Objective&lt;/th&gt;
+    &lt;th style="vertical-align: top"&gt;Primary Endpoint&lt;/th&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;td style="vertical-align: top"&gt;&lt;usdm:ref klass="Objective" id="Objective_1" attribute="description"/&gt;&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;&lt;usdm:ref klass="Endpoint" id="Endpoint_1" attribute="description"/&gt;&lt;/td&gt;
+  &lt;/tr&gt;
+&lt;/table&gt;</t>
   </si>
 </sst>
 </file>
@@ -1786,7 +1804,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Menlo"/>
       <family val="2"/>
@@ -1901,10 +1919,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2514,7 +2532,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3407,10 +3425,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3435,7 +3453,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>30</v>
       </c>
@@ -3444,7 +3462,7 @@
         <v>292</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3503,1114 +3521,1120 @@
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>430</v>
+    <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>556</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>295</v>
+        <v>557</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="B12" s="26"/>
+        <v>431</v>
+      </c>
       <c r="C12" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>511</v>
+        <v>435</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="10" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="10" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>485</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>518</v>
+        <v>481</v>
       </c>
       <c r="B29" s="26"/>
       <c r="C29" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>436</v>
+        <v>521</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>522</v>
+        <v>436</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>437</v>
+        <v>523</v>
       </c>
       <c r="B37" s="26"/>
       <c r="C37" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B38" s="26"/>
       <c r="C38" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>524</v>
+        <v>439</v>
       </c>
       <c r="B40" s="26"/>
       <c r="C40" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>440</v>
+        <v>524</v>
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B42" s="26"/>
       <c r="C42" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B43" s="26"/>
       <c r="C43" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>487</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>525</v>
+        <v>442</v>
       </c>
       <c r="B44" s="26"/>
       <c r="C44" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B45" s="26"/>
       <c r="C45" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>443</v>
+        <v>526</v>
       </c>
       <c r="B46" s="26"/>
       <c r="C46" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B47" s="26"/>
       <c r="C47" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B49" s="26"/>
       <c r="C49" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="B50" s="26"/>
       <c r="C50" s="10" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="B51" s="26"/>
       <c r="C51" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>447</v>
+        <v>527</v>
       </c>
       <c r="B52" s="26"/>
       <c r="C52" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B53" s="26"/>
       <c r="C53" s="10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B54" s="26"/>
       <c r="C54" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>529</v>
+        <v>449</v>
       </c>
       <c r="B55" s="26"/>
       <c r="C55" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B56" s="26"/>
       <c r="C56" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B57" s="26"/>
       <c r="C57" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>492</v>
+        <v>531</v>
       </c>
       <c r="B58" s="26"/>
       <c r="C58" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>532</v>
+        <v>492</v>
       </c>
       <c r="B59" s="26"/>
       <c r="C59" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B60" s="26"/>
       <c r="C60" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B61" s="26"/>
       <c r="C61" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
       <c r="B62" s="26"/>
       <c r="C62" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>450</v>
+        <v>482</v>
       </c>
       <c r="B63" s="26"/>
       <c r="C63" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B64" s="26"/>
       <c r="C64" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B65" s="26"/>
       <c r="C65" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B66" s="26"/>
       <c r="C66" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>535</v>
+        <v>453</v>
       </c>
       <c r="B67" s="26"/>
       <c r="C67" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
       <c r="B68" s="26"/>
       <c r="C68" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="B69" s="26"/>
       <c r="C69" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B70" s="26"/>
       <c r="C70" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B71" s="26"/>
       <c r="C71" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B72" s="26"/>
       <c r="C72" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B73" s="26"/>
       <c r="C73" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B74" s="26"/>
       <c r="C74" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B75" s="26"/>
       <c r="C75" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B76" s="26"/>
       <c r="C76" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B77" s="26"/>
       <c r="C77" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>536</v>
+        <v>462</v>
       </c>
       <c r="B78" s="26"/>
       <c r="C78" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>463</v>
+        <v>536</v>
       </c>
       <c r="B79" s="26"/>
       <c r="C79" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B80" s="26"/>
       <c r="C80" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>537</v>
+        <v>464</v>
       </c>
       <c r="B81" s="26"/>
       <c r="C81" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>465</v>
+        <v>537</v>
       </c>
       <c r="B82" s="26"/>
       <c r="C82" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B83" s="26"/>
       <c r="C83" s="10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B84" s="26"/>
       <c r="C84" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B85" s="26"/>
       <c r="C85" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B86" s="26"/>
       <c r="C86" s="10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>538</v>
+        <v>469</v>
       </c>
       <c r="B87" s="26"/>
       <c r="C87" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B88" s="26"/>
       <c r="C88" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B89" s="26"/>
       <c r="C89" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="B90" s="26"/>
       <c r="C90" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>484</v>
+        <v>532</v>
       </c>
       <c r="B91" s="26"/>
       <c r="C91" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B92" s="26"/>
       <c r="C92" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>541</v>
+        <v>493</v>
       </c>
       <c r="B93" s="26"/>
       <c r="C93" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B94" s="26"/>
       <c r="C94" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>470</v>
+        <v>542</v>
       </c>
       <c r="B95" s="26"/>
       <c r="C95" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B96" s="26"/>
       <c r="C96" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B97" s="26"/>
       <c r="C97" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B98" s="26"/>
       <c r="C98" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B99" s="26"/>
       <c r="C99" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>543</v>
+        <v>474</v>
       </c>
       <c r="B100" s="26"/>
       <c r="C100" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B101" s="26"/>
       <c r="C101" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B102" s="26"/>
       <c r="C102" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B103" s="26"/>
       <c r="C103" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B104" s="26"/>
       <c r="C104" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B105" s="26"/>
       <c r="C105" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B106" s="26"/>
       <c r="C106" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="B107" s="26"/>
       <c r="C107" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>550</v>
+        <v>494</v>
       </c>
       <c r="B108" s="26"/>
       <c r="C108" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B109" s="26"/>
       <c r="C109" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B110" s="26"/>
       <c r="C110" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B111" s="26"/>
       <c r="C111" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B112" s="26"/>
       <c r="C112" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>495</v>
+        <v>554</v>
       </c>
       <c r="B113" s="26"/>
       <c r="C113" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="B114" s="26"/>
       <c r="C114" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B115" s="26"/>
       <c r="C115" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B116" s="26"/>
       <c r="C116" s="10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="B117" s="26"/>
       <c r="C117" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="B118" s="26"/>
       <c r="C118" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B119" s="26"/>
       <c r="C119" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B120" s="26"/>
       <c r="C120" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B121" s="26"/>
       <c r="C121" s="10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B122" s="26"/>
       <c r="C122" s="10" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B123" s="26"/>
       <c r="C123" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>475</v>
+        <v>503</v>
       </c>
       <c r="B124" s="26"/>
       <c r="C124" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B125" s="26"/>
       <c r="C125" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B126" s="26"/>
       <c r="C126" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="B127" s="26"/>
       <c r="C127" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B128" s="26"/>
       <c r="C128" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B129" s="26"/>
       <c r="C129" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B130" s="26"/>
       <c r="C130" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B131" s="26"/>
       <c r="C131" s="10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B132" s="26"/>
+      <c r="C132" s="10" t="s">
         <v>420</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="11" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -4635,6 +4659,11 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="11" t="s">
         <v>555</v>
       </c>
     </row>
@@ -4801,34 +4830,34 @@
       <c r="A3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
@@ -4948,16 +4977,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/integration_test_files/simple_1.xlsx
+++ b/tests/integration_test_files/simple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C096CFE3-C5C0-E141-AC29-6B069CB6D18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E64E4B-0DC5-1B42-8D4C-DCF74E850803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" firstSheet="5" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -1755,7 +1755,7 @@
     &lt;th style="vertical-align: top"&gt;Primary Endpoint&lt;/th&gt;
   &lt;/tr&gt;
   &lt;tr&gt;
-    &lt;td style="vertical-align: top"&gt;&lt;usdm:ref klass="Objective" id="Objective_1" attribute="description"/&gt;&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;&lt;usdm:ref klass="Objective" namexref="OBJ1" attribute="description"/&gt;&lt;/td&gt;
     &lt;td style="vertical-align: top"&gt;&lt;usdm:ref klass="Endpoint" id="Endpoint_1" attribute="description"/&gt;&lt;/td&gt;
   &lt;/tr&gt;
 &lt;/table&gt;</t>
@@ -2532,7 +2532,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tests/integration_test_files/simple_1.xlsx
+++ b/tests/integration_test_files/simple_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E64E4B-0DC5-1B42-8D4C-DCF74E850803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A576F3A-688C-0C4F-9A0B-2DD550C52A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" firstSheet="5" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="87520" yWindow="4120" windowWidth="33600" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="557">
   <si>
     <t>Epoch</t>
   </si>
@@ -506,12 +506,6 @@
     <t>protocolVersion</t>
   </si>
   <si>
-    <t>protocolAmendment</t>
-  </si>
-  <si>
-    <t>protocolEffectiveDate</t>
-  </si>
-  <si>
     <t>protocolStatus</t>
   </si>
   <si>
@@ -524,16 +518,10 @@
     <t>Something Public</t>
   </si>
   <si>
-    <t>Somethign Clever</t>
-  </si>
-  <si>
     <t>draft</t>
   </si>
   <si>
     <t>Somethign Clever But New</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>businessTherapeuticAreas</t>
@@ -1759,6 +1747,9 @@
     &lt;td style="vertical-align: top"&gt;&lt;usdm:ref klass="Endpoint" id="Endpoint_1" attribute="description"/&gt;&lt;/td&gt;
   &lt;/tr&gt;
 &lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>SIMPLE1</t>
   </si>
 </sst>
 </file>
@@ -1842,7 +1833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1880,9 +1871,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1897,9 +1885,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1919,10 +1904,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2241,286 +2226,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="16" style="7" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="17" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="B10" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="B11" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="B12" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="B13" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="B14" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="15">
-        <v>40179</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="15">
-        <v>40544</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3009,29 +2853,29 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
         <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
         <v>114</v>
@@ -3040,7 +2884,7 @@
         <v>120</v>
       </c>
       <c r="H5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3071,63 +2915,63 @@
       <c r="A1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>191</v>
+      <c r="B1" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="G3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3159,138 +3003,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="G1" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="H1" s="22" t="s">
         <v>202</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3316,105 +3160,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>206</v>
+      <c r="B1" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3427,7 +3271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3440,1231 +3284,1231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>528</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>488</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>291</v>
+      <c r="A1" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="10" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="B13" s="26"/>
+        <v>418</v>
+      </c>
+      <c r="B13" s="24"/>
       <c r="C13" s="10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B14" s="26"/>
+        <v>428</v>
+      </c>
+      <c r="B14" s="24"/>
       <c r="C14" s="10" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="B15" s="26"/>
+        <v>429</v>
+      </c>
+      <c r="B15" s="24"/>
       <c r="C15" s="10" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="B16" s="26"/>
+        <v>430</v>
+      </c>
+      <c r="B16" s="24"/>
       <c r="C16" s="10" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="B17" s="26"/>
+        <v>431</v>
+      </c>
+      <c r="B17" s="24"/>
       <c r="C17" s="10" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="B18" s="26"/>
+        <v>507</v>
+      </c>
+      <c r="B18" s="24"/>
       <c r="C18" s="10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="B19" s="26"/>
+        <v>508</v>
+      </c>
+      <c r="B19" s="24"/>
       <c r="C19" s="10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="B20" s="26"/>
+        <v>485</v>
+      </c>
+      <c r="B20" s="24"/>
       <c r="C20" s="10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="B21" s="26"/>
+        <v>509</v>
+      </c>
+      <c r="B21" s="24"/>
       <c r="C21" s="10" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="B22" s="26"/>
+        <v>510</v>
+      </c>
+      <c r="B22" s="24"/>
       <c r="C22" s="10" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="B23" s="26"/>
+        <v>511</v>
+      </c>
+      <c r="B23" s="24"/>
       <c r="C23" s="10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="B24" s="26"/>
+        <v>512</v>
+      </c>
+      <c r="B24" s="24"/>
       <c r="C24" s="10" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="B25" s="26"/>
+        <v>513</v>
+      </c>
+      <c r="B25" s="24"/>
       <c r="C25" s="10" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="B26" s="26"/>
+        <v>474</v>
+      </c>
+      <c r="B26" s="24"/>
       <c r="C26" s="10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="B27" s="26"/>
+        <v>475</v>
+      </c>
+      <c r="B27" s="24"/>
       <c r="C27" s="10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B28" s="26"/>
+        <v>476</v>
+      </c>
+      <c r="B28" s="24"/>
       <c r="C28" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="B29" s="26"/>
+        <v>477</v>
+      </c>
+      <c r="B29" s="24"/>
       <c r="C29" s="10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="B30" s="26"/>
+        <v>514</v>
+      </c>
+      <c r="B30" s="24"/>
       <c r="C30" s="10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="B31" s="26"/>
+        <v>486</v>
+      </c>
+      <c r="B31" s="24"/>
       <c r="C31" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="B32" s="26"/>
+        <v>515</v>
+      </c>
+      <c r="B32" s="24"/>
       <c r="C32" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="B33" s="26"/>
+        <v>516</v>
+      </c>
+      <c r="B33" s="24"/>
       <c r="C33" s="10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="B34" s="26"/>
+        <v>517</v>
+      </c>
+      <c r="B34" s="24"/>
       <c r="C34" s="10" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B35" s="26"/>
+        <v>432</v>
+      </c>
+      <c r="B35" s="24"/>
       <c r="C35" s="10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="B36" s="26"/>
+        <v>518</v>
+      </c>
+      <c r="B36" s="24"/>
       <c r="C36" s="10" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="B37" s="26"/>
+        <v>519</v>
+      </c>
+      <c r="B37" s="24"/>
       <c r="C37" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B38" s="26"/>
+        <v>433</v>
+      </c>
+      <c r="B38" s="24"/>
       <c r="C38" s="10" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B39" s="26"/>
+        <v>434</v>
+      </c>
+      <c r="B39" s="24"/>
       <c r="C39" s="10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B40" s="26"/>
+        <v>435</v>
+      </c>
+      <c r="B40" s="24"/>
       <c r="C40" s="10" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="B41" s="26"/>
+        <v>520</v>
+      </c>
+      <c r="B41" s="24"/>
       <c r="C41" s="10" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="B42" s="26"/>
+        <v>436</v>
+      </c>
+      <c r="B42" s="24"/>
       <c r="C42" s="10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B43" s="26"/>
+        <v>437</v>
+      </c>
+      <c r="B43" s="24"/>
       <c r="C43" s="10" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B44" s="26"/>
+        <v>438</v>
+      </c>
+      <c r="B44" s="24"/>
       <c r="C44" s="10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="B45" s="26"/>
+        <v>521</v>
+      </c>
+      <c r="B45" s="24"/>
       <c r="C45" s="10" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="B46" s="26"/>
+        <v>522</v>
+      </c>
+      <c r="B46" s="24"/>
       <c r="C46" s="10" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B47" s="26"/>
+        <v>439</v>
+      </c>
+      <c r="B47" s="24"/>
       <c r="C47" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B48" s="26"/>
+        <v>440</v>
+      </c>
+      <c r="B48" s="24"/>
       <c r="C48" s="10" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="B49" s="26"/>
+        <v>441</v>
+      </c>
+      <c r="B49" s="24"/>
       <c r="C49" s="10" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="B50" s="26"/>
+        <v>442</v>
+      </c>
+      <c r="B50" s="24"/>
       <c r="C50" s="10" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B51" s="26"/>
+        <v>487</v>
+      </c>
+      <c r="B51" s="24"/>
       <c r="C51" s="10" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="B52" s="26"/>
+        <v>523</v>
+      </c>
+      <c r="B52" s="24"/>
       <c r="C52" s="10" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="B53" s="26"/>
+        <v>443</v>
+      </c>
+      <c r="B53" s="24"/>
       <c r="C53" s="10" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B54" s="26"/>
+        <v>444</v>
+      </c>
+      <c r="B54" s="24"/>
       <c r="C54" s="10" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="B55" s="26"/>
+        <v>445</v>
+      </c>
+      <c r="B55" s="24"/>
       <c r="C55" s="10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B56" s="26"/>
+        <v>525</v>
+      </c>
+      <c r="B56" s="24"/>
       <c r="C56" s="10" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="B57" s="26"/>
+        <v>526</v>
+      </c>
+      <c r="B57" s="24"/>
       <c r="C57" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="B58" s="26"/>
+        <v>527</v>
+      </c>
+      <c r="B58" s="24"/>
       <c r="C58" s="10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="B59" s="26"/>
+        <v>488</v>
+      </c>
+      <c r="B59" s="24"/>
       <c r="C59" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="B60" s="26"/>
+        <v>528</v>
+      </c>
+      <c r="B60" s="24"/>
       <c r="C60" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="B61" s="26"/>
+        <v>529</v>
+      </c>
+      <c r="B61" s="24"/>
       <c r="C61" s="10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="B62" s="26"/>
+        <v>530</v>
+      </c>
+      <c r="B62" s="24"/>
       <c r="C62" s="10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="B63" s="26"/>
+        <v>478</v>
+      </c>
+      <c r="B63" s="24"/>
       <c r="C63" s="10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B64" s="26"/>
+        <v>446</v>
+      </c>
+      <c r="B64" s="24"/>
       <c r="C64" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="B65" s="26"/>
+        <v>447</v>
+      </c>
+      <c r="B65" s="24"/>
       <c r="C65" s="10" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B66" s="26"/>
+        <v>448</v>
+      </c>
+      <c r="B66" s="24"/>
       <c r="C66" s="10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="B67" s="26"/>
+        <v>449</v>
+      </c>
+      <c r="B67" s="24"/>
       <c r="C67" s="10" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B68" s="26"/>
+        <v>531</v>
+      </c>
+      <c r="B68" s="24"/>
       <c r="C68" s="10" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="B69" s="26"/>
+        <v>479</v>
+      </c>
+      <c r="B69" s="24"/>
       <c r="C69" s="10" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="B70" s="26"/>
+        <v>450</v>
+      </c>
+      <c r="B70" s="24"/>
       <c r="C70" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="B71" s="26"/>
+        <v>451</v>
+      </c>
+      <c r="B71" s="24"/>
       <c r="C71" s="10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="B72" s="26"/>
+        <v>452</v>
+      </c>
+      <c r="B72" s="24"/>
       <c r="C72" s="10" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="B73" s="26"/>
+        <v>453</v>
+      </c>
+      <c r="B73" s="24"/>
       <c r="C73" s="10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="B74" s="26"/>
+        <v>454</v>
+      </c>
+      <c r="B74" s="24"/>
       <c r="C74" s="10" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="B75" s="26"/>
+        <v>455</v>
+      </c>
+      <c r="B75" s="24"/>
       <c r="C75" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="B76" s="26"/>
+        <v>456</v>
+      </c>
+      <c r="B76" s="24"/>
       <c r="C76" s="10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="B77" s="26"/>
+        <v>457</v>
+      </c>
+      <c r="B77" s="24"/>
       <c r="C77" s="10" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="B78" s="26"/>
+        <v>458</v>
+      </c>
+      <c r="B78" s="24"/>
       <c r="C78" s="10" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="B79" s="26"/>
+        <v>532</v>
+      </c>
+      <c r="B79" s="24"/>
       <c r="C79" s="10" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B80" s="26"/>
+        <v>459</v>
+      </c>
+      <c r="B80" s="24"/>
       <c r="C80" s="10" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="B81" s="26"/>
+        <v>460</v>
+      </c>
+      <c r="B81" s="24"/>
       <c r="C81" s="10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="B82" s="26"/>
+        <v>533</v>
+      </c>
+      <c r="B82" s="24"/>
       <c r="C82" s="10" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="B83" s="26"/>
+        <v>461</v>
+      </c>
+      <c r="B83" s="24"/>
       <c r="C83" s="10" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="B84" s="26"/>
+        <v>462</v>
+      </c>
+      <c r="B84" s="24"/>
       <c r="C84" s="10" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="B85" s="26"/>
+        <v>463</v>
+      </c>
+      <c r="B85" s="24"/>
       <c r="C85" s="10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B86" s="26"/>
+        <v>464</v>
+      </c>
+      <c r="B86" s="24"/>
       <c r="C86" s="10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="B87" s="26"/>
+        <v>465</v>
+      </c>
+      <c r="B87" s="24"/>
       <c r="C87" s="10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="B88" s="26"/>
+        <v>534</v>
+      </c>
+      <c r="B88" s="24"/>
       <c r="C88" s="10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="B89" s="26"/>
+        <v>535</v>
+      </c>
+      <c r="B89" s="24"/>
       <c r="C89" s="10" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="B90" s="26"/>
+        <v>536</v>
+      </c>
+      <c r="B90" s="24"/>
       <c r="C90" s="10" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="B91" s="26"/>
+        <v>528</v>
+      </c>
+      <c r="B91" s="24"/>
       <c r="C91" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="B92" s="26"/>
+        <v>480</v>
+      </c>
+      <c r="B92" s="24"/>
       <c r="C92" s="10" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B93" s="26"/>
+        <v>489</v>
+      </c>
+      <c r="B93" s="24"/>
       <c r="C93" s="10" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="B94" s="26"/>
+        <v>537</v>
+      </c>
+      <c r="B94" s="24"/>
       <c r="C94" s="10" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="B95" s="26"/>
+        <v>538</v>
+      </c>
+      <c r="B95" s="24"/>
       <c r="C95" s="10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="B96" s="26"/>
+        <v>466</v>
+      </c>
+      <c r="B96" s="24"/>
       <c r="C96" s="10" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="B97" s="26"/>
+        <v>467</v>
+      </c>
+      <c r="B97" s="24"/>
       <c r="C97" s="10" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B98" s="26"/>
+        <v>468</v>
+      </c>
+      <c r="B98" s="24"/>
       <c r="C98" s="10" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B99" s="26"/>
+        <v>469</v>
+      </c>
+      <c r="B99" s="24"/>
       <c r="C99" s="10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B100" s="26"/>
+        <v>470</v>
+      </c>
+      <c r="B100" s="24"/>
       <c r="C100" s="10" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="B101" s="26"/>
+        <v>539</v>
+      </c>
+      <c r="B101" s="24"/>
       <c r="C101" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="B102" s="26"/>
+        <v>540</v>
+      </c>
+      <c r="B102" s="24"/>
       <c r="C102" s="10" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="B103" s="26"/>
+        <v>541</v>
+      </c>
+      <c r="B103" s="24"/>
       <c r="C103" s="10" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="B104" s="26"/>
+        <v>542</v>
+      </c>
+      <c r="B104" s="24"/>
       <c r="C104" s="10" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="B105" s="26"/>
+        <v>543</v>
+      </c>
+      <c r="B105" s="24"/>
       <c r="C105" s="10" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="B106" s="26"/>
+        <v>544</v>
+      </c>
+      <c r="B106" s="24"/>
       <c r="C106" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="B107" s="26"/>
+        <v>545</v>
+      </c>
+      <c r="B107" s="24"/>
       <c r="C107" s="10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B108" s="26"/>
+        <v>490</v>
+      </c>
+      <c r="B108" s="24"/>
       <c r="C108" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="B109" s="26"/>
+        <v>546</v>
+      </c>
+      <c r="B109" s="24"/>
       <c r="C109" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="B110" s="26"/>
+        <v>547</v>
+      </c>
+      <c r="B110" s="24"/>
       <c r="C110" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="B111" s="26"/>
+        <v>548</v>
+      </c>
+      <c r="B111" s="24"/>
       <c r="C111" s="10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="B112" s="26"/>
+        <v>549</v>
+      </c>
+      <c r="B112" s="24"/>
       <c r="C112" s="10" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="B113" s="26"/>
+        <v>550</v>
+      </c>
+      <c r="B113" s="24"/>
       <c r="C113" s="10" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B114" s="26"/>
+        <v>491</v>
+      </c>
+      <c r="B114" s="24"/>
       <c r="C114" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B115" s="26"/>
+        <v>506</v>
+      </c>
+      <c r="B115" s="24"/>
       <c r="C115" s="10" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B116" s="26"/>
+        <v>505</v>
+      </c>
+      <c r="B116" s="24"/>
       <c r="C116" s="10" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="B117" s="26"/>
+        <v>504</v>
+      </c>
+      <c r="B117" s="24"/>
       <c r="C117" s="10" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="B118" s="26"/>
+        <v>492</v>
+      </c>
+      <c r="B118" s="24"/>
       <c r="C118" s="10" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="B119" s="26"/>
+        <v>503</v>
+      </c>
+      <c r="B119" s="24"/>
       <c r="C119" s="10" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="B120" s="26"/>
+        <v>502</v>
+      </c>
+      <c r="B120" s="24"/>
       <c r="C120" s="10" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="B121" s="26"/>
+        <v>501</v>
+      </c>
+      <c r="B121" s="24"/>
       <c r="C121" s="10" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="B122" s="26"/>
+        <v>500</v>
+      </c>
+      <c r="B122" s="24"/>
       <c r="C122" s="10" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="B123" s="26"/>
+        <v>493</v>
+      </c>
+      <c r="B123" s="24"/>
       <c r="C123" s="10" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B124" s="26"/>
+        <v>499</v>
+      </c>
+      <c r="B124" s="24"/>
       <c r="C124" s="10" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B125" s="26"/>
+        <v>471</v>
+      </c>
+      <c r="B125" s="24"/>
       <c r="C125" s="10" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B126" s="26"/>
+        <v>472</v>
+      </c>
+      <c r="B126" s="24"/>
       <c r="C126" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="B127" s="26"/>
+        <v>473</v>
+      </c>
+      <c r="B127" s="24"/>
       <c r="C127" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B128" s="26"/>
+        <v>498</v>
+      </c>
+      <c r="B128" s="24"/>
       <c r="C128" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="B129" s="26"/>
+        <v>497</v>
+      </c>
+      <c r="B129" s="24"/>
       <c r="C129" s="10" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="B130" s="26"/>
+        <v>496</v>
+      </c>
+      <c r="B130" s="24"/>
       <c r="C130" s="10" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="B131" s="26"/>
+        <v>494</v>
+      </c>
+      <c r="B131" s="24"/>
       <c r="C131" s="10" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="B132" s="26"/>
+        <v>495</v>
+      </c>
+      <c r="B132" s="24"/>
       <c r="C132" s="10" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -4688,18 +4532,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4725,22 +4569,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4755,7 +4599,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -4775,7 +4619,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
         <v>55</v>
@@ -4805,116 +4649,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="A1" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="A2" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="B6" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="B8" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="A9" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="A10" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>227</v>
+      <c r="A12" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -4934,16 +4778,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -4951,16 +4795,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4977,16 +4821,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5010,20 +4854,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>273</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5031,16 +4875,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5051,13 +4895,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5084,14 +4928,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>264</v>
+      <c r="A1" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5099,10 +4943,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5110,10 +4954,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5121,10 +4965,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5132,10 +4976,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -5164,13 +5008,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>182</v>
+      <c r="A1" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -5179,22 +5023,22 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="A2" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -5214,13 +5058,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>186</v>
+      <c r="A3" s="16" t="s">
+        <v>182</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -5242,7 +5086,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -5264,7 +5108,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -5286,7 +5130,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -5308,30 +5152,30 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="17" t="s">
-        <v>224</v>
+      <c r="C7" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="17" t="s">
-        <v>225</v>
+      <c r="C8" s="16" t="s">
+        <v>221</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5345,14 +5189,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>226</v>
+      <c r="C9" s="22" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5434,17 +5278,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>286</v>
+      <c r="A1" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5452,7 +5296,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5460,13 +5304,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/simple_1.xlsx
+++ b/tests/integration_test_files/simple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A576F3A-688C-0C4F-9A0B-2DD550C52A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796F1171-5A1E-EC41-8E83-D400C1EFE5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="87520" yWindow="4120" windowWidth="33600" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="64620" yWindow="4160" windowWidth="33600" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="559">
   <si>
     <t>Epoch</t>
   </si>
@@ -504,6 +504,12 @@
   </si>
   <si>
     <t>protocolVersion</t>
+  </si>
+  <si>
+    <t>protocolAmendment</t>
+  </si>
+  <si>
+    <t>protocolEffectiveDate</t>
   </si>
   <si>
     <t>protocolStatus</t>
@@ -1833,7 +1839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1885,6 +1891,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2226,27 +2235,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="8" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>26</v>
       </c>
@@ -2254,7 +2267,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>27</v>
       </c>
@@ -2262,7 +2275,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>28</v>
       </c>
@@ -2270,7 +2283,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>29</v>
       </c>
@@ -2278,7 +2291,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>142</v>
       </c>
@@ -2286,7 +2299,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>143</v>
       </c>
@@ -2294,47 +2307,47 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>147</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>148</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>149</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>150</v>
       </c>
@@ -2342,17 +2355,39 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="G16" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
@@ -2853,29 +2888,29 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
         <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F5" t="s">
         <v>114</v>
@@ -2884,7 +2919,7 @@
         <v>120</v>
       </c>
       <c r="H5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2916,62 +2951,62 @@
         <v>110</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" t="s">
         <v>191</v>
       </c>
-      <c r="B3" t="s">
-        <v>189</v>
-      </c>
       <c r="C3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3003,138 +3038,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>202</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3160,105 +3195,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>202</v>
+      <c r="B1" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3284,1231 +3319,1231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>287</v>
+      <c r="A1" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="B13" s="24"/>
+        <v>420</v>
+      </c>
+      <c r="B13" s="25"/>
       <c r="C13" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="B14" s="24"/>
+        <v>430</v>
+      </c>
+      <c r="B14" s="25"/>
       <c r="C14" s="10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="B15" s="24"/>
+        <v>431</v>
+      </c>
+      <c r="B15" s="25"/>
       <c r="C15" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B16" s="24"/>
+        <v>432</v>
+      </c>
+      <c r="B16" s="25"/>
       <c r="C16" s="10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="B17" s="24"/>
+        <v>433</v>
+      </c>
+      <c r="B17" s="25"/>
       <c r="C17" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="B18" s="24"/>
+        <v>509</v>
+      </c>
+      <c r="B18" s="25"/>
       <c r="C18" s="10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="B19" s="24"/>
+        <v>510</v>
+      </c>
+      <c r="B19" s="25"/>
       <c r="C19" s="10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="B20" s="24"/>
+        <v>487</v>
+      </c>
+      <c r="B20" s="25"/>
       <c r="C20" s="10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B21" s="24"/>
+        <v>511</v>
+      </c>
+      <c r="B21" s="25"/>
       <c r="C21" s="10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B22" s="24"/>
+        <v>512</v>
+      </c>
+      <c r="B22" s="25"/>
       <c r="C22" s="10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="B23" s="24"/>
+        <v>513</v>
+      </c>
+      <c r="B23" s="25"/>
       <c r="C23" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="B24" s="24"/>
+        <v>514</v>
+      </c>
+      <c r="B24" s="25"/>
       <c r="C24" s="10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="B25" s="24"/>
+        <v>515</v>
+      </c>
+      <c r="B25" s="25"/>
       <c r="C25" s="10" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B26" s="24"/>
+        <v>476</v>
+      </c>
+      <c r="B26" s="25"/>
       <c r="C26" s="10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B27" s="24"/>
+        <v>477</v>
+      </c>
+      <c r="B27" s="25"/>
       <c r="C27" s="10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B28" s="24"/>
+        <v>478</v>
+      </c>
+      <c r="B28" s="25"/>
       <c r="C28" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="B29" s="24"/>
+        <v>479</v>
+      </c>
+      <c r="B29" s="25"/>
       <c r="C29" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="B30" s="24"/>
+        <v>516</v>
+      </c>
+      <c r="B30" s="25"/>
       <c r="C30" s="10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="B31" s="24"/>
+        <v>488</v>
+      </c>
+      <c r="B31" s="25"/>
       <c r="C31" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="B32" s="24"/>
+        <v>517</v>
+      </c>
+      <c r="B32" s="25"/>
       <c r="C32" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="B33" s="24"/>
+        <v>518</v>
+      </c>
+      <c r="B33" s="25"/>
       <c r="C33" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="B34" s="24"/>
+        <v>519</v>
+      </c>
+      <c r="B34" s="25"/>
       <c r="C34" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B35" s="24"/>
+        <v>434</v>
+      </c>
+      <c r="B35" s="25"/>
       <c r="C35" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="B36" s="24"/>
+        <v>520</v>
+      </c>
+      <c r="B36" s="25"/>
       <c r="C36" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="B37" s="24"/>
+        <v>521</v>
+      </c>
+      <c r="B37" s="25"/>
       <c r="C37" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="B38" s="24"/>
+        <v>435</v>
+      </c>
+      <c r="B38" s="25"/>
       <c r="C38" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="B39" s="24"/>
+        <v>436</v>
+      </c>
+      <c r="B39" s="25"/>
       <c r="C39" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="B40" s="24"/>
+        <v>437</v>
+      </c>
+      <c r="B40" s="25"/>
       <c r="C40" s="10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="B41" s="24"/>
+        <v>522</v>
+      </c>
+      <c r="B41" s="25"/>
       <c r="C41" s="10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B42" s="24"/>
+        <v>438</v>
+      </c>
+      <c r="B42" s="25"/>
       <c r="C42" s="10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B43" s="24"/>
+        <v>439</v>
+      </c>
+      <c r="B43" s="25"/>
       <c r="C43" s="10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B44" s="24"/>
+        <v>440</v>
+      </c>
+      <c r="B44" s="25"/>
       <c r="C44" s="10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="B45" s="24"/>
+        <v>523</v>
+      </c>
+      <c r="B45" s="25"/>
       <c r="C45" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="B46" s="24"/>
+        <v>524</v>
+      </c>
+      <c r="B46" s="25"/>
       <c r="C46" s="10" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B47" s="24"/>
+        <v>441</v>
+      </c>
+      <c r="B47" s="25"/>
       <c r="C47" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="B48" s="24"/>
+        <v>442</v>
+      </c>
+      <c r="B48" s="25"/>
       <c r="C48" s="10" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B49" s="24"/>
+        <v>443</v>
+      </c>
+      <c r="B49" s="25"/>
       <c r="C49" s="10" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B50" s="24"/>
+        <v>444</v>
+      </c>
+      <c r="B50" s="25"/>
       <c r="C50" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B51" s="24"/>
+        <v>489</v>
+      </c>
+      <c r="B51" s="25"/>
       <c r="C51" s="10" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="B52" s="24"/>
+        <v>525</v>
+      </c>
+      <c r="B52" s="25"/>
       <c r="C52" s="10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B53" s="24"/>
+        <v>445</v>
+      </c>
+      <c r="B53" s="25"/>
       <c r="C53" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B54" s="24"/>
+        <v>446</v>
+      </c>
+      <c r="B54" s="25"/>
       <c r="C54" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="B55" s="24"/>
+        <v>447</v>
+      </c>
+      <c r="B55" s="25"/>
       <c r="C55" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="B56" s="24"/>
+        <v>527</v>
+      </c>
+      <c r="B56" s="25"/>
       <c r="C56" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="B57" s="24"/>
+        <v>528</v>
+      </c>
+      <c r="B57" s="25"/>
       <c r="C57" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="B58" s="24"/>
+        <v>529</v>
+      </c>
+      <c r="B58" s="25"/>
       <c r="C58" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B59" s="24"/>
+        <v>490</v>
+      </c>
+      <c r="B59" s="25"/>
       <c r="C59" s="10" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="B60" s="24"/>
+        <v>530</v>
+      </c>
+      <c r="B60" s="25"/>
       <c r="C60" s="10" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B61" s="24"/>
+        <v>531</v>
+      </c>
+      <c r="B61" s="25"/>
       <c r="C61" s="10" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="B62" s="24"/>
+        <v>532</v>
+      </c>
+      <c r="B62" s="25"/>
       <c r="C62" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="B63" s="24"/>
+        <v>480</v>
+      </c>
+      <c r="B63" s="25"/>
       <c r="C63" s="10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="B64" s="24"/>
+        <v>448</v>
+      </c>
+      <c r="B64" s="25"/>
       <c r="C64" s="10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="B65" s="24"/>
+        <v>449</v>
+      </c>
+      <c r="B65" s="25"/>
       <c r="C65" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B66" s="24"/>
+        <v>450</v>
+      </c>
+      <c r="B66" s="25"/>
       <c r="C66" s="10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="B67" s="24"/>
+        <v>451</v>
+      </c>
+      <c r="B67" s="25"/>
       <c r="C67" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="B68" s="24"/>
+        <v>533</v>
+      </c>
+      <c r="B68" s="25"/>
       <c r="C68" s="10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="B69" s="24"/>
+        <v>481</v>
+      </c>
+      <c r="B69" s="25"/>
       <c r="C69" s="10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B70" s="24"/>
+        <v>452</v>
+      </c>
+      <c r="B70" s="25"/>
       <c r="C70" s="10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="B71" s="24"/>
+        <v>453</v>
+      </c>
+      <c r="B71" s="25"/>
       <c r="C71" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B72" s="24"/>
+        <v>454</v>
+      </c>
+      <c r="B72" s="25"/>
       <c r="C72" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="B73" s="24"/>
+        <v>455</v>
+      </c>
+      <c r="B73" s="25"/>
       <c r="C73" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="B74" s="24"/>
+        <v>456</v>
+      </c>
+      <c r="B74" s="25"/>
       <c r="C74" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="B75" s="24"/>
+        <v>457</v>
+      </c>
+      <c r="B75" s="25"/>
       <c r="C75" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="B76" s="24"/>
+        <v>458</v>
+      </c>
+      <c r="B76" s="25"/>
       <c r="C76" s="10" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="B77" s="24"/>
+        <v>459</v>
+      </c>
+      <c r="B77" s="25"/>
       <c r="C77" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="B78" s="24"/>
+        <v>460</v>
+      </c>
+      <c r="B78" s="25"/>
       <c r="C78" s="10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="B79" s="24"/>
+        <v>534</v>
+      </c>
+      <c r="B79" s="25"/>
       <c r="C79" s="10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="B80" s="24"/>
+        <v>461</v>
+      </c>
+      <c r="B80" s="25"/>
       <c r="C80" s="10" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="B81" s="24"/>
+        <v>462</v>
+      </c>
+      <c r="B81" s="25"/>
       <c r="C81" s="10" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="B82" s="24"/>
+        <v>535</v>
+      </c>
+      <c r="B82" s="25"/>
       <c r="C82" s="10" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="B83" s="24"/>
+        <v>463</v>
+      </c>
+      <c r="B83" s="25"/>
       <c r="C83" s="10" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="B84" s="24"/>
+        <v>464</v>
+      </c>
+      <c r="B84" s="25"/>
       <c r="C84" s="10" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B85" s="24"/>
+        <v>465</v>
+      </c>
+      <c r="B85" s="25"/>
       <c r="C85" s="10" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="B86" s="24"/>
+        <v>466</v>
+      </c>
+      <c r="B86" s="25"/>
       <c r="C86" s="10" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="B87" s="24"/>
+        <v>467</v>
+      </c>
+      <c r="B87" s="25"/>
       <c r="C87" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="B88" s="24"/>
+        <v>536</v>
+      </c>
+      <c r="B88" s="25"/>
       <c r="C88" s="10" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B89" s="24"/>
+        <v>537</v>
+      </c>
+      <c r="B89" s="25"/>
       <c r="C89" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="B90" s="24"/>
+        <v>538</v>
+      </c>
+      <c r="B90" s="25"/>
       <c r="C90" s="10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="B91" s="24"/>
+        <v>530</v>
+      </c>
+      <c r="B91" s="25"/>
       <c r="C91" s="10" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B92" s="24"/>
+        <v>482</v>
+      </c>
+      <c r="B92" s="25"/>
       <c r="C92" s="10" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="B93" s="24"/>
+        <v>491</v>
+      </c>
+      <c r="B93" s="25"/>
       <c r="C93" s="10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="B94" s="24"/>
+        <v>539</v>
+      </c>
+      <c r="B94" s="25"/>
       <c r="C94" s="10" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="B95" s="24"/>
+        <v>540</v>
+      </c>
+      <c r="B95" s="25"/>
       <c r="C95" s="10" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="B96" s="24"/>
+        <v>468</v>
+      </c>
+      <c r="B96" s="25"/>
       <c r="C96" s="10" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="B97" s="24"/>
+        <v>469</v>
+      </c>
+      <c r="B97" s="25"/>
       <c r="C97" s="10" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B98" s="24"/>
+        <v>470</v>
+      </c>
+      <c r="B98" s="25"/>
       <c r="C98" s="10" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="B99" s="24"/>
+        <v>471</v>
+      </c>
+      <c r="B99" s="25"/>
       <c r="C99" s="10" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="B100" s="24"/>
+        <v>472</v>
+      </c>
+      <c r="B100" s="25"/>
       <c r="C100" s="10" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="B101" s="24"/>
+        <v>541</v>
+      </c>
+      <c r="B101" s="25"/>
       <c r="C101" s="10" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="B102" s="24"/>
+        <v>542</v>
+      </c>
+      <c r="B102" s="25"/>
       <c r="C102" s="10" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="B103" s="24"/>
+        <v>543</v>
+      </c>
+      <c r="B103" s="25"/>
       <c r="C103" s="10" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="B104" s="24"/>
+        <v>544</v>
+      </c>
+      <c r="B104" s="25"/>
       <c r="C104" s="10" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="B105" s="24"/>
+        <v>545</v>
+      </c>
+      <c r="B105" s="25"/>
       <c r="C105" s="10" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="B106" s="24"/>
+        <v>546</v>
+      </c>
+      <c r="B106" s="25"/>
       <c r="C106" s="10" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="B107" s="24"/>
+        <v>547</v>
+      </c>
+      <c r="B107" s="25"/>
       <c r="C107" s="10" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="B108" s="24"/>
+        <v>492</v>
+      </c>
+      <c r="B108" s="25"/>
       <c r="C108" s="10" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="B109" s="24"/>
+        <v>548</v>
+      </c>
+      <c r="B109" s="25"/>
       <c r="C109" s="10" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="B110" s="24"/>
+        <v>549</v>
+      </c>
+      <c r="B110" s="25"/>
       <c r="C110" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="B111" s="24"/>
+        <v>550</v>
+      </c>
+      <c r="B111" s="25"/>
       <c r="C111" s="10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="B112" s="24"/>
+        <v>551</v>
+      </c>
+      <c r="B112" s="25"/>
       <c r="C112" s="10" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="B113" s="24"/>
+        <v>552</v>
+      </c>
+      <c r="B113" s="25"/>
       <c r="C113" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B114" s="24"/>
+        <v>493</v>
+      </c>
+      <c r="B114" s="25"/>
       <c r="C114" s="10" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="B115" s="24"/>
+        <v>508</v>
+      </c>
+      <c r="B115" s="25"/>
       <c r="C115" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="B116" s="24"/>
+        <v>507</v>
+      </c>
+      <c r="B116" s="25"/>
       <c r="C116" s="10" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="B117" s="24"/>
+        <v>506</v>
+      </c>
+      <c r="B117" s="25"/>
       <c r="C117" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="B118" s="24"/>
+        <v>494</v>
+      </c>
+      <c r="B118" s="25"/>
       <c r="C118" s="10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B119" s="24"/>
+        <v>505</v>
+      </c>
+      <c r="B119" s="25"/>
       <c r="C119" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B120" s="24"/>
+        <v>504</v>
+      </c>
+      <c r="B120" s="25"/>
       <c r="C120" s="10" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="B121" s="24"/>
+        <v>503</v>
+      </c>
+      <c r="B121" s="25"/>
       <c r="C121" s="10" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="B122" s="24"/>
+        <v>502</v>
+      </c>
+      <c r="B122" s="25"/>
       <c r="C122" s="10" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B123" s="24"/>
+        <v>495</v>
+      </c>
+      <c r="B123" s="25"/>
       <c r="C123" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="B124" s="24"/>
+        <v>501</v>
+      </c>
+      <c r="B124" s="25"/>
       <c r="C124" s="10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="B125" s="24"/>
+        <v>473</v>
+      </c>
+      <c r="B125" s="25"/>
       <c r="C125" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B126" s="24"/>
+        <v>474</v>
+      </c>
+      <c r="B126" s="25"/>
       <c r="C126" s="10" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B127" s="24"/>
+        <v>475</v>
+      </c>
+      <c r="B127" s="25"/>
       <c r="C127" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="B128" s="24"/>
+        <v>500</v>
+      </c>
+      <c r="B128" s="25"/>
       <c r="C128" s="10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="B129" s="24"/>
+        <v>499</v>
+      </c>
+      <c r="B129" s="25"/>
       <c r="C129" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="B130" s="24"/>
+        <v>498</v>
+      </c>
+      <c r="B130" s="25"/>
       <c r="C130" s="10" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B131" s="24"/>
+        <v>496</v>
+      </c>
+      <c r="B131" s="25"/>
       <c r="C131" s="10" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B132" s="24"/>
+        <v>497</v>
+      </c>
+      <c r="B132" s="25"/>
       <c r="C132" s="10" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -4532,18 +4567,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4569,22 +4604,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4599,7 +4634,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -4619,7 +4654,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
         <v>55</v>
@@ -4650,115 +4685,115 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+        <v>252</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+        <v>253</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="B3" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="B6" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="B7" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="B8" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+        <v>178</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+        <v>179</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -4778,16 +4813,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -4795,16 +4830,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4854,20 +4889,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>273</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4875,16 +4910,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4895,13 +4930,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4928,14 +4963,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>260</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -4943,10 +4978,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4954,10 +4989,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4965,10 +5000,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -4976,10 +5011,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -5009,10 +5044,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>0</v>
@@ -5023,20 +5058,20 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>3</v>
@@ -5059,10 +5094,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>21</v>
@@ -5153,29 +5188,29 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5189,14 +5224,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>222</v>
+      <c r="C9" s="23" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5279,16 +5314,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5296,7 +5331,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5304,13 +5339,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/simple_1.xlsx
+++ b/tests/integration_test_files/simple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796F1171-5A1E-EC41-8E83-D400C1EFE5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC28D83C-78C6-2245-959E-73F7C508C967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="64620" yWindow="4160" windowWidth="33600" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="571">
   <si>
     <t>Epoch</t>
   </si>
@@ -504,12 +504,6 @@
   </si>
   <si>
     <t>protocolVersion</t>
-  </si>
-  <si>
-    <t>protocolAmendment</t>
-  </si>
-  <si>
-    <t>protocolEffectiveDate</t>
   </si>
   <si>
     <t>protocolStatus</t>
@@ -1756,6 +1750,48 @@
   </si>
   <si>
     <t>SIMPLE1</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>study_version</t>
+  </si>
+  <si>
+    <t>Approval</t>
+  </si>
+  <si>
+    <t>Design approval date</t>
+  </si>
+  <si>
+    <t>Design Approval</t>
+  </si>
+  <si>
+    <t>protocol_document</t>
+  </si>
+  <si>
+    <t>Protocol document approval date</t>
+  </si>
+  <si>
+    <t>Protocol Approval</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>GLOBAL</t>
+  </si>
+  <si>
+    <t>Sponsor Approval Date</t>
+  </si>
+  <si>
+    <t>Protocol Effective Date</t>
   </si>
 </sst>
 </file>
@@ -1839,7 +1875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1892,9 +1928,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1910,16 +1943,22 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2235,31 +2274,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:H14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
-    <col min="6" max="8" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="6" width="24.6640625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>26</v>
       </c>
@@ -2267,7 +2305,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>27</v>
       </c>
@@ -2275,7 +2313,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>28</v>
       </c>
@@ -2283,7 +2321,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>29</v>
       </c>
@@ -2291,7 +2329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>142</v>
       </c>
@@ -2299,7 +2337,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>143</v>
       </c>
@@ -2307,47 +2345,47 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>147</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>148</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>149</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>150</v>
       </c>
@@ -2355,51 +2393,82 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>146</v>
+        <v>557</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>147</v>
+        <v>484</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+        <v>558</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="C17" t="s">
+        <v>562</v>
+      </c>
+      <c r="D17" t="s">
+        <v>563</v>
+      </c>
+      <c r="E17" t="s">
+        <v>569</v>
+      </c>
+      <c r="F17" s="31">
+        <v>44927</v>
+      </c>
+      <c r="G17" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="C18" t="s">
+        <v>565</v>
+      </c>
+      <c r="D18" t="s">
+        <v>566</v>
+      </c>
+      <c r="E18" t="s">
+        <v>570</v>
+      </c>
+      <c r="F18" s="31">
+        <v>44927</v>
+      </c>
+      <c r="G18" t="s">
+        <v>568</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2888,29 +2957,29 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
         <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
         <v>114</v>
@@ -2919,7 +2988,7 @@
         <v>120</v>
       </c>
       <c r="H5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2951,62 +3020,62 @@
         <v>110</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>187</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" t="s">
         <v>190</v>
-      </c>
-      <c r="B2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>194</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3038,138 +3107,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>202</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3195,105 +3264,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>204</v>
+      <c r="B1" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>239</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3319,1231 +3388,1231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>526</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>289</v>
+      <c r="A1" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>555</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="B13" s="25"/>
+        <v>418</v>
+      </c>
+      <c r="B13" s="24"/>
       <c r="C13" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B14" s="25"/>
+        <v>428</v>
+      </c>
+      <c r="B14" s="24"/>
       <c r="C14" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="B15" s="25"/>
+        <v>429</v>
+      </c>
+      <c r="B15" s="24"/>
       <c r="C15" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B16" s="25"/>
+        <v>430</v>
+      </c>
+      <c r="B16" s="24"/>
       <c r="C16" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="B17" s="25"/>
+        <v>431</v>
+      </c>
+      <c r="B17" s="24"/>
       <c r="C17" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B18" s="25"/>
+        <v>507</v>
+      </c>
+      <c r="B18" s="24"/>
       <c r="C18" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B19" s="25"/>
+        <v>508</v>
+      </c>
+      <c r="B19" s="24"/>
       <c r="C19" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B20" s="25"/>
+        <v>485</v>
+      </c>
+      <c r="B20" s="24"/>
       <c r="C20" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="B21" s="25"/>
+        <v>509</v>
+      </c>
+      <c r="B21" s="24"/>
       <c r="C21" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="B22" s="25"/>
+        <v>510</v>
+      </c>
+      <c r="B22" s="24"/>
       <c r="C22" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="B23" s="25"/>
+        <v>511</v>
+      </c>
+      <c r="B23" s="24"/>
       <c r="C23" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="B24" s="25"/>
+        <v>512</v>
+      </c>
+      <c r="B24" s="24"/>
       <c r="C24" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="B25" s="25"/>
+        <v>513</v>
+      </c>
+      <c r="B25" s="24"/>
       <c r="C25" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B26" s="25"/>
+        <v>474</v>
+      </c>
+      <c r="B26" s="24"/>
       <c r="C26" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="B27" s="25"/>
+        <v>475</v>
+      </c>
+      <c r="B27" s="24"/>
       <c r="C27" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="B28" s="25"/>
+        <v>476</v>
+      </c>
+      <c r="B28" s="24"/>
       <c r="C28" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="B29" s="25"/>
+        <v>477</v>
+      </c>
+      <c r="B29" s="24"/>
       <c r="C29" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="B30" s="25"/>
+        <v>514</v>
+      </c>
+      <c r="B30" s="24"/>
       <c r="C30" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B31" s="25"/>
+        <v>486</v>
+      </c>
+      <c r="B31" s="24"/>
       <c r="C31" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="B32" s="25"/>
+        <v>515</v>
+      </c>
+      <c r="B32" s="24"/>
       <c r="C32" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="B33" s="25"/>
+        <v>516</v>
+      </c>
+      <c r="B33" s="24"/>
       <c r="C33" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="B34" s="25"/>
+        <v>517</v>
+      </c>
+      <c r="B34" s="24"/>
       <c r="C34" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="B35" s="25"/>
+        <v>432</v>
+      </c>
+      <c r="B35" s="24"/>
       <c r="C35" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="B36" s="25"/>
+        <v>518</v>
+      </c>
+      <c r="B36" s="24"/>
       <c r="C36" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="B37" s="25"/>
+        <v>519</v>
+      </c>
+      <c r="B37" s="24"/>
       <c r="C37" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="B38" s="25"/>
+        <v>433</v>
+      </c>
+      <c r="B38" s="24"/>
       <c r="C38" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B39" s="25"/>
+        <v>434</v>
+      </c>
+      <c r="B39" s="24"/>
       <c r="C39" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B40" s="25"/>
+        <v>435</v>
+      </c>
+      <c r="B40" s="24"/>
       <c r="C40" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="B41" s="25"/>
+        <v>520</v>
+      </c>
+      <c r="B41" s="24"/>
       <c r="C41" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B42" s="25"/>
+        <v>436</v>
+      </c>
+      <c r="B42" s="24"/>
       <c r="C42" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B43" s="25"/>
+        <v>437</v>
+      </c>
+      <c r="B43" s="24"/>
       <c r="C43" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="B44" s="25"/>
+        <v>438</v>
+      </c>
+      <c r="B44" s="24"/>
       <c r="C44" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="B45" s="25"/>
+        <v>521</v>
+      </c>
+      <c r="B45" s="24"/>
       <c r="C45" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="B46" s="25"/>
+        <v>522</v>
+      </c>
+      <c r="B46" s="24"/>
       <c r="C46" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B47" s="25"/>
+        <v>439</v>
+      </c>
+      <c r="B47" s="24"/>
       <c r="C47" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B48" s="25"/>
+        <v>440</v>
+      </c>
+      <c r="B48" s="24"/>
       <c r="C48" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B49" s="25"/>
+        <v>441</v>
+      </c>
+      <c r="B49" s="24"/>
       <c r="C49" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B50" s="25"/>
+        <v>442</v>
+      </c>
+      <c r="B50" s="24"/>
       <c r="C50" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="B51" s="25"/>
+        <v>487</v>
+      </c>
+      <c r="B51" s="24"/>
       <c r="C51" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="B52" s="25"/>
+        <v>523</v>
+      </c>
+      <c r="B52" s="24"/>
       <c r="C52" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="B53" s="25"/>
+        <v>443</v>
+      </c>
+      <c r="B53" s="24"/>
       <c r="C53" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="B54" s="25"/>
+        <v>444</v>
+      </c>
+      <c r="B54" s="24"/>
       <c r="C54" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="B55" s="25"/>
+        <v>445</v>
+      </c>
+      <c r="B55" s="24"/>
       <c r="C55" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="B56" s="25"/>
+        <v>525</v>
+      </c>
+      <c r="B56" s="24"/>
       <c r="C56" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="B57" s="25"/>
+        <v>526</v>
+      </c>
+      <c r="B57" s="24"/>
       <c r="C57" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B58" s="25"/>
+        <v>527</v>
+      </c>
+      <c r="B58" s="24"/>
       <c r="C58" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="B59" s="25"/>
+        <v>488</v>
+      </c>
+      <c r="B59" s="24"/>
       <c r="C59" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="B60" s="25"/>
+        <v>528</v>
+      </c>
+      <c r="B60" s="24"/>
       <c r="C60" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="B61" s="25"/>
+        <v>529</v>
+      </c>
+      <c r="B61" s="24"/>
       <c r="C61" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="B62" s="25"/>
+        <v>530</v>
+      </c>
+      <c r="B62" s="24"/>
       <c r="C62" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B63" s="25"/>
+        <v>478</v>
+      </c>
+      <c r="B63" s="24"/>
       <c r="C63" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B64" s="25"/>
+        <v>446</v>
+      </c>
+      <c r="B64" s="24"/>
       <c r="C64" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="B65" s="25"/>
+        <v>447</v>
+      </c>
+      <c r="B65" s="24"/>
       <c r="C65" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B66" s="25"/>
+        <v>448</v>
+      </c>
+      <c r="B66" s="24"/>
       <c r="C66" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="B67" s="25"/>
+        <v>449</v>
+      </c>
+      <c r="B67" s="24"/>
       <c r="C67" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="B68" s="25"/>
+        <v>531</v>
+      </c>
+      <c r="B68" s="24"/>
       <c r="C68" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="B69" s="25"/>
+        <v>479</v>
+      </c>
+      <c r="B69" s="24"/>
       <c r="C69" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B70" s="25"/>
+        <v>450</v>
+      </c>
+      <c r="B70" s="24"/>
       <c r="C70" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="B71" s="25"/>
+        <v>451</v>
+      </c>
+      <c r="B71" s="24"/>
       <c r="C71" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="B72" s="25"/>
+        <v>452</v>
+      </c>
+      <c r="B72" s="24"/>
       <c r="C72" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="B73" s="25"/>
+        <v>453</v>
+      </c>
+      <c r="B73" s="24"/>
       <c r="C73" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="B74" s="25"/>
+        <v>454</v>
+      </c>
+      <c r="B74" s="24"/>
       <c r="C74" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="B75" s="25"/>
+        <v>455</v>
+      </c>
+      <c r="B75" s="24"/>
       <c r="C75" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="B76" s="25"/>
+        <v>456</v>
+      </c>
+      <c r="B76" s="24"/>
       <c r="C76" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="B77" s="25"/>
+        <v>457</v>
+      </c>
+      <c r="B77" s="24"/>
       <c r="C77" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="B78" s="25"/>
+        <v>458</v>
+      </c>
+      <c r="B78" s="24"/>
       <c r="C78" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="B79" s="25"/>
+        <v>532</v>
+      </c>
+      <c r="B79" s="24"/>
       <c r="C79" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="B80" s="25"/>
+        <v>459</v>
+      </c>
+      <c r="B80" s="24"/>
       <c r="C80" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="B81" s="25"/>
+        <v>460</v>
+      </c>
+      <c r="B81" s="24"/>
       <c r="C81" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B82" s="25"/>
+        <v>533</v>
+      </c>
+      <c r="B82" s="24"/>
       <c r="C82" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B83" s="25"/>
+        <v>461</v>
+      </c>
+      <c r="B83" s="24"/>
       <c r="C83" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="B84" s="25"/>
+        <v>462</v>
+      </c>
+      <c r="B84" s="24"/>
       <c r="C84" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="B85" s="25"/>
+        <v>463</v>
+      </c>
+      <c r="B85" s="24"/>
       <c r="C85" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="B86" s="25"/>
+        <v>464</v>
+      </c>
+      <c r="B86" s="24"/>
       <c r="C86" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="B87" s="25"/>
+        <v>465</v>
+      </c>
+      <c r="B87" s="24"/>
       <c r="C87" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="B88" s="25"/>
+        <v>534</v>
+      </c>
+      <c r="B88" s="24"/>
       <c r="C88" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="B89" s="25"/>
+        <v>535</v>
+      </c>
+      <c r="B89" s="24"/>
       <c r="C89" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="B90" s="25"/>
+        <v>536</v>
+      </c>
+      <c r="B90" s="24"/>
       <c r="C90" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="B91" s="25"/>
+        <v>528</v>
+      </c>
+      <c r="B91" s="24"/>
       <c r="C91" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="B92" s="25"/>
+        <v>480</v>
+      </c>
+      <c r="B92" s="24"/>
       <c r="C92" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B93" s="25"/>
+        <v>489</v>
+      </c>
+      <c r="B93" s="24"/>
       <c r="C93" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="B94" s="25"/>
+        <v>537</v>
+      </c>
+      <c r="B94" s="24"/>
       <c r="C94" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="B95" s="25"/>
+        <v>538</v>
+      </c>
+      <c r="B95" s="24"/>
       <c r="C95" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B96" s="25"/>
+        <v>466</v>
+      </c>
+      <c r="B96" s="24"/>
       <c r="C96" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="B97" s="25"/>
+        <v>467</v>
+      </c>
+      <c r="B97" s="24"/>
       <c r="C97" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="B98" s="25"/>
+        <v>468</v>
+      </c>
+      <c r="B98" s="24"/>
       <c r="C98" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="B99" s="25"/>
+        <v>469</v>
+      </c>
+      <c r="B99" s="24"/>
       <c r="C99" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B100" s="25"/>
+        <v>470</v>
+      </c>
+      <c r="B100" s="24"/>
       <c r="C100" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="B101" s="25"/>
+        <v>539</v>
+      </c>
+      <c r="B101" s="24"/>
       <c r="C101" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="B102" s="25"/>
+        <v>540</v>
+      </c>
+      <c r="B102" s="24"/>
       <c r="C102" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="B103" s="25"/>
+        <v>541</v>
+      </c>
+      <c r="B103" s="24"/>
       <c r="C103" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="B104" s="25"/>
+        <v>542</v>
+      </c>
+      <c r="B104" s="24"/>
       <c r="C104" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="B105" s="25"/>
+        <v>543</v>
+      </c>
+      <c r="B105" s="24"/>
       <c r="C105" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="B106" s="25"/>
+        <v>544</v>
+      </c>
+      <c r="B106" s="24"/>
       <c r="C106" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="B107" s="25"/>
+        <v>545</v>
+      </c>
+      <c r="B107" s="24"/>
       <c r="C107" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="B108" s="25"/>
+        <v>490</v>
+      </c>
+      <c r="B108" s="24"/>
       <c r="C108" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="B109" s="25"/>
+        <v>546</v>
+      </c>
+      <c r="B109" s="24"/>
       <c r="C109" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="B110" s="25"/>
+        <v>547</v>
+      </c>
+      <c r="B110" s="24"/>
       <c r="C110" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="B111" s="25"/>
+        <v>548</v>
+      </c>
+      <c r="B111" s="24"/>
       <c r="C111" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="B112" s="25"/>
+        <v>549</v>
+      </c>
+      <c r="B112" s="24"/>
       <c r="C112" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="B113" s="25"/>
+        <v>550</v>
+      </c>
+      <c r="B113" s="24"/>
       <c r="C113" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B114" s="25"/>
+        <v>491</v>
+      </c>
+      <c r="B114" s="24"/>
       <c r="C114" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="B115" s="25"/>
+        <v>506</v>
+      </c>
+      <c r="B115" s="24"/>
       <c r="C115" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="B116" s="25"/>
+        <v>505</v>
+      </c>
+      <c r="B116" s="24"/>
       <c r="C116" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="B117" s="25"/>
+        <v>504</v>
+      </c>
+      <c r="B117" s="24"/>
       <c r="C117" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B118" s="25"/>
+        <v>492</v>
+      </c>
+      <c r="B118" s="24"/>
       <c r="C118" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="B119" s="25"/>
+        <v>503</v>
+      </c>
+      <c r="B119" s="24"/>
       <c r="C119" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="B120" s="25"/>
+        <v>502</v>
+      </c>
+      <c r="B120" s="24"/>
       <c r="C120" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B121" s="25"/>
+        <v>501</v>
+      </c>
+      <c r="B121" s="24"/>
       <c r="C121" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B122" s="25"/>
+        <v>500</v>
+      </c>
+      <c r="B122" s="24"/>
       <c r="C122" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B123" s="25"/>
+        <v>493</v>
+      </c>
+      <c r="B123" s="24"/>
       <c r="C123" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="B124" s="25"/>
+        <v>499</v>
+      </c>
+      <c r="B124" s="24"/>
       <c r="C124" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B125" s="25"/>
+        <v>471</v>
+      </c>
+      <c r="B125" s="24"/>
       <c r="C125" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B126" s="25"/>
+        <v>472</v>
+      </c>
+      <c r="B126" s="24"/>
       <c r="C126" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B127" s="25"/>
+        <v>473</v>
+      </c>
+      <c r="B127" s="24"/>
       <c r="C127" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="B128" s="25"/>
+        <v>498</v>
+      </c>
+      <c r="B128" s="24"/>
       <c r="C128" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="B129" s="25"/>
+        <v>497</v>
+      </c>
+      <c r="B129" s="24"/>
       <c r="C129" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="B130" s="25"/>
+        <v>496</v>
+      </c>
+      <c r="B130" s="24"/>
       <c r="C130" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="B131" s="25"/>
+        <v>494</v>
+      </c>
+      <c r="B131" s="24"/>
       <c r="C131" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="B132" s="25"/>
+        <v>495</v>
+      </c>
+      <c r="B132" s="24"/>
       <c r="C132" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -4567,18 +4636,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" t="s">
         <v>165</v>
-      </c>
-      <c r="B1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4604,22 +4673,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4634,7 +4703,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -4654,7 +4723,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
         <v>55</v>
@@ -4685,10 +4754,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -4696,10 +4765,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -4709,41 +4778,41 @@
       <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -4754,7 +4823,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -4765,7 +4834,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -4773,10 +4842,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -4784,7 +4853,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -4793,7 +4862,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -4813,16 +4882,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -4830,16 +4899,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4856,16 +4925,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4889,20 +4958,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>273</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4910,16 +4979,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4930,13 +4999,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4963,14 +5032,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>260</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -4978,10 +5047,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4989,10 +5058,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5000,10 +5069,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5011,10 +5080,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -5044,10 +5113,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>0</v>
@@ -5068,10 +5137,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>3</v>
@@ -5094,10 +5163,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>21</v>
@@ -5188,29 +5257,29 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5224,14 +5293,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>224</v>
+      <c r="C9" s="22" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5314,16 +5383,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>282</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5331,7 +5400,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5339,13 +5408,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/simple_1.xlsx
+++ b/tests/integration_test_files/simple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC28D83C-78C6-2245-959E-73F7C508C967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20108B4-4070-F746-B65A-2B6307067652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64620" yWindow="4160" windowWidth="33600" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="52140" yWindow="4360" windowWidth="33600" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -1782,9 +1782,6 @@
     <t>Protocol Approval</t>
   </si>
   <si>
-    <t>scope</t>
-  </si>
-  <si>
     <t>GLOBAL</t>
   </si>
   <si>
@@ -1792,6 +1789,9 @@
   </si>
   <si>
     <t>Protocol Effective Date</t>
+  </si>
+  <si>
+    <t>scopes</t>
   </si>
 </sst>
 </file>
@@ -1945,20 +1945,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2277,7 +2277,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2421,7 +2421,7 @@
         <v>559</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2438,13 +2438,13 @@
         <v>563</v>
       </c>
       <c r="E17" t="s">
-        <v>569</v>
-      </c>
-      <c r="F17" s="31">
+        <v>568</v>
+      </c>
+      <c r="F17" s="27">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2461,13 +2461,13 @@
         <v>566</v>
       </c>
       <c r="E18" t="s">
-        <v>570</v>
-      </c>
-      <c r="F18" s="31">
+        <v>569</v>
+      </c>
+      <c r="F18" s="27">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -4756,23 +4756,23 @@
       <c r="A1" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
@@ -4789,76 +4789,76 @@
       <c r="A4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
@@ -4925,16 +4925,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5127,10 +5127,10 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="30"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>

--- a/tests/integration_test_files/simple_1.xlsx
+++ b/tests/integration_test_files/simple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20108B4-4070-F746-B65A-2B6307067652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B714203F-934A-2844-8E95-30541C60F6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52140" yWindow="4360" windowWidth="33600" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="52140" yWindow="4360" windowWidth="33600" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="575">
   <si>
     <t>Epoch</t>
   </si>
@@ -321,9 +321,6 @@
   </si>
   <si>
     <t>endpointDescription</t>
-  </si>
-  <si>
-    <t>endpointPurposeDescription</t>
   </si>
   <si>
     <t>endpointLevel</t>
@@ -1792,6 +1789,21 @@
   </si>
   <si>
     <t>scopes</t>
+  </si>
+  <si>
+    <t>objectiveLabel</t>
+  </si>
+  <si>
+    <t>objectiveText</t>
+  </si>
+  <si>
+    <t>endpointLabel</t>
+  </si>
+  <si>
+    <t>endpointText</t>
+  </si>
+  <si>
+    <t>endpointPurpose</t>
   </si>
 </sst>
 </file>
@@ -1875,7 +1887,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1896,9 +1908,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1952,10 +1961,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2276,7 +2285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2286,188 +2295,188 @@
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="6" width="24.6640625" style="26" customWidth="1"/>
+    <col min="5" max="6" width="24.6640625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="B16" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="19" t="s">
+      <c r="E16" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="22" t="s">
+      <c r="G16" s="18" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" t="s">
         <v>561</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>562</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>567</v>
+      </c>
+      <c r="F17" s="26">
+        <v>44927</v>
+      </c>
+      <c r="G17" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="E17" t="s">
+      <c r="B18" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C18" t="s">
+        <v>564</v>
+      </c>
+      <c r="D18" t="s">
+        <v>565</v>
+      </c>
+      <c r="E18" t="s">
         <v>568</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F18" s="26">
         <v>44927</v>
       </c>
-      <c r="G17" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="C18" t="s">
-        <v>565</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="G18" t="s">
         <v>566</v>
-      </c>
-      <c r="E18" t="s">
-        <v>569</v>
-      </c>
-      <c r="F18" s="27">
-        <v>44927</v>
-      </c>
-      <c r="G18" t="s">
-        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -2477,407 +2486,564 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="59.5" customWidth="1"/>
-    <col min="6" max="7" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="70.5" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="E2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="K3" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2904,91 +3070,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
         <v>135</v>
       </c>
-      <c r="B2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>136</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" t="s">
         <v>137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
         <v>168</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
         <v>169</v>
       </c>
-      <c r="C5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>170</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3017,65 +3183,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>186</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" t="s">
         <v>188</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" t="s">
         <v>189</v>
-      </c>
-      <c r="C2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" t="s">
         <v>191</v>
       </c>
-      <c r="B3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" t="s">
         <v>193</v>
-      </c>
-      <c r="G3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3107,138 +3273,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>201</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3264,105 +3430,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>201</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3381,1238 +3547,1238 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="81.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="81.33203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="C45" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B48" s="23"/>
+      <c r="C48" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B55" s="23"/>
+      <c r="C55" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>552</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="B56" s="23"/>
+      <c r="C56" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B58" s="23"/>
+      <c r="C58" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B59" s="23"/>
+      <c r="C59" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="10" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
+      <c r="B63" s="23"/>
+      <c r="C63" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
+      <c r="B64" s="23"/>
+      <c r="C64" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B65" s="23"/>
+      <c r="C65" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B66" s="23"/>
+      <c r="C66" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B67" s="23"/>
+      <c r="C67" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="B68" s="23"/>
+      <c r="C68" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="B69" s="23"/>
+      <c r="C69" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B70" s="23"/>
+      <c r="C70" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B71" s="23"/>
+      <c r="C71" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B72" s="23"/>
+      <c r="C72" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B73" s="23"/>
+      <c r="C73" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B74" s="23"/>
+      <c r="C74" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B75" s="23"/>
+      <c r="C75" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B76" s="23"/>
+      <c r="C76" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B77" s="23"/>
+      <c r="C77" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B78" s="23"/>
+      <c r="C78" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B79" s="23"/>
+      <c r="C79" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B80" s="23"/>
+      <c r="C80" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B81" s="23"/>
+      <c r="C81" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="B82" s="23"/>
+      <c r="C82" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="B83" s="23"/>
+      <c r="C83" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B84" s="23"/>
+      <c r="C84" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B85" s="23"/>
+      <c r="C85" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B86" s="23"/>
+      <c r="C86" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B87" s="23"/>
+      <c r="C87" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="B88" s="23"/>
+      <c r="C88" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="B89" s="23"/>
+      <c r="C89" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="B90" s="23"/>
+      <c r="C90" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
+      <c r="B91" s="23"/>
+      <c r="C91" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B92" s="23"/>
+      <c r="C92" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="B63" s="24"/>
-      <c r="C63" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="B64" s="24"/>
-      <c r="C64" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="B65" s="24"/>
-      <c r="C65" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B66" s="24"/>
-      <c r="C66" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="B67" s="24"/>
-      <c r="C67" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="B69" s="24"/>
-      <c r="C69" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B72" s="24"/>
-      <c r="C72" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="B73" s="24"/>
-      <c r="C73" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="B75" s="24"/>
-      <c r="C75" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="B76" s="24"/>
-      <c r="C76" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="B77" s="24"/>
-      <c r="C77" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="B78" s="24"/>
-      <c r="C78" s="10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="B79" s="24"/>
-      <c r="C79" s="10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="B80" s="24"/>
-      <c r="C80" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="B81" s="24"/>
-      <c r="C81" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A82" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="B83" s="24"/>
-      <c r="C83" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="B84" s="24"/>
-      <c r="C84" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B85" s="24"/>
-      <c r="C85" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="B86" s="24"/>
-      <c r="C86" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A87" s="11" t="s">
+      <c r="B93" s="23"/>
+      <c r="C93" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="B94" s="23"/>
+      <c r="C94" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B95" s="23"/>
+      <c r="C95" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="B87" s="24"/>
-      <c r="C87" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B89" s="24"/>
-      <c r="C89" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="B90" s="24"/>
-      <c r="C90" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B92" s="24"/>
-      <c r="C92" s="10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="11" t="s">
+      <c r="B96" s="23"/>
+      <c r="C96" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B97" s="23"/>
+      <c r="C97" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B98" s="23"/>
+      <c r="C98" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="B99" s="23"/>
+      <c r="C99" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B100" s="23"/>
+      <c r="C100" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B101" s="23"/>
+      <c r="C101" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="B102" s="23"/>
+      <c r="C102" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="B103" s="23"/>
+      <c r="C103" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="B104" s="23"/>
+      <c r="C104" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B105" s="23"/>
+      <c r="C105" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="B106" s="23"/>
+      <c r="C106" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="B107" s="23"/>
+      <c r="C107" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="B93" s="24"/>
-      <c r="C93" s="10" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="B94" s="24"/>
-      <c r="C94" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="B95" s="24"/>
-      <c r="C95" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="B96" s="24"/>
-      <c r="C96" s="10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="B97" s="24"/>
-      <c r="C97" s="10" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B98" s="24"/>
-      <c r="C98" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="B99" s="24"/>
-      <c r="C99" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="11" t="s">
+      <c r="B108" s="23"/>
+      <c r="C108" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="B109" s="23"/>
+      <c r="C109" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="B110" s="23"/>
+      <c r="C110" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="B111" s="23"/>
+      <c r="C111" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="B112" s="23"/>
+      <c r="C112" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="B113" s="23"/>
+      <c r="C113" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A114" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="B114" s="23"/>
+      <c r="C114" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B115" s="23"/>
+      <c r="C115" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B116" s="23"/>
+      <c r="C116" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B117" s="23"/>
+      <c r="C117" s="9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A118" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B118" s="23"/>
+      <c r="C118" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B119" s="23"/>
+      <c r="C119" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B120" s="23"/>
+      <c r="C120" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="B121" s="23"/>
+      <c r="C121" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B122" s="23"/>
+      <c r="C122" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B123" s="23"/>
+      <c r="C123" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="B124" s="23"/>
+      <c r="C124" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="B100" s="24"/>
-      <c r="C100" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="B101" s="24"/>
-      <c r="C101" s="10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="B102" s="24"/>
-      <c r="C102" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="B103" s="24"/>
-      <c r="C103" s="10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="B104" s="24"/>
-      <c r="C104" s="10" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="B105" s="24"/>
-      <c r="C105" s="10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="B106" s="24"/>
-      <c r="C106" s="10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="B107" s="24"/>
-      <c r="C107" s="10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A108" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="B108" s="24"/>
-      <c r="C108" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="B109" s="24"/>
-      <c r="C109" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="B110" s="24"/>
-      <c r="C110" s="10" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="B111" s="24"/>
-      <c r="C111" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="B112" s="24"/>
-      <c r="C112" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="11" t="s">
+      <c r="B125" s="23"/>
+      <c r="C125" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B126" s="23"/>
+      <c r="C126" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B127" s="23"/>
+      <c r="C127" s="9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B128" s="23"/>
+      <c r="C128" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="B129" s="23"/>
+      <c r="C129" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B130" s="23"/>
+      <c r="C130" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B131" s="23"/>
+      <c r="C131" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="B132" s="23"/>
+      <c r="C132" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="B113" s="24"/>
-      <c r="C113" s="10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A114" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B114" s="24"/>
-      <c r="C114" s="10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="B116" s="24"/>
-      <c r="C116" s="10" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="B117" s="24"/>
-      <c r="C117" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A118" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="B118" s="24"/>
-      <c r="C118" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B119" s="24"/>
-      <c r="C119" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B120" s="24"/>
-      <c r="C120" s="10" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="B121" s="24"/>
-      <c r="C121" s="10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="B122" s="24"/>
-      <c r="C122" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A123" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B123" s="24"/>
-      <c r="C123" s="10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="B124" s="24"/>
-      <c r="C124" s="10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="B125" s="24"/>
-      <c r="C125" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B126" s="24"/>
-      <c r="C126" s="10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B127" s="24"/>
-      <c r="C127" s="10" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="B128" s="24"/>
-      <c r="C128" s="10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="B129" s="24"/>
-      <c r="C129" s="10" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="B130" s="24"/>
-      <c r="C130" s="10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B131" s="24"/>
-      <c r="C131" s="10" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B132" s="24"/>
-      <c r="C132" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="11" t="s">
-        <v>551</v>
-      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="11" t="s">
-        <v>551</v>
+      <c r="A134" s="10" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="11" t="s">
-        <v>551</v>
+      <c r="A135" s="10" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="11" t="s">
-        <v>551</v>
+      <c r="A136" s="10" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="11" t="s">
-        <v>551</v>
+      <c r="A137" s="10" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="11" t="s">
-        <v>551</v>
+      <c r="A138" s="10" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -4636,18 +4802,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
         <v>163</v>
-      </c>
-      <c r="B2" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4673,22 +4839,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4703,7 +4869,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -4723,7 +4889,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
         <v>55</v>
@@ -4753,116 +4919,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="28" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>223</v>
+      <c r="A12" s="15" t="s">
+        <v>222</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -4882,16 +5048,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -4899,16 +5065,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4925,16 +5091,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4958,20 +5124,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>272</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4979,16 +5145,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4999,17 +5165,17 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>277</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E4" s="11"/>
+      <c r="E4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5032,14 +5198,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>259</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5047,10 +5213,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5058,10 +5224,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5069,10 +5235,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5080,10 +5246,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -5112,13 +5278,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -5127,22 +5293,22 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -5162,13 +5328,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -5188,9 +5354,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -5210,9 +5376,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -5232,9 +5398,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -5254,32 +5420,32 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="15" t="s">
         <v>220</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="16" t="s">
-        <v>221</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5293,14 +5459,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>222</v>
+      <c r="C9" s="21" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5382,17 +5548,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>281</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5400,7 +5566,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5408,13 +5574,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" t="s">
         <v>284</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5442,7 +5608,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>61</v>
@@ -5456,7 +5622,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -5470,7 +5636,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
@@ -5484,7 +5650,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -5498,7 +5664,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>

--- a/tests/integration_test_files/simple_1.xlsx
+++ b/tests/integration_test_files/simple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B714203F-934A-2844-8E95-30541C60F6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7BDADF-9FAD-B54F-9559-A047189CF997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52140" yWindow="4360" windowWidth="33600" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="52140" yWindow="4360" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -206,9 +206,6 @@
     <t>trialTypes</t>
   </si>
   <si>
-    <t>line|city|district|state|postal_code|GBR</t>
-  </si>
-  <si>
     <t>DUNS</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
   </si>
   <si>
     <t>AP1234</t>
-  </si>
-  <si>
-    <t>Somewhere|In a City|In a District|In a big state|12345|FRA</t>
   </si>
   <si>
     <t>organisationAddress</t>
@@ -1804,6 +1798,12 @@
   </si>
   <si>
     <t>endpointPurpose</t>
+  </si>
+  <si>
+    <t>line|district|city|state|postal_code|GBR</t>
+  </si>
+  <si>
+    <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
   </si>
 </sst>
 </file>
@@ -1961,10 +1961,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2300,10 +2300,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2327,7 +2327,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2335,68 +2335,68 @@
         <v>29</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2404,79 +2404,79 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>556</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>557</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>558</v>
-      </c>
       <c r="G16" s="18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C17" t="s">
         <v>559</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="D17" t="s">
         <v>560</v>
       </c>
-      <c r="C17" t="s">
-        <v>561</v>
-      </c>
-      <c r="D17" t="s">
-        <v>562</v>
-      </c>
       <c r="E17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C18" t="s">
+        <v>562</v>
+      </c>
+      <c r="D18" t="s">
         <v>563</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="C18" t="s">
-        <v>564</v>
-      </c>
-      <c r="D18" t="s">
-        <v>565</v>
-      </c>
       <c r="E18" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -2488,7 +2488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
@@ -2508,85 +2508,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>570</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="J1" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>572</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>573</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>574</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2595,16 +2595,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2613,16 +2613,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2631,16 +2631,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2649,16 +2649,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2667,16 +2667,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2685,16 +2685,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2703,16 +2703,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2721,16 +2721,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2739,16 +2739,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2757,16 +2757,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3071,90 +3071,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
         <v>134</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>138</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" t="s">
         <v>135</v>
-      </c>
-      <c r="D2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" t="s">
         <v>167</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>168</v>
       </c>
-      <c r="C5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" t="s">
         <v>169</v>
-      </c>
-      <c r="E5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3183,65 +3183,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>184</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" t="s">
         <v>187</v>
-      </c>
-      <c r="B2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>191</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3274,137 +3274,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>199</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3431,104 +3431,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3555,16 +3555,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3573,1212 +3573,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>552</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -4802,18 +4802,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
         <v>162</v>
-      </c>
-      <c r="B1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4825,8 +4825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4855,7 +4855,7 @@
         <v>35</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4869,33 +4869,33 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -4920,10 +4920,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -4931,10 +4931,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -4944,41 +4944,41 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -4989,7 +4989,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -5000,7 +5000,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -5008,10 +5008,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -5048,16 +5048,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5065,16 +5065,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5091,16 +5091,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5125,19 +5125,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>270</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5145,16 +5145,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5165,13 +5165,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5199,13 +5199,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>257</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5213,10 +5213,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5224,10 +5224,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5235,10 +5235,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5246,10 +5246,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -5279,10 +5279,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -5303,10 +5303,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -5329,10 +5329,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -5423,29 +5423,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5466,7 +5466,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5477,7 +5477,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -5549,16 +5549,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>279</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5566,7 +5566,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5574,13 +5574,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5608,72 +5608,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5700,72 +5700,72 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
         <v>77</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/simple_1.xlsx
+++ b/tests/integration_test_files/simple_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7BDADF-9FAD-B54F-9559-A047189CF997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FE429E-DFE4-2B4F-BF7C-BF9B38FD3902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52140" yWindow="4360" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="52140" yWindow="4360" windowWidth="33600" windowHeight="19480" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -20,15 +20,16 @@
     <sheet name="studyDesignEpochs" sheetId="14" r:id="rId5"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
     <sheet name="studyDesignActivities" sheetId="16" r:id="rId7"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId8"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId9"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId10"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId11"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId12"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId13"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId14"/>
-    <sheet name="studyDesignContent" sheetId="17" r:id="rId15"/>
-    <sheet name="configuration" sheetId="10" r:id="rId16"/>
+    <sheet name="studyDesignInterventions" sheetId="18" r:id="rId8"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId9"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId10"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId11"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId12"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId13"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId14"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId15"/>
+    <sheet name="studyDesignContent" sheetId="17" r:id="rId16"/>
+    <sheet name="configuration" sheetId="10" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="612">
   <si>
     <t>Epoch</t>
   </si>
@@ -233,34 +234,16 @@
     <t>type</t>
   </si>
   <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>codes</t>
   </si>
   <si>
-    <t>An indication</t>
-  </si>
-  <si>
     <t>SNOMED:12345=Indication1</t>
   </si>
   <si>
-    <t>An intervention</t>
-  </si>
-  <si>
-    <t>ICD-10: X = Y, SNOMED: A=B</t>
-  </si>
-  <si>
     <t>SNOMED:345678=Indication2</t>
-  </si>
-  <si>
-    <t>ICD-10: DD=CC, SNOMED: A=B</t>
   </si>
   <si>
     <t>populationDescription</t>
@@ -1805,12 +1788,141 @@
   <si>
     <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
   </si>
+  <si>
+    <t>Indication One</t>
+  </si>
+  <si>
+    <t>Indication 1</t>
+  </si>
+  <si>
+    <t>Indication Two</t>
+  </si>
+  <si>
+    <t>Indication 2</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>pharmacologicalClass</t>
+  </si>
+  <si>
+    <t>productDesignation</t>
+  </si>
+  <si>
+    <t>minimumResponseDuration</t>
+  </si>
+  <si>
+    <t>administrationName</t>
+  </si>
+  <si>
+    <t>administrationDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationLabel</t>
+  </si>
+  <si>
+    <t>administrationRoute</t>
+  </si>
+  <si>
+    <t>administrationDose</t>
+  </si>
+  <si>
+    <t>administrationFrequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationDurationDescription</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVary</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVaryReason</t>
+  </si>
+  <si>
+    <t>administrationDurationQuantity</t>
+  </si>
+  <si>
+    <t>Int Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 1</t>
+  </si>
+  <si>
+    <t>SPONSOR: A=B</t>
+  </si>
+  <si>
+    <t>M11: role1=role1</t>
+  </si>
+  <si>
+    <t>DRUG</t>
+  </si>
+  <si>
+    <t>FDA: A=B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig1=desig_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Day</t>
+  </si>
+  <si>
+    <t>Admin 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 1</t>
+  </si>
+  <si>
+    <t>DENTAL</t>
+  </si>
+  <si>
+    <t>12 mg</t>
+  </si>
+  <si>
+    <t>10 DAYS PER MONTH</t>
+  </si>
+  <si>
+    <t>Dur desc 1</t>
+  </si>
+  <si>
+    <t>Will vary becuase we say so</t>
+  </si>
+  <si>
+    <t>14 %</t>
+  </si>
+  <si>
+    <t>Int Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 2</t>
+  </si>
+  <si>
+    <t>M11: role2=role2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig2=desig_2</t>
+  </si>
+  <si>
+    <t>Admin 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 2</t>
+  </si>
+  <si>
+    <t>Dur desc 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1854,6 +1966,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1887,7 +2005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1961,14 +2079,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2300,10 +2420,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2340,63 +2460,63 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2404,79 +2524,79 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C17" t="s">
+        <v>553</v>
+      </c>
+      <c r="D17" t="s">
+        <v>554</v>
+      </c>
+      <c r="E17" t="s">
         <v>559</v>
-      </c>
-      <c r="D17" t="s">
-        <v>560</v>
-      </c>
-      <c r="E17" t="s">
-        <v>565</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C18" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D18" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E18" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -2485,6 +2605,98 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -2508,85 +2720,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2595,16 +2807,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2613,16 +2825,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2631,16 +2843,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2649,16 +2861,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2667,16 +2879,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2685,16 +2897,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2703,16 +2915,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2721,16 +2933,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2739,16 +2951,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2757,16 +2969,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3051,7 +3263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -3071,90 +3283,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="H1" s="12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
         <v>132</v>
       </c>
-      <c r="B2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" t="s">
-        <v>138</v>
-      </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" t="s">
         <v>111</v>
       </c>
-      <c r="G5" t="s">
-        <v>117</v>
-      </c>
       <c r="H5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3162,7 +3374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3183,65 +3395,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3254,7 +3466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -3274,137 +3486,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>193</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3413,7 +3625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3431,104 +3643,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3537,7 +3749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D138"/>
   <sheetViews>
@@ -3555,16 +3767,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3573,1212 +3785,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -4787,7 +4999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -4802,18 +5014,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4825,7 +5037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
@@ -4869,13 +5081,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -4889,13 +5101,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -4920,10 +5132,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -4931,10 +5143,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -4944,41 +5156,41 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -4989,7 +5201,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -5000,7 +5212,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -5008,10 +5220,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -5019,7 +5231,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -5028,7 +5240,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -5048,16 +5260,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5065,16 +5277,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5091,16 +5303,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5125,19 +5337,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5145,16 +5357,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5165,13 +5377,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5199,13 +5411,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5213,10 +5425,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5224,10 +5436,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5235,10 +5447,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5246,10 +5458,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -5279,10 +5491,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -5303,10 +5515,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -5329,10 +5541,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -5423,29 +5635,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5466,7 +5678,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5549,16 +5761,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5566,7 +5778,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5574,13 +5786,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5593,87 +5805,212 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314544EC-CFDD-BE45-9268-B6B9DDA66384}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" customWidth="1"/>
+    <col min="16" max="16" width="33.33203125" customWidth="1"/>
+    <col min="17" max="17" width="29.1640625" customWidth="1"/>
+    <col min="18" max="18" width="34.83203125" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" customWidth="1"/>
+    <col min="20" max="20" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G1" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>587</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+      <c r="D2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>591</v>
+      </c>
+      <c r="G2" t="s">
+        <v>592</v>
+      </c>
+      <c r="H2" t="s">
+        <v>593</v>
+      </c>
+      <c r="I2" t="s">
+        <v>594</v>
+      </c>
+      <c r="J2" t="s">
+        <v>595</v>
+      </c>
+      <c r="K2" t="s">
+        <v>596</v>
+      </c>
+      <c r="L2" t="s">
+        <v>597</v>
+      </c>
+      <c r="M2" t="s">
+        <v>598</v>
+      </c>
+      <c r="N2" t="s">
+        <v>599</v>
+      </c>
+      <c r="O2" t="s">
+        <v>600</v>
+      </c>
+      <c r="P2" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>184</v>
+      </c>
+      <c r="R2" t="s">
+        <v>602</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>604</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>605</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
+        <v>589</v>
+      </c>
+      <c r="E3" t="s">
+        <v>606</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>591</v>
+      </c>
+      <c r="G3" t="s">
+        <v>592</v>
+      </c>
+      <c r="H3" t="s">
+        <v>607</v>
+      </c>
+      <c r="I3" t="s">
+        <v>594</v>
+      </c>
+      <c r="J3" t="s">
+        <v>608</v>
+      </c>
+      <c r="K3" t="s">
+        <v>609</v>
+      </c>
+      <c r="L3" t="s">
+        <v>610</v>
+      </c>
+      <c r="M3" t="s">
+        <v>598</v>
+      </c>
+      <c r="N3" t="s">
+        <v>599</v>
+      </c>
+      <c r="O3" t="s">
+        <v>600</v>
+      </c>
+      <c r="P3" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>184</v>
+      </c>
+      <c r="R3" t="s">
+        <v>602</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -5682,90 +6019,60 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>569</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>570</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>571</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>572</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/simple_1.xlsx
+++ b/tests/integration_test_files/simple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FE429E-DFE4-2B4F-BF7C-BF9B38FD3902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A38C59-35B3-2242-AD6B-877BD8BB5D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52140" yWindow="4360" windowWidth="33600" windowHeight="19480" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="614">
   <si>
     <t>Epoch</t>
   </si>
@@ -249,46 +249,16 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>Pop 1</t>
-  </si>
-  <si>
-    <t>plannedNumberOfParticipants</t>
-  </si>
-  <si>
-    <t>plannedMinimumAgeOfParticipants</t>
-  </si>
-  <si>
     <t>18 years</t>
   </si>
   <si>
-    <t>40 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
   </si>
   <si>
-    <t>Pop 2</t>
-  </si>
-  <si>
-    <t>60 years</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Pop 3</t>
-  </si>
-  <si>
     <t>70 years</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>plannedMaximumAgeOfParticipants</t>
   </si>
   <si>
     <t>objectiveDescription</t>
@@ -1916,6 +1886,42 @@
   </si>
   <si>
     <t>Dur desc 2</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber</t>
+  </si>
+  <si>
+    <t>plannedMinimumAge</t>
+  </si>
+  <si>
+    <t>plannedMaximumAge</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>POP1</t>
+  </si>
+  <si>
+    <t>COHORT1</t>
+  </si>
+  <si>
+    <t>COHORT2</t>
+  </si>
+  <si>
+    <t>30 years</t>
+  </si>
+  <si>
+    <t>31 years</t>
   </si>
 </sst>
 </file>
@@ -2075,20 +2081,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2420,10 +2426,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2460,63 +2466,63 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2524,79 +2530,79 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="C17" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="D17" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E17" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="C18" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="D18" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="E18" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -2606,89 +2612,96 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B3" t="s">
+        <v>610</v>
+      </c>
+      <c r="G3" t="s">
         <v>65</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H3" s="6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B4" t="s">
+        <v>611</v>
+      </c>
+      <c r="G4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2720,85 +2733,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2807,16 +2820,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2825,16 +2838,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2843,16 +2856,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2861,16 +2874,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2879,16 +2892,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2897,16 +2910,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2915,16 +2928,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2933,16 +2946,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2951,16 +2964,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2969,16 +2982,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3283,90 +3296,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H5" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3395,65 +3408,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3486,137 +3499,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3643,104 +3656,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3767,16 +3780,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3785,1212 +3798,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -5014,18 +5027,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5037,9 +5050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5081,13 +5092,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5101,13 +5112,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -5132,115 +5143,115 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+        <v>231</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+        <v>232</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="B6" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="B7" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="B8" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+        <v>157</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+        <v>158</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -5260,16 +5271,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5277,16 +5288,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5303,16 +5314,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5337,19 +5348,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5357,16 +5368,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5377,13 +5388,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5411,13 +5422,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5425,10 +5436,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5436,10 +5447,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5447,10 +5458,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5458,10 +5469,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -5491,10 +5502,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -5505,20 +5516,20 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="30"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -5541,10 +5552,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -5635,29 +5646,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5678,7 +5689,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5761,16 +5772,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5778,7 +5789,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5786,13 +5797,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5808,7 +5819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314544EC-CFDD-BE45-9268-B6B9DDA66384}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -5838,179 +5849,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q1" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>575</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>576</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>578</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>579</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>580</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>582</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>584</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>585</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E2" t="s">
+        <v>580</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>581</v>
+      </c>
+      <c r="G2" t="s">
+        <v>582</v>
+      </c>
+      <c r="H2" t="s">
+        <v>583</v>
+      </c>
+      <c r="I2" t="s">
+        <v>584</v>
+      </c>
+      <c r="J2" t="s">
+        <v>585</v>
+      </c>
+      <c r="K2" t="s">
+        <v>586</v>
+      </c>
+      <c r="L2" t="s">
         <v>587</v>
       </c>
-      <c r="C2" t="s">
+      <c r="M2" t="s">
         <v>588</v>
       </c>
-      <c r="D2" t="s">
+      <c r="N2" t="s">
         <v>589</v>
       </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
         <v>590</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="P2" t="s">
         <v>591</v>
       </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
+        <v>174</v>
+      </c>
+      <c r="R2" t="s">
         <v>592</v>
       </c>
-      <c r="H2" t="s">
+      <c r="S2" s="28" t="s">
         <v>593</v>
-      </c>
-      <c r="I2" t="s">
-        <v>594</v>
-      </c>
-      <c r="J2" t="s">
-        <v>595</v>
-      </c>
-      <c r="K2" t="s">
-        <v>596</v>
-      </c>
-      <c r="L2" t="s">
-        <v>597</v>
-      </c>
-      <c r="M2" t="s">
-        <v>598</v>
-      </c>
-      <c r="N2" t="s">
-        <v>599</v>
-      </c>
-      <c r="O2" t="s">
-        <v>600</v>
-      </c>
-      <c r="P2" t="s">
-        <v>601</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>184</v>
-      </c>
-      <c r="R2" t="s">
-        <v>602</v>
-      </c>
-      <c r="S2" s="32" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="C3" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="D3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E3" t="s">
+        <v>596</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>581</v>
+      </c>
+      <c r="G3" t="s">
+        <v>582</v>
+      </c>
+      <c r="H3" t="s">
+        <v>597</v>
+      </c>
+      <c r="I3" t="s">
+        <v>584</v>
+      </c>
+      <c r="J3" t="s">
+        <v>598</v>
+      </c>
+      <c r="K3" t="s">
+        <v>599</v>
+      </c>
+      <c r="L3" t="s">
+        <v>600</v>
+      </c>
+      <c r="M3" t="s">
+        <v>588</v>
+      </c>
+      <c r="N3" t="s">
         <v>589</v>
       </c>
-      <c r="E3" t="s">
-        <v>606</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>591</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="O3" t="s">
+        <v>590</v>
+      </c>
+      <c r="P3" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>174</v>
+      </c>
+      <c r="R3" t="s">
         <v>592</v>
       </c>
-      <c r="H3" t="s">
-        <v>607</v>
-      </c>
-      <c r="I3" t="s">
-        <v>594</v>
-      </c>
-      <c r="J3" t="s">
-        <v>608</v>
-      </c>
-      <c r="K3" t="s">
-        <v>609</v>
-      </c>
-      <c r="L3" t="s">
-        <v>610</v>
-      </c>
-      <c r="M3" t="s">
-        <v>598</v>
-      </c>
-      <c r="N3" t="s">
-        <v>599</v>
-      </c>
-      <c r="O3" t="s">
-        <v>600</v>
-      </c>
-      <c r="P3" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>184</v>
-      </c>
-      <c r="R3" t="s">
-        <v>602</v>
-      </c>
-      <c r="S3" s="32" t="s">
-        <v>603</v>
+      <c r="S3" s="28" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -6035,13 +6046,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
@@ -6049,13 +6060,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C2" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>62</v>
@@ -6063,13 +6074,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="C3" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>

--- a/tests/integration_test_files/simple_1.xlsx
+++ b/tests/integration_test_files/simple_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A38C59-35B3-2242-AD6B-877BD8BB5D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D4B7B9-005C-2B4C-BC7F-F4FFAAF85AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="611">
   <si>
     <t>Epoch</t>
   </si>
@@ -249,16 +249,10 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>18 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
-  </si>
-  <si>
-    <t>70 years</t>
   </si>
   <si>
     <t>objectiveDescription</t>
@@ -1897,12 +1891,6 @@
     <t>plannedEnrollmentNumber</t>
   </si>
   <si>
-    <t>plannedMinimumAge</t>
-  </si>
-  <si>
-    <t>plannedMaximumAge</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -1918,10 +1906,13 @@
     <t>COHORT2</t>
   </si>
   <si>
-    <t>30 years</t>
-  </si>
-  <si>
-    <t>31 years</t>
+    <t>plannedAge</t>
+  </si>
+  <si>
+    <t>18 .. 30 years</t>
+  </si>
+  <si>
+    <t>31 .. 70 years</t>
   </si>
 </sst>
 </file>
@@ -2087,10 +2078,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2426,10 +2417,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2466,63 +2457,63 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2530,79 +2521,79 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C17" t="s">
         <v>541</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="D17" t="s">
         <v>542</v>
       </c>
-      <c r="C17" t="s">
-        <v>543</v>
-      </c>
-      <c r="D17" t="s">
-        <v>544</v>
-      </c>
       <c r="E17" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C18" t="s">
+        <v>544</v>
+      </c>
+      <c r="D18" t="s">
         <v>545</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="C18" t="s">
-        <v>546</v>
-      </c>
-      <c r="D18" t="s">
-        <v>547</v>
-      </c>
       <c r="E18" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -2612,10 +2603,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2625,45 +2616,42 @@
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>603</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>604</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="B2" t="s">
         <v>605</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>606</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>607</v>
-      </c>
-      <c r="B2" t="s">
-        <v>609</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2671,37 +2659,30 @@
       <c r="F2">
         <v>120</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B3" t="s">
+        <v>606</v>
+      </c>
+      <c r="G3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G4" t="s">
         <v>610</v>
-      </c>
-      <c r="G3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>608</v>
-      </c>
-      <c r="B4" t="s">
-        <v>611</v>
-      </c>
-      <c r="G4" t="s">
-        <v>613</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2733,85 +2714,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>552</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>553</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="J1" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>554</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>556</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2820,16 +2801,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2838,16 +2819,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2856,16 +2837,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2874,16 +2855,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2892,16 +2873,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2910,16 +2891,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2928,16 +2909,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2946,16 +2927,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2964,16 +2945,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2982,16 +2963,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3296,90 +3277,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
         <v>116</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>120</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" t="s">
         <v>117</v>
-      </c>
-      <c r="D2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
         <v>149</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>150</v>
       </c>
-      <c r="C5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" t="s">
         <v>151</v>
-      </c>
-      <c r="E5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3408,65 +3389,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>166</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" t="s">
         <v>169</v>
-      </c>
-      <c r="B2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>173</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3499,137 +3480,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>181</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3656,104 +3637,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3780,16 +3761,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3798,1212 +3779,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>534</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -5027,18 +5008,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
         <v>144</v>
-      </c>
-      <c r="B1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5092,13 +5073,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5112,13 +5093,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -5143,10 +5124,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -5154,10 +5135,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -5167,41 +5148,41 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="B5" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -5212,7 +5193,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -5223,7 +5204,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -5231,10 +5212,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -5242,7 +5223,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -5251,7 +5232,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -5271,16 +5252,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5288,16 +5269,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5314,16 +5295,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5348,19 +5329,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>252</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5368,16 +5349,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5388,13 +5369,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5422,13 +5403,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>239</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5436,10 +5417,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5447,10 +5428,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5458,10 +5439,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5469,10 +5450,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -5502,10 +5483,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -5526,10 +5507,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -5552,10 +5533,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -5646,29 +5627,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5689,7 +5670,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5772,16 +5753,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>261</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5789,7 +5770,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5797,13 +5778,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5849,179 +5830,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>564</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>566</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>569</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>570</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>574</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>575</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D2" t="s">
         <v>577</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>578</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="27" t="s">
         <v>579</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>580</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="H2" t="s">
         <v>581</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>582</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>583</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>584</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>585</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>586</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>587</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>588</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>589</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>172</v>
+      </c>
+      <c r="R2" t="s">
         <v>590</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="28" t="s">
         <v>591</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>174</v>
-      </c>
-      <c r="R2" t="s">
-        <v>592</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E3" t="s">
         <v>594</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="27" t="s">
+        <v>579</v>
+      </c>
+      <c r="G3" t="s">
+        <v>580</v>
+      </c>
+      <c r="H3" t="s">
         <v>595</v>
       </c>
-      <c r="D3" t="s">
-        <v>579</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>582</v>
+      </c>
+      <c r="J3" t="s">
         <v>596</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>581</v>
-      </c>
-      <c r="G3" t="s">
-        <v>582</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>597</v>
       </c>
-      <c r="I3" t="s">
-        <v>584</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>598</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>586</v>
+      </c>
+      <c r="N3" t="s">
+        <v>587</v>
+      </c>
+      <c r="O3" t="s">
+        <v>588</v>
+      </c>
+      <c r="P3" t="s">
         <v>599</v>
       </c>
-      <c r="L3" t="s">
-        <v>600</v>
-      </c>
-      <c r="M3" t="s">
-        <v>588</v>
-      </c>
-      <c r="N3" t="s">
-        <v>589</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>172</v>
+      </c>
+      <c r="R3" t="s">
         <v>590</v>
       </c>
-      <c r="P3" t="s">
-        <v>601</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R3" t="s">
-        <v>592</v>
-      </c>
       <c r="S3" s="28" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -6046,13 +6027,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
@@ -6060,13 +6041,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>62</v>
@@ -6074,13 +6055,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>

--- a/tests/integration_test_files/simple_1.xlsx
+++ b/tests/integration_test_files/simple_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D4B7B9-005C-2B4C-BC7F-F4FFAAF85AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93ED299C-976A-674A-9C30-0FF77E1BE2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="20860" yWindow="4100" windowWidth="33600" windowHeight="19460" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -19,17 +19,18 @@
     <sheet name="studyDesignArms" sheetId="15" r:id="rId4"/>
     <sheet name="studyDesignEpochs" sheetId="14" r:id="rId5"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
-    <sheet name="studyDesignActivities" sheetId="16" r:id="rId7"/>
-    <sheet name="studyDesignInterventions" sheetId="18" r:id="rId8"/>
-    <sheet name="studyDesignIndications" sheetId="6" r:id="rId9"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId10"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId11"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId12"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId13"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId14"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId15"/>
-    <sheet name="studyDesignContent" sheetId="17" r:id="rId16"/>
-    <sheet name="configuration" sheetId="10" r:id="rId17"/>
+    <sheet name="studyDesignTiming" sheetId="19" r:id="rId7"/>
+    <sheet name="studyDesignActivities" sheetId="16" r:id="rId8"/>
+    <sheet name="studyDesignInterventions" sheetId="18" r:id="rId9"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId10"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId11"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId12"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId13"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId14"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId15"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId16"/>
+    <sheet name="studyDesignContent" sheetId="17" r:id="rId17"/>
+    <sheet name="configuration" sheetId="10" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,10 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="611">
-  <si>
-    <t>Epoch</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="637">
   <si>
     <t>Screening</t>
   </si>
@@ -63,15 +61,6 @@
     <t>Treatment</t>
   </si>
   <si>
-    <t>Cycle</t>
-  </si>
-  <si>
-    <t>Cycle End Rule</t>
-  </si>
-  <si>
-    <t>A:</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -81,51 +70,21 @@
     <t>Child Activity</t>
   </si>
   <si>
-    <t>N: 0..2 Days</t>
-  </si>
-  <si>
     <t>Demographics</t>
   </si>
   <si>
     <t>Baseline</t>
   </si>
   <si>
-    <t>0..1 Hours</t>
-  </si>
-  <si>
     <t>15 min</t>
   </si>
   <si>
-    <t>P: +24 Hours</t>
-  </si>
-  <si>
-    <t>0..4 Hours</t>
-  </si>
-  <si>
-    <t>N: Pre Dose</t>
-  </si>
-  <si>
     <t>Day 24</t>
   </si>
   <si>
     <t>Day 35</t>
   </si>
   <si>
-    <t>P: +7 Days</t>
-  </si>
-  <si>
-    <t>-3..3 Days</t>
-  </si>
-  <si>
-    <t>First Cycle Start</t>
-  </si>
-  <si>
-    <t>Cycle Period</t>
-  </si>
-  <si>
-    <t>Timing</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -649,12 +608,6 @@
   </si>
   <si>
     <t>E5</t>
-  </si>
-  <si>
-    <t>Encounter xref</t>
-  </si>
-  <si>
-    <t>Window</t>
   </si>
   <si>
     <t>BC/Procedure/Timeline</t>
@@ -1913,6 +1866,132 @@
   </si>
   <si>
     <t>31 .. 70 years</t>
+  </si>
+  <si>
+    <t>SCREEN</t>
+  </si>
+  <si>
+    <t>PRE DOSE</t>
+  </si>
+  <si>
+    <t>DOSE</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>FU</t>
+  </si>
+  <si>
+    <t>Pre Dose</t>
+  </si>
+  <si>
+    <t>Dosing</t>
+  </si>
+  <si>
+    <t>Day 14</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>(EXIT)</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>encounter</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>timingValue</t>
+  </si>
+  <si>
+    <t>toFrom</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>TIM1</t>
+  </si>
+  <si>
+    <t>Screening timing</t>
+  </si>
+  <si>
+    <t>BEFORE</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>S2S</t>
+  </si>
+  <si>
+    <t>TIM2</t>
+  </si>
+  <si>
+    <t>Pre dose timing</t>
+  </si>
+  <si>
+    <t>Pre dose</t>
+  </si>
+  <si>
+    <t>0..4 hours</t>
+  </si>
+  <si>
+    <t>TIM3</t>
+  </si>
+  <si>
+    <t>Dosing anchor</t>
+  </si>
+  <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t>1 Day</t>
+  </si>
+  <si>
+    <t>TIM4</t>
+  </si>
+  <si>
+    <t>Day 14 timing</t>
+  </si>
+  <si>
+    <t>AFTER</t>
+  </si>
+  <si>
+    <t>14 days</t>
+  </si>
+  <si>
+    <t>-1..1 days</t>
+  </si>
+  <si>
+    <t>TIM5</t>
+  </si>
+  <si>
+    <t>Follow up timing</t>
+  </si>
+  <si>
+    <t>21 days</t>
+  </si>
+  <si>
+    <t>-3..3 days</t>
   </si>
 </sst>
 </file>
@@ -2002,7 +2081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2078,13 +2157,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2104,9 +2180,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2144,7 +2220,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2250,7 +2326,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2392,7 +2468,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2417,183 +2493,183 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="C17" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="D17" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="E17" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="C18" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="D18" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="E18" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -2602,10 +2678,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -2622,36 +2760,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="B2" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2660,29 +2798,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="B3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="G3" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="B4" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="G4" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -2690,7 +2828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -2714,85 +2852,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2801,16 +2939,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2819,16 +2957,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2837,16 +2975,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2855,16 +2993,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2873,16 +3011,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2891,16 +3029,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2909,16 +3047,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2927,16 +3065,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2945,16 +3083,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2963,16 +3101,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3257,7 +3395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -3277,90 +3415,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3368,7 +3506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3389,65 +3527,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3460,7 +3598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -3480,137 +3618,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3619,7 +3757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3637,104 +3775,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3743,7 +3881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D138"/>
   <sheetViews>
@@ -3761,1230 +3899,1230 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -4993,7 +5131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -5008,18 +5146,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -5044,62 +5182,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -5124,10 +5262,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -5135,10 +5273,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -5146,43 +5284,43 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+        <v>31</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+        <v>32</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+        <v>33</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -5190,10 +5328,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -5201,10 +5339,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -5212,10 +5350,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -5223,7 +5361,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -5232,53 +5370,53 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5295,16 +5433,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5329,53 +5467,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5403,57 +5541,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5469,13 +5607,13 @@
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10:B11"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="45.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
     <col min="4" max="8" width="12.33203125" style="1" customWidth="1"/>
     <col min="9" max="10" width="10.83203125" style="1"/>
@@ -5483,258 +5621,435 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>447</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>600</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>601</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>602</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>21</v>
+        <v>521</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>603</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>602</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>604</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>604</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>604</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>604</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>4</v>
+        <v>605</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>596</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>597</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>598</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>599</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>607</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>199</v>
+        <v>608</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>197</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="H8" s="2" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BB4CB9-54D7-474B-9BD4-C6AD68EEC541}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="9" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="E2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F2" t="s">
+        <v>596</v>
+      </c>
+      <c r="G2" t="s">
+        <v>618</v>
+      </c>
+      <c r="H2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E3" t="s">
+        <v>596</v>
+      </c>
+      <c r="F3" t="s">
+        <v>597</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>619</v>
+      </c>
+      <c r="I3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C4" t="s">
+        <v>601</v>
+      </c>
+      <c r="D4" t="s">
+        <v>626</v>
+      </c>
+      <c r="E4" t="s">
+        <v>597</v>
+      </c>
+      <c r="F4" t="s">
+        <v>597</v>
+      </c>
+      <c r="G4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B5" t="s">
+        <v>629</v>
+      </c>
+      <c r="C5" t="s">
+        <v>602</v>
+      </c>
+      <c r="D5" t="s">
+        <v>630</v>
+      </c>
+      <c r="E5" t="s">
+        <v>598</v>
+      </c>
+      <c r="F5" t="s">
+        <v>597</v>
+      </c>
+      <c r="G5" t="s">
+        <v>631</v>
+      </c>
+      <c r="H5" t="s">
+        <v>619</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>633</v>
+      </c>
+      <c r="B6" t="s">
+        <v>634</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" t="s">
+        <v>630</v>
+      </c>
+      <c r="E6" t="s">
+        <v>599</v>
+      </c>
+      <c r="F6" t="s">
+        <v>597</v>
+      </c>
+      <c r="G6" t="s">
+        <v>635</v>
+      </c>
+      <c r="H6" t="s">
+        <v>619</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8389B3-D1BB-1047-BA06-7E793B938DBA}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -5753,38 +6068,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5796,7 +6111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314544EC-CFDD-BE45-9268-B6B9DDA66384}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -5830,241 +6145,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>563</v>
+      </c>
+      <c r="G2" t="s">
+        <v>564</v>
+      </c>
+      <c r="H2" t="s">
+        <v>565</v>
+      </c>
+      <c r="I2" t="s">
+        <v>566</v>
+      </c>
+      <c r="J2" t="s">
+        <v>567</v>
+      </c>
+      <c r="K2" t="s">
+        <v>568</v>
+      </c>
+      <c r="L2" t="s">
+        <v>569</v>
+      </c>
+      <c r="M2" t="s">
+        <v>570</v>
+      </c>
+      <c r="N2" t="s">
+        <v>571</v>
+      </c>
+      <c r="O2" t="s">
+        <v>572</v>
+      </c>
+      <c r="P2" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>158</v>
+      </c>
+      <c r="R2" t="s">
+        <v>574</v>
+      </c>
+      <c r="S2" s="28" t="s">
         <v>575</v>
-      </c>
-      <c r="C2" t="s">
-        <v>576</v>
-      </c>
-      <c r="D2" t="s">
-        <v>577</v>
-      </c>
-      <c r="E2" t="s">
-        <v>578</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>579</v>
-      </c>
-      <c r="G2" t="s">
-        <v>580</v>
-      </c>
-      <c r="H2" t="s">
-        <v>581</v>
-      </c>
-      <c r="I2" t="s">
-        <v>582</v>
-      </c>
-      <c r="J2" t="s">
-        <v>583</v>
-      </c>
-      <c r="K2" t="s">
-        <v>584</v>
-      </c>
-      <c r="L2" t="s">
-        <v>585</v>
-      </c>
-      <c r="M2" t="s">
-        <v>586</v>
-      </c>
-      <c r="N2" t="s">
-        <v>587</v>
-      </c>
-      <c r="O2" t="s">
-        <v>588</v>
-      </c>
-      <c r="P2" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>172</v>
-      </c>
-      <c r="R2" t="s">
-        <v>590</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="C3" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="D3" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="E3" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="F3" s="27" t="s">
+        <v>563</v>
+      </c>
+      <c r="G3" t="s">
+        <v>564</v>
+      </c>
+      <c r="H3" t="s">
         <v>579</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>566</v>
+      </c>
+      <c r="J3" t="s">
         <v>580</v>
       </c>
-      <c r="H3" t="s">
-        <v>595</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>581</v>
+      </c>
+      <c r="L3" t="s">
         <v>582</v>
       </c>
-      <c r="J3" t="s">
-        <v>596</v>
-      </c>
-      <c r="K3" t="s">
-        <v>597</v>
-      </c>
-      <c r="L3" t="s">
-        <v>598</v>
-      </c>
       <c r="M3" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="N3" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="O3" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="P3" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="R3" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="S3" s="28" t="s">
-        <v>591</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C2" t="s">
-        <v>558</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C3" t="s">
-        <v>560</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>63</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/simple_1.xlsx
+++ b/tests/integration_test_files/simple_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93ED299C-976A-674A-9C30-0FF77E1BE2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A568B5-840D-8348-B6D0-5341F85BBEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20860" yWindow="4100" windowWidth="33600" windowHeight="19460" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="47060" yWindow="8300" windowWidth="33600" windowHeight="19460" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="636">
   <si>
     <t>Screening</t>
   </si>
@@ -1769,18 +1769,12 @@
     <t>SPONSOR: A=B</t>
   </si>
   <si>
-    <t>M11: role1=role1</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
     <t>FDA: A=B</t>
   </si>
   <si>
-    <t xml:space="preserve"> M11: desig1=desig_1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 Day</t>
   </si>
   <si>
@@ -1817,12 +1811,6 @@
     <t xml:space="preserve"> Int Label 2</t>
   </si>
   <si>
-    <t>M11: role2=role2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig2=desig_2</t>
-  </si>
-  <si>
     <t>Admin 2</t>
   </si>
   <si>
@@ -1992,6 +1980,15 @@
   </si>
   <si>
     <t>-3..3 days</t>
+  </si>
+  <si>
+    <t>Experimental Intervention</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>NIMP (AxMP)</t>
   </si>
 </sst>
 </file>
@@ -2157,10 +2154,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2180,9 +2177,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2220,7 +2217,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2326,7 +2323,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2468,7 +2465,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2760,7 +2757,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>447</v>
@@ -2772,13 +2769,13 @@
         <v>521</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>51</v>
@@ -2786,10 +2783,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2803,24 +2800,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B4" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="G4" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -5286,34 +5283,34 @@
       <c r="A3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -5433,16 +5430,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5630,19 +5627,19 @@
         <v>447</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -5659,13 +5656,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>195</v>
@@ -5682,7 +5679,7 @@
         <v>521</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5691,7 +5688,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>195</v>
@@ -5703,46 +5700,46 @@
         <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5754,7 +5751,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5776,7 +5773,7 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>180</v>
@@ -5867,7 +5864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BB4CB9-54D7-474B-9BD4-C6AD68EEC541}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -5893,155 +5890,155 @@
         <v>45</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>610</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B2" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="H2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E3" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F3" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
+        <v>615</v>
+      </c>
+      <c r="I3" t="s">
         <v>619</v>
-      </c>
-      <c r="I3" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C4" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D4" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E4" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F4" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G4" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B5" t="s">
+        <v>625</v>
+      </c>
+      <c r="C5" t="s">
+        <v>598</v>
+      </c>
+      <c r="D5" t="s">
+        <v>626</v>
+      </c>
+      <c r="E5" t="s">
+        <v>594</v>
+      </c>
+      <c r="F5" t="s">
+        <v>593</v>
+      </c>
+      <c r="G5" t="s">
+        <v>627</v>
+      </c>
+      <c r="H5" t="s">
+        <v>615</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>628</v>
-      </c>
-      <c r="B5" t="s">
-        <v>629</v>
-      </c>
-      <c r="C5" t="s">
-        <v>602</v>
-      </c>
-      <c r="D5" t="s">
-        <v>630</v>
-      </c>
-      <c r="E5" t="s">
-        <v>598</v>
-      </c>
-      <c r="F5" t="s">
-        <v>597</v>
-      </c>
-      <c r="G5" t="s">
-        <v>631</v>
-      </c>
-      <c r="H5" t="s">
-        <v>619</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B6" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C6" t="s">
         <v>195</v>
       </c>
       <c r="D6" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E6" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F6" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G6" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="H6" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -6115,8 +6112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314544EC-CFDD-BE45-9268-B6B9DDA66384}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6216,49 +6213,49 @@
         <v>561</v>
       </c>
       <c r="E2" t="s">
+        <v>633</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>562</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" t="s">
         <v>563</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>634</v>
+      </c>
+      <c r="I2" t="s">
         <v>564</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>565</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>566</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>567</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>568</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>569</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>570</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>571</v>
-      </c>
-      <c r="O2" t="s">
-        <v>572</v>
-      </c>
-      <c r="P2" t="s">
-        <v>573</v>
       </c>
       <c r="Q2" t="s">
         <v>158</v>
       </c>
       <c r="R2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="S2" s="28" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -6266,58 +6263,58 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D3" t="s">
         <v>561</v>
       </c>
       <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="G3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H3" t="s">
+        <v>635</v>
+      </c>
+      <c r="I3" t="s">
+        <v>564</v>
+      </c>
+      <c r="J3" t="s">
+        <v>576</v>
+      </c>
+      <c r="K3" t="s">
+        <v>577</v>
+      </c>
+      <c r="L3" t="s">
         <v>578</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>563</v>
-      </c>
-      <c r="G3" t="s">
-        <v>564</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>568</v>
+      </c>
+      <c r="N3" t="s">
+        <v>569</v>
+      </c>
+      <c r="O3" t="s">
+        <v>570</v>
+      </c>
+      <c r="P3" t="s">
         <v>579</v>
-      </c>
-      <c r="I3" t="s">
-        <v>566</v>
-      </c>
-      <c r="J3" t="s">
-        <v>580</v>
-      </c>
-      <c r="K3" t="s">
-        <v>581</v>
-      </c>
-      <c r="L3" t="s">
-        <v>582</v>
-      </c>
-      <c r="M3" t="s">
-        <v>570</v>
-      </c>
-      <c r="N3" t="s">
-        <v>571</v>
-      </c>
-      <c r="O3" t="s">
-        <v>572</v>
-      </c>
-      <c r="P3" t="s">
-        <v>583</v>
       </c>
       <c r="Q3" t="s">
         <v>158</v>
       </c>
       <c r="R3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="S3" s="28" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/simple_1.xlsx
+++ b/tests/integration_test_files/simple_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A568B5-840D-8348-B6D0-5341F85BBEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B748EB7-8ECA-F940-A8A4-BE225342CF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47060" yWindow="8300" windowWidth="33600" windowHeight="19460" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="36300" yWindow="8300" windowWidth="44360" windowHeight="19460" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -229,9 +229,6 @@
     <t>The primary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
   </si>
   <si>
-    <t>Study Primary Objective</t>
-  </si>
-  <si>
     <t>Clinical status assessed using a 7-category ordinal scale at Day 28</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
   </si>
   <si>
     <t>The secondary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
-  </si>
-  <si>
-    <t>Study Secondary Objective</t>
   </si>
   <si>
     <t>Time to clinical improvement (TTCI) defined as a National Early Warning Score 2 (NEWS2) of &lt;=2 maintained for 24 hours</t>
@@ -1989,6 +1983,12 @@
   </si>
   <si>
     <t>NIMP (AxMP)</t>
+  </si>
+  <si>
+    <t>Primary Objective</t>
+  </si>
+  <si>
+    <t>Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -2154,10 +2154,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2177,9 +2177,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2217,7 +2217,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2323,7 +2323,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2465,7 +2465,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2490,10 +2490,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2530,63 +2530,63 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>16</v>
@@ -2594,79 +2594,79 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C17" t="s">
         <v>523</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="D17" t="s">
         <v>524</v>
       </c>
-      <c r="C17" t="s">
-        <v>525</v>
-      </c>
-      <c r="D17" t="s">
-        <v>526</v>
-      </c>
       <c r="E17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C18" t="s">
+        <v>526</v>
+      </c>
+      <c r="D18" t="s">
         <v>527</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="C18" t="s">
-        <v>528</v>
-      </c>
-      <c r="D18" t="s">
-        <v>529</v>
-      </c>
       <c r="E18" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -2691,13 +2691,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>47</v>
@@ -2705,13 +2705,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>48</v>
@@ -2719,13 +2719,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>49</v>
@@ -2757,25 +2757,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>51</v>
@@ -2783,10 +2783,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B2" t="s">
         <v>583</v>
-      </c>
-      <c r="B2" t="s">
-        <v>585</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2800,24 +2800,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B3" t="s">
         <v>584</v>
       </c>
-      <c r="B3" t="s">
-        <v>586</v>
-      </c>
       <c r="G3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -2829,8 +2829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2849,34 +2849,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>55</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>536</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>538</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>56</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2892,42 +2892,42 @@
         <v>57</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>58</v>
+        <v>634</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>62</v>
+        <v>635</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2936,16 +2936,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2954,16 +2954,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2972,16 +2972,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2990,16 +2990,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3008,16 +3008,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3026,16 +3026,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3044,16 +3044,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3062,16 +3062,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3080,16 +3080,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3098,16 +3098,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3412,90 +3412,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>104</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
         <v>101</v>
-      </c>
-      <c r="D2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
         <v>133</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>134</v>
       </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" t="s">
         <v>135</v>
-      </c>
-      <c r="E5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3524,65 +3524,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" t="s">
         <v>153</v>
-      </c>
-      <c r="B2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>157</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3615,137 +3615,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>165</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3772,104 +3772,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3896,16 +3896,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3914,1212 +3914,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -5143,18 +5143,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
         <v>128</v>
-      </c>
-      <c r="B1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5208,13 +5208,13 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5228,13 +5228,13 @@
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -5259,10 +5259,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -5283,41 +5283,41 @@
       <c r="A3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="B3" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -5328,7 +5328,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -5339,7 +5339,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -5347,10 +5347,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -5358,7 +5358,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>29</v>
@@ -5387,16 +5387,16 @@
         <v>27</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5404,16 +5404,16 @@
         <v>28</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5430,16 +5430,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5464,19 +5464,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>234</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5484,16 +5484,16 @@
         <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5504,13 +5504,13 @@
         <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5538,13 +5538,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5552,10 +5552,10 @@
         <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5563,10 +5563,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5574,10 +5574,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5585,10 +5585,10 @@
         <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5618,36 +5618,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>46</v>
@@ -5656,30 +5656,30 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>598</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5688,10 +5688,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5700,46 +5700,46 @@
         <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>595</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5751,7 +5751,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5773,22 +5773,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5799,7 +5799,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5878,167 +5878,167 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>608</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="E2" t="s">
+        <v>589</v>
+      </c>
+      <c r="F2" t="s">
+        <v>590</v>
+      </c>
+      <c r="G2" t="s">
+        <v>612</v>
+      </c>
+      <c r="H2" t="s">
         <v>613</v>
-      </c>
-      <c r="E2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F2" t="s">
-        <v>592</v>
-      </c>
-      <c r="G2" t="s">
-        <v>614</v>
-      </c>
-      <c r="H2" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C3" t="s">
         <v>616</v>
       </c>
-      <c r="B3" t="s">
-        <v>617</v>
-      </c>
-      <c r="C3" t="s">
-        <v>618</v>
-      </c>
       <c r="D3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="I3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C4" t="s">
+        <v>595</v>
+      </c>
+      <c r="D4" t="s">
         <v>620</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>591</v>
+      </c>
+      <c r="F4" t="s">
+        <v>591</v>
+      </c>
+      <c r="G4" t="s">
         <v>621</v>
-      </c>
-      <c r="C4" t="s">
-        <v>597</v>
-      </c>
-      <c r="D4" t="s">
-        <v>622</v>
-      </c>
-      <c r="E4" t="s">
-        <v>593</v>
-      </c>
-      <c r="F4" t="s">
-        <v>593</v>
-      </c>
-      <c r="G4" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C5" t="s">
+        <v>596</v>
+      </c>
+      <c r="D5" t="s">
         <v>624</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>592</v>
+      </c>
+      <c r="F5" t="s">
+        <v>591</v>
+      </c>
+      <c r="G5" t="s">
         <v>625</v>
       </c>
-      <c r="C5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="H5" t="s">
+        <v>613</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>626</v>
-      </c>
-      <c r="E5" t="s">
-        <v>594</v>
-      </c>
-      <c r="F5" t="s">
-        <v>593</v>
-      </c>
-      <c r="G5" t="s">
-        <v>627</v>
-      </c>
-      <c r="H5" t="s">
-        <v>615</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>627</v>
+      </c>
+      <c r="B6" t="s">
+        <v>628</v>
+      </c>
+      <c r="C6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" t="s">
+        <v>624</v>
+      </c>
+      <c r="E6" t="s">
+        <v>593</v>
+      </c>
+      <c r="F6" t="s">
+        <v>591</v>
+      </c>
+      <c r="G6" t="s">
         <v>629</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
+        <v>613</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>630</v>
-      </c>
-      <c r="C6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" t="s">
-        <v>626</v>
-      </c>
-      <c r="E6" t="s">
-        <v>595</v>
-      </c>
-      <c r="F6" t="s">
-        <v>593</v>
-      </c>
-      <c r="G6" t="s">
-        <v>631</v>
-      </c>
-      <c r="H6" t="s">
-        <v>615</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -6065,16 +6065,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>243</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6082,7 +6082,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6090,13 +6090,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6112,7 +6112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314544EC-CFDD-BE45-9268-B6B9DDA66384}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
@@ -6142,179 +6142,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>45</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>549</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>551</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>552</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>553</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>554</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>556</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>557</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D2" t="s">
         <v>559</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>631</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>560</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>561</v>
       </c>
-      <c r="E2" t="s">
-        <v>633</v>
-      </c>
-      <c r="F2" s="27" t="s">
+      <c r="H2" t="s">
+        <v>632</v>
+      </c>
+      <c r="I2" t="s">
         <v>562</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>563</v>
       </c>
-      <c r="H2" t="s">
-        <v>634</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>564</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>565</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>566</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>567</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>568</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>569</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>156</v>
+      </c>
+      <c r="R2" t="s">
         <v>570</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="28" t="s">
         <v>571</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>158</v>
-      </c>
-      <c r="R2" t="s">
-        <v>572</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="G3" t="s">
+        <v>561</v>
+      </c>
+      <c r="H3" t="s">
+        <v>633</v>
+      </c>
+      <c r="I3" t="s">
         <v>562</v>
       </c>
-      <c r="G3" t="s">
-        <v>563</v>
-      </c>
-      <c r="H3" t="s">
-        <v>635</v>
-      </c>
-      <c r="I3" t="s">
-        <v>564</v>
-      </c>
       <c r="J3" t="s">
+        <v>574</v>
+      </c>
+      <c r="K3" t="s">
+        <v>575</v>
+      </c>
+      <c r="L3" t="s">
         <v>576</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>566</v>
+      </c>
+      <c r="N3" t="s">
+        <v>567</v>
+      </c>
+      <c r="O3" t="s">
+        <v>568</v>
+      </c>
+      <c r="P3" t="s">
         <v>577</v>
       </c>
-      <c r="L3" t="s">
-        <v>578</v>
-      </c>
-      <c r="M3" t="s">
-        <v>568</v>
-      </c>
-      <c r="N3" t="s">
-        <v>569</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>156</v>
+      </c>
+      <c r="R3" t="s">
         <v>570</v>
       </c>
-      <c r="P3" t="s">
-        <v>579</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>158</v>
-      </c>
-      <c r="R3" t="s">
-        <v>572</v>
-      </c>
       <c r="S3" s="28" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/simple_1.xlsx
+++ b/tests/integration_test_files/simple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC67140-41D3-6A47-A377-9FAC4F20EE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E1218B-CD0A-0547-9C7C-D63AB0C5CD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50740" yWindow="8280" windowWidth="44360" windowHeight="19460" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50740" yWindow="8280" windowWidth="44360" windowHeight="19460" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -1147,9 +1147,6 @@
     <t>NCI_1</t>
   </si>
   <si>
-    <t>&lt;usdm:ref klass="StudyIdentifier" id="StudyIdentifier_1" attribute="studyIdentifier"/&gt;</t>
-  </si>
-  <si>
     <t>NCI_2</t>
   </si>
   <si>
@@ -2794,6 +2791,9 @@
   </si>
   <si>
     <t>NC_137</t>
+  </si>
+  <si>
+    <t>&lt;usdm:ref klass="StudyIdentifier" id="StudyIdentifier_1" attribute="text"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -4189,7 +4189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4705,7 +4705,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4728,699 +4730,699 @@
         <v>368</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>369</v>
+        <v>912</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>377</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>391</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>393</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>414</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="23" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="23" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="23" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="23" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="23" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="23" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="23" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="23" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="23" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="23" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="23" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="23" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="23" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="23" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="23" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="23" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -5449,36 +5451,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>510</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="24" t="s">
         <v>512</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>517</v>
-      </c>
       <c r="E2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F2" t="s">
         <v>368</v>
@@ -5486,2607 +5488,2607 @@
     </row>
     <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="C3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>520</v>
-      </c>
       <c r="E3" t="s">
         <v>182</v>
       </c>
       <c r="F3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="C4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>523</v>
-      </c>
       <c r="E4" t="s">
         <v>182</v>
       </c>
       <c r="F4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="C5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>526</v>
-      </c>
       <c r="E5" t="s">
         <v>182</v>
       </c>
       <c r="F5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="C6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>529</v>
-      </c>
       <c r="E6" t="s">
         <v>182</v>
       </c>
       <c r="F6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>529</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="C7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>532</v>
-      </c>
       <c r="E7" t="s">
         <v>182</v>
       </c>
       <c r="F7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>532</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="C8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>535</v>
-      </c>
       <c r="E8" t="s">
         <v>182</v>
       </c>
       <c r="F8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="C9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>538</v>
-      </c>
       <c r="E9" t="s">
         <v>182</v>
       </c>
       <c r="F9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>539</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="C10" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>541</v>
-      </c>
       <c r="E10" t="s">
         <v>182</v>
       </c>
       <c r="F10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>541</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="C11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>544</v>
-      </c>
       <c r="E11" t="s">
         <v>182</v>
       </c>
       <c r="F11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>544</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="C12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>547</v>
-      </c>
       <c r="E12" t="s">
         <v>182</v>
       </c>
       <c r="F12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>547</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="C13" t="s">
-        <v>182</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>550</v>
-      </c>
       <c r="E13" t="s">
         <v>182</v>
       </c>
       <c r="F13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>550</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="C14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>553</v>
-      </c>
       <c r="E14" t="s">
         <v>182</v>
       </c>
       <c r="F14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>553</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="C15" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>556</v>
-      </c>
       <c r="E15" t="s">
         <v>182</v>
       </c>
       <c r="F15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>556</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="C16" t="s">
-        <v>182</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>559</v>
-      </c>
       <c r="E16" t="s">
         <v>182</v>
       </c>
       <c r="F16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>559</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="C17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>562</v>
-      </c>
       <c r="E17" t="s">
         <v>182</v>
       </c>
       <c r="F17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>562</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="C18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>565</v>
-      </c>
       <c r="E18" t="s">
         <v>182</v>
       </c>
       <c r="F18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>565</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="C19" t="s">
-        <v>182</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>568</v>
-      </c>
       <c r="E19" t="s">
         <v>182</v>
       </c>
       <c r="F19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>568</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="C20" t="s">
-        <v>182</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>571</v>
-      </c>
       <c r="E20" t="s">
         <v>182</v>
       </c>
       <c r="F20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>571</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="C21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>574</v>
-      </c>
       <c r="E21" t="s">
         <v>182</v>
       </c>
       <c r="F21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>574</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="C22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>577</v>
-      </c>
       <c r="E22" t="s">
         <v>182</v>
       </c>
       <c r="F22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>577</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="C23" t="s">
-        <v>182</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>580</v>
-      </c>
       <c r="E23" t="s">
         <v>182</v>
       </c>
       <c r="F23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>580</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="C24" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>583</v>
-      </c>
       <c r="E24" t="s">
         <v>182</v>
       </c>
       <c r="F24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>583</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="C25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>586</v>
-      </c>
       <c r="E25" t="s">
         <v>182</v>
       </c>
       <c r="F25" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>586</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="C26" t="s">
-        <v>182</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>589</v>
-      </c>
       <c r="E26" t="s">
         <v>182</v>
       </c>
       <c r="F26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>589</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="C27" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>592</v>
-      </c>
       <c r="E27" t="s">
         <v>182</v>
       </c>
       <c r="F27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>592</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="C28" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>595</v>
-      </c>
       <c r="E28" t="s">
         <v>182</v>
       </c>
       <c r="F28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>595</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="C29" t="s">
-        <v>182</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>598</v>
-      </c>
       <c r="E29" t="s">
         <v>182</v>
       </c>
       <c r="F29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>598</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="C30" t="s">
-        <v>182</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>601</v>
-      </c>
       <c r="E30" t="s">
         <v>182</v>
       </c>
       <c r="F30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>601</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="C31" t="s">
-        <v>182</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>604</v>
-      </c>
       <c r="E31" t="s">
         <v>182</v>
       </c>
       <c r="F31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>604</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="C32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="C32" t="s">
-        <v>182</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>607</v>
-      </c>
       <c r="E32" t="s">
         <v>182</v>
       </c>
       <c r="F32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>607</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="C33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="C33" t="s">
-        <v>182</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>610</v>
-      </c>
       <c r="E33" t="s">
         <v>182</v>
       </c>
       <c r="F33" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>610</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="C34" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="C34" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>613</v>
-      </c>
       <c r="E34" t="s">
         <v>182</v>
       </c>
       <c r="F34" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>613</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>614</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="C35" t="s">
-        <v>182</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>616</v>
-      </c>
       <c r="E35" t="s">
         <v>182</v>
       </c>
       <c r="F35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>616</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="C36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="C36" t="s">
-        <v>182</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>619</v>
-      </c>
       <c r="E36" t="s">
         <v>182</v>
       </c>
       <c r="F36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>619</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" t="s">
+        <v>182</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="C37" t="s">
-        <v>182</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>622</v>
-      </c>
       <c r="E37" t="s">
         <v>182</v>
       </c>
       <c r="F37" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>622</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="C38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>625</v>
-      </c>
       <c r="E38" t="s">
         <v>182</v>
       </c>
       <c r="F38" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>625</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>626</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="C39" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="C39" t="s">
-        <v>182</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>628</v>
-      </c>
       <c r="E39" t="s">
         <v>182</v>
       </c>
       <c r="F39" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>628</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="C40" t="s">
-        <v>182</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>631</v>
-      </c>
       <c r="E40" t="s">
         <v>182</v>
       </c>
       <c r="F40" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>631</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>632</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="C41" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="C41" t="s">
-        <v>182</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>634</v>
-      </c>
       <c r="E41" t="s">
         <v>182</v>
       </c>
       <c r="F41" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>634</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="C42" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="C42" t="s">
-        <v>182</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>637</v>
-      </c>
       <c r="E42" t="s">
         <v>182</v>
       </c>
       <c r="F42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>637</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="C43" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="C43" t="s">
-        <v>182</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>640</v>
-      </c>
       <c r="E43" t="s">
         <v>182</v>
       </c>
       <c r="F43" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>640</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="C44" t="s">
-        <v>182</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>643</v>
-      </c>
       <c r="E44" t="s">
         <v>182</v>
       </c>
       <c r="F44" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>643</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>644</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="C45" t="s">
-        <v>182</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>646</v>
-      </c>
       <c r="E45" t="s">
         <v>182</v>
       </c>
       <c r="F45" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>646</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="C46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="C46" t="s">
-        <v>182</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>649</v>
-      </c>
       <c r="E46" t="s">
         <v>182</v>
       </c>
       <c r="F46" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>649</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>650</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C47" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="C47" t="s">
-        <v>182</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>652</v>
-      </c>
       <c r="E47" t="s">
         <v>182</v>
       </c>
       <c r="F47" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>652</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="C48" t="s">
-        <v>182</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>655</v>
-      </c>
       <c r="E48" t="s">
         <v>182</v>
       </c>
       <c r="F48" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>655</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="C49" t="s">
+        <v>182</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="C49" t="s">
-        <v>182</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>658</v>
-      </c>
       <c r="E49" t="s">
         <v>182</v>
       </c>
       <c r="F49" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>658</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>659</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" t="s">
+        <v>182</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="C50" t="s">
-        <v>182</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>661</v>
-      </c>
       <c r="E50" t="s">
         <v>182</v>
       </c>
       <c r="F50" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>661</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>662</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="C51" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="C51" t="s">
-        <v>182</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>664</v>
-      </c>
       <c r="E51" t="s">
         <v>182</v>
       </c>
       <c r="F51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>664</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="C52" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="C52" t="s">
-        <v>182</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>667</v>
-      </c>
       <c r="E52" t="s">
         <v>182</v>
       </c>
       <c r="F52" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>667</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="C53" t="s">
+        <v>182</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="C53" t="s">
-        <v>182</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>670</v>
-      </c>
       <c r="E53" t="s">
         <v>182</v>
       </c>
       <c r="F53" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>670</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="C54" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="C54" t="s">
-        <v>182</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>673</v>
-      </c>
       <c r="E54" t="s">
         <v>182</v>
       </c>
       <c r="F54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>673</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>674</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="C55" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="C55" t="s">
-        <v>182</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>676</v>
-      </c>
       <c r="E55" t="s">
         <v>182</v>
       </c>
       <c r="F55" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>676</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="C56" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="C56" t="s">
-        <v>182</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>679</v>
-      </c>
       <c r="E56" t="s">
         <v>182</v>
       </c>
       <c r="F56" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>679</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="C57" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="C57" t="s">
-        <v>182</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>682</v>
-      </c>
       <c r="E57" t="s">
         <v>182</v>
       </c>
       <c r="F57" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>682</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="C58" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="C58" t="s">
-        <v>182</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>685</v>
-      </c>
       <c r="E58" t="s">
         <v>182</v>
       </c>
       <c r="F58" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>685</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>686</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="C59" t="s">
+        <v>182</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="C59" t="s">
-        <v>182</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>688</v>
-      </c>
       <c r="E59" t="s">
         <v>182</v>
       </c>
       <c r="F59" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>688</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="C60" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="C60" t="s">
-        <v>182</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>691</v>
-      </c>
       <c r="E60" t="s">
         <v>182</v>
       </c>
       <c r="F60" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>691</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="C61" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="C61" t="s">
-        <v>182</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>694</v>
-      </c>
       <c r="E61" t="s">
         <v>182</v>
       </c>
       <c r="F61" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>694</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="C62" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="C62" t="s">
-        <v>182</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>697</v>
-      </c>
       <c r="E62" t="s">
         <v>182</v>
       </c>
       <c r="F62" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>697</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>698</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="C63" t="s">
+        <v>182</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="C63" t="s">
-        <v>182</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>700</v>
-      </c>
       <c r="E63" t="s">
         <v>182</v>
       </c>
       <c r="F63" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>700</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="C64" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="C64" t="s">
-        <v>182</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>703</v>
-      </c>
       <c r="E64" t="s">
         <v>182</v>
       </c>
       <c r="F64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>703</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="C65" t="s">
+        <v>182</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="C65" t="s">
-        <v>182</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>706</v>
-      </c>
       <c r="E65" t="s">
         <v>182</v>
       </c>
       <c r="F65" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>706</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="C66" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="C66" t="s">
-        <v>182</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>709</v>
-      </c>
       <c r="E66" t="s">
         <v>182</v>
       </c>
       <c r="F66" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>709</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>710</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="C67" t="s">
+        <v>182</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="C67" t="s">
-        <v>182</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>712</v>
-      </c>
       <c r="E67" t="s">
         <v>182</v>
       </c>
       <c r="F67" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>712</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="C68" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="C68" t="s">
-        <v>182</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>715</v>
-      </c>
       <c r="E68" t="s">
         <v>182</v>
       </c>
       <c r="F68" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>715</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>716</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="C69" t="s">
+        <v>182</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="C69" t="s">
-        <v>182</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>718</v>
-      </c>
       <c r="E69" t="s">
         <v>182</v>
       </c>
       <c r="F69" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>718</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="C70" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="C70" t="s">
-        <v>182</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>721</v>
-      </c>
       <c r="E70" t="s">
         <v>182</v>
       </c>
       <c r="F70" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>721</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="C71" t="s">
+        <v>182</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="C71" t="s">
-        <v>182</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>724</v>
-      </c>
       <c r="E71" t="s">
         <v>182</v>
       </c>
       <c r="F71" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>724</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>725</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="C72" t="s">
+        <v>182</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="C72" t="s">
-        <v>182</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>727</v>
-      </c>
       <c r="E72" t="s">
         <v>182</v>
       </c>
       <c r="F72" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>727</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>728</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="C73" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="C73" t="s">
-        <v>182</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>730</v>
-      </c>
       <c r="E73" t="s">
         <v>182</v>
       </c>
       <c r="F73" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>730</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="C74" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="C74" t="s">
-        <v>182</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>733</v>
-      </c>
       <c r="E74" t="s">
         <v>182</v>
       </c>
       <c r="F74" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>733</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="C75" t="s">
+        <v>182</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="C75" t="s">
-        <v>182</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>736</v>
-      </c>
       <c r="E75" t="s">
         <v>182</v>
       </c>
       <c r="F75" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>736</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="C76" t="s">
+        <v>182</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="C76" t="s">
-        <v>182</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>739</v>
-      </c>
       <c r="E76" t="s">
         <v>182</v>
       </c>
       <c r="F76" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>739</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>740</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="C77" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="C77" t="s">
-        <v>182</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>742</v>
-      </c>
       <c r="E77" t="s">
         <v>182</v>
       </c>
       <c r="F77" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>742</v>
+      </c>
+      <c r="B78" s="10" t="s">
         <v>743</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="C78" t="s">
+        <v>182</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="C78" t="s">
-        <v>182</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>745</v>
-      </c>
       <c r="E78" t="s">
         <v>182</v>
       </c>
       <c r="F78" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>745</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>746</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="C79" t="s">
+        <v>182</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="C79" t="s">
-        <v>182</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>748</v>
-      </c>
       <c r="E79" t="s">
         <v>182</v>
       </c>
       <c r="F79" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>748</v>
+      </c>
+      <c r="B80" s="10" t="s">
         <v>749</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="C80" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="C80" t="s">
-        <v>182</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>751</v>
-      </c>
       <c r="E80" t="s">
         <v>182</v>
       </c>
       <c r="F80" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>751</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>752</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="C81" t="s">
+        <v>182</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="C81" t="s">
-        <v>182</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>754</v>
-      </c>
       <c r="E81" t="s">
         <v>182</v>
       </c>
       <c r="F81" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>754</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>755</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="C82" t="s">
+        <v>182</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="C82" t="s">
-        <v>182</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>757</v>
-      </c>
       <c r="E82" t="s">
         <v>182</v>
       </c>
       <c r="F82" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>757</v>
+      </c>
+      <c r="B83" s="10" t="s">
         <v>758</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="C83" t="s">
+        <v>182</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="C83" t="s">
-        <v>182</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>760</v>
-      </c>
       <c r="E83" t="s">
         <v>182</v>
       </c>
       <c r="F83" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>760</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>761</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="C84" t="s">
+        <v>182</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>762</v>
       </c>
-      <c r="C84" t="s">
-        <v>182</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>763</v>
-      </c>
       <c r="E84" t="s">
         <v>182</v>
       </c>
       <c r="F84" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>763</v>
+      </c>
+      <c r="B85" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="C85" t="s">
+        <v>182</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="C85" t="s">
-        <v>182</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>766</v>
-      </c>
       <c r="E85" t="s">
         <v>182</v>
       </c>
       <c r="F85" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>766</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>767</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="C86" t="s">
+        <v>182</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>768</v>
       </c>
-      <c r="C86" t="s">
-        <v>182</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>769</v>
-      </c>
       <c r="E86" t="s">
         <v>182</v>
       </c>
       <c r="F86" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>769</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>770</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="C87" t="s">
+        <v>182</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="C87" t="s">
-        <v>182</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>772</v>
-      </c>
       <c r="E87" t="s">
         <v>182</v>
       </c>
       <c r="F87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>772</v>
+      </c>
+      <c r="B88" s="10" t="s">
         <v>773</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="C88" t="s">
+        <v>182</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="C88" t="s">
-        <v>182</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>775</v>
-      </c>
       <c r="E88" t="s">
         <v>182</v>
       </c>
       <c r="F88" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>775</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>776</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="C89" t="s">
+        <v>182</v>
+      </c>
+      <c r="D89" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="C89" t="s">
-        <v>182</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>778</v>
-      </c>
       <c r="E89" t="s">
         <v>182</v>
       </c>
       <c r="F89" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>778</v>
+      </c>
+      <c r="B90" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="C90" t="s">
+        <v>182</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>780</v>
       </c>
-      <c r="C90" t="s">
-        <v>182</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>781</v>
-      </c>
       <c r="E90" t="s">
         <v>182</v>
       </c>
       <c r="F90" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>781</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="C91" t="s">
+        <v>182</v>
+      </c>
+      <c r="D91" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="C91" t="s">
-        <v>182</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>783</v>
-      </c>
       <c r="E91" t="s">
         <v>182</v>
       </c>
       <c r="F91" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>783</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>784</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="C92" t="s">
+        <v>182</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="C92" t="s">
-        <v>182</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>786</v>
-      </c>
       <c r="E92" t="s">
         <v>182</v>
       </c>
       <c r="F92" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>786</v>
+      </c>
+      <c r="B93" s="10" t="s">
         <v>787</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="C93" t="s">
+        <v>182</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="C93" t="s">
-        <v>182</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>789</v>
-      </c>
       <c r="E93" t="s">
         <v>182</v>
       </c>
       <c r="F93" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>789</v>
+      </c>
+      <c r="B94" s="10" t="s">
         <v>790</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="C94" t="s">
+        <v>182</v>
+      </c>
+      <c r="D94" s="9" t="s">
         <v>791</v>
       </c>
-      <c r="C94" t="s">
-        <v>182</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>792</v>
-      </c>
       <c r="E94" t="s">
         <v>182</v>
       </c>
       <c r="F94" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>792</v>
+      </c>
+      <c r="B95" s="10" t="s">
         <v>793</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="C95" t="s">
+        <v>182</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>794</v>
       </c>
-      <c r="C95" t="s">
-        <v>182</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>795</v>
-      </c>
       <c r="E95" t="s">
         <v>182</v>
       </c>
       <c r="F95" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>795</v>
+      </c>
+      <c r="B96" s="10" t="s">
         <v>796</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="C96" t="s">
+        <v>182</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>797</v>
       </c>
-      <c r="C96" t="s">
-        <v>182</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>798</v>
-      </c>
       <c r="E96" t="s">
         <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>798</v>
+      </c>
+      <c r="B97" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="C97" t="s">
+        <v>182</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="C97" t="s">
-        <v>182</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>801</v>
-      </c>
       <c r="E97" t="s">
         <v>182</v>
       </c>
       <c r="F97" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>801</v>
+      </c>
+      <c r="B98" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="C98" t="s">
+        <v>182</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>803</v>
       </c>
-      <c r="C98" t="s">
-        <v>182</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>804</v>
-      </c>
       <c r="E98" t="s">
         <v>182</v>
       </c>
       <c r="F98" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>804</v>
+      </c>
+      <c r="B99" s="10" t="s">
         <v>805</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="C99" t="s">
+        <v>182</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>806</v>
       </c>
-      <c r="C99" t="s">
-        <v>182</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>807</v>
-      </c>
       <c r="E99" t="s">
         <v>182</v>
       </c>
       <c r="F99" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>807</v>
+      </c>
+      <c r="B100" s="10" t="s">
         <v>808</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="C100" t="s">
+        <v>182</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>809</v>
       </c>
-      <c r="C100" t="s">
-        <v>182</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>810</v>
-      </c>
       <c r="E100" t="s">
         <v>182</v>
       </c>
       <c r="F100" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>810</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>811</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="C101" t="s">
+        <v>182</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>812</v>
       </c>
-      <c r="C101" t="s">
-        <v>182</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>813</v>
-      </c>
       <c r="E101" t="s">
         <v>182</v>
       </c>
       <c r="F101" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>813</v>
+      </c>
+      <c r="B102" s="10" t="s">
         <v>814</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="C102" t="s">
+        <v>182</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>815</v>
       </c>
-      <c r="C102" t="s">
-        <v>182</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>816</v>
-      </c>
       <c r="E102" t="s">
         <v>182</v>
       </c>
       <c r="F102" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>816</v>
+      </c>
+      <c r="B103" s="10" t="s">
         <v>817</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="C103" t="s">
+        <v>182</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>818</v>
       </c>
-      <c r="C103" t="s">
-        <v>182</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>819</v>
-      </c>
       <c r="E103" t="s">
         <v>182</v>
       </c>
       <c r="F103" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>819</v>
+      </c>
+      <c r="B104" s="10" t="s">
         <v>820</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="C104" t="s">
+        <v>182</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>821</v>
       </c>
-      <c r="C104" t="s">
-        <v>182</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>822</v>
-      </c>
       <c r="E104" t="s">
         <v>182</v>
       </c>
       <c r="F104" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>822</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>823</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="C105" t="s">
+        <v>182</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>824</v>
       </c>
-      <c r="C105" t="s">
-        <v>182</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>825</v>
-      </c>
       <c r="E105" t="s">
         <v>182</v>
       </c>
       <c r="F105" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>825</v>
+      </c>
+      <c r="B106" s="10" t="s">
         <v>826</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="C106" t="s">
+        <v>182</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="C106" t="s">
-        <v>182</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>828</v>
-      </c>
       <c r="E106" t="s">
         <v>182</v>
       </c>
       <c r="F106" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>828</v>
+      </c>
+      <c r="B107" s="10" t="s">
         <v>829</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="C107" t="s">
+        <v>182</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="C107" t="s">
-        <v>182</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>831</v>
-      </c>
       <c r="E107" t="s">
         <v>182</v>
       </c>
       <c r="F107" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>831</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>832</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="C108" t="s">
+        <v>182</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>833</v>
       </c>
-      <c r="C108" t="s">
-        <v>182</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>834</v>
-      </c>
       <c r="E108" t="s">
         <v>182</v>
       </c>
       <c r="F108" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>834</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>835</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="C109" t="s">
+        <v>182</v>
+      </c>
+      <c r="D109" s="9" t="s">
         <v>836</v>
       </c>
-      <c r="C109" t="s">
-        <v>182</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>837</v>
-      </c>
       <c r="E109" t="s">
         <v>182</v>
       </c>
       <c r="F109" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>837</v>
+      </c>
+      <c r="B110" s="10" t="s">
         <v>838</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="C110" t="s">
+        <v>182</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>839</v>
       </c>
-      <c r="C110" t="s">
-        <v>182</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>840</v>
-      </c>
       <c r="E110" t="s">
         <v>182</v>
       </c>
       <c r="F110" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>840</v>
+      </c>
+      <c r="B111" s="10" t="s">
         <v>841</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="C111" t="s">
+        <v>182</v>
+      </c>
+      <c r="D111" s="9" t="s">
         <v>842</v>
       </c>
-      <c r="C111" t="s">
-        <v>182</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>843</v>
-      </c>
       <c r="E111" t="s">
         <v>182</v>
       </c>
       <c r="F111" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>843</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>844</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="C112" t="s">
+        <v>182</v>
+      </c>
+      <c r="D112" s="9" t="s">
         <v>845</v>
       </c>
-      <c r="C112" t="s">
-        <v>182</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>846</v>
-      </c>
       <c r="E112" t="s">
         <v>182</v>
       </c>
       <c r="F112" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>846</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="C113" t="s">
+        <v>182</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>848</v>
       </c>
-      <c r="C113" t="s">
-        <v>182</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>849</v>
-      </c>
       <c r="E113" t="s">
         <v>182</v>
       </c>
       <c r="F113" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>849</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>850</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="C114" t="s">
+        <v>182</v>
+      </c>
+      <c r="D114" s="9" t="s">
         <v>851</v>
       </c>
-      <c r="C114" t="s">
-        <v>182</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>852</v>
-      </c>
       <c r="E114" t="s">
         <v>182</v>
       </c>
       <c r="F114" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>852</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>853</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="C115" t="s">
+        <v>182</v>
+      </c>
+      <c r="D115" s="9" t="s">
         <v>854</v>
       </c>
-      <c r="C115" t="s">
-        <v>182</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>855</v>
-      </c>
       <c r="E115" t="s">
         <v>182</v>
       </c>
       <c r="F115" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>855</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>856</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="C116" t="s">
+        <v>182</v>
+      </c>
+      <c r="D116" s="9" t="s">
         <v>857</v>
       </c>
-      <c r="C116" t="s">
-        <v>182</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>858</v>
-      </c>
       <c r="E116" t="s">
         <v>182</v>
       </c>
       <c r="F116" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>858</v>
+      </c>
+      <c r="B117" s="10" t="s">
         <v>859</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="C117" t="s">
+        <v>182</v>
+      </c>
+      <c r="D117" s="9" t="s">
         <v>860</v>
       </c>
-      <c r="C117" t="s">
-        <v>182</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>861</v>
-      </c>
       <c r="E117" t="s">
         <v>182</v>
       </c>
       <c r="F117" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>861</v>
+      </c>
+      <c r="B118" s="10" t="s">
         <v>862</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="C118" t="s">
+        <v>182</v>
+      </c>
+      <c r="D118" s="9" t="s">
         <v>863</v>
       </c>
-      <c r="C118" t="s">
-        <v>182</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>864</v>
-      </c>
       <c r="E118" t="s">
         <v>182</v>
       </c>
       <c r="F118" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>864</v>
+      </c>
+      <c r="B119" s="10" t="s">
         <v>865</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="C119" t="s">
+        <v>182</v>
+      </c>
+      <c r="D119" s="9" t="s">
         <v>866</v>
       </c>
-      <c r="C119" t="s">
-        <v>182</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>867</v>
-      </c>
       <c r="E119" t="s">
         <v>182</v>
       </c>
       <c r="F119" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>867</v>
+      </c>
+      <c r="B120" s="10" t="s">
         <v>868</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="C120" t="s">
+        <v>182</v>
+      </c>
+      <c r="D120" s="9" t="s">
         <v>869</v>
       </c>
-      <c r="C120" t="s">
-        <v>182</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>870</v>
-      </c>
       <c r="E120" t="s">
         <v>182</v>
       </c>
       <c r="F120" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>870</v>
+      </c>
+      <c r="B121" s="10" t="s">
         <v>871</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="C121" t="s">
+        <v>182</v>
+      </c>
+      <c r="D121" s="9" t="s">
         <v>872</v>
       </c>
-      <c r="C121" t="s">
-        <v>182</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>873</v>
-      </c>
       <c r="E121" t="s">
         <v>182</v>
       </c>
       <c r="F121" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>873</v>
+      </c>
+      <c r="B122" s="10" t="s">
         <v>874</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="C122" t="s">
+        <v>182</v>
+      </c>
+      <c r="D122" s="9" t="s">
         <v>875</v>
       </c>
-      <c r="C122" t="s">
-        <v>182</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>876</v>
-      </c>
       <c r="E122" t="s">
         <v>182</v>
       </c>
       <c r="F122" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>876</v>
+      </c>
+      <c r="B123" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="C123" t="s">
+        <v>182</v>
+      </c>
+      <c r="D123" s="9" t="s">
         <v>878</v>
       </c>
-      <c r="C123" t="s">
-        <v>182</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>879</v>
-      </c>
       <c r="E123" t="s">
         <v>182</v>
       </c>
       <c r="F123" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>879</v>
+      </c>
+      <c r="B124" s="10" t="s">
         <v>880</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="C124" t="s">
+        <v>182</v>
+      </c>
+      <c r="D124" s="9" t="s">
         <v>881</v>
       </c>
-      <c r="C124" t="s">
-        <v>182</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>882</v>
-      </c>
       <c r="E124" t="s">
         <v>182</v>
       </c>
       <c r="F124" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>882</v>
+      </c>
+      <c r="B125" s="10" t="s">
         <v>883</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="C125" t="s">
+        <v>182</v>
+      </c>
+      <c r="D125" s="9" t="s">
         <v>884</v>
       </c>
-      <c r="C125" t="s">
-        <v>182</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>885</v>
-      </c>
       <c r="E125" t="s">
         <v>182</v>
       </c>
       <c r="F125" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>885</v>
+      </c>
+      <c r="B126" s="10" t="s">
         <v>886</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="C126" t="s">
+        <v>182</v>
+      </c>
+      <c r="D126" s="9" t="s">
         <v>887</v>
       </c>
-      <c r="C126" t="s">
-        <v>182</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>888</v>
-      </c>
       <c r="E126" t="s">
         <v>182</v>
       </c>
       <c r="F126" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>888</v>
+      </c>
+      <c r="B127" s="10" t="s">
         <v>889</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="C127" t="s">
+        <v>182</v>
+      </c>
+      <c r="D127" s="9" t="s">
         <v>890</v>
       </c>
-      <c r="C127" t="s">
-        <v>182</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>891</v>
-      </c>
       <c r="E127" t="s">
         <v>182</v>
       </c>
       <c r="F127" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>891</v>
+      </c>
+      <c r="B128" s="10" t="s">
         <v>892</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="C128" t="s">
+        <v>182</v>
+      </c>
+      <c r="D128" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="C128" t="s">
-        <v>182</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>894</v>
-      </c>
       <c r="E128" t="s">
         <v>182</v>
       </c>
       <c r="F128" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>894</v>
+      </c>
+      <c r="B129" s="10" t="s">
         <v>895</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="C129" t="s">
+        <v>182</v>
+      </c>
+      <c r="D129" s="9" t="s">
         <v>896</v>
       </c>
-      <c r="C129" t="s">
-        <v>182</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>897</v>
-      </c>
       <c r="E129" t="s">
         <v>182</v>
       </c>
       <c r="F129" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>897</v>
+      </c>
+      <c r="B130" s="10" t="s">
         <v>898</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="C130" t="s">
+        <v>182</v>
+      </c>
+      <c r="D130" s="9" t="s">
         <v>899</v>
       </c>
-      <c r="C130" t="s">
-        <v>182</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>900</v>
-      </c>
       <c r="E130" t="s">
         <v>182</v>
       </c>
       <c r="F130" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>900</v>
+      </c>
+      <c r="B131" s="10" t="s">
         <v>901</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="C131" t="s">
+        <v>182</v>
+      </c>
+      <c r="D131" s="9" t="s">
         <v>902</v>
       </c>
-      <c r="C131" t="s">
-        <v>182</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>903</v>
-      </c>
       <c r="E131" t="s">
         <v>182</v>
       </c>
       <c r="F131" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>903</v>
+      </c>
+      <c r="B132" s="10" t="s">
         <v>904</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="C132" t="s">
+        <v>182</v>
+      </c>
+      <c r="D132" s="9" t="s">
         <v>905</v>
       </c>
-      <c r="C132" t="s">
-        <v>182</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>906</v>
-      </c>
       <c r="E132" t="s">
         <v>182</v>
       </c>
       <c r="F132" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B133" s="10"/>
       <c r="C133" t="s">
@@ -8096,12 +8098,12 @@
         <v>182</v>
       </c>
       <c r="F133" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B134" s="10"/>
       <c r="C134" t="s">
@@ -8111,12 +8113,12 @@
         <v>182</v>
       </c>
       <c r="F134" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B135" s="10"/>
       <c r="C135" t="s">
@@ -8126,12 +8128,12 @@
         <v>182</v>
       </c>
       <c r="F135" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B136" s="10"/>
       <c r="C136" t="s">
@@ -8141,12 +8143,12 @@
         <v>182</v>
       </c>
       <c r="F136" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B137" s="10"/>
       <c r="C137" t="s">
@@ -8156,12 +8158,12 @@
         <v>182</v>
       </c>
       <c r="F137" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B138" s="10"/>
       <c r="C138" t="s">
@@ -8171,7 +8173,7 @@
         <v>182</v>
       </c>
       <c r="F138" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/simple_1.xlsx
+++ b/tests/integration_test_files/simple_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E1218B-CD0A-0547-9C7C-D63AB0C5CD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5D7CC0-97EF-1145-A367-FC6DFBD0A67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50740" yWindow="8280" windowWidth="44360" windowHeight="19460" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46340" yWindow="3960" windowWidth="36120" windowHeight="19460" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="916">
   <si>
     <t>name</t>
   </si>
@@ -2795,12 +2795,21 @@
   <si>
     <t>&lt;usdm:ref klass="StudyIdentifier" id="StudyIdentifier_1" attribute="text"/&gt;</t>
   </si>
+  <si>
+    <t>populationSubset</t>
+  </si>
+  <si>
+    <t>intercurrentEventText</t>
+  </si>
+  <si>
+    <t>ICE Text</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2820,14 +2829,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2871,7 +2872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2898,10 +2899,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2941,7 +2938,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3279,11 +3276,11 @@
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="6" width="24.6640625" style="25" customWidth="1"/>
+    <col min="5" max="6" width="24.6640625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -3291,7 +3288,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -3299,15 +3296,15 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -3315,7 +3312,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -3323,7 +3320,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -3331,7 +3328,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -3339,15 +3336,15 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -3355,7 +3352,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -3363,7 +3360,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -3371,7 +3368,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -3379,15 +3376,15 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3395,25 +3392,25 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3433,7 +3430,7 @@
       <c r="E17" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="24">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
@@ -3456,7 +3453,7 @@
       <c r="E18" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="24">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
@@ -3484,16 +3481,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3550,28 +3547,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3642,37 +3639,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4187,47 +4184,56 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="I1" sqref="A1:I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="61.83203125" customWidth="1"/>
+    <col min="3" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="7" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="61.83203125" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
+        <v>913</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="19" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" s="19" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>296</v>
       </c>
@@ -4237,33 +4243,47 @@
       <c r="C2" t="s">
         <v>298</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" t="s">
         <v>299</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>300</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>199</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>260</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H3" t="s">
+      <c r="J2" s="10" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D3" s="10"/>
+      <c r="I3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H4" t="s">
+      <c r="J3" s="10" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D4" s="10"/>
+      <c r="I4" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4" s="10" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -4273,20 +4293,26 @@
       <c r="C5" t="s">
         <v>298</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" t="s">
         <v>306</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>307</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>217</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>266</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>308</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>915</v>
       </c>
     </row>
   </sheetData>
@@ -4317,22 +4343,22 @@
       <c r="A1" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>314</v>
       </c>
     </row>
@@ -4405,28 +4431,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4561,19 +4587,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4705,7 +4731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4718,15 +4744,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>368</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -4787,57 +4813,57 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="21" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="21" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="21" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="21" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="21" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="21" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="21" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="21" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="21" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="21" t="s">
         <v>390</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -4845,7 +4871,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="21" t="s">
         <v>392</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -4853,102 +4879,102 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="21" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="21" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="21" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="21" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="21" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="21" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="21" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="21" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="21" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="21" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="21" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="21" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="21" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="21" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="21" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="21" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="21" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="21" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="21" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="21" t="s">
         <v>413</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -4956,442 +4982,442 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="21" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="21" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="21" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="21" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="21" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="21" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="21" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="21" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="21" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="21" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="21" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="21" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="21" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="21" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="21" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="21" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="21" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="21" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="21" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="21" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="21" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="21" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="21" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="21" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="21" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="21" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="21" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="21" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="21" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="21" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="21" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="21" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="21" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="21" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="21" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="21" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="21" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="21" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="21" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="21" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="21" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="21" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="21" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="21" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="21" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="23" t="s">
+      <c r="A90" s="21" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="21" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="21" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="21" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="21" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="23" t="s">
+      <c r="A95" s="21" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="23" t="s">
+      <c r="A96" s="21" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="21" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="21" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="23" t="s">
+      <c r="A99" s="21" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="23" t="s">
+      <c r="A100" s="21" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="21" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="23" t="s">
+      <c r="A102" s="21" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="23" t="s">
+      <c r="A103" s="21" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="23" t="s">
+      <c r="A104" s="21" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="23" t="s">
+      <c r="A105" s="21" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="23" t="s">
+      <c r="A106" s="21" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="23" t="s">
+      <c r="A107" s="21" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="23" t="s">
+      <c r="A108" s="21" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="23" t="s">
+      <c r="A109" s="21" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="23" t="s">
+      <c r="A110" s="21" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="23" t="s">
+      <c r="A111" s="21" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="23" t="s">
+      <c r="A112" s="21" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="23" t="s">
+      <c r="A113" s="21" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="23" t="s">
+      <c r="A114" s="21" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="23" t="s">
+      <c r="A115" s="21" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="23" t="s">
+      <c r="A116" s="21" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="23" t="s">
+      <c r="A117" s="21" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="23" t="s">
+      <c r="A118" s="21" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="23" t="s">
+      <c r="A119" s="21" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="23" t="s">
+      <c r="A120" s="21" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="23" t="s">
+      <c r="A121" s="21" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="23" t="s">
+      <c r="A122" s="21" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="23" t="s">
+      <c r="A123" s="21" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="23" t="s">
+      <c r="A124" s="21" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="23" t="s">
+      <c r="A125" s="21" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="23" t="s">
+      <c r="A126" s="21" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="23" t="s">
+      <c r="A127" s="21" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="23" t="s">
+      <c r="A128" s="21" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="23" t="s">
+      <c r="A129" s="21" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="23" t="s">
+      <c r="A130" s="21" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="23" t="s">
+      <c r="A131" s="21" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="23" t="s">
+      <c r="A132" s="21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -5447,22 +5473,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>512</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>513</v>
       </c>
     </row>
@@ -5630,7 +5656,7 @@
       <c r="A10" t="s">
         <v>538</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>539</v>
       </c>
       <c r="C10" t="s">
@@ -8197,22 +8223,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8277,115 +8303,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -8482,19 +8508,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8556,13 +8582,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>103</v>
       </c>
     </row>
@@ -8636,13 +8662,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>112</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -8662,13 +8688,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -8688,13 +8714,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -8714,8 +8740,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="13"/>
+      <c r="C4" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -8735,8 +8761,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -8756,8 +8782,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="C6" s="15" t="s">
+      <c r="A6" s="13"/>
+      <c r="C6" s="13" t="s">
         <v>132</v>
       </c>
       <c r="D6" s="2"/>
@@ -8769,7 +8795,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -8791,7 +8817,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>134</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -8811,13 +8837,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>142</v>
       </c>
     </row>
@@ -9078,16 +9104,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9155,61 +9181,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="19" t="s">
         <v>198</v>
       </c>
     </row>
@@ -9229,7 +9255,7 @@
       <c r="E2" t="s">
         <v>203</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="25" t="s">
         <v>204</v>
       </c>
       <c r="G2" t="s">
@@ -9268,7 +9294,7 @@
       <c r="R2" t="s">
         <v>215</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="26" t="s">
         <v>216</v>
       </c>
     </row>
@@ -9288,7 +9314,7 @@
       <c r="E3" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="25" t="s">
         <v>204</v>
       </c>
       <c r="G3" t="s">
@@ -9327,7 +9353,7 @@
       <c r="R3" t="s">
         <v>215</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="26" t="s">
         <v>216</v>
       </c>
     </row>

--- a/tests/integration_test_files/simple_1.xlsx
+++ b/tests/integration_test_files/simple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9EE127-B452-D24D-8510-D848F0D7129F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D65E9D-8364-1948-893A-6615154A200C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="3960" windowWidth="48440" windowHeight="24560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51280" yWindow="500" windowWidth="48440" windowHeight="24560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="919">
   <si>
     <t>name</t>
   </si>
@@ -258,9 +258,6 @@
   </si>
   <si>
     <t>BASIC SCIENCE,    DEVICE FEASIBILITY</t>
-  </si>
-  <si>
-    <t>trialTypes</t>
   </si>
   <si>
     <t>Efficacy Study</t>
@@ -2810,6 +2807,12 @@
   </si>
   <si>
     <t>organization</t>
+  </si>
+  <si>
+    <t>spare</t>
+  </si>
+  <si>
+    <t>trialSubTypes</t>
   </si>
 </sst>
 </file>
@@ -3274,7 +3277,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3515,170 +3518,170 @@
         <v>29</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>184</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>185</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>197</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
         <v>199</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>200</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>201</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>202</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" t="s">
         <v>204</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>205</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>206</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>207</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>208</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>209</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>210</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>211</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>212</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>213</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>181</v>
+      </c>
+      <c r="R2" t="s">
         <v>214</v>
       </c>
-      <c r="Q2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="26" t="s">
         <v>215</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" t="s">
         <v>217</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>218</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" t="s">
         <v>219</v>
       </c>
-      <c r="D3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="G3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" t="s">
         <v>220</v>
       </c>
-      <c r="I3" t="s">
-        <v>207</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>221</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>222</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>210</v>
+      </c>
+      <c r="N3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O3" t="s">
+        <v>212</v>
+      </c>
+      <c r="P3" t="s">
         <v>223</v>
       </c>
-      <c r="M3" t="s">
-        <v>211</v>
-      </c>
-      <c r="N3" t="s">
-        <v>212</v>
-      </c>
-      <c r="O3" t="s">
-        <v>213</v>
-      </c>
-      <c r="P3" t="s">
-        <v>224</v>
-      </c>
       <c r="Q3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R3" t="s">
+        <v>214</v>
+      </c>
+      <c r="S3" s="26" t="s">
         <v>215</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3712,35 +3715,35 @@
         <v>29</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
         <v>225</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>226</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" t="s">
         <v>229</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>230</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3769,7 +3772,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>0</v>
@@ -3781,24 +3784,24 @@
         <v>29</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>236</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" t="s">
         <v>238</v>
-      </c>
-      <c r="B2" t="s">
-        <v>239</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3807,29 +3810,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" t="s">
         <v>241</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G3" t="s">
         <v>242</v>
-      </c>
-      <c r="G3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G4" t="s">
         <v>244</v>
-      </c>
-      <c r="G4" t="s">
-        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3861,85 +3864,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>255</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>259</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>266</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -3948,16 +3951,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3966,16 +3969,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3984,16 +3987,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4002,16 +4005,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4020,16 +4023,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -4038,16 +4041,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4056,16 +4059,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -4074,16 +4077,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -4092,16 +4095,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4110,16 +4113,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -4427,113 +4430,113 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
+        <v>912</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>913</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" t="s">
         <v>296</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>297</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" t="s">
         <v>298</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>299</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I2" t="s">
         <v>300</v>
       </c>
-      <c r="G2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I2" t="s">
-        <v>301</v>
-      </c>
       <c r="J2" s="10" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D3" s="10"/>
       <c r="I3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D4" s="10"/>
       <c r="I4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" t="s">
         <v>304</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" t="s">
         <v>305</v>
       </c>
-      <c r="C5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>306</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I5" t="s">
         <v>307</v>
       </c>
-      <c r="G5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H5" t="s">
-        <v>266</v>
-      </c>
-      <c r="I5" t="s">
-        <v>308</v>
-      </c>
       <c r="J5" s="10" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
   </sheetData>
@@ -4562,65 +4565,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" t="s">
         <v>315</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>316</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>317</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>318</v>
-      </c>
-      <c r="E2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" t="s">
         <v>320</v>
       </c>
-      <c r="B3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>321</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>322</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" t="s">
         <v>323</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G3" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4653,137 +4656,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>330</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>342</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -4809,104 +4812,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>348</v>
-      </c>
       <c r="D1" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>330</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -4929,18 +4932,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1" t="s">
         <v>364</v>
-      </c>
-      <c r="B1" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -4969,707 +4972,707 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>376</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>390</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>392</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>413</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -5748,7 +5751,7 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
@@ -5789,2729 +5792,2729 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>512</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>516</v>
-      </c>
       <c r="E2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="C3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>519</v>
-      </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="C4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>522</v>
-      </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="C5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>525</v>
-      </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="C6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>528</v>
-      </c>
       <c r="E6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="C7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>531</v>
-      </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>531</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="C8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>534</v>
-      </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="C9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>537</v>
-      </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="C10" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>540</v>
-      </c>
       <c r="E10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>540</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="C11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>543</v>
-      </c>
       <c r="E11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>543</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="C12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>546</v>
-      </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>546</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="C13" t="s">
-        <v>182</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>549</v>
-      </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>549</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="C14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>552</v>
-      </c>
       <c r="E14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>552</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="C15" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>555</v>
-      </c>
       <c r="E15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>555</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="C16" t="s">
-        <v>182</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>558</v>
-      </c>
       <c r="E16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>558</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="C17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>561</v>
-      </c>
       <c r="E17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>561</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="C18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>564</v>
-      </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>564</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="C19" t="s">
-        <v>182</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>567</v>
-      </c>
       <c r="E19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>567</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="C20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="C20" t="s">
-        <v>182</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>570</v>
-      </c>
       <c r="E20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>570</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="C21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>573</v>
-      </c>
       <c r="E21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>573</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="C22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>576</v>
-      </c>
       <c r="E22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>576</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="C23" t="s">
-        <v>182</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>579</v>
-      </c>
       <c r="E23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>579</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="C24" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>582</v>
-      </c>
       <c r="E24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>582</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="C25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>585</v>
-      </c>
       <c r="E25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>585</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="C26" t="s">
-        <v>182</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>588</v>
-      </c>
       <c r="E26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>588</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="C27" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>591</v>
-      </c>
       <c r="E27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>591</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="C28" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>594</v>
-      </c>
       <c r="E28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>594</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="C29" t="s">
-        <v>182</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>597</v>
-      </c>
       <c r="E29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>597</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="C30" t="s">
-        <v>182</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>600</v>
-      </c>
       <c r="E30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>600</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="C31" t="s">
-        <v>182</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>603</v>
-      </c>
       <c r="E31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F31" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>603</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="C32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="C32" t="s">
-        <v>182</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>606</v>
-      </c>
       <c r="E32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>606</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="C33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="C33" t="s">
-        <v>182</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>609</v>
-      </c>
       <c r="E33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F33" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>609</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="C34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="C34" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>612</v>
-      </c>
       <c r="E34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F34" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>612</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="C35" t="s">
-        <v>182</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>615</v>
-      </c>
       <c r="E35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>615</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="C36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="C36" t="s">
-        <v>182</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>618</v>
-      </c>
       <c r="E36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F36" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>618</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="C37" t="s">
-        <v>182</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>621</v>
-      </c>
       <c r="E37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F37" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>621</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>622</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="C38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>624</v>
-      </c>
       <c r="E38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>624</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="C39" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="C39" t="s">
-        <v>182</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>627</v>
-      </c>
       <c r="E39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F39" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>627</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>628</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="C40" t="s">
-        <v>182</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>630</v>
-      </c>
       <c r="E40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F40" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>630</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="C41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="C41" t="s">
-        <v>182</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>633</v>
-      </c>
       <c r="E41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F41" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>633</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="C42" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="C42" t="s">
-        <v>182</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>636</v>
-      </c>
       <c r="E42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>636</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="C43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="C43" t="s">
-        <v>182</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>639</v>
-      </c>
       <c r="E43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>639</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="C44" t="s">
-        <v>182</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>642</v>
-      </c>
       <c r="E44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F44" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>642</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="C45" t="s">
-        <v>182</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>645</v>
-      </c>
       <c r="E45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F45" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>645</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="C46" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="C46" t="s">
-        <v>182</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>648</v>
-      </c>
       <c r="E46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F46" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>648</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C47" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="C47" t="s">
-        <v>182</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>651</v>
-      </c>
       <c r="E47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F47" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>651</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="C48" t="s">
-        <v>182</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>654</v>
-      </c>
       <c r="E48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F48" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>654</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="C49" t="s">
+        <v>181</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="C49" t="s">
-        <v>182</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>657</v>
-      </c>
       <c r="E49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F49" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>657</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>658</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="C50" t="s">
-        <v>182</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>660</v>
-      </c>
       <c r="E50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F50" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>660</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="C51" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="C51" t="s">
-        <v>182</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>663</v>
-      </c>
       <c r="E51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F51" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>663</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>664</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="C52" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="C52" t="s">
-        <v>182</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>666</v>
-      </c>
       <c r="E52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F52" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>666</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="C53" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="C53" t="s">
-        <v>182</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>669</v>
-      </c>
       <c r="E53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F53" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>669</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="C54" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="C54" t="s">
-        <v>182</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>672</v>
-      </c>
       <c r="E54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>672</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="C55" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="C55" t="s">
-        <v>182</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>675</v>
-      </c>
       <c r="E55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F55" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>675</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>676</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="C56" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="C56" t="s">
-        <v>182</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>678</v>
-      </c>
       <c r="E56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F56" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>678</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>679</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="C57" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="C57" t="s">
-        <v>182</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>681</v>
-      </c>
       <c r="E57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F57" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>681</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="C58" t="s">
+        <v>181</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="C58" t="s">
-        <v>182</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>684</v>
-      </c>
       <c r="E58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F58" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>684</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="C59" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="C59" t="s">
-        <v>182</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>687</v>
-      </c>
       <c r="E59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F59" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>687</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="C60" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="C60" t="s">
-        <v>182</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>690</v>
-      </c>
       <c r="E60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F60" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>690</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="C61" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="C61" t="s">
-        <v>182</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>693</v>
-      </c>
       <c r="E61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F61" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>693</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="C62" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="C62" t="s">
-        <v>182</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>696</v>
-      </c>
       <c r="E62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F62" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>696</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="C63" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="C63" t="s">
-        <v>182</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>699</v>
-      </c>
       <c r="E63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F63" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>699</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>700</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="C64" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="C64" t="s">
-        <v>182</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>702</v>
-      </c>
       <c r="E64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F64" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>702</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="C65" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="C65" t="s">
-        <v>182</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>705</v>
-      </c>
       <c r="E65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F65" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>705</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="C66" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="C66" t="s">
-        <v>182</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>708</v>
-      </c>
       <c r="E66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F66" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>708</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="C67" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="C67" t="s">
-        <v>182</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>711</v>
-      </c>
       <c r="E67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F67" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>711</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>712</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="C68" t="s">
+        <v>181</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="C68" t="s">
-        <v>182</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>714</v>
-      </c>
       <c r="E68" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F68" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>714</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="C69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>716</v>
       </c>
-      <c r="C69" t="s">
-        <v>182</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>717</v>
-      </c>
       <c r="E69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F69" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>717</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="C70" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="C70" t="s">
-        <v>182</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>720</v>
-      </c>
       <c r="E70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F70" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>720</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="C71" t="s">
+        <v>181</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="C71" t="s">
-        <v>182</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>723</v>
-      </c>
       <c r="E71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F71" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>723</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>724</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="C72" t="s">
+        <v>181</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="C72" t="s">
-        <v>182</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>726</v>
-      </c>
       <c r="E72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F72" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>726</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="C73" t="s">
+        <v>181</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="C73" t="s">
-        <v>182</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>729</v>
-      </c>
       <c r="E73" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F73" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>729</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>730</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="C74" t="s">
+        <v>181</v>
+      </c>
+      <c r="D74" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="C74" t="s">
-        <v>182</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>732</v>
-      </c>
       <c r="E74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F74" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>732</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="C75" t="s">
+        <v>181</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="C75" t="s">
-        <v>182</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>735</v>
-      </c>
       <c r="E75" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F75" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>735</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>736</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="C76" t="s">
+        <v>181</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="C76" t="s">
-        <v>182</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>738</v>
-      </c>
       <c r="E76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F76" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>738</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>739</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="C77" t="s">
+        <v>181</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="C77" t="s">
-        <v>182</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>741</v>
-      </c>
       <c r="E77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F77" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>741</v>
+      </c>
+      <c r="B78" s="10" t="s">
         <v>742</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="C78" t="s">
+        <v>181</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="C78" t="s">
-        <v>182</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>744</v>
-      </c>
       <c r="E78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F78" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>744</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>745</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="C79" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="C79" t="s">
-        <v>182</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>747</v>
-      </c>
       <c r="E79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F79" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>747</v>
+      </c>
+      <c r="B80" s="10" t="s">
         <v>748</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="C80" t="s">
+        <v>181</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="C80" t="s">
-        <v>182</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>750</v>
-      </c>
       <c r="E80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F80" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>750</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>751</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="C81" t="s">
+        <v>181</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>752</v>
       </c>
-      <c r="C81" t="s">
-        <v>182</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>753</v>
-      </c>
       <c r="E81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F81" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>753</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>754</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="C82" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="C82" t="s">
-        <v>182</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>756</v>
-      </c>
       <c r="E82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F82" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>756</v>
+      </c>
+      <c r="B83" s="10" t="s">
         <v>757</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="C83" t="s">
+        <v>181</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="C83" t="s">
-        <v>182</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>759</v>
-      </c>
       <c r="E83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F83" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>759</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>760</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="C84" t="s">
+        <v>181</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="C84" t="s">
-        <v>182</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>762</v>
-      </c>
       <c r="E84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F84" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>762</v>
+      </c>
+      <c r="B85" s="10" t="s">
         <v>763</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="C85" t="s">
+        <v>181</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="C85" t="s">
-        <v>182</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>765</v>
-      </c>
       <c r="E85" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F85" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>765</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>766</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="C86" t="s">
+        <v>181</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>767</v>
       </c>
-      <c r="C86" t="s">
-        <v>182</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>768</v>
-      </c>
       <c r="E86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F86" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>768</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>769</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="C87" t="s">
+        <v>181</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="C87" t="s">
-        <v>182</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>771</v>
-      </c>
       <c r="E87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F87" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>771</v>
+      </c>
+      <c r="B88" s="10" t="s">
         <v>772</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="C88" t="s">
+        <v>181</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="C88" t="s">
-        <v>182</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>774</v>
-      </c>
       <c r="E88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F88" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>774</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>775</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="C89" t="s">
+        <v>181</v>
+      </c>
+      <c r="D89" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="C89" t="s">
-        <v>182</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>777</v>
-      </c>
       <c r="E89" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F89" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>777</v>
+      </c>
+      <c r="B90" s="10" t="s">
         <v>778</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="C90" t="s">
+        <v>181</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="C90" t="s">
-        <v>182</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>780</v>
-      </c>
       <c r="E90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F90" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>780</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="C91" t="s">
+        <v>181</v>
+      </c>
+      <c r="D91" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="C91" t="s">
-        <v>182</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>782</v>
-      </c>
       <c r="E91" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F91" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>782</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>783</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="C92" t="s">
+        <v>181</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>784</v>
       </c>
-      <c r="C92" t="s">
-        <v>182</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>785</v>
-      </c>
       <c r="E92" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>785</v>
+      </c>
+      <c r="B93" s="10" t="s">
         <v>786</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="C93" t="s">
+        <v>181</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>787</v>
       </c>
-      <c r="C93" t="s">
-        <v>182</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>788</v>
-      </c>
       <c r="E93" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>788</v>
+      </c>
+      <c r="B94" s="10" t="s">
         <v>789</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="C94" t="s">
+        <v>181</v>
+      </c>
+      <c r="D94" s="9" t="s">
         <v>790</v>
       </c>
-      <c r="C94" t="s">
-        <v>182</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>791</v>
-      </c>
       <c r="E94" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>791</v>
+      </c>
+      <c r="B95" s="10" t="s">
         <v>792</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="C95" t="s">
+        <v>181</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="C95" t="s">
-        <v>182</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>794</v>
-      </c>
       <c r="E95" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>794</v>
+      </c>
+      <c r="B96" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="C96" t="s">
+        <v>181</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>796</v>
       </c>
-      <c r="C96" t="s">
-        <v>182</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>797</v>
-      </c>
       <c r="E96" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F96" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>797</v>
+      </c>
+      <c r="B97" s="10" t="s">
         <v>798</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="C97" t="s">
+        <v>181</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>799</v>
       </c>
-      <c r="C97" t="s">
-        <v>182</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>800</v>
-      </c>
       <c r="E97" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F97" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>800</v>
+      </c>
+      <c r="B98" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="C98" t="s">
+        <v>181</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>802</v>
       </c>
-      <c r="C98" t="s">
-        <v>182</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>803</v>
-      </c>
       <c r="E98" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F98" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>803</v>
+      </c>
+      <c r="B99" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="C99" t="s">
+        <v>181</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="C99" t="s">
-        <v>182</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>806</v>
-      </c>
       <c r="E99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F99" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>806</v>
+      </c>
+      <c r="B100" s="10" t="s">
         <v>807</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="C100" t="s">
+        <v>181</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>808</v>
       </c>
-      <c r="C100" t="s">
-        <v>182</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>809</v>
-      </c>
       <c r="E100" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F100" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>809</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>810</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="C101" t="s">
+        <v>181</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>811</v>
       </c>
-      <c r="C101" t="s">
-        <v>182</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>812</v>
-      </c>
       <c r="E101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F101" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>812</v>
+      </c>
+      <c r="B102" s="10" t="s">
         <v>813</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="C102" t="s">
+        <v>181</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>814</v>
       </c>
-      <c r="C102" t="s">
-        <v>182</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>815</v>
-      </c>
       <c r="E102" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F102" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>815</v>
+      </c>
+      <c r="B103" s="10" t="s">
         <v>816</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="C103" t="s">
+        <v>181</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>817</v>
       </c>
-      <c r="C103" t="s">
-        <v>182</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>818</v>
-      </c>
       <c r="E103" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F103" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>818</v>
+      </c>
+      <c r="B104" s="10" t="s">
         <v>819</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="C104" t="s">
+        <v>181</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>820</v>
       </c>
-      <c r="C104" t="s">
-        <v>182</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>821</v>
-      </c>
       <c r="E104" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F104" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>821</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>822</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="C105" t="s">
+        <v>181</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>823</v>
       </c>
-      <c r="C105" t="s">
-        <v>182</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>824</v>
-      </c>
       <c r="E105" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F105" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>824</v>
+      </c>
+      <c r="B106" s="10" t="s">
         <v>825</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="C106" t="s">
+        <v>181</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>826</v>
       </c>
-      <c r="C106" t="s">
-        <v>182</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>827</v>
-      </c>
       <c r="E106" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F106" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>827</v>
+      </c>
+      <c r="B107" s="10" t="s">
         <v>828</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="C107" t="s">
+        <v>181</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>829</v>
       </c>
-      <c r="C107" t="s">
-        <v>182</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>830</v>
-      </c>
       <c r="E107" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F107" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>830</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>831</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="C108" t="s">
+        <v>181</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>832</v>
       </c>
-      <c r="C108" t="s">
-        <v>182</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>833</v>
-      </c>
       <c r="E108" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F108" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>833</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>834</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="C109" t="s">
+        <v>181</v>
+      </c>
+      <c r="D109" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="C109" t="s">
-        <v>182</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>836</v>
-      </c>
       <c r="E109" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F109" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>836</v>
+      </c>
+      <c r="B110" s="10" t="s">
         <v>837</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="C110" t="s">
+        <v>181</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>838</v>
       </c>
-      <c r="C110" t="s">
-        <v>182</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>839</v>
-      </c>
       <c r="E110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F110" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>839</v>
+      </c>
+      <c r="B111" s="10" t="s">
         <v>840</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="C111" t="s">
+        <v>181</v>
+      </c>
+      <c r="D111" s="9" t="s">
         <v>841</v>
       </c>
-      <c r="C111" t="s">
-        <v>182</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>842</v>
-      </c>
       <c r="E111" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F111" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>842</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>843</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="C112" t="s">
+        <v>181</v>
+      </c>
+      <c r="D112" s="9" t="s">
         <v>844</v>
       </c>
-      <c r="C112" t="s">
-        <v>182</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>845</v>
-      </c>
       <c r="E112" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F112" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>845</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>846</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="C113" t="s">
+        <v>181</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>847</v>
       </c>
-      <c r="C113" t="s">
-        <v>182</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>848</v>
-      </c>
       <c r="E113" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F113" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>848</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>849</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="C114" t="s">
+        <v>181</v>
+      </c>
+      <c r="D114" s="9" t="s">
         <v>850</v>
       </c>
-      <c r="C114" t="s">
-        <v>182</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>851</v>
-      </c>
       <c r="E114" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F114" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>851</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>852</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="C115" t="s">
+        <v>181</v>
+      </c>
+      <c r="D115" s="9" t="s">
         <v>853</v>
       </c>
-      <c r="C115" t="s">
-        <v>182</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>854</v>
-      </c>
       <c r="E115" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F115" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>854</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>855</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="C116" t="s">
+        <v>181</v>
+      </c>
+      <c r="D116" s="9" t="s">
         <v>856</v>
       </c>
-      <c r="C116" t="s">
-        <v>182</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>857</v>
-      </c>
       <c r="E116" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F116" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>857</v>
+      </c>
+      <c r="B117" s="10" t="s">
         <v>858</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="C117" t="s">
+        <v>181</v>
+      </c>
+      <c r="D117" s="9" t="s">
         <v>859</v>
       </c>
-      <c r="C117" t="s">
-        <v>182</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>860</v>
-      </c>
       <c r="E117" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F117" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>860</v>
+      </c>
+      <c r="B118" s="10" t="s">
         <v>861</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="C118" t="s">
+        <v>181</v>
+      </c>
+      <c r="D118" s="9" t="s">
         <v>862</v>
       </c>
-      <c r="C118" t="s">
-        <v>182</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>863</v>
-      </c>
       <c r="E118" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F118" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>863</v>
+      </c>
+      <c r="B119" s="10" t="s">
         <v>864</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="C119" t="s">
+        <v>181</v>
+      </c>
+      <c r="D119" s="9" t="s">
         <v>865</v>
       </c>
-      <c r="C119" t="s">
-        <v>182</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>866</v>
-      </c>
       <c r="E119" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F119" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>866</v>
+      </c>
+      <c r="B120" s="10" t="s">
         <v>867</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="C120" t="s">
+        <v>181</v>
+      </c>
+      <c r="D120" s="9" t="s">
         <v>868</v>
       </c>
-      <c r="C120" t="s">
-        <v>182</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>869</v>
-      </c>
       <c r="E120" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F120" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>869</v>
+      </c>
+      <c r="B121" s="10" t="s">
         <v>870</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="C121" t="s">
+        <v>181</v>
+      </c>
+      <c r="D121" s="9" t="s">
         <v>871</v>
       </c>
-      <c r="C121" t="s">
-        <v>182</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>872</v>
-      </c>
       <c r="E121" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F121" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>872</v>
+      </c>
+      <c r="B122" s="10" t="s">
         <v>873</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="C122" t="s">
+        <v>181</v>
+      </c>
+      <c r="D122" s="9" t="s">
         <v>874</v>
       </c>
-      <c r="C122" t="s">
-        <v>182</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>875</v>
-      </c>
       <c r="E122" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F122" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>875</v>
+      </c>
+      <c r="B123" s="10" t="s">
         <v>876</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="C123" t="s">
+        <v>181</v>
+      </c>
+      <c r="D123" s="9" t="s">
         <v>877</v>
       </c>
-      <c r="C123" t="s">
-        <v>182</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>878</v>
-      </c>
       <c r="E123" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F123" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>878</v>
+      </c>
+      <c r="B124" s="10" t="s">
         <v>879</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="C124" t="s">
+        <v>181</v>
+      </c>
+      <c r="D124" s="9" t="s">
         <v>880</v>
       </c>
-      <c r="C124" t="s">
-        <v>182</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>881</v>
-      </c>
       <c r="E124" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F124" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>881</v>
+      </c>
+      <c r="B125" s="10" t="s">
         <v>882</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="C125" t="s">
+        <v>181</v>
+      </c>
+      <c r="D125" s="9" t="s">
         <v>883</v>
       </c>
-      <c r="C125" t="s">
-        <v>182</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>884</v>
-      </c>
       <c r="E125" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F125" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>884</v>
+      </c>
+      <c r="B126" s="10" t="s">
         <v>885</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="C126" t="s">
+        <v>181</v>
+      </c>
+      <c r="D126" s="9" t="s">
         <v>886</v>
       </c>
-      <c r="C126" t="s">
-        <v>182</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>887</v>
-      </c>
       <c r="E126" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F126" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>887</v>
+      </c>
+      <c r="B127" s="10" t="s">
         <v>888</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="C127" t="s">
+        <v>181</v>
+      </c>
+      <c r="D127" s="9" t="s">
         <v>889</v>
       </c>
-      <c r="C127" t="s">
-        <v>182</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>890</v>
-      </c>
       <c r="E127" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F127" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>890</v>
+      </c>
+      <c r="B128" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="C128" t="s">
+        <v>181</v>
+      </c>
+      <c r="D128" s="9" t="s">
         <v>892</v>
       </c>
-      <c r="C128" t="s">
-        <v>182</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>893</v>
-      </c>
       <c r="E128" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F128" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>893</v>
+      </c>
+      <c r="B129" s="10" t="s">
         <v>894</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="C129" t="s">
+        <v>181</v>
+      </c>
+      <c r="D129" s="9" t="s">
         <v>895</v>
       </c>
-      <c r="C129" t="s">
-        <v>182</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>896</v>
-      </c>
       <c r="E129" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F129" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>896</v>
+      </c>
+      <c r="B130" s="10" t="s">
         <v>897</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="C130" t="s">
+        <v>181</v>
+      </c>
+      <c r="D130" s="9" t="s">
         <v>898</v>
       </c>
-      <c r="C130" t="s">
-        <v>182</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>899</v>
-      </c>
       <c r="E130" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F130" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>899</v>
+      </c>
+      <c r="B131" s="10" t="s">
         <v>900</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="C131" t="s">
+        <v>181</v>
+      </c>
+      <c r="D131" s="9" t="s">
         <v>901</v>
       </c>
-      <c r="C131" t="s">
-        <v>182</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>902</v>
-      </c>
       <c r="E131" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F131" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>902</v>
+      </c>
+      <c r="B132" s="10" t="s">
         <v>903</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="C132" t="s">
+        <v>181</v>
+      </c>
+      <c r="D132" s="9" t="s">
         <v>904</v>
       </c>
-      <c r="C132" t="s">
-        <v>182</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>905</v>
-      </c>
       <c r="E132" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F132" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B133" s="10"/>
       <c r="C133" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E133" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F133" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B134" s="10"/>
       <c r="C134" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E134" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F134" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B135" s="10"/>
       <c r="C135" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E135" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F135" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B136" s="10"/>
       <c r="C136" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E136" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F136" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B137" s="10"/>
       <c r="C137" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E137" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F137" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B138" s="10"/>
       <c r="C138" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E138" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F138" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -8523,7 +8526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F9032B-FC8F-244C-ADA9-09B3242567A8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -8538,7 +8541,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -8554,7 +8557,7 @@
         <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
   </sheetData>
@@ -8564,10 +8567,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8645,10 +8648,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>73</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>74</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -8656,10 +8659,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>75</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>76</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -8667,10 +8670,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -8678,80 +8681,109 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>917</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="7" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="7" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="B17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B9:E9"/>
+  <mergeCells count="13">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
@@ -8760,6 +8792,11 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8784,53 +8821,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>94</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -8858,57 +8895,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -8938,80 +8975,80 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>120</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -9020,46 +9057,46 @@
         <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -9071,103 +9108,103 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>141</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -9205,155 +9242,155 @@
         <v>30</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
         <v>153</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" t="s">
         <v>155</v>
       </c>
-      <c r="E2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>156</v>
-      </c>
-      <c r="H2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" t="s">
         <v>158</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>159</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" t="s">
         <v>160</v>
       </c>
-      <c r="D3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" t="s">
         <v>161</v>
-      </c>
-      <c r="H3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" t="s">
         <v>163</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
         <v>164</v>
       </c>
-      <c r="C4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" t="s">
         <v>165</v>
-      </c>
-      <c r="E4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" t="s">
         <v>167</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
         <v>168</v>
       </c>
-      <c r="C5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" t="s">
         <v>169</v>
       </c>
-      <c r="E5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="H5" t="s">
-        <v>157</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" t="s">
         <v>172</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" t="s">
         <v>173</v>
       </c>
-      <c r="C6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="H6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -9380,38 +9417,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>178</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" t="s">
         <v>182</v>
-      </c>
-      <c r="D3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/simple_1.xlsx
+++ b/tests/integration_test_files/simple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D65E9D-8364-1948-893A-6615154A200C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DFB3B7-5700-4F4A-AD7C-79D2FD63F80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51280" yWindow="500" windowWidth="48440" windowHeight="24560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="1060" windowWidth="48440" windowHeight="24560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -3277,7 +3277,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B6"/>
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8570,7 +8570,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8690,25 +8690,25 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
@@ -8784,6 +8784,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
@@ -8792,11 +8797,6 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/integration_test_files/simple_1.xlsx
+++ b/tests/integration_test_files/simple_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DFB3B7-5700-4F4A-AD7C-79D2FD63F80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91C4EB0-FDB6-1947-AB9B-BF087F86C98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1060" windowWidth="48440" windowHeight="24560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -815,9 +815,6 @@
     <t>The primary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
   </si>
   <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
     <t>END1</t>
   </si>
   <si>
@@ -831,9 +828,6 @@
   </si>
   <si>
     <t>The secondary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
-  </si>
-  <si>
-    <t>Secondary Objective</t>
   </si>
   <si>
     <t>END2</t>
@@ -2814,12 +2808,18 @@
   <si>
     <t>trialSubTypes</t>
   </si>
+  <si>
+    <t>Trial Primary Objective</t>
+  </si>
+  <si>
+    <t>Trial Secondary Objective</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2848,6 +2848,13 @@
       <color rgb="FF444444"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2882,7 +2889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2959,6 +2966,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3844,8 +3854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3906,43 +3916,43 @@
       <c r="D2" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>259</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>260</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>918</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>263</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -3951,16 +3961,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3969,16 +3979,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3987,16 +3997,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4005,16 +4015,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4023,16 +4033,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -4041,16 +4051,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4059,16 +4069,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -4077,16 +4087,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -4095,16 +4105,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4113,16 +4123,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -4430,113 +4440,113 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>910</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>912</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>291</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>293</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>250</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" t="s">
         <v>295</v>
-      </c>
-      <c r="B2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" t="s">
-        <v>297</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>241</v>
       </c>
       <c r="E2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G2" t="s">
         <v>198</v>
       </c>
       <c r="H2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D3" s="10"/>
       <c r="I3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D4" s="10"/>
       <c r="I4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>243</v>
       </c>
       <c r="E5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G5" t="s">
         <v>216</v>
       </c>
       <c r="H5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
   </sheetData>
@@ -4565,65 +4575,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>311</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" t="s">
         <v>314</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>315</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>316</v>
-      </c>
-      <c r="D2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" t="s">
         <v>319</v>
       </c>
-      <c r="B3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>320</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" t="s">
         <v>321</v>
-      </c>
-      <c r="E3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G3" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4656,28 +4666,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>328</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -4688,22 +4698,22 @@
         <v>120</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -4714,16 +4724,16 @@
         <v>80</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -4734,19 +4744,19 @@
         <v>160</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>334</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -4754,19 +4764,19 @@
         <v>137</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -4774,19 +4784,19 @@
         <v>138</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -4812,19 +4822,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4835,13 +4845,13 @@
         <v>120</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4852,30 +4862,30 @@
         <v>80</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4886,30 +4896,30 @@
         <v>124</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -4932,18 +4942,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" t="s">
         <v>363</v>
-      </c>
-      <c r="B2" t="s">
-        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -4972,707 +4982,707 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="21" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="21" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="21" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="21" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="21" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="21" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="21" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="21" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="21" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="21" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="21" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="21" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="21" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="21" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -5751,7 +5761,7 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
@@ -5792,2644 +5802,2644 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>510</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>511</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="C3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="C3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>518</v>
-      </c>
       <c r="E3" t="s">
         <v>181</v>
       </c>
       <c r="F3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="C4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="C4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>521</v>
-      </c>
       <c r="E4" t="s">
         <v>181</v>
       </c>
       <c r="F4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="C5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>524</v>
-      </c>
       <c r="E5" t="s">
         <v>181</v>
       </c>
       <c r="F5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="C6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="C6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>527</v>
-      </c>
       <c r="E6" t="s">
         <v>181</v>
       </c>
       <c r="F6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>526</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="C7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="C7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>530</v>
-      </c>
       <c r="E7" t="s">
         <v>181</v>
       </c>
       <c r="F7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>529</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="C8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="C8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>533</v>
-      </c>
       <c r="E8" t="s">
         <v>181</v>
       </c>
       <c r="F8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>532</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="C9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>536</v>
-      </c>
       <c r="E9" t="s">
         <v>181</v>
       </c>
       <c r="F9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>535</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="C10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="C10" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>539</v>
-      </c>
       <c r="E10" t="s">
         <v>181</v>
       </c>
       <c r="F10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>538</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="C11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>542</v>
-      </c>
       <c r="E11" t="s">
         <v>181</v>
       </c>
       <c r="F11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>541</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="C12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="C12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>545</v>
-      </c>
       <c r="E12" t="s">
         <v>181</v>
       </c>
       <c r="F12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>544</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="C13" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>548</v>
-      </c>
       <c r="E13" t="s">
         <v>181</v>
       </c>
       <c r="F13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>547</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="C14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="C14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>551</v>
-      </c>
       <c r="E14" t="s">
         <v>181</v>
       </c>
       <c r="F14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>550</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="C15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="C15" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>554</v>
-      </c>
       <c r="E15" t="s">
         <v>181</v>
       </c>
       <c r="F15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>553</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="C16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>557</v>
-      </c>
       <c r="E16" t="s">
         <v>181</v>
       </c>
       <c r="F16" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>556</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>560</v>
-      </c>
       <c r="E17" t="s">
         <v>181</v>
       </c>
       <c r="F17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>559</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="C18" t="s">
-        <v>181</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>563</v>
-      </c>
       <c r="E18" t="s">
         <v>181</v>
       </c>
       <c r="F18" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>562</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="C19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="C19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>566</v>
-      </c>
       <c r="E19" t="s">
         <v>181</v>
       </c>
       <c r="F19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>565</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="C20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="C20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>569</v>
-      </c>
       <c r="E20" t="s">
         <v>181</v>
       </c>
       <c r="F20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>568</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="C21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="C21" t="s">
-        <v>181</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>572</v>
-      </c>
       <c r="E21" t="s">
         <v>181</v>
       </c>
       <c r="F21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>571</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="C22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="C22" t="s">
-        <v>181</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>575</v>
-      </c>
       <c r="E22" t="s">
         <v>181</v>
       </c>
       <c r="F22" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>574</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="C23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="C23" t="s">
-        <v>181</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>578</v>
-      </c>
       <c r="E23" t="s">
         <v>181</v>
       </c>
       <c r="F23" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>577</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="C24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>580</v>
-      </c>
-      <c r="C24" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>581</v>
-      </c>
       <c r="E24" t="s">
         <v>181</v>
       </c>
       <c r="F24" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>580</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C25" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="C25" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>584</v>
-      </c>
       <c r="E25" t="s">
         <v>181</v>
       </c>
       <c r="F25" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>583</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="C26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>586</v>
-      </c>
-      <c r="C26" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>587</v>
-      </c>
       <c r="E26" t="s">
         <v>181</v>
       </c>
       <c r="F26" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>586</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="C27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>589</v>
-      </c>
-      <c r="C27" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>590</v>
-      </c>
       <c r="E27" t="s">
         <v>181</v>
       </c>
       <c r="F27" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>589</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="C28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="C28" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>593</v>
-      </c>
       <c r="E28" t="s">
         <v>181</v>
       </c>
       <c r="F28" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>592</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="C29" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>596</v>
-      </c>
       <c r="E29" t="s">
         <v>181</v>
       </c>
       <c r="F29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>595</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="C30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="C30" t="s">
-        <v>181</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>599</v>
-      </c>
       <c r="E30" t="s">
         <v>181</v>
       </c>
       <c r="F30" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>598</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="C31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="C31" t="s">
-        <v>181</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>602</v>
-      </c>
       <c r="E31" t="s">
         <v>181</v>
       </c>
       <c r="F31" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>601</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="C32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="C32" t="s">
-        <v>181</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>605</v>
-      </c>
       <c r="E32" t="s">
         <v>181</v>
       </c>
       <c r="F32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>604</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="C33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="C33" t="s">
-        <v>181</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>608</v>
-      </c>
       <c r="E33" t="s">
         <v>181</v>
       </c>
       <c r="F33" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>607</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="C34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="C34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>611</v>
-      </c>
       <c r="E34" t="s">
         <v>181</v>
       </c>
       <c r="F34" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>610</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="C35" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="C35" t="s">
-        <v>181</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>614</v>
-      </c>
       <c r="E35" t="s">
         <v>181</v>
       </c>
       <c r="F35" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>613</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="C36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="C36" t="s">
-        <v>181</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>617</v>
-      </c>
       <c r="E36" t="s">
         <v>181</v>
       </c>
       <c r="F36" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>616</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="C37" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>619</v>
-      </c>
-      <c r="C37" t="s">
-        <v>181</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>620</v>
-      </c>
       <c r="E37" t="s">
         <v>181</v>
       </c>
       <c r="F37" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>619</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="C38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>622</v>
-      </c>
-      <c r="C38" t="s">
-        <v>181</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>623</v>
-      </c>
       <c r="E38" t="s">
         <v>181</v>
       </c>
       <c r="F38" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>622</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="C39" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="C39" t="s">
-        <v>181</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>626</v>
-      </c>
       <c r="E39" t="s">
         <v>181</v>
       </c>
       <c r="F39" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>625</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="C40" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="C40" t="s">
-        <v>181</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>629</v>
-      </c>
       <c r="E40" t="s">
         <v>181</v>
       </c>
       <c r="F40" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>628</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="C41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>631</v>
-      </c>
-      <c r="C41" t="s">
-        <v>181</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>632</v>
-      </c>
       <c r="E41" t="s">
         <v>181</v>
       </c>
       <c r="F41" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>631</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="C42" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="C42" t="s">
-        <v>181</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>635</v>
-      </c>
       <c r="E42" t="s">
         <v>181</v>
       </c>
       <c r="F42" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>634</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="C43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>637</v>
-      </c>
-      <c r="C43" t="s">
-        <v>181</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>638</v>
-      </c>
       <c r="E43" t="s">
         <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>637</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="C44" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>640</v>
-      </c>
-      <c r="C44" t="s">
-        <v>181</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>641</v>
-      </c>
       <c r="E44" t="s">
         <v>181</v>
       </c>
       <c r="F44" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>640</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="C45" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="C45" t="s">
-        <v>181</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>644</v>
-      </c>
       <c r="E45" t="s">
         <v>181</v>
       </c>
       <c r="F45" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>643</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="C46" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="C46" t="s">
-        <v>181</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>647</v>
-      </c>
       <c r="E46" t="s">
         <v>181</v>
       </c>
       <c r="F46" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>646</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="C47" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>649</v>
-      </c>
-      <c r="C47" t="s">
-        <v>181</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>650</v>
-      </c>
       <c r="E47" t="s">
         <v>181</v>
       </c>
       <c r="F47" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>649</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="C48" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="C48" t="s">
-        <v>181</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>653</v>
-      </c>
       <c r="E48" t="s">
         <v>181</v>
       </c>
       <c r="F48" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>652</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="C49" t="s">
+        <v>181</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="C49" t="s">
-        <v>181</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>656</v>
-      </c>
       <c r="E49" t="s">
         <v>181</v>
       </c>
       <c r="F49" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>655</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C50" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>658</v>
-      </c>
-      <c r="C50" t="s">
-        <v>181</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>659</v>
-      </c>
       <c r="E50" t="s">
         <v>181</v>
       </c>
       <c r="F50" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>658</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="C51" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="C51" t="s">
-        <v>181</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>662</v>
-      </c>
       <c r="E51" t="s">
         <v>181</v>
       </c>
       <c r="F51" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>661</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="C52" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="C52" t="s">
-        <v>181</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>665</v>
-      </c>
       <c r="E52" t="s">
         <v>181</v>
       </c>
       <c r="F52" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>664</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="C53" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="C53" t="s">
-        <v>181</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>668</v>
-      </c>
       <c r="E53" t="s">
         <v>181</v>
       </c>
       <c r="F53" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>667</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="C54" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="C54" t="s">
-        <v>181</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>671</v>
-      </c>
       <c r="E54" t="s">
         <v>181</v>
       </c>
       <c r="F54" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>670</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="C55" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>673</v>
-      </c>
-      <c r="C55" t="s">
-        <v>181</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>674</v>
-      </c>
       <c r="E55" t="s">
         <v>181</v>
       </c>
       <c r="F55" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>673</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="C56" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>676</v>
-      </c>
-      <c r="C56" t="s">
-        <v>181</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>677</v>
-      </c>
       <c r="E56" t="s">
         <v>181</v>
       </c>
       <c r="F56" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>676</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="C57" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>679</v>
-      </c>
-      <c r="C57" t="s">
-        <v>181</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>680</v>
-      </c>
       <c r="E57" t="s">
         <v>181</v>
       </c>
       <c r="F57" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>679</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C58" t="s">
+        <v>181</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="C58" t="s">
-        <v>181</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>683</v>
-      </c>
       <c r="E58" t="s">
         <v>181</v>
       </c>
       <c r="F58" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>682</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="C59" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>685</v>
-      </c>
-      <c r="C59" t="s">
-        <v>181</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>686</v>
-      </c>
       <c r="E59" t="s">
         <v>181</v>
       </c>
       <c r="F59" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>685</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="C60" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>688</v>
-      </c>
-      <c r="C60" t="s">
-        <v>181</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>689</v>
-      </c>
       <c r="E60" t="s">
         <v>181</v>
       </c>
       <c r="F60" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>688</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="C61" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="C61" t="s">
-        <v>181</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>692</v>
-      </c>
       <c r="E61" t="s">
         <v>181</v>
       </c>
       <c r="F61" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>691</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="C62" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="C62" t="s">
-        <v>181</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>695</v>
-      </c>
       <c r="E62" t="s">
         <v>181</v>
       </c>
       <c r="F62" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>694</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="C63" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="C63" t="s">
-        <v>181</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>698</v>
-      </c>
       <c r="E63" t="s">
         <v>181</v>
       </c>
       <c r="F63" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>697</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="C64" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="C64" t="s">
-        <v>181</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>701</v>
-      </c>
       <c r="E64" t="s">
         <v>181</v>
       </c>
       <c r="F64" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>700</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="C65" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="C65" t="s">
-        <v>181</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>704</v>
-      </c>
       <c r="E65" t="s">
         <v>181</v>
       </c>
       <c r="F65" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>703</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="C66" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>706</v>
-      </c>
-      <c r="C66" t="s">
-        <v>181</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>707</v>
-      </c>
       <c r="E66" t="s">
         <v>181</v>
       </c>
       <c r="F66" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>706</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="C67" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C67" t="s">
-        <v>181</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>710</v>
-      </c>
       <c r="E67" t="s">
         <v>181</v>
       </c>
       <c r="F67" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>709</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="C68" t="s">
+        <v>181</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>712</v>
-      </c>
-      <c r="C68" t="s">
-        <v>181</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>713</v>
-      </c>
       <c r="E68" t="s">
         <v>181</v>
       </c>
       <c r="F68" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>712</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="C69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>715</v>
-      </c>
-      <c r="C69" t="s">
-        <v>181</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>716</v>
-      </c>
       <c r="E69" t="s">
         <v>181</v>
       </c>
       <c r="F69" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>715</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="C70" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>718</v>
-      </c>
-      <c r="C70" t="s">
-        <v>181</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>719</v>
-      </c>
       <c r="E70" t="s">
         <v>181</v>
       </c>
       <c r="F70" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>718</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="C71" t="s">
+        <v>181</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>721</v>
-      </c>
-      <c r="C71" t="s">
-        <v>181</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>722</v>
-      </c>
       <c r="E71" t="s">
         <v>181</v>
       </c>
       <c r="F71" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>721</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="C72" t="s">
+        <v>181</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>724</v>
-      </c>
-      <c r="C72" t="s">
-        <v>181</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>725</v>
-      </c>
       <c r="E72" t="s">
         <v>181</v>
       </c>
       <c r="F72" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>724</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="C73" t="s">
+        <v>181</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="C73" t="s">
-        <v>181</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>728</v>
-      </c>
       <c r="E73" t="s">
         <v>181</v>
       </c>
       <c r="F73" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>727</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="C74" t="s">
+        <v>181</v>
+      </c>
+      <c r="D74" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>730</v>
-      </c>
-      <c r="C74" t="s">
-        <v>181</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>731</v>
-      </c>
       <c r="E74" t="s">
         <v>181</v>
       </c>
       <c r="F74" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>730</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="C75" t="s">
+        <v>181</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>733</v>
-      </c>
-      <c r="C75" t="s">
-        <v>181</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>734</v>
-      </c>
       <c r="E75" t="s">
         <v>181</v>
       </c>
       <c r="F75" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>733</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="C76" t="s">
+        <v>181</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>736</v>
-      </c>
-      <c r="C76" t="s">
-        <v>181</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>737</v>
-      </c>
       <c r="E76" t="s">
         <v>181</v>
       </c>
       <c r="F76" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>736</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="C77" t="s">
+        <v>181</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>739</v>
-      </c>
-      <c r="C77" t="s">
-        <v>181</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>740</v>
-      </c>
       <c r="E77" t="s">
         <v>181</v>
       </c>
       <c r="F77" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>739</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="C78" t="s">
+        <v>181</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>742</v>
-      </c>
-      <c r="C78" t="s">
-        <v>181</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>743</v>
-      </c>
       <c r="E78" t="s">
         <v>181</v>
       </c>
       <c r="F78" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>742</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="C79" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>745</v>
-      </c>
-      <c r="C79" t="s">
-        <v>181</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>746</v>
-      </c>
       <c r="E79" t="s">
         <v>181</v>
       </c>
       <c r="F79" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>745</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="C80" t="s">
+        <v>181</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>748</v>
-      </c>
-      <c r="C80" t="s">
-        <v>181</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>749</v>
-      </c>
       <c r="E80" t="s">
         <v>181</v>
       </c>
       <c r="F80" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>748</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="C81" t="s">
+        <v>181</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>751</v>
-      </c>
-      <c r="C81" t="s">
-        <v>181</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>752</v>
-      </c>
       <c r="E81" t="s">
         <v>181</v>
       </c>
       <c r="F81" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>751</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="C82" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>754</v>
-      </c>
-      <c r="C82" t="s">
-        <v>181</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>755</v>
-      </c>
       <c r="E82" t="s">
         <v>181</v>
       </c>
       <c r="F82" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>754</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="C83" t="s">
+        <v>181</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>757</v>
-      </c>
-      <c r="C83" t="s">
-        <v>181</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>758</v>
-      </c>
       <c r="E83" t="s">
         <v>181</v>
       </c>
       <c r="F83" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>757</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="C84" t="s">
+        <v>181</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="B84" s="10" t="s">
-        <v>760</v>
-      </c>
-      <c r="C84" t="s">
-        <v>181</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>761</v>
-      </c>
       <c r="E84" t="s">
         <v>181</v>
       </c>
       <c r="F84" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>760</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="C85" t="s">
+        <v>181</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>762</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>763</v>
-      </c>
-      <c r="C85" t="s">
-        <v>181</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>764</v>
-      </c>
       <c r="E85" t="s">
         <v>181</v>
       </c>
       <c r="F85" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>763</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="C86" t="s">
+        <v>181</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>766</v>
-      </c>
-      <c r="C86" t="s">
-        <v>181</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>767</v>
-      </c>
       <c r="E86" t="s">
         <v>181</v>
       </c>
       <c r="F86" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>766</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="C87" t="s">
+        <v>181</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>768</v>
       </c>
-      <c r="B87" s="10" t="s">
-        <v>769</v>
-      </c>
-      <c r="C87" t="s">
-        <v>181</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>770</v>
-      </c>
       <c r="E87" t="s">
         <v>181</v>
       </c>
       <c r="F87" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>769</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="C88" t="s">
+        <v>181</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>772</v>
-      </c>
-      <c r="C88" t="s">
-        <v>181</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>773</v>
-      </c>
       <c r="E88" t="s">
         <v>181</v>
       </c>
       <c r="F88" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>772</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="C89" t="s">
+        <v>181</v>
+      </c>
+      <c r="D89" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>775</v>
-      </c>
-      <c r="C89" t="s">
-        <v>181</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>776</v>
-      </c>
       <c r="E89" t="s">
         <v>181</v>
       </c>
       <c r="F89" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>775</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="C90" t="s">
+        <v>181</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>778</v>
-      </c>
-      <c r="C90" t="s">
-        <v>181</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>779</v>
-      </c>
       <c r="E90" t="s">
         <v>181</v>
       </c>
       <c r="F90" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C91" t="s">
         <v>181</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E91" t="s">
         <v>181</v>
       </c>
       <c r="F91" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>780</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="C92" t="s">
+        <v>181</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>783</v>
-      </c>
-      <c r="C92" t="s">
-        <v>181</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>784</v>
-      </c>
       <c r="E92" t="s">
         <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>783</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="C93" t="s">
+        <v>181</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>786</v>
-      </c>
-      <c r="C93" t="s">
-        <v>181</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>787</v>
-      </c>
       <c r="E93" t="s">
         <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>786</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="C94" t="s">
+        <v>181</v>
+      </c>
+      <c r="D94" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>789</v>
-      </c>
-      <c r="C94" t="s">
-        <v>181</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>790</v>
-      </c>
       <c r="E94" t="s">
         <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>789</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="C95" t="s">
+        <v>181</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>791</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>792</v>
-      </c>
-      <c r="C95" t="s">
-        <v>181</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>793</v>
-      </c>
       <c r="E95" t="s">
         <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>792</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="C96" t="s">
+        <v>181</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>794</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>795</v>
-      </c>
-      <c r="C96" t="s">
-        <v>181</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>796</v>
-      </c>
       <c r="E96" t="s">
         <v>181</v>
       </c>
       <c r="F96" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>795</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="C97" t="s">
+        <v>181</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>797</v>
       </c>
-      <c r="B97" s="10" t="s">
-        <v>798</v>
-      </c>
-      <c r="C97" t="s">
-        <v>181</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>799</v>
-      </c>
       <c r="E97" t="s">
         <v>181</v>
       </c>
       <c r="F97" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>798</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="C98" t="s">
+        <v>181</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>801</v>
-      </c>
-      <c r="C98" t="s">
-        <v>181</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>802</v>
-      </c>
       <c r="E98" t="s">
         <v>181</v>
       </c>
       <c r="F98" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>801</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="C99" t="s">
+        <v>181</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>803</v>
       </c>
-      <c r="B99" s="10" t="s">
-        <v>804</v>
-      </c>
-      <c r="C99" t="s">
-        <v>181</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>805</v>
-      </c>
       <c r="E99" t="s">
         <v>181</v>
       </c>
       <c r="F99" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>804</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="C100" t="s">
+        <v>181</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>806</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="C100" t="s">
-        <v>181</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>808</v>
-      </c>
       <c r="E100" t="s">
         <v>181</v>
       </c>
       <c r="F100" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>807</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="C101" t="s">
+        <v>181</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>809</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>810</v>
-      </c>
-      <c r="C101" t="s">
-        <v>181</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>811</v>
-      </c>
       <c r="E101" t="s">
         <v>181</v>
       </c>
       <c r="F101" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>810</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="C102" t="s">
+        <v>181</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>812</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>813</v>
-      </c>
-      <c r="C102" t="s">
-        <v>181</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>814</v>
-      </c>
       <c r="E102" t="s">
         <v>181</v>
       </c>
       <c r="F102" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>813</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="C103" t="s">
+        <v>181</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>815</v>
       </c>
-      <c r="B103" s="10" t="s">
-        <v>816</v>
-      </c>
-      <c r="C103" t="s">
-        <v>181</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>817</v>
-      </c>
       <c r="E103" t="s">
         <v>181</v>
       </c>
       <c r="F103" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>816</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="C104" t="s">
+        <v>181</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>818</v>
       </c>
-      <c r="B104" s="10" t="s">
-        <v>819</v>
-      </c>
-      <c r="C104" t="s">
-        <v>181</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>820</v>
-      </c>
       <c r="E104" t="s">
         <v>181</v>
       </c>
       <c r="F104" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>819</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="C105" t="s">
+        <v>181</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>821</v>
       </c>
-      <c r="B105" s="10" t="s">
-        <v>822</v>
-      </c>
-      <c r="C105" t="s">
-        <v>181</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>823</v>
-      </c>
       <c r="E105" t="s">
         <v>181</v>
       </c>
       <c r="F105" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>822</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="C106" t="s">
+        <v>181</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>824</v>
       </c>
-      <c r="B106" s="10" t="s">
-        <v>825</v>
-      </c>
-      <c r="C106" t="s">
-        <v>181</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>826</v>
-      </c>
       <c r="E106" t="s">
         <v>181</v>
       </c>
       <c r="F106" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>825</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="C107" t="s">
+        <v>181</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="B107" s="10" t="s">
-        <v>828</v>
-      </c>
-      <c r="C107" t="s">
-        <v>181</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>829</v>
-      </c>
       <c r="E107" t="s">
         <v>181</v>
       </c>
       <c r="F107" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>828</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="C108" t="s">
+        <v>181</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>831</v>
-      </c>
-      <c r="C108" t="s">
-        <v>181</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>832</v>
-      </c>
       <c r="E108" t="s">
         <v>181</v>
       </c>
       <c r="F108" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>831</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="C109" t="s">
+        <v>181</v>
+      </c>
+      <c r="D109" s="9" t="s">
         <v>833</v>
       </c>
-      <c r="B109" s="10" t="s">
-        <v>834</v>
-      </c>
-      <c r="C109" t="s">
-        <v>181</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>835</v>
-      </c>
       <c r="E109" t="s">
         <v>181</v>
       </c>
       <c r="F109" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>834</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="C110" t="s">
+        <v>181</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>836</v>
       </c>
-      <c r="B110" s="10" t="s">
-        <v>837</v>
-      </c>
-      <c r="C110" t="s">
-        <v>181</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>838</v>
-      </c>
       <c r="E110" t="s">
         <v>181</v>
       </c>
       <c r="F110" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>837</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="C111" t="s">
+        <v>181</v>
+      </c>
+      <c r="D111" s="9" t="s">
         <v>839</v>
       </c>
-      <c r="B111" s="10" t="s">
-        <v>840</v>
-      </c>
-      <c r="C111" t="s">
-        <v>181</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>841</v>
-      </c>
       <c r="E111" t="s">
         <v>181</v>
       </c>
       <c r="F111" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>840</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="C112" t="s">
+        <v>181</v>
+      </c>
+      <c r="D112" s="9" t="s">
         <v>842</v>
       </c>
-      <c r="B112" s="10" t="s">
-        <v>843</v>
-      </c>
-      <c r="C112" t="s">
-        <v>181</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>844</v>
-      </c>
       <c r="E112" t="s">
         <v>181</v>
       </c>
       <c r="F112" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>843</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>844</v>
+      </c>
+      <c r="C113" t="s">
+        <v>181</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>845</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="C113" t="s">
-        <v>181</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>847</v>
-      </c>
       <c r="E113" t="s">
         <v>181</v>
       </c>
       <c r="F113" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>846</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="C114" t="s">
+        <v>181</v>
+      </c>
+      <c r="D114" s="9" t="s">
         <v>848</v>
       </c>
-      <c r="B114" s="10" t="s">
-        <v>849</v>
-      </c>
-      <c r="C114" t="s">
-        <v>181</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>850</v>
-      </c>
       <c r="E114" t="s">
         <v>181</v>
       </c>
       <c r="F114" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>849</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="C115" t="s">
+        <v>181</v>
+      </c>
+      <c r="D115" s="9" t="s">
         <v>851</v>
       </c>
-      <c r="B115" s="10" t="s">
-        <v>852</v>
-      </c>
-      <c r="C115" t="s">
-        <v>181</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>853</v>
-      </c>
       <c r="E115" t="s">
         <v>181</v>
       </c>
       <c r="F115" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>852</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="C116" t="s">
+        <v>181</v>
+      </c>
+      <c r="D116" s="9" t="s">
         <v>854</v>
       </c>
-      <c r="B116" s="10" t="s">
-        <v>855</v>
-      </c>
-      <c r="C116" t="s">
-        <v>181</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>856</v>
-      </c>
       <c r="E116" t="s">
         <v>181</v>
       </c>
       <c r="F116" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>855</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="C117" t="s">
+        <v>181</v>
+      </c>
+      <c r="D117" s="9" t="s">
         <v>857</v>
       </c>
-      <c r="B117" s="10" t="s">
-        <v>858</v>
-      </c>
-      <c r="C117" t="s">
-        <v>181</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>859</v>
-      </c>
       <c r="E117" t="s">
         <v>181</v>
       </c>
       <c r="F117" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>858</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="C118" t="s">
+        <v>181</v>
+      </c>
+      <c r="D118" s="9" t="s">
         <v>860</v>
       </c>
-      <c r="B118" s="10" t="s">
-        <v>861</v>
-      </c>
-      <c r="C118" t="s">
-        <v>181</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>862</v>
-      </c>
       <c r="E118" t="s">
         <v>181</v>
       </c>
       <c r="F118" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>861</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="C119" t="s">
+        <v>181</v>
+      </c>
+      <c r="D119" s="9" t="s">
         <v>863</v>
       </c>
-      <c r="B119" s="10" t="s">
-        <v>864</v>
-      </c>
-      <c r="C119" t="s">
-        <v>181</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>865</v>
-      </c>
       <c r="E119" t="s">
         <v>181</v>
       </c>
       <c r="F119" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>864</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="C120" t="s">
+        <v>181</v>
+      </c>
+      <c r="D120" s="9" t="s">
         <v>866</v>
       </c>
-      <c r="B120" s="10" t="s">
-        <v>867</v>
-      </c>
-      <c r="C120" t="s">
-        <v>181</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>868</v>
-      </c>
       <c r="E120" t="s">
         <v>181</v>
       </c>
       <c r="F120" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>867</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="C121" t="s">
+        <v>181</v>
+      </c>
+      <c r="D121" s="9" t="s">
         <v>869</v>
       </c>
-      <c r="B121" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="C121" t="s">
-        <v>181</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>871</v>
-      </c>
       <c r="E121" t="s">
         <v>181</v>
       </c>
       <c r="F121" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>870</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>871</v>
+      </c>
+      <c r="C122" t="s">
+        <v>181</v>
+      </c>
+      <c r="D122" s="9" t="s">
         <v>872</v>
       </c>
-      <c r="B122" s="10" t="s">
-        <v>873</v>
-      </c>
-      <c r="C122" t="s">
-        <v>181</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>874</v>
-      </c>
       <c r="E122" t="s">
         <v>181</v>
       </c>
       <c r="F122" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>873</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="C123" t="s">
+        <v>181</v>
+      </c>
+      <c r="D123" s="9" t="s">
         <v>875</v>
       </c>
-      <c r="B123" s="10" t="s">
-        <v>876</v>
-      </c>
-      <c r="C123" t="s">
-        <v>181</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>877</v>
-      </c>
       <c r="E123" t="s">
         <v>181</v>
       </c>
       <c r="F123" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>876</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="C124" t="s">
+        <v>181</v>
+      </c>
+      <c r="D124" s="9" t="s">
         <v>878</v>
       </c>
-      <c r="B124" s="10" t="s">
-        <v>879</v>
-      </c>
-      <c r="C124" t="s">
-        <v>181</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>880</v>
-      </c>
       <c r="E124" t="s">
         <v>181</v>
       </c>
       <c r="F124" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>879</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="C125" t="s">
+        <v>181</v>
+      </c>
+      <c r="D125" s="9" t="s">
         <v>881</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>882</v>
-      </c>
-      <c r="C125" t="s">
-        <v>181</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>883</v>
-      </c>
       <c r="E125" t="s">
         <v>181</v>
       </c>
       <c r="F125" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>882</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="C126" t="s">
+        <v>181</v>
+      </c>
+      <c r="D126" s="9" t="s">
         <v>884</v>
       </c>
-      <c r="B126" s="10" t="s">
-        <v>885</v>
-      </c>
-      <c r="C126" t="s">
-        <v>181</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>886</v>
-      </c>
       <c r="E126" t="s">
         <v>181</v>
       </c>
       <c r="F126" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>885</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>886</v>
+      </c>
+      <c r="C127" t="s">
+        <v>181</v>
+      </c>
+      <c r="D127" s="9" t="s">
         <v>887</v>
       </c>
-      <c r="B127" s="10" t="s">
-        <v>888</v>
-      </c>
-      <c r="C127" t="s">
-        <v>181</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>889</v>
-      </c>
       <c r="E127" t="s">
         <v>181</v>
       </c>
       <c r="F127" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>888</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="C128" t="s">
+        <v>181</v>
+      </c>
+      <c r="D128" s="9" t="s">
         <v>890</v>
       </c>
-      <c r="B128" s="10" t="s">
-        <v>891</v>
-      </c>
-      <c r="C128" t="s">
-        <v>181</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>892</v>
-      </c>
       <c r="E128" t="s">
         <v>181</v>
       </c>
       <c r="F128" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>891</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="C129" t="s">
+        <v>181</v>
+      </c>
+      <c r="D129" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="B129" s="10" t="s">
-        <v>894</v>
-      </c>
-      <c r="C129" t="s">
-        <v>181</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>895</v>
-      </c>
       <c r="E129" t="s">
         <v>181</v>
       </c>
       <c r="F129" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>894</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="C130" t="s">
+        <v>181</v>
+      </c>
+      <c r="D130" s="9" t="s">
         <v>896</v>
       </c>
-      <c r="B130" s="10" t="s">
-        <v>897</v>
-      </c>
-      <c r="C130" t="s">
-        <v>181</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>898</v>
-      </c>
       <c r="E130" t="s">
         <v>181</v>
       </c>
       <c r="F130" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>897</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="C131" t="s">
+        <v>181</v>
+      </c>
+      <c r="D131" s="9" t="s">
         <v>899</v>
       </c>
-      <c r="B131" s="10" t="s">
-        <v>900</v>
-      </c>
-      <c r="C131" t="s">
-        <v>181</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>901</v>
-      </c>
       <c r="E131" t="s">
         <v>181</v>
       </c>
       <c r="F131" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>900</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="C132" t="s">
+        <v>181</v>
+      </c>
+      <c r="D132" s="9" t="s">
         <v>902</v>
       </c>
-      <c r="B132" s="10" t="s">
-        <v>903</v>
-      </c>
-      <c r="C132" t="s">
-        <v>181</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>904</v>
-      </c>
       <c r="E132" t="s">
         <v>181</v>
       </c>
       <c r="F132" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B133" s="10"/>
       <c r="C133" t="s">
@@ -8439,12 +8449,12 @@
         <v>181</v>
       </c>
       <c r="F133" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B134" s="10"/>
       <c r="C134" t="s">
@@ -8454,12 +8464,12 @@
         <v>181</v>
       </c>
       <c r="F134" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B135" s="10"/>
       <c r="C135" t="s">
@@ -8469,12 +8479,12 @@
         <v>181</v>
       </c>
       <c r="F135" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B136" s="10"/>
       <c r="C136" t="s">
@@ -8484,12 +8494,12 @@
         <v>181</v>
       </c>
       <c r="F136" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B137" s="10"/>
       <c r="C137" t="s">
@@ -8499,12 +8509,12 @@
         <v>181</v>
       </c>
       <c r="F137" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B138" s="10"/>
       <c r="C138" t="s">
@@ -8514,7 +8524,7 @@
         <v>181</v>
       </c>
       <c r="F138" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -8541,7 +8551,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -8557,7 +8567,7 @@
         <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -8569,7 +8579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -8648,7 +8658,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>73</v>
@@ -8712,7 +8722,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
@@ -8784,11 +8794,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
@@ -8797,6 +8802,11 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/integration_test_files/simple_1.xlsx
+++ b/tests/integration_test_files/simple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91C4EB0-FDB6-1947-AB9B-BF087F86C98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EE9203-B3DD-054C-AFE8-CF5FCD769A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -197,9 +197,6 @@
     <t>ClinicalTrials.gov</t>
   </si>
   <si>
-    <t>Study Registry</t>
-  </si>
-  <si>
     <t>NCT12345678</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
   </si>
   <si>
     <t>ACME Pharma</t>
-  </si>
-  <si>
-    <t>Clinical Study Sponsor</t>
   </si>
   <si>
     <t>AP1234</t>
@@ -2813,6 +2807,12 @@
   </si>
   <si>
     <t>Trial Secondary Objective</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Company</t>
+  </si>
+  <si>
+    <t>Clinical Study Registry</t>
   </si>
 </sst>
 </file>
@@ -2957,6 +2957,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2966,9 +2969,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3528,170 +3528,170 @@
         <v>29</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>195</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>199</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>200</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="H2" t="s">
         <v>203</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>204</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>205</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>206</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>207</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>208</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>209</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>210</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>211</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>179</v>
+      </c>
+      <c r="R2" t="s">
         <v>212</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="26" t="s">
         <v>213</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>181</v>
-      </c>
-      <c r="R2" t="s">
-        <v>214</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" t="s">
         <v>216</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H3" t="s">
         <v>217</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J3" t="s">
         <v>218</v>
       </c>
-      <c r="D3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="G3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>219</v>
       </c>
-      <c r="I3" t="s">
-        <v>206</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>220</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>208</v>
+      </c>
+      <c r="N3" t="s">
+        <v>209</v>
+      </c>
+      <c r="O3" t="s">
+        <v>210</v>
+      </c>
+      <c r="P3" t="s">
         <v>221</v>
       </c>
-      <c r="L3" t="s">
-        <v>222</v>
-      </c>
-      <c r="M3" t="s">
-        <v>210</v>
-      </c>
-      <c r="N3" t="s">
-        <v>211</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>179</v>
+      </c>
+      <c r="R3" t="s">
         <v>212</v>
       </c>
-      <c r="P3" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>181</v>
-      </c>
-      <c r="R3" t="s">
-        <v>214</v>
-      </c>
       <c r="S3" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3725,35 +3725,35 @@
         <v>29</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" t="s">
         <v>224</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="C2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" t="s">
         <v>228</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="C3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3782,7 +3782,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>0</v>
@@ -3794,24 +3794,24 @@
         <v>29</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>234</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3820,29 +3820,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" t="s">
         <v>240</v>
-      </c>
-      <c r="B3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G3" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3854,7 +3854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -3874,85 +3874,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>253</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>918</v>
+        <v>260</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>916</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -3961,16 +3961,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3979,16 +3979,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3997,16 +3997,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4015,16 +4015,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4033,16 +4033,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -4051,16 +4051,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4069,16 +4069,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -4087,16 +4087,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -4105,16 +4105,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4123,16 +4123,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -4440,113 +4440,113 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>908</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>910</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>292</v>
-      </c>
       <c r="J1" s="19" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" t="s">
         <v>293</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" t="s">
         <v>294</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>295</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I2" t="s">
         <v>296</v>
       </c>
-      <c r="F2" t="s">
-        <v>297</v>
-      </c>
-      <c r="G2" t="s">
-        <v>198</v>
-      </c>
-      <c r="H2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I2" t="s">
-        <v>298</v>
-      </c>
       <c r="J2" s="10" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D3" s="10"/>
       <c r="I3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D4" s="10"/>
       <c r="I4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" t="s">
         <v>301</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>302</v>
       </c>
-      <c r="C5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I5" t="s">
         <v>303</v>
       </c>
-      <c r="F5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G5" t="s">
-        <v>216</v>
-      </c>
-      <c r="H5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I5" t="s">
-        <v>305</v>
-      </c>
       <c r="J5" s="10" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
   </sheetData>
@@ -4575,65 +4575,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>309</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" t="s">
         <v>312</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>313</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>314</v>
-      </c>
-      <c r="D2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" t="s">
         <v>317</v>
       </c>
-      <c r="B3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>318</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" t="s">
         <v>319</v>
-      </c>
-      <c r="E3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G3" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4666,137 +4666,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>326</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>332</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -4822,104 +4822,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -4942,18 +4942,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" t="s">
         <v>361</v>
-      </c>
-      <c r="B2" t="s">
-        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -4982,707 +4982,707 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="21" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="21" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="21" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="21" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="21" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="21" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="21" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="21" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="21" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="21" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="21" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="21" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="21" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="21" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="21" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="21" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="21" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="21" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="21" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -5694,7 +5694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -5744,36 +5744,36 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
+        <v>918</v>
+      </c>
+      <c r="F2" t="s">
         <v>52</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>53</v>
-      </c>
-      <c r="G2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
+        <v>911</v>
+      </c>
+      <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" t="s">
-        <v>913</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>917</v>
+      </c>
+      <c r="F3" t="s">
         <v>57</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>58</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -5802,2729 +5802,2729 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>508</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="C3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="C3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>516</v>
-      </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="C4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="C4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>519</v>
-      </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="C5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="C5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>522</v>
-      </c>
       <c r="E5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="C6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>525</v>
-      </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>524</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="C7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>528</v>
-      </c>
       <c r="E7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>527</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="C8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="C8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>531</v>
-      </c>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="C9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="C9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>534</v>
-      </c>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>533</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="C10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="C10" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>537</v>
-      </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>536</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="C11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>540</v>
-      </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>539</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="C12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>543</v>
-      </c>
       <c r="E12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>542</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="C13" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>546</v>
-      </c>
       <c r="E13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="C14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>549</v>
-      </c>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>548</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="C15" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>552</v>
-      </c>
       <c r="E15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>551</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="C16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="C16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>555</v>
-      </c>
       <c r="E16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F16" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>554</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="C17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="C17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>558</v>
-      </c>
       <c r="E17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F17" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>557</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="C18" t="s">
-        <v>181</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>561</v>
-      </c>
       <c r="E18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F18" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>560</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="C19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>564</v>
-      </c>
       <c r="E19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>563</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="C20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="C20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>567</v>
-      </c>
       <c r="E20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>566</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="C21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="C21" t="s">
-        <v>181</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>570</v>
-      </c>
       <c r="E21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>569</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="C22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="C22" t="s">
-        <v>181</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>573</v>
-      </c>
       <c r="E22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>572</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="C23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="C23" t="s">
-        <v>181</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>576</v>
-      </c>
       <c r="E23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F23" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>575</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="C24" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>579</v>
-      </c>
       <c r="E24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>578</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="C25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="C25" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>582</v>
-      </c>
       <c r="E25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>581</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="C26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="C26" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>585</v>
-      </c>
       <c r="E26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F26" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>584</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="C27" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>588</v>
-      </c>
       <c r="E27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F27" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>587</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="C28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="C28" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>591</v>
-      </c>
       <c r="E28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F28" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>590</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="C29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="C29" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>594</v>
-      </c>
       <c r="E29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>593</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="C30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="C30" t="s">
-        <v>181</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>597</v>
-      </c>
       <c r="E30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F30" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>596</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="C31" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>599</v>
-      </c>
-      <c r="C31" t="s">
-        <v>181</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>600</v>
-      </c>
       <c r="E31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F31" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>599</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="C32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>602</v>
-      </c>
-      <c r="C32" t="s">
-        <v>181</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>603</v>
-      </c>
       <c r="E32" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F32" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>602</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C33" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="C33" t="s">
-        <v>181</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>606</v>
-      </c>
       <c r="E33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>605</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="C34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>608</v>
-      </c>
-      <c r="C34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>609</v>
-      </c>
       <c r="E34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F34" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>608</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="C35" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>611</v>
-      </c>
-      <c r="C35" t="s">
-        <v>181</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>612</v>
-      </c>
       <c r="E35" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F35" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>611</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="C36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>614</v>
-      </c>
-      <c r="C36" t="s">
-        <v>181</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>615</v>
-      </c>
       <c r="E36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F36" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>614</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="C37" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>617</v>
-      </c>
-      <c r="C37" t="s">
-        <v>181</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>618</v>
-      </c>
       <c r="E37" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F37" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>617</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="C38" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>620</v>
-      </c>
-      <c r="C38" t="s">
-        <v>181</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>621</v>
-      </c>
       <c r="E38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F38" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>620</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="C39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="C39" t="s">
-        <v>181</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>624</v>
-      </c>
       <c r="E39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F39" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>623</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="C40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="C40" t="s">
-        <v>181</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>627</v>
-      </c>
       <c r="E40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F40" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>626</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="C41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>629</v>
-      </c>
-      <c r="C41" t="s">
-        <v>181</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>630</v>
-      </c>
       <c r="E41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F41" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>629</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="C42" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>632</v>
-      </c>
-      <c r="C42" t="s">
-        <v>181</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>633</v>
-      </c>
       <c r="E42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F42" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>632</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="C43" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>635</v>
-      </c>
-      <c r="C43" t="s">
-        <v>181</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>636</v>
-      </c>
       <c r="E43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F43" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>635</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="C44" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="C44" t="s">
-        <v>181</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>639</v>
-      </c>
       <c r="E44" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F44" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>638</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="C45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>641</v>
-      </c>
-      <c r="C45" t="s">
-        <v>181</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>642</v>
-      </c>
       <c r="E45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F45" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>641</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="C46" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="C46" t="s">
-        <v>181</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>645</v>
-      </c>
       <c r="E46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F46" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>644</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C47" t="s">
+        <v>179</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="C47" t="s">
-        <v>181</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>648</v>
-      </c>
       <c r="E47" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F47" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>647</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="C48" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>650</v>
-      </c>
-      <c r="C48" t="s">
-        <v>181</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>651</v>
-      </c>
       <c r="E48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F48" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>650</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="C49" t="s">
+        <v>179</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="C49" t="s">
-        <v>181</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>654</v>
-      </c>
       <c r="E49" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F49" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>653</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="C50" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="C50" t="s">
-        <v>181</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>657</v>
-      </c>
       <c r="E50" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F50" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>656</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="C51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>659</v>
-      </c>
-      <c r="C51" t="s">
-        <v>181</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>660</v>
-      </c>
       <c r="E51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F51" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>659</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="C52" t="s">
+        <v>179</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>662</v>
-      </c>
-      <c r="C52" t="s">
-        <v>181</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>663</v>
-      </c>
       <c r="E52" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F52" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>662</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="C53" t="s">
+        <v>179</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>665</v>
-      </c>
-      <c r="C53" t="s">
-        <v>181</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>666</v>
-      </c>
       <c r="E53" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F53" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>665</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="C54" t="s">
+        <v>179</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="C54" t="s">
-        <v>181</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>669</v>
-      </c>
       <c r="E54" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F54" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>668</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="C55" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>671</v>
-      </c>
-      <c r="C55" t="s">
-        <v>181</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>672</v>
-      </c>
       <c r="E55" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F55" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>671</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="C56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="C56" t="s">
-        <v>181</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>675</v>
-      </c>
       <c r="E56" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F56" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>674</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="C57" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>677</v>
-      </c>
-      <c r="C57" t="s">
-        <v>181</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>678</v>
-      </c>
       <c r="E57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F57" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>677</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="C58" t="s">
+        <v>179</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C58" t="s">
-        <v>181</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>681</v>
-      </c>
       <c r="E58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F58" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>680</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="C59" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>683</v>
-      </c>
-      <c r="C59" t="s">
-        <v>181</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>684</v>
-      </c>
       <c r="E59" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F59" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>683</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="C60" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>686</v>
-      </c>
-      <c r="C60" t="s">
-        <v>181</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>687</v>
-      </c>
       <c r="E60" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F60" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>686</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="C61" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="C61" t="s">
-        <v>181</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>690</v>
-      </c>
       <c r="E61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F61" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>689</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="C62" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="C62" t="s">
-        <v>181</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>693</v>
-      </c>
       <c r="E62" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F62" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>692</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="C63" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="C63" t="s">
-        <v>181</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>696</v>
-      </c>
       <c r="E63" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F63" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>695</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="C64" t="s">
+        <v>179</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>698</v>
-      </c>
-      <c r="C64" t="s">
-        <v>181</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>699</v>
-      </c>
       <c r="E64" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>698</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="C65" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="C65" t="s">
-        <v>181</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>702</v>
-      </c>
       <c r="E65" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F65" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>701</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="C66" t="s">
+        <v>179</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="C66" t="s">
-        <v>181</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>705</v>
-      </c>
       <c r="E66" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F66" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>704</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="C67" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>707</v>
-      </c>
-      <c r="C67" t="s">
-        <v>181</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>708</v>
-      </c>
       <c r="E67" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F67" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>707</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="C68" t="s">
+        <v>179</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>710</v>
-      </c>
-      <c r="C68" t="s">
-        <v>181</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>711</v>
-      </c>
       <c r="E68" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F68" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>710</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="C69" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>713</v>
-      </c>
-      <c r="C69" t="s">
-        <v>181</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>714</v>
-      </c>
       <c r="E69" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F69" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>713</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="C70" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>716</v>
-      </c>
-      <c r="C70" t="s">
-        <v>181</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>717</v>
-      </c>
       <c r="E70" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F70" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>716</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="C71" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>719</v>
-      </c>
-      <c r="C71" t="s">
-        <v>181</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>720</v>
-      </c>
       <c r="E71" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F71" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>719</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="C72" t="s">
+        <v>179</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>722</v>
-      </c>
-      <c r="C72" t="s">
-        <v>181</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>723</v>
-      </c>
       <c r="E72" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F72" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>722</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="C73" t="s">
+        <v>179</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>725</v>
-      </c>
-      <c r="C73" t="s">
-        <v>181</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>726</v>
-      </c>
       <c r="E73" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F73" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>725</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="C74" t="s">
+        <v>179</v>
+      </c>
+      <c r="D74" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>728</v>
-      </c>
-      <c r="C74" t="s">
-        <v>181</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>729</v>
-      </c>
       <c r="E74" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F74" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>728</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="C75" t="s">
+        <v>179</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>731</v>
-      </c>
-      <c r="C75" t="s">
-        <v>181</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>732</v>
-      </c>
       <c r="E75" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F75" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>731</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="C76" t="s">
+        <v>179</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>734</v>
-      </c>
-      <c r="C76" t="s">
-        <v>181</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>735</v>
-      </c>
       <c r="E76" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F76" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>734</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="C77" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="C77" t="s">
-        <v>181</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>738</v>
-      </c>
       <c r="E77" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F77" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>737</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="C78" t="s">
+        <v>179</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>740</v>
-      </c>
-      <c r="C78" t="s">
-        <v>181</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>741</v>
-      </c>
       <c r="E78" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F78" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>740</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="C79" t="s">
+        <v>179</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>743</v>
-      </c>
-      <c r="C79" t="s">
-        <v>181</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>744</v>
-      </c>
       <c r="E79" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F79" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>743</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="C80" t="s">
+        <v>179</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>746</v>
-      </c>
-      <c r="C80" t="s">
-        <v>181</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>747</v>
-      </c>
       <c r="E80" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F80" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>746</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="C81" t="s">
+        <v>179</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>749</v>
-      </c>
-      <c r="C81" t="s">
-        <v>181</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>750</v>
-      </c>
       <c r="E81" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F81" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>749</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="C82" t="s">
+        <v>179</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>752</v>
-      </c>
-      <c r="C82" t="s">
-        <v>181</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>753</v>
-      </c>
       <c r="E82" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F82" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>752</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="C83" t="s">
+        <v>179</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>755</v>
-      </c>
-      <c r="C83" t="s">
-        <v>181</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>756</v>
-      </c>
       <c r="E83" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F83" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>755</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="C84" t="s">
+        <v>179</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>757</v>
       </c>
-      <c r="B84" s="10" t="s">
-        <v>758</v>
-      </c>
-      <c r="C84" t="s">
-        <v>181</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>759</v>
-      </c>
       <c r="E84" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F84" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>758</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="C85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>760</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>761</v>
-      </c>
-      <c r="C85" t="s">
-        <v>181</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>762</v>
-      </c>
       <c r="E85" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F85" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>761</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="C86" t="s">
+        <v>179</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>764</v>
-      </c>
-      <c r="C86" t="s">
-        <v>181</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>765</v>
-      </c>
       <c r="E86" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F86" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>764</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="C87" t="s">
+        <v>179</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>766</v>
       </c>
-      <c r="B87" s="10" t="s">
-        <v>767</v>
-      </c>
-      <c r="C87" t="s">
-        <v>181</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>768</v>
-      </c>
       <c r="E87" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F87" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>767</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="C88" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>770</v>
-      </c>
-      <c r="C88" t="s">
-        <v>181</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>771</v>
-      </c>
       <c r="E88" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F88" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>770</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="C89" t="s">
+        <v>179</v>
+      </c>
+      <c r="D89" s="9" t="s">
         <v>772</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>773</v>
-      </c>
-      <c r="C89" t="s">
-        <v>181</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>774</v>
-      </c>
       <c r="E89" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F89" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>773</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="C90" t="s">
+        <v>179</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>776</v>
-      </c>
-      <c r="C90" t="s">
-        <v>181</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>777</v>
-      </c>
       <c r="E90" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F90" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>778</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="C92" t="s">
+        <v>179</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>780</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>781</v>
-      </c>
-      <c r="C92" t="s">
-        <v>181</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>782</v>
-      </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>781</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="C93" t="s">
+        <v>179</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>783</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>784</v>
-      </c>
-      <c r="C93" t="s">
-        <v>181</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>785</v>
-      </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>784</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="C94" t="s">
+        <v>179</v>
+      </c>
+      <c r="D94" s="9" t="s">
         <v>786</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>787</v>
-      </c>
-      <c r="C94" t="s">
-        <v>181</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>788</v>
-      </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>787</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="C95" t="s">
+        <v>179</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>790</v>
-      </c>
-      <c r="C95" t="s">
-        <v>181</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>791</v>
-      </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F95" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>790</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="C96" t="s">
+        <v>179</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>792</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>793</v>
-      </c>
-      <c r="C96" t="s">
-        <v>181</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>794</v>
-      </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F96" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>793</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="C97" t="s">
+        <v>179</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>795</v>
       </c>
-      <c r="B97" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="C97" t="s">
-        <v>181</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>797</v>
-      </c>
       <c r="E97" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F97" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>796</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="C98" t="s">
+        <v>179</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>799</v>
-      </c>
-      <c r="C98" t="s">
-        <v>181</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>800</v>
-      </c>
       <c r="E98" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F98" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>799</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="C99" t="s">
+        <v>179</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>801</v>
       </c>
-      <c r="B99" s="10" t="s">
-        <v>802</v>
-      </c>
-      <c r="C99" t="s">
-        <v>181</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>803</v>
-      </c>
       <c r="E99" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F99" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>802</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="C100" t="s">
+        <v>179</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>805</v>
-      </c>
-      <c r="C100" t="s">
-        <v>181</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>806</v>
-      </c>
       <c r="E100" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F100" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>805</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="C101" t="s">
+        <v>179</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>807</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>808</v>
-      </c>
-      <c r="C101" t="s">
-        <v>181</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>809</v>
-      </c>
       <c r="E101" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F101" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>808</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="C102" t="s">
+        <v>179</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>810</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>811</v>
-      </c>
-      <c r="C102" t="s">
-        <v>181</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>812</v>
-      </c>
       <c r="E102" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F102" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>811</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="C103" t="s">
+        <v>179</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>813</v>
       </c>
-      <c r="B103" s="10" t="s">
-        <v>814</v>
-      </c>
-      <c r="C103" t="s">
-        <v>181</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>815</v>
-      </c>
       <c r="E103" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F103" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>814</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>815</v>
+      </c>
+      <c r="C104" t="s">
+        <v>179</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>816</v>
       </c>
-      <c r="B104" s="10" t="s">
-        <v>817</v>
-      </c>
-      <c r="C104" t="s">
-        <v>181</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>818</v>
-      </c>
       <c r="E104" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F104" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>817</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="C105" t="s">
+        <v>179</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>819</v>
       </c>
-      <c r="B105" s="10" t="s">
-        <v>820</v>
-      </c>
-      <c r="C105" t="s">
-        <v>181</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>821</v>
-      </c>
       <c r="E105" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F105" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>820</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="C106" t="s">
+        <v>179</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>822</v>
       </c>
-      <c r="B106" s="10" t="s">
-        <v>823</v>
-      </c>
-      <c r="C106" t="s">
-        <v>181</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>824</v>
-      </c>
       <c r="E106" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F106" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>823</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="C107" t="s">
+        <v>179</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>825</v>
       </c>
-      <c r="B107" s="10" t="s">
-        <v>826</v>
-      </c>
-      <c r="C107" t="s">
-        <v>181</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>827</v>
-      </c>
       <c r="E107" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F107" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>826</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="C108" t="s">
+        <v>179</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>828</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>829</v>
-      </c>
-      <c r="C108" t="s">
-        <v>181</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>830</v>
-      </c>
       <c r="E108" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F108" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>829</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="C109" t="s">
+        <v>179</v>
+      </c>
+      <c r="D109" s="9" t="s">
         <v>831</v>
       </c>
-      <c r="B109" s="10" t="s">
-        <v>832</v>
-      </c>
-      <c r="C109" t="s">
-        <v>181</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>833</v>
-      </c>
       <c r="E109" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F109" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>832</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="C110" t="s">
+        <v>179</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>834</v>
       </c>
-      <c r="B110" s="10" t="s">
-        <v>835</v>
-      </c>
-      <c r="C110" t="s">
-        <v>181</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>836</v>
-      </c>
       <c r="E110" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F110" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>835</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        